--- a/objects.xlsx
+++ b/objects.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E2F83C-23A0-4D7E-80F4-13CA5BDDAD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDE4D36-78D4-4975-88E9-4BD9206497B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
     <sheet name="Items" sheetId="2" r:id="rId2"/>
     <sheet name="Abilities" sheetId="10" r:id="rId3"/>
-    <sheet name="Projectiles" sheetId="9" r:id="rId4"/>
-    <sheet name="Features" sheetId="8" r:id="rId5"/>
-    <sheet name="Conditions" sheetId="5" r:id="rId6"/>
-    <sheet name="Effects" sheetId="6" r:id="rId7"/>
-    <sheet name="XP Chart" sheetId="7" r:id="rId8"/>
-    <sheet name="Keys-Locks" sheetId="4" r:id="rId9"/>
-    <sheet name="Statuses" sheetId="3" r:id="rId10"/>
+    <sheet name="HeroTree" sheetId="11" r:id="rId4"/>
+    <sheet name="Projectiles" sheetId="9" r:id="rId5"/>
+    <sheet name="Features" sheetId="8" r:id="rId6"/>
+    <sheet name="Conditions" sheetId="5" r:id="rId7"/>
+    <sheet name="Effects" sheetId="6" r:id="rId8"/>
+    <sheet name="XP Chart" sheetId="7" r:id="rId9"/>
+    <sheet name="Keys-Locks" sheetId="4" r:id="rId10"/>
+    <sheet name="Statuses" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="739">
   <si>
     <t>ID</t>
   </si>
@@ -2083,6 +2084,183 @@
   </si>
   <si>
     <t>Star Piece</t>
+  </si>
+  <si>
+    <t>Hero Tree</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>PII</t>
+  </si>
+  <si>
+    <t>AII</t>
+  </si>
+  <si>
+    <t>SII</t>
+  </si>
+  <si>
+    <t>DII</t>
+  </si>
+  <si>
+    <t>FII</t>
+  </si>
+  <si>
+    <t>Passive I</t>
+  </si>
+  <si>
+    <t>A Ability I</t>
+  </si>
+  <si>
+    <t>S Ability I</t>
+  </si>
+  <si>
+    <t>D Ability I</t>
+  </si>
+  <si>
+    <t>F Ability I</t>
+  </si>
+  <si>
+    <t>Passive II</t>
+  </si>
+  <si>
+    <t>A Ability II</t>
+  </si>
+  <si>
+    <t>S Ability II</t>
+  </si>
+  <si>
+    <t>D Ability II</t>
+  </si>
+  <si>
+    <t>F Ability II</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Unlocks passive ability</t>
+  </si>
+  <si>
+    <t>Unlocks A ability</t>
+  </si>
+  <si>
+    <t>Unlocks S ability</t>
+  </si>
+  <si>
+    <t>Unlocks D ability</t>
+  </si>
+  <si>
+    <t>Unlocks F ability</t>
+  </si>
+  <si>
+    <t>Upgrades passive ability</t>
+  </si>
+  <si>
+    <t>Upgrades A ability</t>
+  </si>
+  <si>
+    <t>Upgrades S ability</t>
+  </si>
+  <si>
+    <t>Upgrades D ability</t>
+  </si>
+  <si>
+    <t>Upgrades F ability</t>
+  </si>
+  <si>
+    <t>Right Branch</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
+  </si>
+  <si>
+    <t>PI, AI, SI, DI</t>
+  </si>
+  <si>
+    <t>PII, AII, SII, DII</t>
+  </si>
+  <si>
+    <t>Agility I</t>
+  </si>
+  <si>
+    <t>Can play without lock screen</t>
+  </si>
+  <si>
+    <t>Agility +1 (can jump)</t>
+  </si>
+  <si>
+    <t>Speed I</t>
+  </si>
+  <si>
+    <t>AGII</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>SPII</t>
+  </si>
+  <si>
+    <t>Speed II</t>
+  </si>
+  <si>
+    <t>Agility II</t>
+  </si>
+  <si>
+    <t>Agility +1 (can jump higher/farther)</t>
+  </si>
+  <si>
+    <t>Speed +0.4</t>
+  </si>
+  <si>
+    <t>Speed +0.6</t>
+  </si>
+  <si>
+    <t>Left Branch</t>
+  </si>
+  <si>
+    <t>Unlock Screen</t>
+  </si>
+  <si>
+    <t>FOI</t>
+  </si>
+  <si>
+    <t>Follower I</t>
+  </si>
+  <si>
+    <t>Unlock follower</t>
+  </si>
+  <si>
+    <t>Follower II</t>
+  </si>
+  <si>
+    <t>FOII</t>
+  </si>
+  <si>
+    <t>Upgrade follower</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -2976,6 +3154,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2E1DA2-B439-478A-B9E1-948DA404767C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981A228F-2BB3-44AC-82E9-D9BE084DFD89}">
   <dimension ref="B2:F34"/>
   <sheetViews>
@@ -3396,7 +3594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE22176D-CFFA-4A34-AB14-C1369F5F19BF}">
   <dimension ref="A1:Y199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="J129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7137,6 +7335,326 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F6F072-5AA1-4DF6-9E79-0C2773550AE1}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="C4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D4" t="s">
+        <v>691</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" t="s">
+        <v>682</v>
+      </c>
+      <c r="D5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D6" t="s">
+        <v>693</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" t="s">
+        <v>684</v>
+      </c>
+      <c r="D7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" t="s">
+        <v>685</v>
+      </c>
+      <c r="D8" t="s">
+        <v>695</v>
+      </c>
+      <c r="F8" t="s">
+        <v>714</v>
+      </c>
+      <c r="G8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" t="s">
+        <v>686</v>
+      </c>
+      <c r="D9" t="s">
+        <v>696</v>
+      </c>
+      <c r="F9" t="s">
+        <v>685</v>
+      </c>
+      <c r="G9" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" t="s">
+        <v>687</v>
+      </c>
+      <c r="D10" t="s">
+        <v>697</v>
+      </c>
+      <c r="F10" t="s">
+        <v>685</v>
+      </c>
+      <c r="G10" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" t="s">
+        <v>688</v>
+      </c>
+      <c r="D11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F11" t="s">
+        <v>685</v>
+      </c>
+      <c r="G11" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" t="s">
+        <v>689</v>
+      </c>
+      <c r="D12" t="s">
+        <v>699</v>
+      </c>
+      <c r="F12" t="s">
+        <v>685</v>
+      </c>
+      <c r="G12" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" t="s">
+        <v>690</v>
+      </c>
+      <c r="D13" t="s">
+        <v>700</v>
+      </c>
+      <c r="F13" t="s">
+        <v>715</v>
+      </c>
+      <c r="G13" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="C15" t="s">
+        <v>722</v>
+      </c>
+      <c r="D15" t="s">
+        <v>716</v>
+      </c>
+      <c r="G15" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" t="s">
+        <v>721</v>
+      </c>
+      <c r="D16" t="s">
+        <v>719</v>
+      </c>
+      <c r="G16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" t="s">
+        <v>737</v>
+      </c>
+      <c r="D17" t="s">
+        <v>730</v>
+      </c>
+      <c r="F17" t="s">
+        <v>722</v>
+      </c>
+      <c r="G17" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" t="s">
+        <v>738</v>
+      </c>
+      <c r="F18" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" t="s">
+        <v>731</v>
+      </c>
+      <c r="D19" t="s">
+        <v>732</v>
+      </c>
+      <c r="G19" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" t="s">
+        <v>720</v>
+      </c>
+      <c r="D20" t="s">
+        <v>725</v>
+      </c>
+      <c r="F20" t="s">
+        <v>722</v>
+      </c>
+      <c r="G20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" t="s">
+        <v>723</v>
+      </c>
+      <c r="D21" t="s">
+        <v>724</v>
+      </c>
+      <c r="F21" t="s">
+        <v>721</v>
+      </c>
+      <c r="G21" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" t="s">
+        <v>738</v>
+      </c>
+      <c r="F22" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" t="s">
+        <v>738</v>
+      </c>
+      <c r="F23" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" t="s">
+        <v>735</v>
+      </c>
+      <c r="D24" t="s">
+        <v>734</v>
+      </c>
+      <c r="G24" t="s">
+        <v>736</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B15:B24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DAF6DD-D8FA-4653-B50E-0B687056C45B}">
   <dimension ref="A1:J41"/>
   <sheetViews>
@@ -7859,7 +8377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
   <dimension ref="A1:G91"/>
   <sheetViews>
@@ -8829,7 +9347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1FC8B3-9A49-47BD-9EE8-A4129AACB06F}">
   <dimension ref="B2:F6"/>
   <sheetViews>
@@ -8890,7 +9408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385FB665-C74B-44E6-93F0-B362228155AD}">
   <dimension ref="B2:D6"/>
   <sheetViews>
@@ -8934,7 +9452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A114E18-4580-4CF1-BE70-B14A03AAF800}">
   <dimension ref="A1:S110"/>
   <sheetViews>
@@ -14771,24 +15289,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2E1DA2-B439-478A-B9E1-948DA404767C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDE4D36-78D4-4975-88E9-4BD9206497B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2D159D-3DA2-4562-926F-CA63998316F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="742">
   <si>
     <t>ID</t>
   </si>
@@ -2261,6 +2261,15 @@
   </si>
   <si>
     <t>??</t>
+  </si>
+  <si>
+    <t>Unlock Offhand gear slot</t>
+  </si>
+  <si>
+    <t>Unlock accessory gearslots</t>
+  </si>
+  <si>
+    <t>PlayerTree</t>
   </si>
 </sst>
 </file>
@@ -7336,15 +7345,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F6F072-5AA1-4DF6-9E79-0C2773550AE1}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -7549,7 +7558,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" t="s">
         <v>737</v>
@@ -7564,7 +7573,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" t="s">
         <v>738</v>
@@ -7573,7 +7582,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" t="s">
         <v>731</v>
@@ -7585,7 +7594,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" t="s">
         <v>720</v>
@@ -7600,7 +7609,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" t="s">
         <v>723</v>
@@ -7615,7 +7624,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" t="s">
         <v>738</v>
@@ -7624,7 +7633,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" t="s">
         <v>738</v>
@@ -7633,7 +7642,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" t="s">
         <v>735</v>
@@ -7643,6 +7652,21 @@
       </c>
       <c r="G24" t="s">
         <v>736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
   </sheetData>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2D159D-3DA2-4562-926F-CA63998316F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E321BA00-1574-4DEB-A134-B3D45DB49DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Units" sheetId="1" r:id="rId1"/>
-    <sheet name="Items" sheetId="2" r:id="rId2"/>
-    <sheet name="Abilities" sheetId="10" r:id="rId3"/>
-    <sheet name="HeroTree" sheetId="11" r:id="rId4"/>
-    <sheet name="Projectiles" sheetId="9" r:id="rId5"/>
-    <sheet name="Features" sheetId="8" r:id="rId6"/>
-    <sheet name="Conditions" sheetId="5" r:id="rId7"/>
-    <sheet name="Effects" sheetId="6" r:id="rId8"/>
+    <sheet name="Terrains" sheetId="13" r:id="rId1"/>
+    <sheet name="Features" sheetId="8" r:id="rId2"/>
+    <sheet name="Units" sheetId="1" r:id="rId3"/>
+    <sheet name="Statuses" sheetId="3" r:id="rId4"/>
+    <sheet name="Items" sheetId="2" r:id="rId5"/>
+    <sheet name="Projectiles" sheetId="9" r:id="rId6"/>
+    <sheet name="Keys-Locks" sheetId="4" r:id="rId7"/>
+    <sheet name="Abilities" sheetId="10" r:id="rId8"/>
     <sheet name="XP Chart" sheetId="7" r:id="rId9"/>
-    <sheet name="Keys-Locks" sheetId="4" r:id="rId10"/>
-    <sheet name="Statuses" sheetId="3" r:id="rId11"/>
+    <sheet name="HeroTree" sheetId="11" r:id="rId10"/>
+    <sheet name="Conditions" sheetId="5" r:id="rId11"/>
+    <sheet name="Effects" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="800">
   <si>
     <t>ID</t>
   </si>
@@ -2270,6 +2271,180 @@
   </si>
   <si>
     <t>PlayerTree</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Terrains</t>
+  </si>
+  <si>
+    <t>Carpet, light</t>
+  </si>
+  <si>
+    <t>Carpet, gray</t>
+  </si>
+  <si>
+    <t>Carpet, dark</t>
+  </si>
+  <si>
+    <t>Wood Floor, light</t>
+  </si>
+  <si>
+    <t>Wood Floor, brown</t>
+  </si>
+  <si>
+    <t>Wood Floor, dark</t>
+  </si>
+  <si>
+    <t>Tile, red</t>
+  </si>
+  <si>
+    <t>Tile, green</t>
+  </si>
+  <si>
+    <t>Tile, gray</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>fog layer</t>
+  </si>
+  <si>
+    <t>Base Height</t>
+  </si>
+  <si>
+    <t>Grass, light</t>
+  </si>
+  <si>
+    <t>Grass, green</t>
+  </si>
+  <si>
+    <t>Grass, dark</t>
+  </si>
+  <si>
+    <t>Grass, dead</t>
+  </si>
+  <si>
+    <t>Dirt, light</t>
+  </si>
+  <si>
+    <t>Dirt, gray</t>
+  </si>
+  <si>
+    <t>Dirt, dark</t>
+  </si>
+  <si>
+    <t>Grass, line left</t>
+  </si>
+  <si>
+    <t>Grass, line up</t>
+  </si>
+  <si>
+    <t>Road1</t>
+  </si>
+  <si>
+    <t>Road2</t>
+  </si>
+  <si>
+    <t>Road3</t>
+  </si>
+  <si>
+    <t>Road, white up</t>
+  </si>
+  <si>
+    <t>Road, white left</t>
+  </si>
+  <si>
+    <t>Road, yellow up</t>
+  </si>
+  <si>
+    <t>Road, yellow left</t>
+  </si>
+  <si>
+    <t>Road, double up</t>
+  </si>
+  <si>
+    <t>Road, double left</t>
+  </si>
+  <si>
+    <t>Brick, blue</t>
+  </si>
+  <si>
+    <t>Brick, white</t>
+  </si>
+  <si>
+    <t>Brick, yellow</t>
+  </si>
+  <si>
+    <t>Brick, pink</t>
+  </si>
+  <si>
+    <t>Brick, red</t>
+  </si>
+  <si>
+    <t>Brick, gray</t>
+  </si>
+  <si>
+    <t>Brick, green</t>
+  </si>
+  <si>
+    <t>Stair, green, up</t>
+  </si>
+  <si>
+    <t>Stair, green, down</t>
+  </si>
+  <si>
+    <t>Stair, green, left</t>
+  </si>
+  <si>
+    <t>Stair, green, right</t>
+  </si>
+  <si>
+    <t>Stair, gray, up</t>
+  </si>
+  <si>
+    <t>Stair, gray, down</t>
+  </si>
+  <si>
+    <t>Stair, gray, left</t>
+  </si>
+  <si>
+    <t>Stair, gray, right</t>
+  </si>
+  <si>
+    <t>Stair, white, right</t>
+  </si>
+  <si>
+    <t>Stair, white, left</t>
+  </si>
+  <si>
+    <t>Stair, white, down</t>
+  </si>
+  <si>
+    <t>Stair, white, up</t>
+  </si>
+  <si>
+    <t>Stair, red, up</t>
+  </si>
+  <si>
+    <t>Stair, red, down</t>
+  </si>
+  <si>
+    <t>Stair, red, left</t>
+  </si>
+  <si>
+    <t>Stair, red, right</t>
+  </si>
+  <si>
+    <t>1-3 in grid</t>
+  </si>
+  <si>
+    <t>Stairs</t>
+  </si>
+  <si>
+    <t>Table, wooden</t>
   </si>
 </sst>
 </file>
@@ -2669,6 +2844,1989 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF2113E-D79E-4CB9-ADC9-BF3629B5384A}">
+  <dimension ref="A1:E71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="7" max="7" width="78.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>744</v>
+      </c>
+      <c r="D7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>151</v>
+      </c>
+      <c r="C17" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>154</v>
+      </c>
+      <c r="C20" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>161</v>
+      </c>
+      <c r="C23" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>162</v>
+      </c>
+      <c r="C24" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>163</v>
+      </c>
+      <c r="C25" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>172</v>
+      </c>
+      <c r="C27" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>173</v>
+      </c>
+      <c r="C28" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>174</v>
+      </c>
+      <c r="C29" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>175</v>
+      </c>
+      <c r="C30" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>176</v>
+      </c>
+      <c r="C31" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>177</v>
+      </c>
+      <c r="C32" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>178</v>
+      </c>
+      <c r="C33" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>179</v>
+      </c>
+      <c r="C34" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>201</v>
+      </c>
+      <c r="C36" t="s">
+        <v>774</v>
+      </c>
+      <c r="D36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>202</v>
+      </c>
+      <c r="C37" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
+        <v>203</v>
+      </c>
+      <c r="C38" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>204</v>
+      </c>
+      <c r="C39" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="4">
+        <v>205</v>
+      </c>
+      <c r="C40" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>206</v>
+      </c>
+      <c r="C41" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
+        <v>207</v>
+      </c>
+      <c r="C42" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="4">
+        <v>301</v>
+      </c>
+      <c r="C45" t="s">
+        <v>785</v>
+      </c>
+      <c r="D45" t="s">
+        <v>798</v>
+      </c>
+      <c r="E45" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="4">
+        <v>302</v>
+      </c>
+      <c r="C46" t="s">
+        <v>786</v>
+      </c>
+      <c r="E46" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
+        <v>303</v>
+      </c>
+      <c r="C47" t="s">
+        <v>787</v>
+      </c>
+      <c r="E47" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
+        <v>304</v>
+      </c>
+      <c r="C48" t="s">
+        <v>788</v>
+      </c>
+      <c r="E48" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="4">
+        <v>305</v>
+      </c>
+      <c r="C49" t="s">
+        <v>781</v>
+      </c>
+      <c r="E49" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
+        <v>306</v>
+      </c>
+      <c r="C50" t="s">
+        <v>782</v>
+      </c>
+      <c r="E50" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>307</v>
+      </c>
+      <c r="C51" t="s">
+        <v>783</v>
+      </c>
+      <c r="E51" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="4">
+        <v>308</v>
+      </c>
+      <c r="C52" t="s">
+        <v>784</v>
+      </c>
+      <c r="E52" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="4">
+        <v>309</v>
+      </c>
+      <c r="C53" t="s">
+        <v>793</v>
+      </c>
+      <c r="E53" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="4">
+        <v>310</v>
+      </c>
+      <c r="C54" t="s">
+        <v>794</v>
+      </c>
+      <c r="E54" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
+        <v>311</v>
+      </c>
+      <c r="C55" t="s">
+        <v>795</v>
+      </c>
+      <c r="E55" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="4">
+        <v>312</v>
+      </c>
+      <c r="C56" t="s">
+        <v>796</v>
+      </c>
+      <c r="E56" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="4">
+        <v>313</v>
+      </c>
+      <c r="C57" t="s">
+        <v>792</v>
+      </c>
+      <c r="E57" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <v>314</v>
+      </c>
+      <c r="C58" t="s">
+        <v>791</v>
+      </c>
+      <c r="E58" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
+        <v>315</v>
+      </c>
+      <c r="C59" t="s">
+        <v>790</v>
+      </c>
+      <c r="E59" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="4">
+        <v>316</v>
+      </c>
+      <c r="C60" t="s">
+        <v>789</v>
+      </c>
+      <c r="E60" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="4">
+        <v>321</v>
+      </c>
+      <c r="C61" t="s">
+        <v>799</v>
+      </c>
+      <c r="D61" t="s">
+        <v>283</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F6F072-5AA1-4DF6-9E79-0C2773550AE1}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="C4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D4" t="s">
+        <v>691</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" t="s">
+        <v>682</v>
+      </c>
+      <c r="D5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D6" t="s">
+        <v>693</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" t="s">
+        <v>684</v>
+      </c>
+      <c r="D7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" t="s">
+        <v>685</v>
+      </c>
+      <c r="D8" t="s">
+        <v>695</v>
+      </c>
+      <c r="F8" t="s">
+        <v>714</v>
+      </c>
+      <c r="G8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" t="s">
+        <v>686</v>
+      </c>
+      <c r="D9" t="s">
+        <v>696</v>
+      </c>
+      <c r="F9" t="s">
+        <v>685</v>
+      </c>
+      <c r="G9" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" t="s">
+        <v>687</v>
+      </c>
+      <c r="D10" t="s">
+        <v>697</v>
+      </c>
+      <c r="F10" t="s">
+        <v>685</v>
+      </c>
+      <c r="G10" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" t="s">
+        <v>688</v>
+      </c>
+      <c r="D11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F11" t="s">
+        <v>685</v>
+      </c>
+      <c r="G11" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" t="s">
+        <v>689</v>
+      </c>
+      <c r="D12" t="s">
+        <v>699</v>
+      </c>
+      <c r="F12" t="s">
+        <v>685</v>
+      </c>
+      <c r="G12" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" t="s">
+        <v>690</v>
+      </c>
+      <c r="D13" t="s">
+        <v>700</v>
+      </c>
+      <c r="F13" t="s">
+        <v>715</v>
+      </c>
+      <c r="G13" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="C15" t="s">
+        <v>722</v>
+      </c>
+      <c r="D15" t="s">
+        <v>716</v>
+      </c>
+      <c r="G15" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" t="s">
+        <v>721</v>
+      </c>
+      <c r="D16" t="s">
+        <v>719</v>
+      </c>
+      <c r="G16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" t="s">
+        <v>737</v>
+      </c>
+      <c r="D17" t="s">
+        <v>730</v>
+      </c>
+      <c r="F17" t="s">
+        <v>722</v>
+      </c>
+      <c r="G17" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" t="s">
+        <v>738</v>
+      </c>
+      <c r="F18" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" t="s">
+        <v>731</v>
+      </c>
+      <c r="D19" t="s">
+        <v>732</v>
+      </c>
+      <c r="G19" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" t="s">
+        <v>720</v>
+      </c>
+      <c r="D20" t="s">
+        <v>725</v>
+      </c>
+      <c r="F20" t="s">
+        <v>722</v>
+      </c>
+      <c r="G20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" t="s">
+        <v>723</v>
+      </c>
+      <c r="D21" t="s">
+        <v>724</v>
+      </c>
+      <c r="F21" t="s">
+        <v>721</v>
+      </c>
+      <c r="G21" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" t="s">
+        <v>738</v>
+      </c>
+      <c r="F22" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" t="s">
+        <v>738</v>
+      </c>
+      <c r="F23" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" t="s">
+        <v>735</v>
+      </c>
+      <c r="D24" t="s">
+        <v>734</v>
+      </c>
+      <c r="G24" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B15:B24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1FC8B3-9A49-47BD-9EE8-A4129AACB06F}">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385FB665-C74B-44E6-93F0-B362228155AD}">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
+  <dimension ref="A1:G91"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.85546875" style="4"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="7" max="7" width="78.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>157</v>
+      </c>
+      <c r="C23" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>158</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E24" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>162</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>217</v>
+      </c>
+      <c r="C32" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>218</v>
+      </c>
+      <c r="C33" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>219</v>
+      </c>
+      <c r="C34" t="s">
+        <v>252</v>
+      </c>
+      <c r="E34" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" t="s">
+        <v>254</v>
+      </c>
+      <c r="E35" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" t="s">
+        <v>223</v>
+      </c>
+      <c r="F37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="4">
+        <v>235</v>
+      </c>
+      <c r="C39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F39" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
+        <v>238</v>
+      </c>
+      <c r="C41" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C43" t="s">
+        <v>254</v>
+      </c>
+      <c r="E43" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" t="s">
+        <v>270</v>
+      </c>
+      <c r="E44" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C45" t="s">
+        <v>254</v>
+      </c>
+      <c r="E45" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" t="s">
+        <v>260</v>
+      </c>
+      <c r="E46" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
+        <v>301</v>
+      </c>
+      <c r="C48" t="s">
+        <v>277</v>
+      </c>
+      <c r="D48" t="s">
+        <v>283</v>
+      </c>
+      <c r="E48" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="4">
+        <v>302</v>
+      </c>
+      <c r="C49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
+        <v>303</v>
+      </c>
+      <c r="C50" t="s">
+        <v>274</v>
+      </c>
+      <c r="E50" t="s">
+        <v>223</v>
+      </c>
+      <c r="F50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>304</v>
+      </c>
+      <c r="C51" t="s">
+        <v>278</v>
+      </c>
+      <c r="E51" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" t="s">
+        <v>279</v>
+      </c>
+      <c r="E52" t="s">
+        <v>223</v>
+      </c>
+      <c r="F52" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" t="s">
+        <v>282</v>
+      </c>
+      <c r="E53" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C54" t="s">
+        <v>285</v>
+      </c>
+      <c r="E54" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C56" t="s">
+        <v>288</v>
+      </c>
+      <c r="E56" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="4">
+        <v>325</v>
+      </c>
+      <c r="C57" t="s">
+        <v>289</v>
+      </c>
+      <c r="E57" t="s">
+        <v>223</v>
+      </c>
+      <c r="F57" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <v>326</v>
+      </c>
+      <c r="C58" t="s">
+        <v>290</v>
+      </c>
+      <c r="E58" t="s">
+        <v>223</v>
+      </c>
+      <c r="F58" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
+        <v>327</v>
+      </c>
+      <c r="C59" t="s">
+        <v>291</v>
+      </c>
+      <c r="E59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F59" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="4">
+        <v>328</v>
+      </c>
+      <c r="C60" t="s">
+        <v>293</v>
+      </c>
+      <c r="E60" t="s">
+        <v>223</v>
+      </c>
+      <c r="F60" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="4">
+        <v>329</v>
+      </c>
+      <c r="C61" t="s">
+        <v>294</v>
+      </c>
+      <c r="E61" t="s">
+        <v>223</v>
+      </c>
+      <c r="F61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" t="s">
+        <v>297</v>
+      </c>
+      <c r="E62" t="s">
+        <v>223</v>
+      </c>
+      <c r="F62" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="4">
+        <v>401</v>
+      </c>
+      <c r="C64" t="s">
+        <v>298</v>
+      </c>
+      <c r="E64" t="s">
+        <v>223</v>
+      </c>
+      <c r="F64" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="4">
+        <v>402</v>
+      </c>
+      <c r="C65" t="s">
+        <v>299</v>
+      </c>
+      <c r="E65" t="s">
+        <v>223</v>
+      </c>
+      <c r="F65" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="4">
+        <v>403</v>
+      </c>
+      <c r="C66" t="s">
+        <v>300</v>
+      </c>
+      <c r="E66" t="s">
+        <v>223</v>
+      </c>
+      <c r="F66" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="4">
+        <v>404</v>
+      </c>
+      <c r="C67" t="s">
+        <v>301</v>
+      </c>
+      <c r="E67" t="s">
+        <v>223</v>
+      </c>
+      <c r="F67" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C68" t="s">
+        <v>303</v>
+      </c>
+      <c r="E68" t="s">
+        <v>223</v>
+      </c>
+      <c r="F68" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="4">
+        <v>407</v>
+      </c>
+      <c r="C69" t="s">
+        <v>304</v>
+      </c>
+      <c r="E69" t="s">
+        <v>223</v>
+      </c>
+      <c r="F69" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="4">
+        <v>408</v>
+      </c>
+      <c r="C70" t="s">
+        <v>305</v>
+      </c>
+      <c r="E70" t="s">
+        <v>223</v>
+      </c>
+      <c r="F70" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="4">
+        <v>409</v>
+      </c>
+      <c r="C71" t="s">
+        <v>306</v>
+      </c>
+      <c r="E71" t="s">
+        <v>223</v>
+      </c>
+      <c r="F71" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" t="s">
+        <v>307</v>
+      </c>
+      <c r="D73" t="s">
+        <v>314</v>
+      </c>
+      <c r="E73" t="s">
+        <v>223</v>
+      </c>
+      <c r="F73" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C74" t="s">
+        <v>312</v>
+      </c>
+      <c r="E74" t="s">
+        <v>223</v>
+      </c>
+      <c r="F74" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C75" t="s">
+        <v>310</v>
+      </c>
+      <c r="E75" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C76" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="4">
+        <v>548</v>
+      </c>
+      <c r="C77" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C79" t="s">
+        <v>320</v>
+      </c>
+      <c r="E79" t="s">
+        <v>223</v>
+      </c>
+      <c r="F79" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="4">
+        <v>555</v>
+      </c>
+      <c r="C80" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C81" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="4">
+        <v>601</v>
+      </c>
+      <c r="C84" t="s">
+        <v>326</v>
+      </c>
+      <c r="D84" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="4">
+        <v>602</v>
+      </c>
+      <c r="C85" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="4">
+        <v>603</v>
+      </c>
+      <c r="C86" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="4">
+        <v>604</v>
+      </c>
+      <c r="C87" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="4">
+        <v>605</v>
+      </c>
+      <c r="C88" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="4">
+        <v>606</v>
+      </c>
+      <c r="C89" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="4">
+        <v>607</v>
+      </c>
+      <c r="C90" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="4">
+        <v>608</v>
+      </c>
+      <c r="C91" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F803ACD-0C6B-4501-8A1D-9CD977C9D5BC}">
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -3162,27 +5320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2E1DA2-B439-478A-B9E1-948DA404767C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981A228F-2BB3-44AC-82E9-D9BE084DFD89}">
   <dimension ref="B2:F34"/>
   <sheetViews>
@@ -3599,12 +5737,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE22176D-CFFA-4A34-AB14-C1369F5F19BF}">
   <dimension ref="A1:Y199"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="S150" sqref="S150"/>
@@ -6813,872 +8951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E132C5F-9A98-41A1-A3AA-2A3458C20EAF}">
-  <dimension ref="A1:I36"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="149.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4">
-        <v>101</v>
-      </c>
-      <c r="D4" t="s">
-        <v>617</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="I4" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>619</v>
-      </c>
-      <c r="E5" t="s">
-        <v>624</v>
-      </c>
-      <c r="F5" t="s">
-        <v>584</v>
-      </c>
-      <c r="I5" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s">
-        <v>581</v>
-      </c>
-      <c r="E6" t="s">
-        <v>583</v>
-      </c>
-      <c r="F6" t="s">
-        <v>585</v>
-      </c>
-      <c r="I6" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>621</v>
-      </c>
-      <c r="E7" t="s">
-        <v>623</v>
-      </c>
-      <c r="F7" t="s">
-        <v>586</v>
-      </c>
-      <c r="I7" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8">
-        <v>105</v>
-      </c>
-      <c r="D8" t="s">
-        <v>625</v>
-      </c>
-      <c r="E8" t="s">
-        <v>620</v>
-      </c>
-      <c r="F8" t="s">
-        <v>587</v>
-      </c>
-      <c r="I8" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9">
-        <v>106</v>
-      </c>
-      <c r="D9" t="s">
-        <v>647</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="I9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10">
-        <v>107</v>
-      </c>
-      <c r="D10" t="s">
-        <v>646</v>
-      </c>
-      <c r="E10" t="s">
-        <v>656</v>
-      </c>
-      <c r="F10" t="s">
-        <v>584</v>
-      </c>
-      <c r="I10" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11">
-        <v>108</v>
-      </c>
-      <c r="D11" t="s">
-        <v>648</v>
-      </c>
-      <c r="E11" t="s">
-        <v>655</v>
-      </c>
-      <c r="F11" t="s">
-        <v>585</v>
-      </c>
-      <c r="I11" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12">
-        <v>109</v>
-      </c>
-      <c r="D12" t="s">
-        <v>649</v>
-      </c>
-      <c r="E12" t="s">
-        <v>654</v>
-      </c>
-      <c r="F12" t="s">
-        <v>586</v>
-      </c>
-      <c r="I12" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13">
-        <v>110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>650</v>
-      </c>
-      <c r="E13" t="s">
-        <v>651</v>
-      </c>
-      <c r="F13" t="s">
-        <v>587</v>
-      </c>
-      <c r="I13" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="C15">
-        <v>111</v>
-      </c>
-      <c r="D15" t="s">
-        <v>671</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="I15" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16">
-        <v>112</v>
-      </c>
-      <c r="D16" t="s">
-        <v>630</v>
-      </c>
-      <c r="E16" t="s">
-        <v>624</v>
-      </c>
-      <c r="F16" t="s">
-        <v>584</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>629</v>
-      </c>
-      <c r="E17" t="s">
-        <v>583</v>
-      </c>
-      <c r="F17" t="s">
-        <v>585</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18">
-        <v>114</v>
-      </c>
-      <c r="D18" t="s">
-        <v>631</v>
-      </c>
-      <c r="E18" t="s">
-        <v>667</v>
-      </c>
-      <c r="F18" t="s">
-        <v>586</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19">
-        <v>115</v>
-      </c>
-      <c r="D19" t="s">
-        <v>632</v>
-      </c>
-      <c r="E19" t="s">
-        <v>620</v>
-      </c>
-      <c r="F19" t="s">
-        <v>587</v>
-      </c>
-      <c r="G19">
-        <v>30</v>
-      </c>
-      <c r="I19" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20">
-        <v>116</v>
-      </c>
-      <c r="D20" t="s">
-        <v>672</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="I20" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21">
-        <v>117</v>
-      </c>
-      <c r="D21" t="s">
-        <v>660</v>
-      </c>
-      <c r="E21" t="s">
-        <v>656</v>
-      </c>
-      <c r="F21" t="s">
-        <v>584</v>
-      </c>
-      <c r="G21">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22">
-        <v>118</v>
-      </c>
-      <c r="D22" t="s">
-        <v>661</v>
-      </c>
-      <c r="E22" t="s">
-        <v>623</v>
-      </c>
-      <c r="F22" t="s">
-        <v>585</v>
-      </c>
-      <c r="G22">
-        <v>35</v>
-      </c>
-      <c r="I22" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23">
-        <v>119</v>
-      </c>
-      <c r="D23" t="s">
-        <v>662</v>
-      </c>
-      <c r="E23" t="s">
-        <v>676</v>
-      </c>
-      <c r="F23" t="s">
-        <v>586</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24">
-        <v>120</v>
-      </c>
-      <c r="D24" t="s">
-        <v>663</v>
-      </c>
-      <c r="E24" t="s">
-        <v>651</v>
-      </c>
-      <c r="F24" t="s">
-        <v>587</v>
-      </c>
-      <c r="G24">
-        <v>100</v>
-      </c>
-      <c r="I24" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="C26">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="C32">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
-      <c r="C33">
-        <v>132</v>
-      </c>
-      <c r="D33" t="s">
-        <v>634</v>
-      </c>
-      <c r="I33" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
-      <c r="C34">
-        <v>133</v>
-      </c>
-      <c r="D34" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
-      <c r="C35">
-        <v>134</v>
-      </c>
-      <c r="D35" t="s">
-        <v>637</v>
-      </c>
-      <c r="I35" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
-      <c r="C36">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B15:B24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F6F072-5AA1-4DF6-9E79-0C2773550AE1}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="C4" t="s">
-        <v>681</v>
-      </c>
-      <c r="D4" t="s">
-        <v>691</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="G4" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" t="s">
-        <v>682</v>
-      </c>
-      <c r="D5" t="s">
-        <v>692</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="G5" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" t="s">
-        <v>683</v>
-      </c>
-      <c r="D6" t="s">
-        <v>693</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="G6" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" t="s">
-        <v>684</v>
-      </c>
-      <c r="D7" t="s">
-        <v>694</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="G7" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" t="s">
-        <v>685</v>
-      </c>
-      <c r="D8" t="s">
-        <v>695</v>
-      </c>
-      <c r="F8" t="s">
-        <v>714</v>
-      </c>
-      <c r="G8" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" t="s">
-        <v>686</v>
-      </c>
-      <c r="D9" t="s">
-        <v>696</v>
-      </c>
-      <c r="F9" t="s">
-        <v>685</v>
-      </c>
-      <c r="G9" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" t="s">
-        <v>687</v>
-      </c>
-      <c r="D10" t="s">
-        <v>697</v>
-      </c>
-      <c r="F10" t="s">
-        <v>685</v>
-      </c>
-      <c r="G10" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D11" t="s">
-        <v>698</v>
-      </c>
-      <c r="F11" t="s">
-        <v>685</v>
-      </c>
-      <c r="G11" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" t="s">
-        <v>689</v>
-      </c>
-      <c r="D12" t="s">
-        <v>699</v>
-      </c>
-      <c r="F12" t="s">
-        <v>685</v>
-      </c>
-      <c r="G12" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" t="s">
-        <v>690</v>
-      </c>
-      <c r="D13" t="s">
-        <v>700</v>
-      </c>
-      <c r="F13" t="s">
-        <v>715</v>
-      </c>
-      <c r="G13" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="C15" t="s">
-        <v>722</v>
-      </c>
-      <c r="D15" t="s">
-        <v>716</v>
-      </c>
-      <c r="G15" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" t="s">
-        <v>721</v>
-      </c>
-      <c r="D16" t="s">
-        <v>719</v>
-      </c>
-      <c r="G16" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17" t="s">
-        <v>737</v>
-      </c>
-      <c r="D17" t="s">
-        <v>730</v>
-      </c>
-      <c r="F17" t="s">
-        <v>722</v>
-      </c>
-      <c r="G17" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" t="s">
-        <v>738</v>
-      </c>
-      <c r="F18" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" t="s">
-        <v>731</v>
-      </c>
-      <c r="D19" t="s">
-        <v>732</v>
-      </c>
-      <c r="G19" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" t="s">
-        <v>720</v>
-      </c>
-      <c r="D20" t="s">
-        <v>725</v>
-      </c>
-      <c r="F20" t="s">
-        <v>722</v>
-      </c>
-      <c r="G20" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" t="s">
-        <v>723</v>
-      </c>
-      <c r="D21" t="s">
-        <v>724</v>
-      </c>
-      <c r="F21" t="s">
-        <v>721</v>
-      </c>
-      <c r="G21" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" t="s">
-        <v>738</v>
-      </c>
-      <c r="F22" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" t="s">
-        <v>738</v>
-      </c>
-      <c r="F23" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" t="s">
-        <v>735</v>
-      </c>
-      <c r="D24" t="s">
-        <v>734</v>
-      </c>
-      <c r="G24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G28" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B15:B24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DAF6DD-D8FA-4653-B50E-0B687056C45B}">
   <dimension ref="A1:J41"/>
   <sheetViews>
@@ -8401,1030 +9674,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
-  <dimension ref="A1:G91"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2E1DA2-B439-478A-B9E1-948DA404767C}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.85546875" style="4"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="78.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>142</v>
-      </c>
-      <c r="C17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C19" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" t="s">
-        <v>223</v>
-      </c>
-      <c r="F19" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>155</v>
-      </c>
-      <c r="C21" t="s">
-        <v>237</v>
-      </c>
-      <c r="E21" t="s">
-        <v>223</v>
-      </c>
-      <c r="F21" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
-        <v>156</v>
-      </c>
-      <c r="C22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
-        <v>157</v>
-      </c>
-      <c r="C23" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F23" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
-        <v>158</v>
-      </c>
-      <c r="C24" t="s">
-        <v>240</v>
-      </c>
-      <c r="E24" t="s">
-        <v>223</v>
-      </c>
-      <c r="F24" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C25" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
-        <v>161</v>
-      </c>
-      <c r="C26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
-        <v>162</v>
-      </c>
-      <c r="C27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" t="s">
-        <v>246</v>
-      </c>
-      <c r="D31" t="s">
-        <v>247</v>
-      </c>
-      <c r="E31" t="s">
-        <v>223</v>
-      </c>
-      <c r="F31" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
-        <v>217</v>
-      </c>
-      <c r="C32" t="s">
-        <v>251</v>
-      </c>
-      <c r="E32" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
-        <v>218</v>
-      </c>
-      <c r="C33" t="s">
-        <v>250</v>
-      </c>
-      <c r="E33" t="s">
-        <v>223</v>
-      </c>
-      <c r="F33" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
-        <v>219</v>
-      </c>
-      <c r="C34" t="s">
-        <v>252</v>
-      </c>
-      <c r="E34" t="s">
-        <v>223</v>
-      </c>
-      <c r="F34" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C35" t="s">
-        <v>254</v>
-      </c>
-      <c r="E35" t="s">
-        <v>223</v>
-      </c>
-      <c r="F35" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C36" t="s">
-        <v>270</v>
-      </c>
-      <c r="E36" t="s">
-        <v>223</v>
-      </c>
-      <c r="F36" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C37" t="s">
-        <v>260</v>
-      </c>
-      <c r="E37" t="s">
-        <v>223</v>
-      </c>
-      <c r="F37" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="4">
-        <v>235</v>
-      </c>
-      <c r="C39" t="s">
-        <v>263</v>
-      </c>
-      <c r="E39" t="s">
-        <v>223</v>
-      </c>
-      <c r="F39" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C40" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="4">
-        <v>238</v>
-      </c>
-      <c r="C41" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C42" t="s">
-        <v>263</v>
-      </c>
-      <c r="E42" t="s">
-        <v>223</v>
-      </c>
-      <c r="F42" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C43" t="s">
-        <v>254</v>
-      </c>
-      <c r="E43" t="s">
-        <v>223</v>
-      </c>
-      <c r="F43" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C44" t="s">
-        <v>270</v>
-      </c>
-      <c r="E44" t="s">
-        <v>223</v>
-      </c>
-      <c r="F44" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C45" t="s">
-        <v>254</v>
-      </c>
-      <c r="E45" t="s">
-        <v>223</v>
-      </c>
-      <c r="F45" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C46" t="s">
-        <v>260</v>
-      </c>
-      <c r="E46" t="s">
-        <v>223</v>
-      </c>
-      <c r="F46" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="4">
-        <v>301</v>
-      </c>
-      <c r="C48" t="s">
-        <v>277</v>
-      </c>
-      <c r="D48" t="s">
-        <v>283</v>
-      </c>
-      <c r="E48" t="s">
-        <v>223</v>
-      </c>
-      <c r="F48" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="4">
-        <v>302</v>
-      </c>
-      <c r="C49" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="4">
-        <v>303</v>
-      </c>
-      <c r="C50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E50" t="s">
-        <v>223</v>
-      </c>
-      <c r="F50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="4">
-        <v>304</v>
-      </c>
-      <c r="C51" t="s">
-        <v>278</v>
-      </c>
-      <c r="E51" t="s">
-        <v>223</v>
-      </c>
-      <c r="F51" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C52" t="s">
-        <v>279</v>
-      </c>
-      <c r="E52" t="s">
-        <v>223</v>
-      </c>
-      <c r="F52" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C53" t="s">
-        <v>282</v>
-      </c>
-      <c r="E53" t="s">
-        <v>223</v>
-      </c>
-      <c r="F53" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C54" t="s">
-        <v>285</v>
-      </c>
-      <c r="E54" t="s">
-        <v>223</v>
-      </c>
-      <c r="F54" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C55" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C56" t="s">
-        <v>288</v>
-      </c>
-      <c r="E56" t="s">
-        <v>223</v>
-      </c>
-      <c r="F56" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="4">
-        <v>325</v>
-      </c>
-      <c r="C57" t="s">
-        <v>289</v>
-      </c>
-      <c r="E57" t="s">
-        <v>223</v>
-      </c>
-      <c r="F57" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="4">
-        <v>326</v>
-      </c>
-      <c r="C58" t="s">
-        <v>290</v>
-      </c>
-      <c r="E58" t="s">
-        <v>223</v>
-      </c>
-      <c r="F58" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="4">
-        <v>327</v>
-      </c>
-      <c r="C59" t="s">
-        <v>291</v>
-      </c>
-      <c r="E59" t="s">
-        <v>223</v>
-      </c>
-      <c r="F59" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="4">
-        <v>328</v>
-      </c>
-      <c r="C60" t="s">
-        <v>293</v>
-      </c>
-      <c r="E60" t="s">
-        <v>223</v>
-      </c>
-      <c r="F60" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="4">
-        <v>329</v>
-      </c>
-      <c r="C61" t="s">
-        <v>294</v>
-      </c>
-      <c r="E61" t="s">
-        <v>223</v>
-      </c>
-      <c r="F61" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C62" t="s">
-        <v>297</v>
-      </c>
-      <c r="E62" t="s">
-        <v>223</v>
-      </c>
-      <c r="F62" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="4">
-        <v>401</v>
-      </c>
-      <c r="C64" t="s">
-        <v>298</v>
-      </c>
-      <c r="E64" t="s">
-        <v>223</v>
-      </c>
-      <c r="F64" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="4">
-        <v>402</v>
-      </c>
-      <c r="C65" t="s">
-        <v>299</v>
-      </c>
-      <c r="E65" t="s">
-        <v>223</v>
-      </c>
-      <c r="F65" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="4">
-        <v>403</v>
-      </c>
-      <c r="C66" t="s">
-        <v>300</v>
-      </c>
-      <c r="E66" t="s">
-        <v>223</v>
-      </c>
-      <c r="F66" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="4">
-        <v>404</v>
-      </c>
-      <c r="C67" t="s">
-        <v>301</v>
-      </c>
-      <c r="E67" t="s">
-        <v>223</v>
-      </c>
-      <c r="F67" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C68" t="s">
-        <v>303</v>
-      </c>
-      <c r="E68" t="s">
-        <v>223</v>
-      </c>
-      <c r="F68" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="4">
-        <v>407</v>
-      </c>
-      <c r="C69" t="s">
-        <v>304</v>
-      </c>
-      <c r="E69" t="s">
-        <v>223</v>
-      </c>
-      <c r="F69" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="4">
-        <v>408</v>
-      </c>
-      <c r="C70" t="s">
-        <v>305</v>
-      </c>
-      <c r="E70" t="s">
-        <v>223</v>
-      </c>
-      <c r="F70" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="4">
-        <v>409</v>
-      </c>
-      <c r="C71" t="s">
-        <v>306</v>
-      </c>
-      <c r="E71" t="s">
-        <v>223</v>
-      </c>
-      <c r="F71" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C73" t="s">
-        <v>307</v>
-      </c>
-      <c r="D73" t="s">
-        <v>314</v>
-      </c>
-      <c r="E73" t="s">
-        <v>223</v>
-      </c>
-      <c r="F73" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C74" t="s">
-        <v>312</v>
-      </c>
-      <c r="E74" t="s">
-        <v>223</v>
-      </c>
-      <c r="F74" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C75" t="s">
-        <v>310</v>
-      </c>
-      <c r="E75" t="s">
-        <v>223</v>
-      </c>
-      <c r="F75" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C76" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="4">
-        <v>548</v>
-      </c>
-      <c r="C77" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C78" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C79" t="s">
-        <v>320</v>
-      </c>
-      <c r="E79" t="s">
-        <v>223</v>
-      </c>
-      <c r="F79" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="4">
-        <v>555</v>
-      </c>
-      <c r="C80" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C81" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C82" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="4">
-        <v>601</v>
-      </c>
-      <c r="C84" t="s">
-        <v>326</v>
-      </c>
-      <c r="D84" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="4">
-        <v>602</v>
-      </c>
-      <c r="C85" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="4">
-        <v>603</v>
-      </c>
-      <c r="C86" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="4">
-        <v>604</v>
-      </c>
-      <c r="C87" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="4">
-        <v>605</v>
-      </c>
-      <c r="C88" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="4">
-        <v>606</v>
-      </c>
-      <c r="C89" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="4">
-        <v>607</v>
-      </c>
-      <c r="C90" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="4">
-        <v>608</v>
-      </c>
-      <c r="C91" t="s">
-        <v>333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1FC8B3-9A49-47BD-9EE8-A4129AACB06F}">
-  <dimension ref="B2:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -9433,45 +9695,531 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385FB665-C74B-44E6-93F0-B362228155AD}">
-  <dimension ref="B2:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E132C5F-9A98-41A1-A3AA-2A3458C20EAF}">
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="149.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="I4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
       <c r="C5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+      <c r="E5" t="s">
+        <v>624</v>
+      </c>
+      <c r="F5" t="s">
+        <v>584</v>
+      </c>
+      <c r="I5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
       <c r="C6">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>581</v>
+      </c>
+      <c r="E6" t="s">
+        <v>583</v>
+      </c>
+      <c r="F6" t="s">
+        <v>585</v>
+      </c>
+      <c r="I6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>621</v>
+      </c>
+      <c r="E7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F7" t="s">
+        <v>586</v>
+      </c>
+      <c r="I7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>625</v>
+      </c>
+      <c r="E8" t="s">
+        <v>620</v>
+      </c>
+      <c r="F8" t="s">
+        <v>587</v>
+      </c>
+      <c r="I8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>647</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="I9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>646</v>
+      </c>
+      <c r="E10" t="s">
+        <v>656</v>
+      </c>
+      <c r="F10" t="s">
+        <v>584</v>
+      </c>
+      <c r="I10" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>648</v>
+      </c>
+      <c r="E11" t="s">
+        <v>655</v>
+      </c>
+      <c r="F11" t="s">
+        <v>585</v>
+      </c>
+      <c r="I11" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>649</v>
+      </c>
+      <c r="E12" t="s">
+        <v>654</v>
+      </c>
+      <c r="F12" t="s">
+        <v>586</v>
+      </c>
+      <c r="I12" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>650</v>
+      </c>
+      <c r="E13" t="s">
+        <v>651</v>
+      </c>
+      <c r="F13" t="s">
+        <v>587</v>
+      </c>
+      <c r="I13" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C15">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>671</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="I15" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>630</v>
+      </c>
+      <c r="E16" t="s">
+        <v>624</v>
+      </c>
+      <c r="F16" t="s">
+        <v>584</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>629</v>
+      </c>
+      <c r="E17" t="s">
+        <v>583</v>
+      </c>
+      <c r="F17" t="s">
+        <v>585</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>631</v>
+      </c>
+      <c r="E18" t="s">
+        <v>667</v>
+      </c>
+      <c r="F18" t="s">
+        <v>586</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>49</v>
+      <c r="I18" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>632</v>
+      </c>
+      <c r="E19" t="s">
+        <v>620</v>
+      </c>
+      <c r="F19" t="s">
+        <v>587</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>672</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="I20" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>660</v>
+      </c>
+      <c r="E21" t="s">
+        <v>656</v>
+      </c>
+      <c r="F21" t="s">
+        <v>584</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>661</v>
+      </c>
+      <c r="E22" t="s">
+        <v>623</v>
+      </c>
+      <c r="F22" t="s">
+        <v>585</v>
+      </c>
+      <c r="G22">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>662</v>
+      </c>
+      <c r="E23" t="s">
+        <v>676</v>
+      </c>
+      <c r="F23" t="s">
+        <v>586</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>663</v>
+      </c>
+      <c r="E24" t="s">
+        <v>651</v>
+      </c>
+      <c r="F24" t="s">
+        <v>587</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="C26">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="C32">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
+        <v>634</v>
+      </c>
+      <c r="I33" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+      <c r="C34">
+        <v>133</v>
+      </c>
+      <c r="D34" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35">
+        <v>134</v>
+      </c>
+      <c r="D35" t="s">
+        <v>637</v>
+      </c>
+      <c r="I35" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B15:B24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E321BA00-1574-4DEB-A134-B3D45DB49DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFA1D1A-E9D8-427F-A071-704BF4FFFA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="801">
   <si>
     <t>ID</t>
   </si>
@@ -2445,6 +2445,9 @@
   </si>
   <si>
     <t>Table, wooden</t>
+  </si>
+  <si>
+    <t>Carpet, green</t>
   </si>
 </sst>
 </file>
@@ -2519,6 +2522,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2527,9 +2533,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2847,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF2113E-D79E-4CB9-ADC9-BF3629B5384A}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2882,52 +2885,55 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>210</v>
+      <c r="B4" s="3">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>212</v>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>744</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>744</v>
-      </c>
-      <c r="D7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>102</v>
+      <c r="B8" s="4">
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>746</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3141,7 +3147,7 @@
         <v>247</v>
       </c>
       <c r="E36">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -3454,7 +3460,7 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>712</v>
       </c>
       <c r="C4" t="s">
@@ -3471,7 +3477,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" t="s">
         <v>682</v>
       </c>
@@ -3486,7 +3492,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
+      <c r="B6" s="16"/>
       <c r="C6" t="s">
         <v>683</v>
       </c>
@@ -3501,7 +3507,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
+      <c r="B7" s="16"/>
       <c r="C7" t="s">
         <v>684</v>
       </c>
@@ -3516,7 +3522,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" t="s">
         <v>685</v>
       </c>
@@ -3531,7 +3537,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
+      <c r="B9" s="16"/>
       <c r="C9" t="s">
         <v>686</v>
       </c>
@@ -3546,7 +3552,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" t="s">
         <v>687</v>
       </c>
@@ -3561,7 +3567,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" t="s">
         <v>688</v>
       </c>
@@ -3576,7 +3582,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" t="s">
         <v>689</v>
       </c>
@@ -3591,7 +3597,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" t="s">
         <v>690</v>
       </c>
@@ -3606,7 +3612,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>729</v>
       </c>
       <c r="C15" t="s">
@@ -3620,7 +3626,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
+      <c r="B16" s="16"/>
       <c r="C16" t="s">
         <v>721</v>
       </c>
@@ -3632,7 +3638,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
+      <c r="B17" s="16"/>
       <c r="C17" t="s">
         <v>737</v>
       </c>
@@ -3647,7 +3653,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
+      <c r="B18" s="16"/>
       <c r="C18" t="s">
         <v>738</v>
       </c>
@@ -3656,7 +3662,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
+      <c r="B19" s="16"/>
       <c r="C19" t="s">
         <v>731</v>
       </c>
@@ -3668,7 +3674,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
+      <c r="B20" s="16"/>
       <c r="C20" t="s">
         <v>720</v>
       </c>
@@ -3683,7 +3689,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
+      <c r="B21" s="16"/>
       <c r="C21" t="s">
         <v>723</v>
       </c>
@@ -3698,7 +3704,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22" t="s">
         <v>738</v>
       </c>
@@ -3707,7 +3713,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23" t="s">
         <v>738</v>
       </c>
@@ -3716,7 +3722,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="C24" t="s">
         <v>735</v>
       </c>
@@ -5525,7 +5531,7 @@
       <c r="E16" t="s">
         <v>543</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="14" t="s">
         <v>559</v>
       </c>
     </row>
@@ -5542,7 +5548,7 @@
       <c r="E17" t="s">
         <v>544</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -5557,7 +5563,7 @@
       <c r="E18" t="s">
         <v>555</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -5572,7 +5578,7 @@
       <c r="E19" t="s">
         <v>556</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -5767,23 +5773,23 @@
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
     </row>
@@ -9735,7 +9741,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C4">
@@ -9758,7 +9764,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5">
         <v>102</v>
       </c>
@@ -9776,7 +9782,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
+      <c r="B6" s="16"/>
       <c r="C6">
         <v>103</v>
       </c>
@@ -9794,7 +9800,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
+      <c r="B7" s="16"/>
       <c r="C7">
         <v>104</v>
       </c>
@@ -9812,7 +9818,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8">
         <v>105</v>
       </c>
@@ -9830,7 +9836,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
+      <c r="B9" s="16"/>
       <c r="C9">
         <v>106</v>
       </c>
@@ -9851,7 +9857,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10">
         <v>107</v>
       </c>
@@ -9869,7 +9875,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11">
         <v>108</v>
       </c>
@@ -9887,7 +9893,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12">
         <v>109</v>
       </c>
@@ -9905,7 +9911,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13">
         <v>110</v>
       </c>
@@ -9923,7 +9929,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>561</v>
       </c>
       <c r="C15">
@@ -9946,7 +9952,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
+      <c r="B16" s="16"/>
       <c r="C16">
         <v>112</v>
       </c>
@@ -9967,7 +9973,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
+      <c r="B17" s="16"/>
       <c r="C17">
         <v>113</v>
       </c>
@@ -9988,7 +9994,7 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
+      <c r="B18" s="16"/>
       <c r="C18">
         <v>114</v>
       </c>
@@ -10009,7 +10015,7 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
+      <c r="B19" s="16"/>
       <c r="C19">
         <v>115</v>
       </c>
@@ -10030,7 +10036,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
+      <c r="B20" s="16"/>
       <c r="C20">
         <v>116</v>
       </c>
@@ -10051,7 +10057,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
+      <c r="B21" s="16"/>
       <c r="C21">
         <v>117</v>
       </c>
@@ -10072,7 +10078,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22">
         <v>118</v>
       </c>
@@ -10093,7 +10099,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23">
         <v>119</v>
       </c>
@@ -10114,7 +10120,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="C24">
         <v>120</v>
       </c>
@@ -10135,7 +10141,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>627</v>
       </c>
       <c r="C26">
@@ -10143,31 +10149,31 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30">
         <v>125</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="16" t="s">
         <v>628</v>
       </c>
       <c r="C32">
@@ -10175,7 +10181,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33">
         <v>132</v>
       </c>
@@ -10187,7 +10193,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34">
         <v>133</v>
       </c>
@@ -10196,7 +10202,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
+      <c r="B35" s="16"/>
       <c r="C35">
         <v>134</v>
       </c>
@@ -10208,7 +10214,7 @@
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
+      <c r="B36" s="16"/>
       <c r="C36">
         <v>135</v>
       </c>
@@ -10244,26 +10250,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
@@ -10272,13 +10278,13 @@
       <c r="H3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFA1D1A-E9D8-427F-A071-704BF4FFFA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA3FEA6-964E-4F5F-B94E-1BE46FD11BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="800">
   <si>
     <t>ID</t>
   </si>
@@ -2342,15 +2342,6 @@
     <t>Grass, line up</t>
   </si>
   <si>
-    <t>Road1</t>
-  </si>
-  <si>
-    <t>Road2</t>
-  </si>
-  <si>
-    <t>Road3</t>
-  </si>
-  <si>
     <t>Road, white up</t>
   </si>
   <si>
@@ -2444,10 +2435,16 @@
     <t>Stairs</t>
   </si>
   <si>
-    <t>Table, wooden</t>
-  </si>
-  <si>
     <t>Carpet, green</t>
+  </si>
+  <si>
+    <t>Road, light</t>
+  </si>
+  <si>
+    <t>Road, asphalt</t>
+  </si>
+  <si>
+    <t>Road, dark</t>
   </si>
 </sst>
 </file>
@@ -2850,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF2113E-D79E-4CB9-ADC9-BF3629B5384A}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2933,7 +2930,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3069,7 +3066,7 @@
         <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>765</v>
+        <v>797</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3077,7 +3074,7 @@
         <v>172</v>
       </c>
       <c r="C27" t="s">
-        <v>766</v>
+        <v>798</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3085,7 +3082,7 @@
         <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>767</v>
+        <v>799</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3093,7 +3090,7 @@
         <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3101,7 +3098,7 @@
         <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3109,7 +3106,7 @@
         <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3117,7 +3114,7 @@
         <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -3125,7 +3122,7 @@
         <v>178</v>
       </c>
       <c r="C33" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -3133,7 +3130,7 @@
         <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -3141,7 +3138,7 @@
         <v>201</v>
       </c>
       <c r="C36" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D36" t="s">
         <v>247</v>
@@ -3155,7 +3152,7 @@
         <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -3163,7 +3160,7 @@
         <v>203</v>
       </c>
       <c r="C38" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -3171,7 +3168,7 @@
         <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -3179,7 +3176,7 @@
         <v>205</v>
       </c>
       <c r="C40" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
@@ -3187,7 +3184,7 @@
         <v>206</v>
       </c>
       <c r="C41" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
@@ -3195,7 +3192,7 @@
         <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -3211,13 +3208,13 @@
         <v>301</v>
       </c>
       <c r="C45" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D45" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E45" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
@@ -3225,10 +3222,10 @@
         <v>302</v>
       </c>
       <c r="C46" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E46" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
@@ -3236,10 +3233,10 @@
         <v>303</v>
       </c>
       <c r="C47" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E47" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
@@ -3247,10 +3244,10 @@
         <v>304</v>
       </c>
       <c r="C48" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E48" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -3258,10 +3255,10 @@
         <v>305</v>
       </c>
       <c r="C49" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E49" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
@@ -3269,10 +3266,10 @@
         <v>306</v>
       </c>
       <c r="C50" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E50" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -3280,10 +3277,10 @@
         <v>307</v>
       </c>
       <c r="C51" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E51" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -3291,10 +3288,10 @@
         <v>308</v>
       </c>
       <c r="C52" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E52" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -3302,10 +3299,10 @@
         <v>309</v>
       </c>
       <c r="C53" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E53" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -3313,10 +3310,10 @@
         <v>310</v>
       </c>
       <c r="C54" t="s">
+        <v>791</v>
+      </c>
+      <c r="E54" t="s">
         <v>794</v>
-      </c>
-      <c r="E54" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -3324,10 +3321,10 @@
         <v>311</v>
       </c>
       <c r="C55" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E55" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -3335,10 +3332,10 @@
         <v>312</v>
       </c>
       <c r="C56" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E56" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -3346,10 +3343,10 @@
         <v>313</v>
       </c>
       <c r="C57" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E57" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -3357,10 +3354,10 @@
         <v>314</v>
       </c>
       <c r="C58" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E58" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -3368,10 +3365,10 @@
         <v>315</v>
       </c>
       <c r="C59" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E59" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
@@ -3379,24 +3376,10 @@
         <v>316</v>
       </c>
       <c r="C60" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E60" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="4">
-        <v>321</v>
-      </c>
-      <c r="C61" t="s">
-        <v>799</v>
-      </c>
-      <c r="D61" t="s">
-        <v>283</v>
-      </c>
-      <c r="E61">
-        <v>3</v>
+        <v>794</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA3FEA6-964E-4F5F-B94E-1BE46FD11BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5581265E-EF39-4B24-802F-8B4FE6560828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="812">
   <si>
     <t>ID</t>
   </si>
@@ -2445,6 +2445,42 @@
   </si>
   <si>
     <t>Road, dark</t>
+  </si>
+  <si>
+    <t>Sand, light</t>
+  </si>
+  <si>
+    <t>Sand, tan</t>
+  </si>
+  <si>
+    <t>Sand, dark</t>
+  </si>
+  <si>
+    <t>Sand, line left</t>
+  </si>
+  <si>
+    <t>Sand, line up</t>
+  </si>
+  <si>
+    <t>Sidewalk, smooth</t>
+  </si>
+  <si>
+    <t>Sidewalk, cracked</t>
+  </si>
+  <si>
+    <t>Water, rocks</t>
+  </si>
+  <si>
+    <t>Water, dirt</t>
+  </si>
+  <si>
+    <t>Water, shallow</t>
+  </si>
+  <si>
+    <t>Water, medium</t>
+  </si>
+  <si>
+    <t>Water, deep</t>
   </si>
 </sst>
 </file>
@@ -2845,10 +2881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF2113E-D79E-4CB9-ADC9-BF3629B5384A}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2991,359 +3027,323 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>756</v>
+        <v>805</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>152</v>
+      <c r="B18" s="4">
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>757</v>
+        <v>806</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>758</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>759</v>
+        <v>801</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>763</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>764</v>
+        <v>803</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <v>161</v>
+      <c r="B23" s="4">
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>760</v>
+        <v>804</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
-        <v>163</v>
+      <c r="B25" s="3">
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>797</v>
+        <v>758</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
-        <v>172</v>
+      <c r="B27" s="4">
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>798</v>
+        <v>759</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>799</v>
+        <v>763</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="6">
-        <v>174</v>
+      <c r="B29" s="4">
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
-        <v>175</v>
+      <c r="B30" s="3">
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="6">
-        <v>176</v>
+      <c r="B31" s="4">
+        <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
-        <v>769</v>
+        <v>797</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
-        <v>179</v>
+      <c r="B34" s="6">
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>770</v>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>173</v>
+      </c>
+      <c r="C35" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
-        <v>201</v>
+      <c r="B36" s="6">
+        <v>174</v>
       </c>
       <c r="C36" t="s">
-        <v>771</v>
-      </c>
-      <c r="D36" t="s">
-        <v>247</v>
-      </c>
-      <c r="E36">
-        <v>100</v>
+        <v>765</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="3">
-        <v>202</v>
+      <c r="B37" s="4">
+        <v>175</v>
       </c>
       <c r="C37" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
-        <v>203</v>
+      <c r="B38" s="6">
+        <v>176</v>
       </c>
       <c r="C38" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
-        <v>204</v>
+      <c r="B39" s="4">
+        <v>177</v>
       </c>
       <c r="C39" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="C40" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="C41" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
-        <v>207</v>
+      <c r="B42" s="3">
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>772</v>
+        <v>807</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
-        <v>211</v>
+        <v>182</v>
+      </c>
+      <c r="C43" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
+      <c r="B44" s="3">
+        <v>183</v>
+      </c>
+      <c r="C44" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="4">
-        <v>301</v>
+      <c r="B45" s="3">
+        <v>184</v>
       </c>
       <c r="C45" t="s">
-        <v>782</v>
-      </c>
-      <c r="D45" t="s">
-        <v>795</v>
-      </c>
-      <c r="E45" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="4">
-        <v>302</v>
+      <c r="B46" s="3">
+        <v>185</v>
       </c>
       <c r="C46" t="s">
-        <v>783</v>
-      </c>
-      <c r="E46" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="4">
-        <v>303</v>
-      </c>
-      <c r="C47" t="s">
-        <v>784</v>
-      </c>
-      <c r="E47" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
-        <v>304</v>
+        <v>201</v>
       </c>
       <c r="C48" t="s">
-        <v>785</v>
-      </c>
-      <c r="E48" t="s">
-        <v>794</v>
+        <v>771</v>
+      </c>
+      <c r="D48" t="s">
+        <v>247</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="4">
-        <v>305</v>
+      <c r="B49" s="3">
+        <v>202</v>
       </c>
       <c r="C49" t="s">
-        <v>778</v>
-      </c>
-      <c r="E49" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
-        <v>306</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
-        <v>779</v>
-      </c>
-      <c r="E50" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="4">
-        <v>307</v>
+      <c r="B51" s="3">
+        <v>204</v>
       </c>
       <c r="C51" t="s">
-        <v>780</v>
-      </c>
-      <c r="E51" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>781</v>
-      </c>
-      <c r="E52" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="4">
-        <v>309</v>
+      <c r="B53" s="3">
+        <v>206</v>
       </c>
       <c r="C53" t="s">
-        <v>790</v>
-      </c>
-      <c r="E53" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
-        <v>310</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s">
-        <v>791</v>
-      </c>
-      <c r="E54" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="4">
-        <v>311</v>
-      </c>
-      <c r="C55" t="s">
-        <v>792</v>
-      </c>
-      <c r="E55" t="s">
-        <v>794</v>
+      <c r="B55" s="3">
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="4">
-        <v>312</v>
-      </c>
-      <c r="C56" t="s">
-        <v>793</v>
-      </c>
-      <c r="E56" t="s">
-        <v>794</v>
-      </c>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C57" t="s">
-        <v>789</v>
+        <v>782</v>
+      </c>
+      <c r="D57" t="s">
+        <v>795</v>
       </c>
       <c r="E57" t="s">
         <v>794</v>
@@ -3351,10 +3351,10 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C58" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E58" t="s">
         <v>794</v>
@@ -3362,10 +3362,10 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C59" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E59" t="s">
         <v>794</v>
@@ -3373,32 +3373,164 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C60" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E60" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="4">
+        <v>305</v>
+      </c>
+      <c r="C61" t="s">
+        <v>778</v>
+      </c>
+      <c r="E61" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="4">
+        <v>306</v>
+      </c>
+      <c r="C62" t="s">
+        <v>779</v>
+      </c>
+      <c r="E62" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="4">
+        <v>307</v>
+      </c>
+      <c r="C63" t="s">
+        <v>780</v>
+      </c>
+      <c r="E63" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="4">
+        <v>308</v>
+      </c>
+      <c r="C64" t="s">
+        <v>781</v>
+      </c>
+      <c r="E64" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="4">
+        <v>309</v>
+      </c>
+      <c r="C65" t="s">
+        <v>790</v>
+      </c>
+      <c r="E65" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="4">
+        <v>310</v>
+      </c>
+      <c r="C66" t="s">
+        <v>791</v>
+      </c>
+      <c r="E66" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="4">
+        <v>311</v>
+      </c>
+      <c r="C67" t="s">
+        <v>792</v>
+      </c>
+      <c r="E67" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="4">
+        <v>312</v>
+      </c>
+      <c r="C68" t="s">
+        <v>793</v>
+      </c>
+      <c r="E68" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="4">
+        <v>313</v>
+      </c>
+      <c r="C69" t="s">
+        <v>789</v>
+      </c>
+      <c r="E69" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="4">
+        <v>314</v>
+      </c>
+      <c r="C70" t="s">
+        <v>788</v>
+      </c>
+      <c r="E70" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="4">
+        <v>315</v>
+      </c>
+      <c r="C71" t="s">
+        <v>787</v>
+      </c>
+      <c r="E71" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="4">
+        <v>316</v>
+      </c>
+      <c r="C72" t="s">
+        <v>786</v>
+      </c>
+      <c r="E72" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="3"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5581265E-EF39-4B24-802F-8B4FE6560828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C3FADA-D972-4263-B273-2C304D939693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrains" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="795">
   <si>
     <t>ID</t>
   </si>
@@ -686,9 +686,6 @@
     <t>Map Edge</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Traveling Buddy</t>
   </si>
   <si>
@@ -701,87 +698,24 @@
     <t>Ender Chest</t>
   </si>
   <si>
-    <t>101-104</t>
-  </si>
-  <si>
-    <t>Carpet</t>
-  </si>
-  <si>
     <t>Floor</t>
   </si>
   <si>
-    <t>110-112</t>
-  </si>
-  <si>
-    <t>Targetable</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>121, 122</t>
-  </si>
-  <si>
-    <t>Tile</t>
-  </si>
-  <si>
-    <t>131-138</t>
-  </si>
-  <si>
-    <t>Stairway</t>
-  </si>
-  <si>
-    <t>139-141</t>
-  </si>
-  <si>
-    <t>Grass</t>
-  </si>
-  <si>
-    <t>Dead Grass</t>
-  </si>
-  <si>
-    <t>143-145</t>
-  </si>
-  <si>
-    <t>Dirt</t>
-  </si>
-  <si>
-    <t>146, 147</t>
-  </si>
-  <si>
-    <t>Sidewalk</t>
-  </si>
-  <si>
-    <t>148-154</t>
-  </si>
-  <si>
-    <t>Road</t>
-  </si>
-  <si>
     <t>Grass (dandelion)</t>
   </si>
   <si>
-    <t>Gravel (none)</t>
-  </si>
-  <si>
     <t>Gravel (pebbles)</t>
   </si>
   <si>
     <t>Gravel (rocks)</t>
   </si>
   <si>
-    <t>159, 160</t>
-  </si>
-  <si>
     <t>Concrete</t>
   </si>
   <si>
-    <t>163-170</t>
-  </si>
-  <si>
-    <t>171, 172</t>
-  </si>
-  <si>
     <t>201-207</t>
   </si>
   <si>
@@ -875,9 +809,6 @@
     <t>get pickle</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
     <t>Water Fountain</t>
   </si>
   <si>
@@ -1304,9 +1235,6 @@
     <t>inventory</t>
   </si>
   <si>
-    <t>gives pebbles/rocks</t>
-  </si>
-  <si>
     <t>can view sign</t>
   </si>
   <si>
@@ -2481,6 +2409,27 @@
   </si>
   <si>
     <t>Water, deep</t>
+  </si>
+  <si>
+    <t>Gravel</t>
+  </si>
+  <si>
+    <t>id 1-10 has 10-100% opacity</t>
+  </si>
+  <si>
+    <t>covers map</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>Wooden Table</t>
+  </si>
+  <si>
+    <t>2x2</t>
+  </si>
+  <si>
+    <t>inventory (furniture)</t>
   </si>
 </sst>
 </file>
@@ -2881,10 +2830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF2113E-D79E-4CB9-ADC9-BF3629B5384A}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2899,7 +2848,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>743</v>
+        <v>719</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -2911,10 +2860,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>755</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2925,7 +2874,7 @@
         <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>754</v>
+        <v>730</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2936,10 +2885,10 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2950,7 +2899,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>745</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2958,7 +2907,7 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2966,7 +2915,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2974,7 +2923,7 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2982,7 +2931,7 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>748</v>
+        <v>724</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,7 +2939,7 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,7 +2947,7 @@
         <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>750</v>
+        <v>726</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3006,7 +2955,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>751</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3014,7 +2963,7 @@
         <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>752</v>
+        <v>728</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3022,7 +2971,7 @@
         <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -3030,7 +2979,7 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>805</v>
+        <v>781</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3038,484 +2987,489 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>806</v>
+        <v>782</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>804</v>
+        <v>779</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
         <v>151</v>
       </c>
-      <c r="C24" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
+      <c r="C25" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
         <v>152</v>
       </c>
-      <c r="C25" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
-        <v>153</v>
-      </c>
       <c r="C26" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
+        <v>155</v>
+      </c>
+      <c r="C29" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
         <v>156</v>
       </c>
-      <c r="C29" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
+      <c r="C30" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
         <v>161</v>
       </c>
-      <c r="C30" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
-        <v>162</v>
-      </c>
       <c r="C31" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
+        <v>162</v>
+      </c>
+      <c r="C32" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
         <v>163</v>
       </c>
-      <c r="C32" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
+      <c r="C33" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
         <v>171</v>
       </c>
-      <c r="C33" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="6">
+      <c r="C34" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
         <v>172</v>
       </c>
-      <c r="C34" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
+      <c r="C35" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
         <v>173</v>
       </c>
-      <c r="C35" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="6">
+      <c r="C36" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
         <v>174</v>
       </c>
-      <c r="C36" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="4">
+      <c r="C37" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
         <v>175</v>
       </c>
-      <c r="C37" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="6">
+      <c r="C38" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
         <v>176</v>
       </c>
-      <c r="C38" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="4">
+      <c r="C39" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="4">
         <v>177</v>
       </c>
-      <c r="C39" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
+      <c r="C40" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
         <v>178</v>
       </c>
-      <c r="C40" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
+      <c r="C41" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
         <v>179</v>
       </c>
-      <c r="C41" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="3">
+      <c r="C42" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
         <v>181</v>
       </c>
-      <c r="C42" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="3">
+      <c r="C43" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
         <v>182</v>
       </c>
-      <c r="C43" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="3">
+      <c r="C44" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
         <v>183</v>
       </c>
-      <c r="C44" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="3">
+      <c r="C45" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
         <v>184</v>
       </c>
-      <c r="C45" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="3">
+      <c r="C46" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
         <v>185</v>
       </c>
-      <c r="C46" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="4">
+      <c r="C47" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="4">
         <v>201</v>
       </c>
-      <c r="C48" t="s">
-        <v>771</v>
-      </c>
-      <c r="D48" t="s">
-        <v>247</v>
-      </c>
-      <c r="E48">
+      <c r="C49" t="s">
+        <v>747</v>
+      </c>
+      <c r="D49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
         <v>202</v>
       </c>
-      <c r="C49" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="4">
+      <c r="C50" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
         <v>203</v>
       </c>
-      <c r="C50" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="3">
+      <c r="C51" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
         <v>204</v>
       </c>
-      <c r="C51" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="4">
+      <c r="C52" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="4">
         <v>205</v>
       </c>
-      <c r="C52" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="3">
+      <c r="C53" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
         <v>206</v>
       </c>
-      <c r="C53" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="4">
+      <c r="C54" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
         <v>207</v>
       </c>
-      <c r="C54" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="3">
+      <c r="C55" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-    </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="4">
-        <v>301</v>
-      </c>
-      <c r="C57" t="s">
-        <v>782</v>
-      </c>
-      <c r="D57" t="s">
-        <v>795</v>
-      </c>
-      <c r="E57" t="s">
-        <v>794</v>
-      </c>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C58" t="s">
-        <v>783</v>
+        <v>758</v>
+      </c>
+      <c r="D58" t="s">
+        <v>771</v>
       </c>
       <c r="E58" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C59" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
       <c r="E59" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C60" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
       <c r="E60" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C61" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="E61" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C62" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
       <c r="E62" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C63" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="E63" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C64" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
       <c r="E64" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C65" t="s">
-        <v>790</v>
+        <v>757</v>
       </c>
       <c r="E65" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C66" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="E66" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C67" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="E67" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C68" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="E68" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C69" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="E69" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C70" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="E70" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C71" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="E71" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
+        <v>315</v>
+      </c>
+      <c r="C72" t="s">
+        <v>763</v>
+      </c>
+      <c r="E72" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="4">
         <v>316</v>
       </c>
-      <c r="C72" t="s">
-        <v>786</v>
-      </c>
-      <c r="E72" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
+      <c r="C73" t="s">
+        <v>762</v>
+      </c>
+      <c r="E73" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
@@ -3526,11 +3480,14 @@
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="3"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3556,7 +3513,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3567,300 +3524,300 @@
         <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>701</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>712</v>
+        <v>688</v>
       </c>
       <c r="C4" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="D4" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="G4" t="s">
-        <v>702</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="D5" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="G5" t="s">
-        <v>703</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="D6" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="G6" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="C7" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="D7" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="G7" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="C8" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="D8" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="F8" t="s">
-        <v>714</v>
+        <v>690</v>
       </c>
       <c r="G8" t="s">
-        <v>706</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
       <c r="C9" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="D9" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="F9" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="G9" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
       <c r="C10" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="D10" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="F10" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="G10" t="s">
-        <v>708</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
       <c r="C11" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="D11" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="F11" t="s">
+        <v>661</v>
+      </c>
+      <c r="G11" t="s">
         <v>685</v>
-      </c>
-      <c r="G11" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
       <c r="C12" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="D12" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="F12" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="G12" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
       <c r="C13" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="F13" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
       <c r="G13" t="s">
-        <v>711</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>729</v>
+        <v>705</v>
       </c>
       <c r="C15" t="s">
-        <v>722</v>
+        <v>698</v>
       </c>
       <c r="D15" t="s">
-        <v>716</v>
+        <v>692</v>
       </c>
       <c r="G15" t="s">
-        <v>718</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" t="s">
-        <v>721</v>
+        <v>697</v>
       </c>
       <c r="D16" t="s">
-        <v>719</v>
+        <v>695</v>
       </c>
       <c r="G16" t="s">
-        <v>727</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="D17" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
       <c r="F17" t="s">
-        <v>722</v>
+        <v>698</v>
       </c>
       <c r="G17" t="s">
-        <v>717</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="F18" t="s">
-        <v>721</v>
+        <v>697</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
       <c r="C19" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="D19" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="G19" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
       <c r="C20" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="D20" t="s">
-        <v>725</v>
+        <v>701</v>
       </c>
       <c r="F20" t="s">
-        <v>722</v>
+        <v>698</v>
       </c>
       <c r="G20" t="s">
-        <v>726</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
       <c r="C21" t="s">
-        <v>723</v>
+        <v>699</v>
       </c>
       <c r="D21" t="s">
-        <v>724</v>
+        <v>700</v>
       </c>
       <c r="F21" t="s">
-        <v>721</v>
+        <v>697</v>
       </c>
       <c r="G21" t="s">
-        <v>728</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
       <c r="C22" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="F22" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
       <c r="C23" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="F23" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
       <c r="C24" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="D24" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="G24" t="s">
-        <v>736</v>
+        <v>712</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>740</v>
+        <v>716</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>741</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -3979,10 +3936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3997,7 +3954,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>742</v>
+        <v>718</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -4011,14 +3968,11 @@
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4031,13 +3985,22 @@
       <c r="D4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+      <c r="F4" t="s">
+        <v>790</v>
+      </c>
+      <c r="G4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>212</v>
+      <c r="C6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4047,16 +4010,16 @@
       <c r="C7" t="s">
         <v>214</v>
       </c>
-      <c r="D7" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>215</v>
+      </c>
+      <c r="D8" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4067,879 +4030,745 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>217</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>101</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" t="s">
         <v>218</v>
       </c>
-      <c r="C12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>142</v>
-      </c>
-      <c r="C17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C19" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" t="s">
-        <v>223</v>
-      </c>
       <c r="F19" t="s">
-        <v>419</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>235</v>
+      <c r="B20" s="4">
+        <v>304</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>255</v>
+      </c>
+      <c r="E20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>155</v>
+      <c r="B21" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="C21" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="E21" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F21" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
-        <v>156</v>
+      <c r="B22" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="C22" t="s">
-        <v>238</v>
+        <v>259</v>
+      </c>
+      <c r="E22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
-        <v>157</v>
+      <c r="B23" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="C23" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="E23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F23" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
-        <v>158</v>
+      <c r="B24" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
-      </c>
-      <c r="E24" t="s">
-        <v>223</v>
-      </c>
-      <c r="F24" t="s">
-        <v>376</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="C25" t="s">
-        <v>236</v>
+        <v>265</v>
+      </c>
+      <c r="E25" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="C26" t="s">
-        <v>225</v>
+        <v>266</v>
+      </c>
+      <c r="E26" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>267</v>
+      </c>
+      <c r="E27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>243</v>
+      <c r="B28" s="4">
+        <v>327</v>
       </c>
       <c r="C28" t="s">
-        <v>227</v>
+        <v>268</v>
+      </c>
+      <c r="E28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>244</v>
+      <c r="B29" s="4">
+        <v>328</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>270</v>
+      </c>
+      <c r="E29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>329</v>
+      </c>
+      <c r="C30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>245</v>
+      <c r="B31" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="C31" t="s">
-        <v>246</v>
-      </c>
-      <c r="D31" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="E31" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F31" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
-        <v>217</v>
-      </c>
-      <c r="C32" t="s">
-        <v>251</v>
-      </c>
-      <c r="E32" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" t="s">
         <v>218</v>
       </c>
-      <c r="C33" t="s">
-        <v>250</v>
-      </c>
-      <c r="E33" t="s">
-        <v>223</v>
-      </c>
       <c r="F33" t="s">
-        <v>416</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="E34" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F34" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C35" t="s">
-        <v>254</v>
-      </c>
-      <c r="E35" t="s">
-        <v>223</v>
-      </c>
-      <c r="F35" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C36" t="s">
-        <v>270</v>
-      </c>
-      <c r="E36" t="s">
-        <v>223</v>
-      </c>
-      <c r="F36" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="C37" t="s">
-        <v>260</v>
+        <v>224</v>
+      </c>
+      <c r="D37" t="s">
+        <v>225</v>
       </c>
       <c r="E37" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F37" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>261</v>
+      <c r="B38" s="4">
+        <v>217</v>
       </c>
       <c r="C38" t="s">
-        <v>262</v>
+        <v>229</v>
+      </c>
+      <c r="E38" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
+        <v>218</v>
+      </c>
+      <c r="C39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="4">
+        <v>219</v>
+      </c>
+      <c r="C40" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C39" t="s">
-        <v>263</v>
-      </c>
-      <c r="E39" t="s">
-        <v>223</v>
-      </c>
-      <c r="F39" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C40" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="4">
-        <v>238</v>
-      </c>
       <c r="C41" t="s">
-        <v>266</v>
+        <v>232</v>
+      </c>
+      <c r="E41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>267</v>
+      <c r="B42" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C42" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E42" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F42" t="s">
-        <v>378</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="C43" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E43" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F43" t="s">
-        <v>255</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>269</v>
+      <c r="B44" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C44" t="s">
-        <v>270</v>
-      </c>
-      <c r="E44" t="s">
-        <v>223</v>
-      </c>
-      <c r="F44" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>271</v>
+      <c r="B45" s="4">
+        <v>235</v>
       </c>
       <c r="C45" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E45" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F45" t="s">
-        <v>255</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
-        <v>272</v>
+      <c r="B46" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="C46" t="s">
-        <v>260</v>
-      </c>
-      <c r="E46" t="s">
-        <v>223</v>
-      </c>
-      <c r="F46" t="s">
-        <v>340</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
+        <v>238</v>
+      </c>
+      <c r="C47" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="4">
-        <v>301</v>
+      <c r="B48" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="C48" t="s">
+        <v>241</v>
+      </c>
+      <c r="E48" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" t="s">
+        <v>232</v>
+      </c>
+      <c r="E49" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F51" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" t="s">
+        <v>238</v>
+      </c>
+      <c r="E52" t="s">
+        <v>218</v>
+      </c>
+      <c r="F52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="4">
+        <v>401</v>
+      </c>
+      <c r="C54" t="s">
+        <v>275</v>
+      </c>
+      <c r="E54" t="s">
+        <v>218</v>
+      </c>
+      <c r="F54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
+        <v>402</v>
+      </c>
+      <c r="C55" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" t="s">
+        <v>218</v>
+      </c>
+      <c r="F55" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="4">
+        <v>403</v>
+      </c>
+      <c r="C56" t="s">
         <v>277</v>
       </c>
-      <c r="D48" t="s">
-        <v>283</v>
-      </c>
-      <c r="E48" t="s">
-        <v>223</v>
-      </c>
-      <c r="F48" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="4">
-        <v>302</v>
-      </c>
-      <c r="C49" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="4">
-        <v>303</v>
-      </c>
-      <c r="C50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E50" t="s">
-        <v>223</v>
-      </c>
-      <c r="F50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="4">
-        <v>304</v>
-      </c>
-      <c r="C51" t="s">
-        <v>278</v>
-      </c>
-      <c r="E51" t="s">
-        <v>223</v>
-      </c>
-      <c r="F51" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C52" t="s">
-        <v>279</v>
-      </c>
-      <c r="E52" t="s">
-        <v>223</v>
-      </c>
-      <c r="F52" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C53" t="s">
-        <v>282</v>
-      </c>
-      <c r="E53" t="s">
-        <v>223</v>
-      </c>
-      <c r="F53" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C54" t="s">
-        <v>285</v>
-      </c>
-      <c r="E54" t="s">
-        <v>223</v>
-      </c>
-      <c r="F54" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C55" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C56" t="s">
-        <v>288</v>
-      </c>
       <c r="E56" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F56" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
-        <v>325</v>
+        <v>404</v>
       </c>
       <c r="C57" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E57" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F57" t="s">
-        <v>273</v>
+        <v>794</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="4">
-        <v>326</v>
+      <c r="B58" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C58" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E58" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F58" t="s">
-        <v>273</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
-        <v>327</v>
+        <v>407</v>
       </c>
       <c r="C59" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E59" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F59" t="s">
-        <v>292</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
-        <v>328</v>
+        <v>408</v>
       </c>
       <c r="C60" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E60" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F60" t="s">
-        <v>292</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="C61" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E61" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F61" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C62" t="s">
-        <v>297</v>
-      </c>
-      <c r="E62" t="s">
-        <v>223</v>
-      </c>
-      <c r="F62" t="s">
-        <v>424</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C63" t="s">
+        <v>284</v>
+      </c>
+      <c r="D63" t="s">
+        <v>291</v>
+      </c>
+      <c r="E63" t="s">
+        <v>218</v>
+      </c>
+      <c r="F63" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="4">
-        <v>401</v>
+      <c r="B64" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="C64" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E64" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F64" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="4">
-        <v>402</v>
+      <c r="B65" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="C65" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E65" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F65" t="s">
-        <v>418</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="4">
-        <v>403</v>
+      <c r="B66" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="C66" t="s">
-        <v>300</v>
-      </c>
-      <c r="E66" t="s">
-        <v>223</v>
-      </c>
-      <c r="F66" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
-        <v>404</v>
+        <v>548</v>
       </c>
       <c r="C67" t="s">
-        <v>301</v>
-      </c>
-      <c r="E67" t="s">
-        <v>223</v>
-      </c>
-      <c r="F67" t="s">
-        <v>418</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
-        <v>302</v>
+      <c r="B68" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="C68" t="s">
-        <v>303</v>
-      </c>
-      <c r="E68" t="s">
-        <v>223</v>
-      </c>
-      <c r="F68" t="s">
-        <v>418</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="4">
-        <v>407</v>
+      <c r="B69" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="C69" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E69" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F69" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
-        <v>408</v>
+        <v>555</v>
       </c>
       <c r="C70" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C71" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C72" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="4">
+        <v>601</v>
+      </c>
+      <c r="C74" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="4">
+        <v>602</v>
+      </c>
+      <c r="C75" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="4">
+        <v>603</v>
+      </c>
+      <c r="C76" t="s">
         <v>305</v>
-      </c>
-      <c r="E70" t="s">
-        <v>223</v>
-      </c>
-      <c r="F70" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="4">
-        <v>409</v>
-      </c>
-      <c r="C71" t="s">
-        <v>306</v>
-      </c>
-      <c r="E71" t="s">
-        <v>223</v>
-      </c>
-      <c r="F71" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C73" t="s">
-        <v>307</v>
-      </c>
-      <c r="D73" t="s">
-        <v>314</v>
-      </c>
-      <c r="E73" t="s">
-        <v>223</v>
-      </c>
-      <c r="F73" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C74" t="s">
-        <v>312</v>
-      </c>
-      <c r="E74" t="s">
-        <v>223</v>
-      </c>
-      <c r="F74" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C75" t="s">
-        <v>310</v>
-      </c>
-      <c r="E75" t="s">
-        <v>223</v>
-      </c>
-      <c r="F75" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C76" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="C77" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
-        <v>317</v>
+      <c r="B78" s="4">
+        <v>605</v>
       </c>
       <c r="C78" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
-        <v>319</v>
+      <c r="B79" s="4">
+        <v>606</v>
       </c>
       <c r="C79" t="s">
-        <v>320</v>
-      </c>
-      <c r="E79" t="s">
-        <v>223</v>
-      </c>
-      <c r="F79" t="s">
-        <v>423</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="4">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="C80" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
-        <v>323</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="4">
+        <v>608</v>
       </c>
       <c r="C81" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C82" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="4">
-        <v>601</v>
-      </c>
-      <c r="C84" t="s">
-        <v>326</v>
-      </c>
-      <c r="D84" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="4">
-        <v>602</v>
-      </c>
-      <c r="C85" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="4">
-        <v>603</v>
-      </c>
-      <c r="C86" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="4">
-        <v>604</v>
-      </c>
-      <c r="C87" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="4">
-        <v>605</v>
-      </c>
-      <c r="C88" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="4">
-        <v>606</v>
-      </c>
-      <c r="C89" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="4">
-        <v>607</v>
-      </c>
-      <c r="C90" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="4">
-        <v>608</v>
-      </c>
-      <c r="C91" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5007,16 +4836,16 @@
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="D3" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -5050,10 +4879,10 @@
         <v>1111</v>
       </c>
       <c r="C6" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="D6" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -5061,10 +4890,10 @@
         <v>1112</v>
       </c>
       <c r="C7" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="D7" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -5072,10 +4901,10 @@
         <v>1113</v>
       </c>
       <c r="C8" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="D8" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -5083,10 +4912,10 @@
         <v>1114</v>
       </c>
       <c r="C9" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="D9" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -5094,10 +4923,10 @@
         <v>1115</v>
       </c>
       <c r="C10" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="D10" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -5105,10 +4934,10 @@
         <v>1116</v>
       </c>
       <c r="C11" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="D11" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -5116,10 +4945,10 @@
         <v>1117</v>
       </c>
       <c r="C12" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="D12" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -5127,10 +4956,10 @@
         <v>1118</v>
       </c>
       <c r="C13" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="D13" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -5138,10 +4967,10 @@
         <v>1119</v>
       </c>
       <c r="C14" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="D14" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -5149,10 +4978,10 @@
         <v>1120</v>
       </c>
       <c r="C15" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="D15" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -5477,27 +5306,27 @@
     </row>
     <row r="3" spans="2:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -5509,16 +5338,16 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="E6" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -5526,27 +5355,27 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="E8" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -5554,13 +5383,13 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="D9" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="E9" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -5568,159 +5397,159 @@
         <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="C12" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="D12" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="E12" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C13" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="D13" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="E13" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="C14" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="D14" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C15" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="D15" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="E15" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C16" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="D16" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="E16" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="C17" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="D17" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="E17" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>497</v>
+      </c>
+      <c r="C18" t="s">
+        <v>573</v>
+      </c>
+      <c r="D18" t="s">
         <v>521</v>
       </c>
-      <c r="C18" t="s">
-        <v>597</v>
-      </c>
-      <c r="D18" t="s">
-        <v>545</v>
-      </c>
       <c r="E18" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>498</v>
+      </c>
+      <c r="C19" t="s">
+        <v>574</v>
+      </c>
+      <c r="D19" t="s">
         <v>522</v>
       </c>
-      <c r="C19" t="s">
-        <v>598</v>
-      </c>
-      <c r="D19" t="s">
-        <v>546</v>
-      </c>
       <c r="E19" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>499</v>
+      </c>
+      <c r="C20" t="s">
+        <v>575</v>
+      </c>
+      <c r="D20" t="s">
         <v>523</v>
       </c>
-      <c r="C20" t="s">
-        <v>599</v>
-      </c>
-      <c r="D20" t="s">
-        <v>547</v>
-      </c>
       <c r="E20" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="C21" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="D21" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="E21" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -5728,125 +5557,125 @@
         <v>206</v>
       </c>
       <c r="C22" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="D22" t="s">
         <v>208</v>
       </c>
       <c r="E22" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C23" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="D23" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="E23" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="C24" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="D24" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="E24" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="C25" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="D25" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="E25" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="C26" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="C27" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C28" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="C29" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="C30" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="C31" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="C33" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="E33" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="F33" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="C34" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -5961,10 +5790,10 @@
         <v>7</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>9</v>
@@ -6034,7 +5863,7 @@
         <v>2105</v>
       </c>
       <c r="C8" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -6406,7 +6235,7 @@
         <v>2203</v>
       </c>
       <c r="C37" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="L37" s="4">
         <v>3</v>
@@ -6420,7 +6249,7 @@
         <v>2204</v>
       </c>
       <c r="C38" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="L38" s="4">
         <v>2</v>
@@ -6437,7 +6266,7 @@
         <v>2205</v>
       </c>
       <c r="C39" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -6457,7 +6286,7 @@
         <v>2206</v>
       </c>
       <c r="C40" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -6480,7 +6309,7 @@
         <v>2207</v>
       </c>
       <c r="C41" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="L41" s="4">
         <v>1</v>
@@ -6500,7 +6329,7 @@
         <v>30</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="N43">
         <v>3</v>
@@ -6509,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
@@ -6517,13 +6346,13 @@
         <v>2302</v>
       </c>
       <c r="C44" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="N44">
         <v>5</v>
@@ -6535,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="W44" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -6561,7 +6390,7 @@
         <v>8</v>
       </c>
       <c r="W45" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
@@ -6587,7 +6416,7 @@
         <v>6</v>
       </c>
       <c r="W46" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
@@ -6601,7 +6430,7 @@
         <v>7</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="N47">
         <v>11</v>
@@ -6613,7 +6442,7 @@
         <v>100</v>
       </c>
       <c r="W47" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
@@ -6627,7 +6456,7 @@
         <v>9</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="N48">
         <v>12</v>
@@ -6639,7 +6468,7 @@
         <v>125</v>
       </c>
       <c r="W48" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
@@ -6653,7 +6482,7 @@
         <v>8</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="N49">
         <v>10</v>
@@ -6665,7 +6494,7 @@
         <v>125</v>
       </c>
       <c r="W49" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
@@ -6679,7 +6508,7 @@
         <v>10</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="N50">
         <v>11</v>
@@ -6691,7 +6520,7 @@
         <v>125</v>
       </c>
       <c r="W50" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
@@ -6720,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="W51" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -6746,7 +6575,7 @@
         <v>8</v>
       </c>
       <c r="W52" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -6775,7 +6604,7 @@
         <v>20</v>
       </c>
       <c r="W53" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -6804,7 +6633,7 @@
         <v>40</v>
       </c>
       <c r="W54" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
@@ -6818,7 +6647,7 @@
         <v>6</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="N55">
         <v>10</v>
@@ -6830,7 +6659,7 @@
         <v>35</v>
       </c>
       <c r="W55" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
@@ -6844,7 +6673,7 @@
         <v>8</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="N56">
         <v>11</v>
@@ -6856,7 +6685,7 @@
         <v>35</v>
       </c>
       <c r="W56" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
@@ -6882,7 +6711,7 @@
         <v>6</v>
       </c>
       <c r="W57" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -6908,7 +6737,7 @@
         <v>6</v>
       </c>
       <c r="W58" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -6922,7 +6751,7 @@
         <v>4</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="N59">
         <v>10</v>
@@ -6934,7 +6763,7 @@
         <v>20</v>
       </c>
       <c r="W59" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
@@ -6948,7 +6777,7 @@
         <v>6</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="N60">
         <v>11</v>
@@ -6960,7 +6789,7 @@
         <v>30</v>
       </c>
       <c r="W60" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
@@ -6974,7 +6803,7 @@
         <v>4</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="N61">
         <v>7</v>
@@ -6986,7 +6815,7 @@
         <v>6</v>
       </c>
       <c r="W61" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
@@ -7000,7 +6829,7 @@
         <v>6</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="N62">
         <v>7</v>
@@ -7012,7 +6841,7 @@
         <v>12</v>
       </c>
       <c r="W62" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
@@ -7026,7 +6855,7 @@
         <v>7</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="N63">
         <v>16</v>
@@ -7041,7 +6870,7 @@
         <v>4</v>
       </c>
       <c r="W63" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
@@ -7067,7 +6896,7 @@
         <v>8</v>
       </c>
       <c r="W64" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
@@ -7081,7 +6910,7 @@
         <v>3</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="N65">
         <v>7</v>
@@ -7093,7 +6922,7 @@
         <v>20</v>
       </c>
       <c r="W65" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
@@ -7107,7 +6936,7 @@
         <v>5</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="N66">
         <v>8</v>
@@ -7119,7 +6948,7 @@
         <v>20</v>
       </c>
       <c r="W66" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
@@ -7151,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="W67" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
@@ -7183,7 +7012,7 @@
         <v>1</v>
       </c>
       <c r="W68" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
@@ -7197,7 +7026,7 @@
         <v>3</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="N69">
         <v>9</v>
@@ -7209,7 +7038,7 @@
         <v>30</v>
       </c>
       <c r="W69" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
@@ -7223,7 +7052,7 @@
         <v>5</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="N70">
         <v>10</v>
@@ -7235,7 +7064,7 @@
         <v>30</v>
       </c>
       <c r="W70" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
@@ -7249,7 +7078,7 @@
         <v>5</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="N71">
         <v>4</v>
@@ -7261,7 +7090,7 @@
         <v>5</v>
       </c>
       <c r="W71" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
@@ -7275,7 +7104,7 @@
         <v>7</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="N72">
         <v>5</v>
@@ -7287,7 +7116,7 @@
         <v>5</v>
       </c>
       <c r="W72" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
@@ -7301,7 +7130,7 @@
         <v>6</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="N73">
         <v>11</v>
@@ -7313,7 +7142,7 @@
         <v>30</v>
       </c>
       <c r="W73" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.25">
@@ -7327,7 +7156,7 @@
         <v>8</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="N74">
         <v>12</v>
@@ -7339,7 +7168,7 @@
         <v>30</v>
       </c>
       <c r="W74" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.25">
@@ -7716,7 +7545,7 @@
         <v>2515</v>
       </c>
       <c r="C104" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="N104">
         <v>0.04</v>
@@ -8093,7 +7922,7 @@
         <v>2715</v>
       </c>
       <c r="C134" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="O134">
         <v>2</v>
@@ -8107,7 +7936,7 @@
         <v>2716</v>
       </c>
       <c r="C135" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -8127,7 +7956,7 @@
         <v>2717</v>
       </c>
       <c r="C136" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -8254,7 +8083,7 @@
         <v>2811</v>
       </c>
       <c r="C148" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="149" spans="2:25" x14ac:dyDescent="0.25">
@@ -8262,7 +8091,7 @@
         <v>2812</v>
       </c>
       <c r="C149" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="150" spans="2:25" x14ac:dyDescent="0.25">
@@ -8270,7 +8099,7 @@
         <v>2813</v>
       </c>
       <c r="C150" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -8281,13 +8110,13 @@
         <v>2821</v>
       </c>
       <c r="C151" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="E151">
         <v>3</v>
       </c>
       <c r="Y151" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="153" spans="2:25" x14ac:dyDescent="0.25">
@@ -8295,13 +8124,13 @@
         <v>2901</v>
       </c>
       <c r="C153" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="D153" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="W153" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
     </row>
     <row r="154" spans="2:25" x14ac:dyDescent="0.25">
@@ -8309,16 +8138,16 @@
         <v>2902</v>
       </c>
       <c r="C154" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="D154" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="E154">
         <v>2</v>
       </c>
       <c r="W154" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
     </row>
     <row r="155" spans="2:25" x14ac:dyDescent="0.25">
@@ -8326,16 +8155,16 @@
         <v>2903</v>
       </c>
       <c r="C155" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="D155" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="E155">
         <v>3</v>
       </c>
       <c r="W155" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
     </row>
     <row r="156" spans="2:25" x14ac:dyDescent="0.25">
@@ -8343,10 +8172,10 @@
         <v>2911</v>
       </c>
       <c r="C156" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="D156" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="H156" s="8"/>
       <c r="L156" s="4">
@@ -8358,10 +8187,10 @@
         <v>2912</v>
       </c>
       <c r="C157" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="D157" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="L157" s="4">
         <v>1</v>
@@ -8372,10 +8201,10 @@
         <v>2913</v>
       </c>
       <c r="C158" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="D158" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="159" spans="2:25" x14ac:dyDescent="0.25">
@@ -8383,10 +8212,10 @@
         <v>2914</v>
       </c>
       <c r="C159" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="D159" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="160" spans="2:25" x14ac:dyDescent="0.25">
@@ -8394,10 +8223,10 @@
         <v>2915</v>
       </c>
       <c r="C160" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="D160" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="L160" s="4">
         <v>1</v>
@@ -8408,10 +8237,10 @@
         <v>2916</v>
       </c>
       <c r="C161" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="D161" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="2:23" x14ac:dyDescent="0.25">
@@ -8419,16 +8248,16 @@
         <v>2921</v>
       </c>
       <c r="C162" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="D162" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="N162">
         <v>0.04</v>
       </c>
       <c r="W162" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="163" spans="2:23" x14ac:dyDescent="0.25">
@@ -8436,10 +8265,10 @@
         <v>2922</v>
       </c>
       <c r="C163" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="D163" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -8448,7 +8277,7 @@
         <v>0.04</v>
       </c>
       <c r="W163" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
     </row>
     <row r="164" spans="2:23" x14ac:dyDescent="0.25">
@@ -8456,16 +8285,16 @@
         <v>2923</v>
       </c>
       <c r="C164" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="D164" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="N164">
         <v>0.04</v>
       </c>
       <c r="W164" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165" spans="2:23" x14ac:dyDescent="0.25">
@@ -8473,10 +8302,10 @@
         <v>2924</v>
       </c>
       <c r="C165" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="D165" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="L165" s="4">
         <v>1</v>
@@ -8488,7 +8317,7 @@
         <v>6</v>
       </c>
       <c r="W165" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="166" spans="2:23" x14ac:dyDescent="0.25">
@@ -8496,13 +8325,13 @@
         <v>2925</v>
       </c>
       <c r="C166" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="D166" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="W166" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.25">
@@ -8510,10 +8339,10 @@
         <v>2926</v>
       </c>
       <c r="C167" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="D167" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="E167">
         <v>2</v>
@@ -8525,7 +8354,7 @@
         <v>0.02</v>
       </c>
       <c r="W167" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="168" spans="2:23" x14ac:dyDescent="0.25">
@@ -8533,10 +8362,10 @@
         <v>2927</v>
       </c>
       <c r="C168" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="D168" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="E168">
         <v>3</v>
@@ -8548,7 +8377,7 @@
         <v>0.02</v>
       </c>
       <c r="W168" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
     </row>
     <row r="169" spans="2:23" x14ac:dyDescent="0.25">
@@ -8556,10 +8385,10 @@
         <v>2931</v>
       </c>
       <c r="C169" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="D169" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="L169" s="4">
         <v>2</v>
@@ -8573,10 +8402,10 @@
         <v>2932</v>
       </c>
       <c r="C170" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="D170" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="L170" s="4">
         <v>1</v>
@@ -8593,10 +8422,10 @@
         <v>2933</v>
       </c>
       <c r="C171" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="D171" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="L171" s="4">
         <v>1</v>
@@ -8610,10 +8439,10 @@
         <v>2941</v>
       </c>
       <c r="C172" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="D172" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8624,10 +8453,10 @@
         <v>2942</v>
       </c>
       <c r="C173" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="D173" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="E173">
         <v>2</v>
@@ -8638,10 +8467,10 @@
         <v>2943</v>
       </c>
       <c r="C174" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="D174" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="E174">
         <v>2</v>
@@ -8652,10 +8481,10 @@
         <v>2944</v>
       </c>
       <c r="C175" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="D175" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="E175">
         <v>2</v>
@@ -8672,10 +8501,10 @@
         <v>2945</v>
       </c>
       <c r="C176" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="D176" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="E176">
         <v>2</v>
@@ -8686,10 +8515,10 @@
         <v>2946</v>
       </c>
       <c r="C177" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="D177" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="E177">
         <v>2</v>
@@ -8700,10 +8529,10 @@
         <v>2947</v>
       </c>
       <c r="C178" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="D178" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="E178">
         <v>2</v>
@@ -8714,10 +8543,10 @@
         <v>2948</v>
       </c>
       <c r="C179" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="D179" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -8728,10 +8557,10 @@
         <v>2951</v>
       </c>
       <c r="C180" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="D180" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
     </row>
     <row r="181" spans="2:17" x14ac:dyDescent="0.25">
@@ -8739,10 +8568,10 @@
         <v>2952</v>
       </c>
       <c r="C181" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="D181" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
     </row>
     <row r="182" spans="2:17" x14ac:dyDescent="0.25">
@@ -8750,10 +8579,10 @@
         <v>2953</v>
       </c>
       <c r="C182" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D182" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="L182" s="4">
         <v>1</v>
@@ -8767,10 +8596,10 @@
         <v>2954</v>
       </c>
       <c r="C183" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="D183" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="N183">
         <v>0.04</v>
@@ -8781,10 +8610,10 @@
         <v>2955</v>
       </c>
       <c r="C184" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D184" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="L184" s="4">
         <v>1</v>
@@ -8798,10 +8627,10 @@
         <v>2956</v>
       </c>
       <c r="C185" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="D185" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="L185" s="4">
         <v>1</v>
@@ -8815,10 +8644,10 @@
         <v>2957</v>
       </c>
       <c r="C186" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="D186" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="L186" s="4">
         <v>1</v>
@@ -8832,10 +8661,10 @@
         <v>2961</v>
       </c>
       <c r="C187" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="D187" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -8855,10 +8684,10 @@
         <v>2962</v>
       </c>
       <c r="C188" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="D188" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="E188">
         <v>2</v>
@@ -8875,10 +8704,10 @@
         <v>2963</v>
       </c>
       <c r="C189" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="D189" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="E189">
         <v>2</v>
@@ -8892,10 +8721,10 @@
         <v>2964</v>
       </c>
       <c r="C190" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="D190" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="E190">
         <v>2</v>
@@ -8909,10 +8738,10 @@
         <v>2965</v>
       </c>
       <c r="C191" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="D191" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="192" spans="2:17" x14ac:dyDescent="0.25">
@@ -8920,10 +8749,10 @@
         <v>2966</v>
       </c>
       <c r="C192" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="D192" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="L192" s="4">
         <v>1</v>
@@ -8937,10 +8766,10 @@
         <v>2967</v>
       </c>
       <c r="C193" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="D193" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="L193" s="4">
         <v>2</v>
@@ -8957,10 +8786,10 @@
         <v>2968</v>
       </c>
       <c r="C194" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="D194" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="E194">
         <v>3</v>
@@ -8974,10 +8803,10 @@
         <v>2969</v>
       </c>
       <c r="C195" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="D195" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="E195">
         <v>3</v>
@@ -8991,10 +8820,10 @@
         <v>2970</v>
       </c>
       <c r="C196" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D196" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="E196">
         <v>3</v>
@@ -9014,10 +8843,10 @@
         <v>2971</v>
       </c>
       <c r="C197" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="D197" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="E197">
         <v>2</v>
@@ -9034,10 +8863,10 @@
         <v>2972</v>
       </c>
       <c r="C198" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="D198" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="E198">
         <v>3</v>
@@ -9051,10 +8880,10 @@
         <v>2973</v>
       </c>
       <c r="C199" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="D199" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="L199" s="4">
         <v>1</v>
@@ -9091,7 +8920,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9102,16 +8931,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -9122,10 +8951,10 @@
         <v>3101</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="F3">
         <v>2931</v>
@@ -9137,7 +8966,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9145,10 +8974,10 @@
         <v>3102</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="D4" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="F4">
         <v>2931</v>
@@ -9165,10 +8994,10 @@
         <v>3103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="F5">
         <v>2933</v>
@@ -9185,10 +9014,10 @@
         <v>3106</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="F6">
         <v>2932</v>
@@ -9205,10 +9034,10 @@
         <v>3107</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="D7" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="F7">
         <v>2932</v>
@@ -9225,10 +9054,10 @@
         <v>3108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="D8" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -9242,10 +9071,10 @@
         <v>3111</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="D9" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9">
@@ -9260,10 +9089,10 @@
         <v>3112</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="D10" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10">
@@ -9281,7 +9110,7 @@
         <v>7.62</v>
       </c>
       <c r="D11" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11">
@@ -9299,7 +9128,7 @@
         <v>7.62</v>
       </c>
       <c r="D12" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12">
@@ -9317,7 +9146,7 @@
         <v>7.62</v>
       </c>
       <c r="D13" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13">
@@ -9332,7 +9161,7 @@
         <v>7.62</v>
       </c>
       <c r="D14" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14">
@@ -9344,10 +9173,10 @@
         <v>3117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="D15" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15">
@@ -9359,10 +9188,10 @@
         <v>3118</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="D16" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16">
@@ -9374,10 +9203,10 @@
         <v>3119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="D17" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17">
@@ -9392,10 +9221,10 @@
         <v>3120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="D18" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18">
@@ -9413,7 +9242,7 @@
         <v>5.56</v>
       </c>
       <c r="D19" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19">
@@ -9428,7 +9257,7 @@
         <v>7.62</v>
       </c>
       <c r="D20" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20">
@@ -9440,10 +9269,10 @@
         <v>3123</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="D21" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21">
@@ -9458,10 +9287,10 @@
         <v>3124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="D22" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22">
@@ -9479,7 +9308,7 @@
         <v>7.62</v>
       </c>
       <c r="D23" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23">
@@ -9497,7 +9326,7 @@
         <v>7.62</v>
       </c>
       <c r="D24" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24">
@@ -9512,10 +9341,10 @@
         <v>3127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="D25" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25">
@@ -9530,10 +9359,10 @@
         <v>3128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="D26" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26">
@@ -9545,10 +9374,10 @@
         <v>3129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="D27" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27">
@@ -9563,10 +9392,10 @@
         <v>3130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="D28" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28">
@@ -9581,10 +9410,10 @@
         <v>3131</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="D29" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29">
@@ -9596,10 +9425,10 @@
         <v>3132</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="D30" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30">
@@ -9611,13 +9440,13 @@
         <v>3133</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="D31" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="G31">
         <v>40</v>
@@ -9631,13 +9460,13 @@
         <v>3134</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="D32" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="G32">
         <v>60</v>
@@ -9654,7 +9483,7 @@
         <v>5.56</v>
       </c>
       <c r="D33" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33">
@@ -9672,7 +9501,7 @@
         <v>5.56</v>
       </c>
       <c r="D34" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34">
@@ -9687,10 +9516,10 @@
         <v>3137</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="D35" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35">
@@ -9705,10 +9534,10 @@
         <v>3138</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="D36" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36">
@@ -9726,7 +9555,7 @@
         <v>5.56</v>
       </c>
       <c r="D37" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37">
@@ -9741,7 +9570,7 @@
         <v>5.56</v>
       </c>
       <c r="D38" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -9755,13 +9584,13 @@
         <v>3201</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="D40" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="F40" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -9775,13 +9604,13 @@
         <v>3202</v>
       </c>
       <c r="C41" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="D41" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="F41" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -9832,7 +9661,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9843,13 +9672,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -9863,19 +9692,19 @@
         <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="I4" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -9884,16 +9713,16 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="E5" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="F5" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="I5" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9902,16 +9731,16 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="E6" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="F6" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="I6" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9920,16 +9749,16 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="E7" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="F7" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="I7" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -9938,16 +9767,16 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="E8" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="F8" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="I8" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -9956,19 +9785,19 @@
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="I9" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -9977,16 +9806,16 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="E10" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="F10" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="I10" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -9995,16 +9824,16 @@
         <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="E11" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="F11" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="I11" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -10013,16 +9842,16 @@
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="E12" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="F12" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="I12" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -10031,39 +9860,39 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="E13" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="F13" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="I13" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="C15">
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="I15" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -10072,19 +9901,19 @@
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="E16" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="F16" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -10093,19 +9922,19 @@
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="E17" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="F17" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -10114,19 +9943,19 @@
         <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="E18" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="F18" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -10135,19 +9964,19 @@
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="E19" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="F19" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -10156,19 +9985,19 @@
         <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="I20" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -10177,19 +10006,19 @@
         <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="E21" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="F21" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -10198,19 +10027,19 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="E22" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="F22" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="G22">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -10219,19 +10048,19 @@
         <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="E23" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="F23" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -10240,24 +10069,24 @@
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="E24" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="F24" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="C26">
         <v>121</v>
@@ -10289,7 +10118,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="C32">
         <v>131</v>
@@ -10301,10 +10130,10 @@
         <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="I33" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -10313,7 +10142,7 @@
         <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -10322,10 +10151,10 @@
         <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="I35" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C3FADA-D972-4263-B273-2C304D939693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787DDDF1-8976-4AB1-B714-23AD75460246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="796">
   <si>
     <t>ID</t>
   </si>
@@ -2414,9 +2414,6 @@
     <t>Gravel</t>
   </si>
   <si>
-    <t>id 1-10 has 10-100% opacity</t>
-  </si>
-  <si>
     <t>covers map</t>
   </si>
   <si>
@@ -2430,6 +2427,12 @@
   </si>
   <si>
     <t>inventory (furniture)</t>
+  </si>
+  <si>
+    <t>id 1-10 has 100-10% opacity</t>
+  </si>
+  <si>
+    <t>height</t>
   </si>
 </sst>
 </file>
@@ -3936,29 +3939,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.85546875" style="4"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="78.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
+    <col min="8" max="8" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>718</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3968,14 +3971,17 @@
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>210</v>
       </c>
@@ -3985,14 +3991,17 @@
       <c r="D4" t="s">
         <v>211</v>
       </c>
-      <c r="F4" t="s">
-        <v>790</v>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>11</v>
       </c>
@@ -4000,18 +4009,24 @@
         <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>21</v>
       </c>
@@ -4021,41 +4036,50 @@
       <c r="D8" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>101</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G11" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>111</v>
       </c>
       <c r="C12" t="s">
         <v>252</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>101</v>
       </c>
@@ -4065,70 +4089,70 @@
       <c r="D19" t="s">
         <v>260</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>218</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>304</v>
       </c>
       <c r="C20" t="s">
         <v>255</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>218</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C21" t="s">
         <v>256</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>218</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C22" t="s">
         <v>259</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>218</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C23" t="s">
         <v>262</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>218</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>263</v>
       </c>
@@ -4136,147 +4160,147 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C25" t="s">
         <v>265</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>218</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>325</v>
       </c>
       <c r="C26" t="s">
         <v>266</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>218</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>326</v>
       </c>
       <c r="C27" t="s">
         <v>267</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>218</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>327</v>
       </c>
       <c r="C28" t="s">
         <v>268</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>218</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>328</v>
       </c>
       <c r="C29" t="s">
         <v>270</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>218</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>329</v>
       </c>
       <c r="C30" t="s">
         <v>271</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>218</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>273</v>
       </c>
       <c r="C31" t="s">
         <v>274</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>218</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>155</v>
       </c>
       <c r="C33" t="s">
         <v>219</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>218</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>157</v>
       </c>
       <c r="C34" t="s">
         <v>220</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>218</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>158</v>
       </c>
       <c r="C35" t="s">
         <v>221</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>218</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>223</v>
       </c>
@@ -4286,98 +4310,98 @@
       <c r="D37" t="s">
         <v>225</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>218</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>217</v>
       </c>
       <c r="C38" t="s">
         <v>229</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>218</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>218</v>
       </c>
       <c r="C39" t="s">
         <v>228</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>218</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>219</v>
       </c>
       <c r="C40" t="s">
         <v>230</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>218</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C41" t="s">
         <v>232</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>218</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C42" t="s">
         <v>248</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>218</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C43" t="s">
         <v>238</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>218</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>239</v>
       </c>
@@ -4385,21 +4409,21 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>235</v>
       </c>
       <c r="C45" t="s">
         <v>241</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>218</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>242</v>
       </c>
@@ -4407,7 +4431,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>238</v>
       </c>
@@ -4415,189 +4439,189 @@
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C48" t="s">
         <v>241</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>218</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>246</v>
       </c>
       <c r="C49" t="s">
         <v>232</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>218</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C50" t="s">
         <v>248</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>218</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>249</v>
       </c>
       <c r="C51" t="s">
         <v>232</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>218</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C52" t="s">
         <v>238</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>218</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>401</v>
       </c>
       <c r="C54" t="s">
         <v>275</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>218</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>402</v>
       </c>
       <c r="C55" t="s">
         <v>276</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>218</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>403</v>
       </c>
       <c r="C56" t="s">
         <v>277</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>218</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>404</v>
       </c>
       <c r="C57" t="s">
         <v>278</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>218</v>
       </c>
-      <c r="F57" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C58" t="s">
         <v>280</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>218</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>407</v>
       </c>
       <c r="C59" t="s">
         <v>281</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>218</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
         <v>408</v>
       </c>
       <c r="C60" t="s">
         <v>282</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>218</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
         <v>409</v>
       </c>
       <c r="C61" t="s">
         <v>283</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>218</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>285</v>
       </c>
@@ -4607,42 +4631,42 @@
       <c r="D63" t="s">
         <v>291</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>218</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C64" t="s">
         <v>289</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>218</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>288</v>
       </c>
       <c r="C65" t="s">
         <v>287</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>218</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>292</v>
       </c>
@@ -4650,7 +4674,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
         <v>548</v>
       </c>
@@ -4658,7 +4682,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>294</v>
       </c>
@@ -4666,21 +4690,21 @@
         <v>295</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>296</v>
       </c>
       <c r="C69" t="s">
         <v>297</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>218</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>555</v>
       </c>
@@ -4688,7 +4712,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>300</v>
       </c>
@@ -4696,7 +4720,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
         <v>301</v>
       </c>
@@ -4704,7 +4728,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>601</v>
       </c>
@@ -4715,7 +4739,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
         <v>602</v>
       </c>
@@ -4723,7 +4747,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
         <v>603</v>
       </c>
@@ -4731,7 +4755,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
         <v>604</v>
       </c>
@@ -4739,7 +4763,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
         <v>605</v>
       </c>
@@ -4747,7 +4771,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="4">
         <v>606</v>
       </c>
@@ -4755,7 +4779,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="4">
         <v>607</v>
       </c>
@@ -5692,7 +5716,7 @@
   <dimension ref="A1:Y199"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="S150" sqref="S150"/>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787DDDF1-8976-4AB1-B714-23AD75460246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4656F7A4-3EF0-4B5B-9962-86D2E7EB1D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrains" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="804">
   <si>
     <t>ID</t>
   </si>
@@ -2357,9 +2357,6 @@
     <t>Stair, red, right</t>
   </si>
   <si>
-    <t>1-3 in grid</t>
-  </si>
-  <si>
     <t>Stairs</t>
   </si>
   <si>
@@ -2433,6 +2430,33 @@
   </si>
   <si>
     <t>height</t>
+  </si>
+  <si>
+    <t>0, allows movement up 3</t>
+  </si>
+  <si>
+    <t>Stairway, green, up</t>
+  </si>
+  <si>
+    <t>Stairway, green, down</t>
+  </si>
+  <si>
+    <t>Stairway, green, left</t>
+  </si>
+  <si>
+    <t>Stairway, green, right</t>
+  </si>
+  <si>
+    <t>Stairway, red, up</t>
+  </si>
+  <si>
+    <t>Stairway, red, down</t>
+  </si>
+  <si>
+    <t>Stairway, red, left</t>
+  </si>
+  <si>
+    <t>Stairway, red, right</t>
   </si>
 </sst>
 </file>
@@ -2833,10 +2857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF2113E-D79E-4CB9-ADC9-BF3629B5384A}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2844,7 +2868,7 @@
     <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
     <col min="7" max="7" width="78.7109375" customWidth="1"/>
   </cols>
@@ -2918,7 +2942,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2982,7 +3006,7 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -2990,7 +3014,7 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -2998,7 +3022,7 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3006,7 +3030,7 @@
         <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3014,7 +3038,7 @@
         <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3022,7 +3046,7 @@
         <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3030,7 +3054,7 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -3038,7 +3062,7 @@
         <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3118,7 +3142,7 @@
         <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3126,7 +3150,7 @@
         <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3134,7 +3158,7 @@
         <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3190,7 +3214,7 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -3198,7 +3222,7 @@
         <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -3206,7 +3230,7 @@
         <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -3214,7 +3238,7 @@
         <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -3222,7 +3246,7 @@
         <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -3288,209 +3312,211 @@
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="3">
-        <v>211</v>
-      </c>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
+      <c r="B57" s="4">
+        <v>301</v>
+      </c>
+      <c r="C57" t="s">
+        <v>758</v>
+      </c>
+      <c r="D57" t="s">
+        <v>770</v>
+      </c>
+      <c r="E57" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C58" t="s">
-        <v>758</v>
-      </c>
-      <c r="D58" t="s">
-        <v>771</v>
-      </c>
-      <c r="E58" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C59" t="s">
-        <v>759</v>
-      </c>
-      <c r="E59" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C60" t="s">
-        <v>760</v>
-      </c>
-      <c r="E60" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C61" t="s">
-        <v>761</v>
-      </c>
-      <c r="E61" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C62" t="s">
-        <v>754</v>
-      </c>
-      <c r="E62" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C63" t="s">
-        <v>755</v>
-      </c>
-      <c r="E63" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C64" t="s">
-        <v>756</v>
-      </c>
-      <c r="E64" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C65" t="s">
-        <v>757</v>
-      </c>
-      <c r="E65" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C66" t="s">
-        <v>766</v>
-      </c>
-      <c r="E66" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C67" t="s">
-        <v>767</v>
-      </c>
-      <c r="E67" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C68" t="s">
-        <v>768</v>
-      </c>
-      <c r="E68" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C69" t="s">
-        <v>769</v>
-      </c>
-      <c r="E69" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C70" t="s">
-        <v>765</v>
-      </c>
-      <c r="E70" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C71" t="s">
-        <v>764</v>
-      </c>
-      <c r="E71" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C72" t="s">
-        <v>763</v>
-      </c>
-      <c r="E72" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C73" t="s">
-        <v>762</v>
-      </c>
-      <c r="E73" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="3"/>
+        <v>796</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="4">
+        <v>318</v>
+      </c>
+      <c r="C74" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="4">
+        <v>319</v>
+      </c>
+      <c r="C75" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="4">
+        <v>320</v>
+      </c>
+      <c r="C76" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="4">
+        <v>321</v>
+      </c>
+      <c r="C77" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="4">
+        <v>322</v>
+      </c>
+      <c r="C78" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="4">
+        <v>323</v>
+      </c>
+      <c r="C79" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="4">
+        <v>324</v>
+      </c>
+      <c r="C80" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3941,7 +3967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3972,7 +3998,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>226</v>
@@ -3995,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4009,7 +4035,7 @@
         <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -4056,7 +4082,7 @@
         <v>101</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>260</v>
@@ -4065,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4562,7 +4588,7 @@
         <v>218</v>
       </c>
       <c r="G57" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4656F7A4-3EF0-4B5B-9962-86D2E7EB1D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4719FC0-A524-48EB-AF7D-98E97A0E72BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrains" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="819">
   <si>
     <t>ID</t>
   </si>
@@ -701,24 +701,9 @@
     <t>Floor</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Grass (dandelion)</t>
-  </si>
-  <si>
-    <t>Gravel (pebbles)</t>
-  </si>
-  <si>
-    <t>Gravel (rocks)</t>
-  </si>
-  <si>
     <t>Concrete</t>
   </si>
   <si>
-    <t>201-207</t>
-  </si>
-  <si>
     <t>Brick Wall</t>
   </si>
   <si>
@@ -731,117 +716,33 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Window (closed)</t>
-  </si>
-  <si>
-    <t>Window (open)</t>
-  </si>
-  <si>
-    <t>Window (locked)</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>Door (open)</t>
-  </si>
-  <si>
-    <t>closes door</t>
-  </si>
-  <si>
-    <t>222, 223</t>
-  </si>
-  <si>
-    <t>220, 221</t>
-  </si>
-  <si>
-    <t>opens door</t>
-  </si>
-  <si>
-    <t>224, 225</t>
-  </si>
-  <si>
-    <t>Door (locked)</t>
-  </si>
-  <si>
-    <t>231-234</t>
-  </si>
-  <si>
-    <t>Railing</t>
-  </si>
-  <si>
-    <t>Brick Wall (movable)</t>
-  </si>
-  <si>
-    <t>236, 237</t>
-  </si>
-  <si>
     <t>Pillar</t>
   </si>
   <si>
     <t>Steel Cross</t>
   </si>
   <si>
-    <t>239-241</t>
-  </si>
-  <si>
-    <t>242, 243</t>
-  </si>
-  <si>
-    <t>244, 245</t>
-  </si>
-  <si>
-    <t>Door (closed)</t>
-  </si>
-  <si>
-    <t>246-249</t>
-  </si>
-  <si>
-    <t>250, 251</t>
-  </si>
-  <si>
     <t>drink water</t>
   </si>
   <si>
     <t>Pickle Jar</t>
   </si>
   <si>
-    <t>get pickle</t>
-  </si>
-  <si>
     <t>Water Fountain</t>
   </si>
   <si>
-    <t>Chair</t>
-  </si>
-  <si>
     <t>Couch</t>
   </si>
   <si>
-    <t>305-308</t>
-  </si>
-  <si>
-    <t>309, 310</t>
-  </si>
-  <si>
     <t>Bed</t>
   </si>
   <si>
     <t>Furniture</t>
   </si>
   <si>
-    <t>311, 312</t>
-  </si>
-  <si>
     <t>Wardrobe</t>
   </si>
   <si>
-    <t>313-316</t>
-  </si>
-  <si>
-    <t>317-324</t>
-  </si>
-  <si>
     <t>Sign</t>
   </si>
   <si>
@@ -866,9 +767,6 @@
     <t>chest</t>
   </si>
   <si>
-    <t>331, 332</t>
-  </si>
-  <si>
     <t>Vending Machine</t>
   </si>
   <si>
@@ -884,9 +782,6 @@
     <t>Cardboard Box</t>
   </si>
   <si>
-    <t>405, 406</t>
-  </si>
-  <si>
     <t>Desk</t>
   </si>
   <si>
@@ -899,45 +794,15 @@
     <t>Dryer</t>
   </si>
   <si>
-    <t>Tree</t>
-  </si>
-  <si>
-    <t>501-505</t>
-  </si>
-  <si>
-    <t>511-526</t>
-  </si>
-  <si>
     <t>Barbed Wire Fence</t>
   </si>
   <si>
-    <t>527-542</t>
-  </si>
-  <si>
     <t>Wire Fence</t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Outdoors</t>
-  </si>
-  <si>
-    <t>543-547</t>
-  </si>
-  <si>
     <t>Rock</t>
   </si>
   <si>
-    <t>549-551</t>
-  </si>
-  <si>
-    <t>Sand</t>
-  </si>
-  <si>
-    <t>552-554</t>
-  </si>
-  <si>
     <t>Bush</t>
   </si>
   <si>
@@ -947,12 +812,6 @@
     <t>Parking Bumper</t>
   </si>
   <si>
-    <t>556, 557</t>
-  </si>
-  <si>
-    <t>558, 559</t>
-  </si>
-  <si>
     <t>Vehicle</t>
   </si>
   <si>
@@ -998,9 +857,6 @@
     <t>Locks matching [number * 100, += 99]</t>
   </si>
   <si>
-    <t>can unlock with key</t>
-  </si>
-  <si>
     <t>Office</t>
   </si>
   <si>
@@ -1109,12 +965,6 @@
     <t>gives rocks</t>
   </si>
   <si>
-    <t>gives what's lodged inside</t>
-  </si>
-  <si>
-    <t>turns into dirt</t>
-  </si>
-  <si>
     <t>Crumpled Paper</t>
   </si>
   <si>
@@ -1220,30 +1070,12 @@
     <t>Kindling</t>
   </si>
   <si>
-    <t>broken by window breaker</t>
-  </si>
-  <si>
-    <t>closes window, broken by window breaker</t>
-  </si>
-  <si>
-    <t>opens window, broken by window breaker</t>
-  </si>
-  <si>
     <t>can rummage through</t>
   </si>
   <si>
-    <t>inventory</t>
-  </si>
-  <si>
-    <t>can view sign</t>
-  </si>
-  <si>
     <t>can pick branches, can cut down with ax/saws</t>
   </si>
   <si>
-    <t>can cut with wire clippers</t>
-  </si>
-  <si>
     <t>cut by the thing (and decoy) for kindling/stick</t>
   </si>
   <si>
@@ -2423,9 +2255,6 @@
     <t>2x2</t>
   </si>
   <si>
-    <t>inventory (furniture)</t>
-  </si>
-  <si>
     <t>id 1-10 has 100-10% opacity</t>
   </si>
   <si>
@@ -2457,6 +2286,222 @@
   </si>
   <si>
     <t>Stairway, red, right</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>Wooden Chair</t>
+  </si>
+  <si>
+    <t>Coordinator Chair</t>
+  </si>
+  <si>
+    <t>can destroy</t>
+  </si>
+  <si>
+    <t>sells items</t>
+  </si>
+  <si>
+    <t>trivia questions</t>
+  </si>
+  <si>
+    <t>craft items</t>
+  </si>
+  <si>
+    <t>can view message</t>
+  </si>
+  <si>
+    <t>Sign, green</t>
+  </si>
+  <si>
+    <t>Sign, gray</t>
+  </si>
+  <si>
+    <t>Fridge</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>get pickles</t>
+  </si>
+  <si>
+    <t>movable brick wall</t>
+  </si>
+  <si>
+    <t>various colors</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>301-307</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>locked</t>
+  </si>
+  <si>
+    <t>closes</t>
+  </si>
+  <si>
+    <t>opens</t>
+  </si>
+  <si>
+    <t>can break</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Bench</t>
+  </si>
+  <si>
+    <t>Wood, light</t>
+  </si>
+  <si>
+    <t>Wood, dark</t>
+  </si>
+  <si>
+    <t>Wood, brown</t>
+  </si>
+  <si>
+    <t>small, up</t>
+  </si>
+  <si>
+    <t>small, left</t>
+  </si>
+  <si>
+    <t>large, up</t>
+  </si>
+  <si>
+    <t>large, left</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Wooden Door (open)</t>
+  </si>
+  <si>
+    <t>up, left hinges</t>
+  </si>
+  <si>
+    <t>up, right hinges</t>
+  </si>
+  <si>
+    <t>left, up hinges</t>
+  </si>
+  <si>
+    <t>left, down hinges</t>
+  </si>
+  <si>
+    <t>diagonal left, up hinges</t>
+  </si>
+  <si>
+    <t>diagonal left, down hinges</t>
+  </si>
+  <si>
+    <t>diagonal right, up hinges</t>
+  </si>
+  <si>
+    <t>diagonal right, down hinges</t>
+  </si>
+  <si>
+    <t>Wooden Door (closed)</t>
+  </si>
+  <si>
+    <t>Wooden Door (locked)</t>
+  </si>
+  <si>
+    <t>unlocks with key, can destroy</t>
+  </si>
+  <si>
+    <t>diagonal left</t>
+  </si>
+  <si>
+    <t>diagonal right</t>
+  </si>
+  <si>
+    <t>Railing, green</t>
+  </si>
+  <si>
+    <t>Railing, red</t>
+  </si>
+  <si>
+    <t>Statue</t>
+  </si>
+  <si>
+    <t>211-226</t>
+  </si>
+  <si>
+    <t>231-246</t>
+  </si>
+  <si>
+    <t>Fence</t>
+  </si>
+  <si>
+    <t>cut with wire clippers</t>
+  </si>
+  <si>
+    <t>various directions</t>
+  </si>
+  <si>
+    <t>pebbles</t>
+  </si>
+  <si>
+    <t>rocks</t>
+  </si>
+  <si>
+    <t>Tree, maple</t>
+  </si>
+  <si>
+    <t>Tree, unknown</t>
+  </si>
+  <si>
+    <t>Tree, cedar</t>
+  </si>
+  <si>
+    <t>Tree, dead</t>
+  </si>
+  <si>
+    <t>Tree, large</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>evergreen</t>
+  </si>
+  <si>
+    <t>Outdoor</t>
+  </si>
+  <si>
+    <t>Appliance</t>
   </si>
 </sst>
 </file>
@@ -2500,7 +2545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2516,9 +2561,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2857,10 +2899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF2113E-D79E-4CB9-ADC9-BF3629B5384A}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2875,7 +2917,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>719</v>
+        <v>663</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -2887,10 +2929,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>729</v>
+        <v>673</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>731</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2901,7 +2943,7 @@
         <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>730</v>
+        <v>674</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2912,7 +2954,7 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>720</v>
+        <v>664</v>
       </c>
       <c r="D6" t="s">
         <v>217</v>
@@ -2926,7 +2968,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>721</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2934,7 +2976,7 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>722</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2942,7 +2984,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>771</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2950,7 +2992,7 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>723</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2958,7 +3000,7 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>724</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2966,7 +3008,7 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>725</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2974,7 +3016,7 @@
         <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>726</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2982,7 +3024,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>727</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,7 +3032,7 @@
         <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>728</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,7 +3040,7 @@
         <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -3006,7 +3048,7 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>780</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3014,7 +3056,7 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>781</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3022,7 +3064,7 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>787</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3030,7 +3072,7 @@
         <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>775</v>
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3038,7 +3080,7 @@
         <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>776</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3046,7 +3088,7 @@
         <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>777</v>
+        <v>721</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3054,7 +3096,7 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>778</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -3062,7 +3104,7 @@
         <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>779</v>
+        <v>723</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3070,7 +3112,7 @@
         <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>732</v>
+        <v>676</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3078,7 +3120,7 @@
         <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>733</v>
+        <v>677</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3086,7 +3128,7 @@
         <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>734</v>
+        <v>678</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3094,7 +3136,7 @@
         <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>735</v>
+        <v>679</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3102,7 +3144,7 @@
         <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>739</v>
+        <v>683</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3110,7 +3152,7 @@
         <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>740</v>
+        <v>684</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3118,7 +3160,7 @@
         <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>736</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3126,7 +3168,7 @@
         <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>737</v>
+        <v>681</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -3134,7 +3176,7 @@
         <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>738</v>
+        <v>682</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3142,7 +3184,7 @@
         <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>772</v>
+        <v>716</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3150,7 +3192,7 @@
         <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>773</v>
+        <v>717</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3158,7 +3200,7 @@
         <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>774</v>
+        <v>718</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3166,7 +3208,7 @@
         <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>741</v>
+        <v>685</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -3174,7 +3216,7 @@
         <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>742</v>
+        <v>686</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -3182,7 +3224,7 @@
         <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>743</v>
+        <v>687</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -3190,7 +3232,7 @@
         <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>744</v>
+        <v>688</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -3198,7 +3240,7 @@
         <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>745</v>
+        <v>689</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -3206,7 +3248,7 @@
         <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>746</v>
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -3214,7 +3256,7 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>782</v>
+        <v>726</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -3222,7 +3264,7 @@
         <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>783</v>
+        <v>727</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -3230,7 +3272,7 @@
         <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>784</v>
+        <v>728</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -3238,7 +3280,7 @@
         <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>785</v>
+        <v>729</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -3246,7 +3288,7 @@
         <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>786</v>
+        <v>730</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -3254,10 +3296,10 @@
         <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>747</v>
+        <v>691</v>
       </c>
       <c r="D49" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -3268,7 +3310,7 @@
         <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>752</v>
+        <v>696</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -3276,7 +3318,7 @@
         <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>753</v>
+        <v>697</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -3284,7 +3326,7 @@
         <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>750</v>
+        <v>694</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -3292,7 +3334,7 @@
         <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>751</v>
+        <v>695</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -3300,7 +3342,7 @@
         <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>749</v>
+        <v>693</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -3308,215 +3350,239 @@
         <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>748</v>
+        <v>692</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
+      <c r="B56" s="4">
+        <v>211</v>
+      </c>
+      <c r="C56" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>758</v>
-      </c>
-      <c r="D57" t="s">
-        <v>770</v>
-      </c>
-      <c r="E57" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="4">
-        <v>303</v>
-      </c>
-      <c r="C59" t="s">
-        <v>760</v>
-      </c>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>761</v>
+        <v>702</v>
+      </c>
+      <c r="D60" t="s">
+        <v>714</v>
+      </c>
+      <c r="E60" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>754</v>
+        <v>703</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>755</v>
+        <v>704</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>756</v>
+        <v>705</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>757</v>
+        <v>698</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C65" t="s">
-        <v>766</v>
+        <v>699</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>767</v>
+        <v>700</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>768</v>
+        <v>701</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>769</v>
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>765</v>
+        <v>711</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>764</v>
+        <v>712</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>763</v>
+        <v>713</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>762</v>
+        <v>709</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>796</v>
+        <v>708</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C74" t="s">
-        <v>797</v>
+        <v>707</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>798</v>
+        <v>706</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C76" t="s">
-        <v>799</v>
+        <v>739</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C77" t="s">
-        <v>800</v>
+        <v>740</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>801</v>
+        <v>741</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="4">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>802</v>
+        <v>742</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="4">
+        <v>321</v>
+      </c>
+      <c r="C80" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="4">
+        <v>322</v>
+      </c>
+      <c r="C81" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="4">
+        <v>323</v>
+      </c>
+      <c r="C82" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="4">
         <v>324</v>
       </c>
-      <c r="C80" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
+      <c r="C83" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3542,7 +3608,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>656</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3553,300 +3619,300 @@
         <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>689</v>
+        <v>633</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>677</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>688</v>
+      <c r="B4" s="15" t="s">
+        <v>632</v>
       </c>
       <c r="C4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" t="s">
+        <v>612</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D6" t="s">
+        <v>613</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" t="s">
+        <v>604</v>
+      </c>
+      <c r="D7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" t="s">
+        <v>605</v>
+      </c>
+      <c r="D8" t="s">
+        <v>615</v>
+      </c>
+      <c r="F8" t="s">
+        <v>634</v>
+      </c>
+      <c r="G8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F9" t="s">
+        <v>605</v>
+      </c>
+      <c r="G9" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" t="s">
+        <v>607</v>
+      </c>
+      <c r="D10" t="s">
+        <v>617</v>
+      </c>
+      <c r="F10" t="s">
+        <v>605</v>
+      </c>
+      <c r="G10" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" t="s">
+        <v>608</v>
+      </c>
+      <c r="D11" t="s">
+        <v>618</v>
+      </c>
+      <c r="F11" t="s">
+        <v>605</v>
+      </c>
+      <c r="G11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" t="s">
+        <v>609</v>
+      </c>
+      <c r="D12" t="s">
+        <v>619</v>
+      </c>
+      <c r="F12" t="s">
+        <v>605</v>
+      </c>
+      <c r="G12" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" t="s">
+        <v>610</v>
+      </c>
+      <c r="D13" t="s">
+        <v>620</v>
+      </c>
+      <c r="F13" t="s">
+        <v>635</v>
+      </c>
+      <c r="G13" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="C15" t="s">
+        <v>642</v>
+      </c>
+      <c r="D15" t="s">
+        <v>636</v>
+      </c>
+      <c r="G15" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" t="s">
+        <v>641</v>
+      </c>
+      <c r="D16" t="s">
+        <v>639</v>
+      </c>
+      <c r="G16" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" t="s">
         <v>657</v>
       </c>
-      <c r="D4" t="s">
-        <v>667</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="G4" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" t="s">
+      <c r="D17" t="s">
+        <v>650</v>
+      </c>
+      <c r="F17" t="s">
+        <v>642</v>
+      </c>
+      <c r="G17" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" t="s">
         <v>658</v>
       </c>
-      <c r="D5" t="s">
-        <v>668</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="G5" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" t="s">
-        <v>659</v>
-      </c>
-      <c r="D6" t="s">
-        <v>669</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="G6" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" t="s">
-        <v>660</v>
-      </c>
-      <c r="D7" t="s">
-        <v>670</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="G7" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" t="s">
-        <v>661</v>
-      </c>
-      <c r="D8" t="s">
-        <v>671</v>
-      </c>
-      <c r="F8" t="s">
-        <v>690</v>
-      </c>
-      <c r="G8" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" t="s">
-        <v>662</v>
-      </c>
-      <c r="D9" t="s">
-        <v>672</v>
-      </c>
-      <c r="F9" t="s">
-        <v>661</v>
-      </c>
-      <c r="G9" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" t="s">
-        <v>663</v>
-      </c>
-      <c r="D10" t="s">
-        <v>673</v>
-      </c>
-      <c r="F10" t="s">
-        <v>661</v>
-      </c>
-      <c r="G10" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" t="s">
-        <v>664</v>
-      </c>
-      <c r="D11" t="s">
-        <v>674</v>
-      </c>
-      <c r="F11" t="s">
-        <v>661</v>
-      </c>
-      <c r="G11" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" t="s">
-        <v>665</v>
-      </c>
-      <c r="D12" t="s">
-        <v>675</v>
-      </c>
-      <c r="F12" t="s">
-        <v>661</v>
-      </c>
-      <c r="G12" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" t="s">
-        <v>666</v>
-      </c>
-      <c r="D13" t="s">
-        <v>676</v>
-      </c>
-      <c r="F13" t="s">
-        <v>691</v>
-      </c>
-      <c r="G13" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>705</v>
-      </c>
-      <c r="C15" t="s">
-        <v>698</v>
-      </c>
-      <c r="D15" t="s">
-        <v>692</v>
-      </c>
-      <c r="G15" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" t="s">
-        <v>697</v>
-      </c>
-      <c r="D16" t="s">
-        <v>695</v>
-      </c>
-      <c r="G16" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" t="s">
-        <v>713</v>
-      </c>
-      <c r="D17" t="s">
-        <v>706</v>
-      </c>
-      <c r="F17" t="s">
-        <v>698</v>
-      </c>
-      <c r="G17" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" t="s">
-        <v>714</v>
-      </c>
       <c r="F18" t="s">
-        <v>697</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
+      <c r="B19" s="15"/>
       <c r="C19" t="s">
-        <v>707</v>
+        <v>651</v>
       </c>
       <c r="D19" t="s">
-        <v>708</v>
+        <v>652</v>
       </c>
       <c r="G19" t="s">
-        <v>709</v>
+        <v>653</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
+      <c r="B20" s="15"/>
       <c r="C20" t="s">
-        <v>696</v>
+        <v>640</v>
       </c>
       <c r="D20" t="s">
-        <v>701</v>
+        <v>645</v>
       </c>
       <c r="F20" t="s">
-        <v>698</v>
+        <v>642</v>
       </c>
       <c r="G20" t="s">
-        <v>702</v>
+        <v>646</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
+      <c r="B21" s="15"/>
       <c r="C21" t="s">
-        <v>699</v>
+        <v>643</v>
       </c>
       <c r="D21" t="s">
-        <v>700</v>
+        <v>644</v>
       </c>
       <c r="F21" t="s">
-        <v>697</v>
+        <v>641</v>
       </c>
       <c r="G21" t="s">
-        <v>704</v>
+        <v>648</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
+      <c r="B22" s="15"/>
       <c r="C22" t="s">
-        <v>714</v>
+        <v>658</v>
       </c>
       <c r="F22" t="s">
-        <v>714</v>
+        <v>658</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
+      <c r="B23" s="15"/>
       <c r="C23" t="s">
-        <v>714</v>
+        <v>658</v>
       </c>
       <c r="F23" t="s">
-        <v>714</v>
+        <v>658</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
+      <c r="B24" s="15"/>
       <c r="C24" t="s">
-        <v>711</v>
+        <v>655</v>
       </c>
       <c r="D24" t="s">
-        <v>710</v>
+        <v>654</v>
       </c>
       <c r="G24" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>715</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>716</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>717</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -3965,10 +4031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3977,13 +4043,13 @@
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" customWidth="1"/>
+    <col min="7" max="7" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>718</v>
+        <v>662</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -3998,13 +4064,13 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>794</v>
+        <v>737</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4021,10 +4087,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>788</v>
+        <v>732</v>
       </c>
       <c r="H4" t="s">
-        <v>793</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4035,10 +4101,13 @@
         <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>789</v>
+        <v>733</v>
       </c>
       <c r="E6">
         <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4051,6 +4120,9 @@
       <c r="E7">
         <v>6</v>
       </c>
+      <c r="G7" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
@@ -4060,765 +4132,1198 @@
         <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
+      <c r="G8" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>216</v>
       </c>
       <c r="E9">
         <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>101</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>790</v>
+      <c r="C11" s="7" t="s">
+        <v>734</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
       </c>
+      <c r="G11" t="s">
+        <v>753</v>
+      </c>
       <c r="H11" t="s">
-        <v>791</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
+        <v>102</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>239</v>
+      </c>
+      <c r="H12" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>103</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="H13" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
         <v>111</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
+        <v>751</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>753</v>
+      </c>
+      <c r="H14" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>112</v>
+      </c>
+      <c r="H15" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>113</v>
+      </c>
+      <c r="H16" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>114</v>
+      </c>
+      <c r="H17" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>752</v>
+      </c>
+      <c r="G18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>341</v>
+      </c>
+      <c r="H19" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>122</v>
+      </c>
+      <c r="H20" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>123</v>
+      </c>
+      <c r="H21" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>124</v>
+      </c>
+      <c r="H22" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>776</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>753</v>
+      </c>
+      <c r="H23" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>126</v>
+      </c>
+      <c r="H24" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>128</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>341</v>
+      </c>
+      <c r="H27" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>132</v>
+      </c>
+      <c r="H28" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>133</v>
+      </c>
+      <c r="H29" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>134</v>
+      </c>
+      <c r="H30" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>141</v>
+      </c>
+      <c r="C31" t="s">
+        <v>231</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>341</v>
+      </c>
+      <c r="H31" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>142</v>
+      </c>
+      <c r="H32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>151</v>
+      </c>
+      <c r="C33" t="s">
+        <v>758</v>
+      </c>
+      <c r="D33" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>757</v>
+      </c>
+      <c r="H33" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>152</v>
+      </c>
+      <c r="H34" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>153</v>
+      </c>
+      <c r="H35" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>154</v>
+      </c>
+      <c r="H36" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>759</v>
+      </c>
+      <c r="H37" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
+        <v>156</v>
+      </c>
+      <c r="H38" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4">
+        <v>157</v>
+      </c>
+      <c r="H39" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4">
+        <v>158</v>
+      </c>
+      <c r="H40" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4">
+        <v>163</v>
+      </c>
+      <c r="C43" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4">
+        <v>164</v>
+      </c>
+      <c r="C44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="4">
+        <v>165</v>
+      </c>
+      <c r="C45" t="s">
+        <v>237</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="4">
+        <v>171</v>
+      </c>
+      <c r="C46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" t="s">
+        <v>818</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
+        <v>172</v>
+      </c>
+      <c r="C47" t="s">
+        <v>240</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>344</v>
+      </c>
+      <c r="H47" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
+        <v>173</v>
+      </c>
+      <c r="C48" t="s">
+        <v>240</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="H48" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="4">
+        <v>174</v>
+      </c>
+      <c r="C49" t="s">
+        <v>246</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
+        <v>175</v>
+      </c>
+      <c r="C50" t="s">
+        <v>760</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>176</v>
+      </c>
+      <c r="C51" t="s">
+        <v>247</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="4">
+        <v>177</v>
+      </c>
+      <c r="C52" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="4">
+        <v>181</v>
+      </c>
+      <c r="C53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" t="s">
+        <v>230</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="4">
+        <v>182</v>
+      </c>
+      <c r="C54" t="s">
+        <v>242</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
+        <v>183</v>
+      </c>
+      <c r="C55" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="4">
+        <v>184</v>
+      </c>
+      <c r="C56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="4">
+        <v>185</v>
+      </c>
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <v>191</v>
+      </c>
+      <c r="C58" t="s">
+        <v>799</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="H58" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
+        <v>192</v>
+      </c>
+      <c r="H59" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="4">
+        <v>193</v>
+      </c>
+      <c r="C60" t="s">
+        <v>800</v>
+      </c>
+      <c r="H60" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="4">
+        <v>194</v>
+      </c>
+      <c r="H61" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="4">
+        <v>201</v>
+      </c>
+      <c r="C62" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" t="s">
+        <v>801</v>
+      </c>
+      <c r="E62">
+        <v>100</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="4">
+        <v>202</v>
+      </c>
+      <c r="C63" t="s">
+        <v>253</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="C64" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" t="s">
+        <v>804</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="H64" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="C65" t="s">
+        <v>249</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="H65" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="4">
+        <v>251</v>
+      </c>
+      <c r="C66" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" t="s">
+        <v>817</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="H66" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="4">
         <v>252</v>
       </c>
-      <c r="G12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <v>101</v>
-      </c>
-      <c r="C19" t="s">
-        <v>254</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="G67" s="9"/>
+      <c r="H67" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C69" t="s">
+        <v>219</v>
+      </c>
+      <c r="D69" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69">
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>764</v>
+      </c>
+      <c r="H69" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="4">
+        <v>311</v>
+      </c>
+      <c r="C70" t="s">
+        <v>223</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="H70" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="4">
+        <v>312</v>
+      </c>
+      <c r="H71" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="4">
+        <v>321</v>
+      </c>
+      <c r="C72" t="s">
+        <v>766</v>
+      </c>
+      <c r="D72" t="s">
+        <v>766</v>
+      </c>
+      <c r="G72" t="s">
+        <v>771</v>
+      </c>
+      <c r="H72" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="4">
+        <v>322</v>
+      </c>
+      <c r="G73" t="s">
+        <v>772</v>
+      </c>
+      <c r="H73" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="4">
+        <v>323</v>
+      </c>
+      <c r="G74" t="s">
+        <v>773</v>
+      </c>
+      <c r="H74" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4">
+        <v>331</v>
+      </c>
+      <c r="C75" t="s">
+        <v>785</v>
+      </c>
+      <c r="D75" t="s">
+        <v>784</v>
+      </c>
+      <c r="G75" t="s">
+        <v>771</v>
+      </c>
+      <c r="H75" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4">
+        <v>332</v>
+      </c>
+      <c r="H76" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4">
+        <v>333</v>
+      </c>
+      <c r="H77" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4">
+        <v>334</v>
+      </c>
+      <c r="H78" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4">
+        <v>335</v>
+      </c>
+      <c r="H79" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4">
+        <v>336</v>
+      </c>
+      <c r="H80" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4">
+        <v>337</v>
+      </c>
+      <c r="H81" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4">
+        <v>338</v>
+      </c>
+      <c r="H82" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4">
+        <v>339</v>
+      </c>
+      <c r="C83" t="s">
+        <v>794</v>
+      </c>
+      <c r="G83" t="s">
+        <v>772</v>
+      </c>
+      <c r="H83" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4">
+        <v>340</v>
+      </c>
+      <c r="H84" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4">
+        <v>341</v>
+      </c>
+      <c r="H85" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4">
+        <v>342</v>
+      </c>
+      <c r="H86" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4">
+        <v>343</v>
+      </c>
+      <c r="C87" t="s">
+        <v>795</v>
+      </c>
+      <c r="G87" t="s">
+        <v>796</v>
+      </c>
+      <c r="H87" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4">
+        <v>344</v>
+      </c>
+      <c r="H88" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4">
+        <v>345</v>
+      </c>
+      <c r="H89" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4">
+        <v>346</v>
+      </c>
+      <c r="H90" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="4">
+        <v>401</v>
+      </c>
+      <c r="C92" t="s">
+        <v>300</v>
+      </c>
+      <c r="D92" t="s">
+        <v>302</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="4">
+        <v>411</v>
+      </c>
+      <c r="C93" t="s">
+        <v>731</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>304</v>
+      </c>
+      <c r="H93" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="4">
+        <v>412</v>
+      </c>
+      <c r="G94" t="s">
+        <v>305</v>
+      </c>
+      <c r="H94" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="4">
+        <v>421</v>
+      </c>
+      <c r="C95" t="s">
+        <v>809</v>
+      </c>
+      <c r="E95">
+        <v>20</v>
+      </c>
+      <c r="G95" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="4">
+        <v>422</v>
+      </c>
+      <c r="C96" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="4">
+        <v>423</v>
+      </c>
+      <c r="C97" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="4">
+        <v>424</v>
+      </c>
+      <c r="C98" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="4">
+        <v>425</v>
+      </c>
+      <c r="C99" t="s">
+        <v>813</v>
+      </c>
+      <c r="E99">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="4">
+        <v>431</v>
+      </c>
+      <c r="C100" t="s">
+        <v>251</v>
+      </c>
+      <c r="E100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="3">
+        <v>431</v>
+      </c>
+      <c r="C101" t="s">
+        <v>252</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="G101" t="s">
+        <v>343</v>
+      </c>
+      <c r="H101" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="4">
+        <v>442</v>
+      </c>
+      <c r="H102" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="4">
+        <v>443</v>
+      </c>
+      <c r="H103" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="4">
+        <v>501</v>
+      </c>
+      <c r="C105" t="s">
+        <v>256</v>
+      </c>
+      <c r="D105" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="4">
+        <v>502</v>
+      </c>
+      <c r="C106" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="4">
+        <v>503</v>
+      </c>
+      <c r="C107" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="4">
+        <v>504</v>
+      </c>
+      <c r="C108" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="4">
+        <v>505</v>
+      </c>
+      <c r="C109" t="s">
         <v>260</v>
       </c>
-      <c r="F19" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <v>304</v>
-      </c>
-      <c r="C20" t="s">
-        <v>255</v>
-      </c>
-      <c r="F20" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" t="s">
-        <v>256</v>
-      </c>
-      <c r="F21" t="s">
-        <v>218</v>
-      </c>
-      <c r="G21" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" t="s">
-        <v>259</v>
-      </c>
-      <c r="F22" t="s">
-        <v>218</v>
-      </c>
-      <c r="G22" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="4">
+        <v>511</v>
+      </c>
+      <c r="C110" t="s">
         <v>261</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="4">
+        <v>512</v>
+      </c>
+      <c r="C111" t="s">
         <v>262</v>
       </c>
-      <c r="F23" t="s">
-        <v>218</v>
-      </c>
-      <c r="G23" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="4">
+        <v>513</v>
+      </c>
+      <c r="C112" t="s">
         <v>263</v>
-      </c>
-      <c r="C24" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C25" t="s">
-        <v>265</v>
-      </c>
-      <c r="F25" t="s">
-        <v>218</v>
-      </c>
-      <c r="G25" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
-        <v>325</v>
-      </c>
-      <c r="C26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F26" t="s">
-        <v>218</v>
-      </c>
-      <c r="G26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
-        <v>326</v>
-      </c>
-      <c r="C27" t="s">
-        <v>267</v>
-      </c>
-      <c r="F27" t="s">
-        <v>218</v>
-      </c>
-      <c r="G27" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
-        <v>327</v>
-      </c>
-      <c r="C28" t="s">
-        <v>268</v>
-      </c>
-      <c r="F28" t="s">
-        <v>218</v>
-      </c>
-      <c r="G28" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
-        <v>328</v>
-      </c>
-      <c r="C29" t="s">
-        <v>270</v>
-      </c>
-      <c r="F29" t="s">
-        <v>218</v>
-      </c>
-      <c r="G29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
-        <v>329</v>
-      </c>
-      <c r="C30" t="s">
-        <v>271</v>
-      </c>
-      <c r="F30" t="s">
-        <v>218</v>
-      </c>
-      <c r="G30" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C31" t="s">
-        <v>274</v>
-      </c>
-      <c r="F31" t="s">
-        <v>218</v>
-      </c>
-      <c r="G31" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
-        <v>155</v>
-      </c>
-      <c r="C33" t="s">
-        <v>219</v>
-      </c>
-      <c r="F33" t="s">
-        <v>218</v>
-      </c>
-      <c r="G33" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
-        <v>157</v>
-      </c>
-      <c r="C34" t="s">
-        <v>220</v>
-      </c>
-      <c r="F34" t="s">
-        <v>218</v>
-      </c>
-      <c r="G34" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
-        <v>158</v>
-      </c>
-      <c r="C35" t="s">
-        <v>221</v>
-      </c>
-      <c r="F35" t="s">
-        <v>218</v>
-      </c>
-      <c r="G35" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" t="s">
-        <v>225</v>
-      </c>
-      <c r="F37" t="s">
-        <v>218</v>
-      </c>
-      <c r="G37" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
-        <v>217</v>
-      </c>
-      <c r="C38" t="s">
-        <v>229</v>
-      </c>
-      <c r="F38" t="s">
-        <v>218</v>
-      </c>
-      <c r="G38" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="4">
-        <v>218</v>
-      </c>
-      <c r="C39" t="s">
-        <v>228</v>
-      </c>
-      <c r="F39" t="s">
-        <v>218</v>
-      </c>
-      <c r="G39" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
-        <v>219</v>
-      </c>
-      <c r="C40" t="s">
-        <v>230</v>
-      </c>
-      <c r="F40" t="s">
-        <v>218</v>
-      </c>
-      <c r="G40" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C41" t="s">
-        <v>232</v>
-      </c>
-      <c r="F41" t="s">
-        <v>218</v>
-      </c>
-      <c r="G41" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C42" t="s">
-        <v>248</v>
-      </c>
-      <c r="F42" t="s">
-        <v>218</v>
-      </c>
-      <c r="G42" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C43" t="s">
-        <v>238</v>
-      </c>
-      <c r="F43" t="s">
-        <v>218</v>
-      </c>
-      <c r="G43" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C44" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="4">
-        <v>235</v>
-      </c>
-      <c r="C45" t="s">
-        <v>241</v>
-      </c>
-      <c r="F45" t="s">
-        <v>218</v>
-      </c>
-      <c r="G45" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C46" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="4">
-        <v>238</v>
-      </c>
-      <c r="C47" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" t="s">
-        <v>241</v>
-      </c>
-      <c r="F48" t="s">
-        <v>218</v>
-      </c>
-      <c r="G48" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C49" t="s">
-        <v>232</v>
-      </c>
-      <c r="F49" t="s">
-        <v>218</v>
-      </c>
-      <c r="G49" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C50" t="s">
-        <v>248</v>
-      </c>
-      <c r="F50" t="s">
-        <v>218</v>
-      </c>
-      <c r="G50" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C51" t="s">
-        <v>232</v>
-      </c>
-      <c r="F51" t="s">
-        <v>218</v>
-      </c>
-      <c r="G51" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C52" t="s">
-        <v>238</v>
-      </c>
-      <c r="F52" t="s">
-        <v>218</v>
-      </c>
-      <c r="G52" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="4">
-        <v>401</v>
-      </c>
-      <c r="C54" t="s">
-        <v>275</v>
-      </c>
-      <c r="F54" t="s">
-        <v>218</v>
-      </c>
-      <c r="G54" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="4">
-        <v>402</v>
-      </c>
-      <c r="C55" t="s">
-        <v>276</v>
-      </c>
-      <c r="F55" t="s">
-        <v>218</v>
-      </c>
-      <c r="G55" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="4">
-        <v>403</v>
-      </c>
-      <c r="C56" t="s">
-        <v>277</v>
-      </c>
-      <c r="F56" t="s">
-        <v>218</v>
-      </c>
-      <c r="G56" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="4">
-        <v>404</v>
-      </c>
-      <c r="C57" t="s">
-        <v>278</v>
-      </c>
-      <c r="F57" t="s">
-        <v>218</v>
-      </c>
-      <c r="G57" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C58" t="s">
-        <v>280</v>
-      </c>
-      <c r="F58" t="s">
-        <v>218</v>
-      </c>
-      <c r="G58" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="4">
-        <v>407</v>
-      </c>
-      <c r="C59" t="s">
-        <v>281</v>
-      </c>
-      <c r="F59" t="s">
-        <v>218</v>
-      </c>
-      <c r="G59" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="4">
-        <v>408</v>
-      </c>
-      <c r="C60" t="s">
-        <v>282</v>
-      </c>
-      <c r="F60" t="s">
-        <v>218</v>
-      </c>
-      <c r="G60" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="4">
-        <v>409</v>
-      </c>
-      <c r="C61" t="s">
-        <v>283</v>
-      </c>
-      <c r="F61" t="s">
-        <v>218</v>
-      </c>
-      <c r="G61" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C63" t="s">
-        <v>284</v>
-      </c>
-      <c r="D63" t="s">
-        <v>291</v>
-      </c>
-      <c r="F63" t="s">
-        <v>218</v>
-      </c>
-      <c r="G63" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C64" t="s">
-        <v>289</v>
-      </c>
-      <c r="F64" t="s">
-        <v>218</v>
-      </c>
-      <c r="G64" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C65" t="s">
-        <v>287</v>
-      </c>
-      <c r="F65" t="s">
-        <v>218</v>
-      </c>
-      <c r="G65" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C66" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="4">
-        <v>548</v>
-      </c>
-      <c r="C67" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C68" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C69" t="s">
-        <v>297</v>
-      </c>
-      <c r="F69" t="s">
-        <v>218</v>
-      </c>
-      <c r="G69" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="4">
-        <v>555</v>
-      </c>
-      <c r="C70" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C71" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C72" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="4">
-        <v>601</v>
-      </c>
-      <c r="C74" t="s">
-        <v>303</v>
-      </c>
-      <c r="D74" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="4">
-        <v>602</v>
-      </c>
-      <c r="C75" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="4">
-        <v>603</v>
-      </c>
-      <c r="C76" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="4">
-        <v>604</v>
-      </c>
-      <c r="C77" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="4">
-        <v>605</v>
-      </c>
-      <c r="C78" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="4">
-        <v>606</v>
-      </c>
-      <c r="C79" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="4">
-        <v>607</v>
-      </c>
-      <c r="C80" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="4">
-        <v>608</v>
-      </c>
-      <c r="C81" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4886,16 +5391,16 @@
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="D3" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>473</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -4929,10 +5434,10 @@
         <v>1111</v>
       </c>
       <c r="C6" t="s">
-        <v>537</v>
+        <v>481</v>
       </c>
       <c r="D6" t="s">
-        <v>538</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -4940,10 +5445,10 @@
         <v>1112</v>
       </c>
       <c r="C7" t="s">
-        <v>539</v>
+        <v>483</v>
       </c>
       <c r="D7" t="s">
-        <v>547</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -4951,10 +5456,10 @@
         <v>1113</v>
       </c>
       <c r="C8" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
       <c r="D8" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -4962,10 +5467,10 @@
         <v>1114</v>
       </c>
       <c r="C9" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="D9" t="s">
-        <v>549</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -4973,10 +5478,10 @@
         <v>1115</v>
       </c>
       <c r="C10" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="D10" t="s">
-        <v>550</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4984,10 +5489,10 @@
         <v>1116</v>
       </c>
       <c r="C11" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="D11" t="s">
-        <v>551</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -4995,10 +5500,10 @@
         <v>1117</v>
       </c>
       <c r="C12" t="s">
-        <v>544</v>
+        <v>488</v>
       </c>
       <c r="D12" t="s">
-        <v>552</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -5006,10 +5511,10 @@
         <v>1118</v>
       </c>
       <c r="C13" t="s">
-        <v>545</v>
+        <v>489</v>
       </c>
       <c r="D13" t="s">
-        <v>550</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -5017,10 +5522,10 @@
         <v>1119</v>
       </c>
       <c r="C14" t="s">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="D14" t="s">
-        <v>550</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -5028,10 +5533,10 @@
         <v>1120</v>
       </c>
       <c r="C15" t="s">
-        <v>546</v>
+        <v>490</v>
       </c>
       <c r="D15" t="s">
-        <v>550</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -5354,29 +5859,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>508</v>
+    <row r="3" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -5388,16 +5893,16 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>483</v>
+        <v>427</v>
       </c>
       <c r="E6" t="s">
-        <v>476</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -5405,27 +5910,27 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>585</v>
+        <v>529</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>478</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>484</v>
+        <v>428</v>
       </c>
       <c r="E8" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -5433,13 +5938,13 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>586</v>
+        <v>530</v>
       </c>
       <c r="D9" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="E9" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -5447,159 +5952,159 @@
         <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>582</v>
+        <v>526</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="C12" t="s">
-        <v>567</v>
+        <v>511</v>
       </c>
       <c r="D12" t="s">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="E12" t="s">
-        <v>479</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="C13" t="s">
-        <v>568</v>
+        <v>512</v>
       </c>
       <c r="D13" t="s">
-        <v>482</v>
+        <v>426</v>
       </c>
       <c r="E13" t="s">
-        <v>480</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>570</v>
+        <v>514</v>
       </c>
       <c r="D14" t="s">
-        <v>517</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>515</v>
+        <v>461</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="C15" t="s">
-        <v>569</v>
+        <v>513</v>
       </c>
       <c r="D15" t="s">
-        <v>518</v>
+        <v>462</v>
       </c>
       <c r="E15" t="s">
-        <v>516</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="C16" t="s">
-        <v>571</v>
+        <v>515</v>
       </c>
       <c r="D16" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="E16" t="s">
-        <v>519</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>535</v>
+        <v>463</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="C17" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="D17" t="s">
-        <v>481</v>
+        <v>425</v>
       </c>
       <c r="E17" t="s">
-        <v>520</v>
-      </c>
-      <c r="F17" s="14"/>
+        <v>464</v>
+      </c>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="C18" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="D18" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="E18" t="s">
-        <v>531</v>
-      </c>
-      <c r="F18" s="14"/>
+        <v>475</v>
+      </c>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>498</v>
+        <v>442</v>
       </c>
       <c r="C19" t="s">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="D19" t="s">
-        <v>522</v>
+        <v>466</v>
       </c>
       <c r="E19" t="s">
-        <v>532</v>
-      </c>
-      <c r="F19" s="14"/>
+        <v>476</v>
+      </c>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>499</v>
+        <v>443</v>
       </c>
       <c r="C20" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="D20" t="s">
-        <v>523</v>
+        <v>467</v>
       </c>
       <c r="E20" t="s">
-        <v>536</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="C21" t="s">
-        <v>576</v>
+        <v>520</v>
       </c>
       <c r="D21" t="s">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="E21" t="s">
-        <v>527</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -5607,125 +6112,125 @@
         <v>206</v>
       </c>
       <c r="C22" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="D22" t="s">
         <v>208</v>
       </c>
       <c r="E22" t="s">
-        <v>525</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="C23" t="s">
-        <v>578</v>
+        <v>522</v>
       </c>
       <c r="D23" t="s">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="E23" t="s">
-        <v>526</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>502</v>
+        <v>446</v>
       </c>
       <c r="C24" t="s">
-        <v>579</v>
+        <v>523</v>
       </c>
       <c r="D24" t="s">
-        <v>534</v>
+        <v>478</v>
       </c>
       <c r="E24" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>503</v>
+        <v>447</v>
       </c>
       <c r="C25" t="s">
-        <v>580</v>
+        <v>524</v>
       </c>
       <c r="D25" t="s">
-        <v>529</v>
+        <v>473</v>
       </c>
       <c r="E25" t="s">
-        <v>533</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="C26" t="s">
-        <v>581</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="C27" t="s">
-        <v>588</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="C28" t="s">
-        <v>587</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
       <c r="C29" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>513</v>
+        <v>457</v>
       </c>
       <c r="C30" t="s">
-        <v>590</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="C31" t="s">
-        <v>566</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="C33" t="s">
-        <v>618</v>
+        <v>562</v>
       </c>
       <c r="E33" t="s">
-        <v>591</v>
+        <v>535</v>
       </c>
       <c r="F33" t="s">
-        <v>592</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>616</v>
+        <v>560</v>
       </c>
       <c r="C34" t="s">
-        <v>617</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -5767,25 +6272,25 @@
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -5840,10 +6345,10 @@
         <v>7</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>9</v>
@@ -5913,7 +6418,7 @@
         <v>2105</v>
       </c>
       <c r="C8" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -6285,7 +6790,7 @@
         <v>2203</v>
       </c>
       <c r="C37" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="L37" s="4">
         <v>3</v>
@@ -6299,7 +6804,7 @@
         <v>2204</v>
       </c>
       <c r="C38" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="L38" s="4">
         <v>2</v>
@@ -6316,7 +6821,7 @@
         <v>2205</v>
       </c>
       <c r="C39" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -6336,7 +6841,7 @@
         <v>2206</v>
       </c>
       <c r="C40" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -6359,7 +6864,7 @@
         <v>2207</v>
       </c>
       <c r="C41" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="L41" s="4">
         <v>1</v>
@@ -6378,8 +6883,8 @@
       <c r="D43" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="11" t="s">
-        <v>474</v>
+      <c r="L43" s="10" t="s">
+        <v>418</v>
       </c>
       <c r="N43">
         <v>3</v>
@@ -6388,7 +6893,7 @@
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
@@ -6396,13 +6901,13 @@
         <v>2302</v>
       </c>
       <c r="C44" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
-      <c r="L44" s="11" t="s">
-        <v>475</v>
+      <c r="L44" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="N44">
         <v>5</v>
@@ -6414,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="W44" t="s">
-        <v>428</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -6440,7 +6945,7 @@
         <v>8</v>
       </c>
       <c r="W45" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
@@ -6466,7 +6971,7 @@
         <v>6</v>
       </c>
       <c r="W46" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
@@ -6480,7 +6985,7 @@
         <v>7</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="N47">
         <v>11</v>
@@ -6492,7 +6997,7 @@
         <v>100</v>
       </c>
       <c r="W47" t="s">
-        <v>424</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
@@ -6506,7 +7011,7 @@
         <v>9</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="N48">
         <v>12</v>
@@ -6518,7 +7023,7 @@
         <v>125</v>
       </c>
       <c r="W48" t="s">
-        <v>423</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
@@ -6532,7 +7037,7 @@
         <v>8</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="N49">
         <v>10</v>
@@ -6544,7 +7049,7 @@
         <v>125</v>
       </c>
       <c r="W49" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
@@ -6558,7 +7063,7 @@
         <v>10</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="N50">
         <v>11</v>
@@ -6570,7 +7075,7 @@
         <v>125</v>
       </c>
       <c r="W50" t="s">
-        <v>426</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
@@ -6599,7 +7104,7 @@
         <v>1</v>
       </c>
       <c r="W51" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -6625,7 +7130,7 @@
         <v>8</v>
       </c>
       <c r="W52" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -6654,7 +7159,7 @@
         <v>20</v>
       </c>
       <c r="W53" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -6683,7 +7188,7 @@
         <v>40</v>
       </c>
       <c r="W54" t="s">
-        <v>431</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
@@ -6697,7 +7202,7 @@
         <v>6</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="N55">
         <v>10</v>
@@ -6709,7 +7214,7 @@
         <v>35</v>
       </c>
       <c r="W55" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
@@ -6723,7 +7228,7 @@
         <v>8</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="N56">
         <v>11</v>
@@ -6735,7 +7240,7 @@
         <v>35</v>
       </c>
       <c r="W56" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
@@ -6761,7 +7266,7 @@
         <v>6</v>
       </c>
       <c r="W57" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -6787,7 +7292,7 @@
         <v>6</v>
       </c>
       <c r="W58" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -6801,7 +7306,7 @@
         <v>4</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="N59">
         <v>10</v>
@@ -6813,7 +7318,7 @@
         <v>20</v>
       </c>
       <c r="W59" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
@@ -6827,7 +7332,7 @@
         <v>6</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="N60">
         <v>11</v>
@@ -6839,7 +7344,7 @@
         <v>30</v>
       </c>
       <c r="W60" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
@@ -6853,7 +7358,7 @@
         <v>4</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="N61">
         <v>7</v>
@@ -6865,7 +7370,7 @@
         <v>6</v>
       </c>
       <c r="W61" t="s">
-        <v>439</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
@@ -6879,7 +7384,7 @@
         <v>6</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="N62">
         <v>7</v>
@@ -6891,7 +7396,7 @@
         <v>12</v>
       </c>
       <c r="W62" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
@@ -6905,7 +7410,7 @@
         <v>7</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="N63">
         <v>16</v>
@@ -6920,7 +7425,7 @@
         <v>4</v>
       </c>
       <c r="W63" t="s">
-        <v>442</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
@@ -6946,7 +7451,7 @@
         <v>8</v>
       </c>
       <c r="W64" t="s">
-        <v>441</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
@@ -6960,7 +7465,7 @@
         <v>3</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="N65">
         <v>7</v>
@@ -6972,7 +7477,7 @@
         <v>20</v>
       </c>
       <c r="W65" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
@@ -6986,7 +7491,7 @@
         <v>5</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="N66">
         <v>8</v>
@@ -6998,7 +7503,7 @@
         <v>20</v>
       </c>
       <c r="W66" t="s">
-        <v>444</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
@@ -7030,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="W67" t="s">
-        <v>445</v>
+        <v>389</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
@@ -7062,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="W68" t="s">
-        <v>446</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
@@ -7076,7 +7581,7 @@
         <v>3</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="N69">
         <v>9</v>
@@ -7088,7 +7593,7 @@
         <v>30</v>
       </c>
       <c r="W69" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
@@ -7102,7 +7607,7 @@
         <v>5</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="N70">
         <v>10</v>
@@ -7114,7 +7619,7 @@
         <v>30</v>
       </c>
       <c r="W70" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
@@ -7128,7 +7633,7 @@
         <v>5</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
       <c r="N71">
         <v>4</v>
@@ -7140,7 +7645,7 @@
         <v>5</v>
       </c>
       <c r="W71" t="s">
-        <v>448</v>
+        <v>392</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
@@ -7154,7 +7659,7 @@
         <v>7</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="N72">
         <v>5</v>
@@ -7166,7 +7671,7 @@
         <v>5</v>
       </c>
       <c r="W72" t="s">
-        <v>448</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
@@ -7180,7 +7685,7 @@
         <v>6</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="N73">
         <v>11</v>
@@ -7192,7 +7697,7 @@
         <v>30</v>
       </c>
       <c r="W73" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.25">
@@ -7206,7 +7711,7 @@
         <v>8</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="N74">
         <v>12</v>
@@ -7218,7 +7723,7 @@
         <v>30</v>
       </c>
       <c r="W74" t="s">
-        <v>450</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.25">
@@ -7595,7 +8100,7 @@
         <v>2515</v>
       </c>
       <c r="C104" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="N104">
         <v>0.04</v>
@@ -7972,7 +8477,7 @@
         <v>2715</v>
       </c>
       <c r="C134" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="O134">
         <v>2</v>
@@ -7986,7 +8491,7 @@
         <v>2716</v>
       </c>
       <c r="C135" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -8006,7 +8511,7 @@
         <v>2717</v>
       </c>
       <c r="C136" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -8133,7 +8638,7 @@
         <v>2811</v>
       </c>
       <c r="C148" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
     </row>
     <row r="149" spans="2:25" x14ac:dyDescent="0.25">
@@ -8141,7 +8646,7 @@
         <v>2812</v>
       </c>
       <c r="C149" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="2:25" x14ac:dyDescent="0.25">
@@ -8149,7 +8654,7 @@
         <v>2813</v>
       </c>
       <c r="C150" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -8160,7 +8665,7 @@
         <v>2821</v>
       </c>
       <c r="C151" t="s">
-        <v>655</v>
+        <v>599</v>
       </c>
       <c r="E151">
         <v>3</v>
@@ -8174,13 +8679,13 @@
         <v>2901</v>
       </c>
       <c r="C153" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="D153" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="W153" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
     </row>
     <row r="154" spans="2:25" x14ac:dyDescent="0.25">
@@ -8188,16 +8693,16 @@
         <v>2902</v>
       </c>
       <c r="C154" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="D154" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="E154">
         <v>2</v>
       </c>
       <c r="W154" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
     </row>
     <row r="155" spans="2:25" x14ac:dyDescent="0.25">
@@ -8205,16 +8710,16 @@
         <v>2903</v>
       </c>
       <c r="C155" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="D155" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="E155">
         <v>3</v>
       </c>
       <c r="W155" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
     </row>
     <row r="156" spans="2:25" x14ac:dyDescent="0.25">
@@ -8222,12 +8727,12 @@
         <v>2911</v>
       </c>
       <c r="C156" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="D156" t="s">
-        <v>318</v>
-      </c>
-      <c r="H156" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="H156" s="7"/>
       <c r="L156" s="4">
         <v>1</v>
       </c>
@@ -8237,10 +8742,10 @@
         <v>2912</v>
       </c>
       <c r="C157" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="D157" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="L157" s="4">
         <v>1</v>
@@ -8251,10 +8756,10 @@
         <v>2913</v>
       </c>
       <c r="C158" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="D158" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
     </row>
     <row r="159" spans="2:25" x14ac:dyDescent="0.25">
@@ -8262,10 +8767,10 @@
         <v>2914</v>
       </c>
       <c r="C159" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="D159" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
     </row>
     <row r="160" spans="2:25" x14ac:dyDescent="0.25">
@@ -8273,10 +8778,10 @@
         <v>2915</v>
       </c>
       <c r="C160" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="D160" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="L160" s="4">
         <v>1</v>
@@ -8287,10 +8792,10 @@
         <v>2916</v>
       </c>
       <c r="C161" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="D161" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="2:23" x14ac:dyDescent="0.25">
@@ -8298,16 +8803,16 @@
         <v>2921</v>
       </c>
       <c r="C162" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="D162" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="N162">
         <v>0.04</v>
       </c>
       <c r="W162" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="2:23" x14ac:dyDescent="0.25">
@@ -8315,10 +8820,10 @@
         <v>2922</v>
       </c>
       <c r="C163" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="D163" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -8327,7 +8832,7 @@
         <v>0.04</v>
       </c>
       <c r="W163" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" spans="2:23" x14ac:dyDescent="0.25">
@@ -8335,16 +8840,16 @@
         <v>2923</v>
       </c>
       <c r="C164" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="D164" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="N164">
         <v>0.04</v>
       </c>
       <c r="W164" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
     </row>
     <row r="165" spans="2:23" x14ac:dyDescent="0.25">
@@ -8352,10 +8857,10 @@
         <v>2924</v>
       </c>
       <c r="C165" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="D165" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="L165" s="4">
         <v>1</v>
@@ -8367,7 +8872,7 @@
         <v>6</v>
       </c>
       <c r="W165" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166" spans="2:23" x14ac:dyDescent="0.25">
@@ -8375,13 +8880,13 @@
         <v>2925</v>
       </c>
       <c r="C166" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="D166" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="W166" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.25">
@@ -8389,10 +8894,10 @@
         <v>2926</v>
       </c>
       <c r="C167" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="D167" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="E167">
         <v>2</v>
@@ -8404,7 +8909,7 @@
         <v>0.02</v>
       </c>
       <c r="W167" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
     </row>
     <row r="168" spans="2:23" x14ac:dyDescent="0.25">
@@ -8412,10 +8917,10 @@
         <v>2927</v>
       </c>
       <c r="C168" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="D168" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="E168">
         <v>3</v>
@@ -8427,7 +8932,7 @@
         <v>0.02</v>
       </c>
       <c r="W168" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
     </row>
     <row r="169" spans="2:23" x14ac:dyDescent="0.25">
@@ -8435,10 +8940,10 @@
         <v>2931</v>
       </c>
       <c r="C169" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="D169" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="L169" s="4">
         <v>2</v>
@@ -8452,10 +8957,10 @@
         <v>2932</v>
       </c>
       <c r="C170" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="D170" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="L170" s="4">
         <v>1</v>
@@ -8472,10 +8977,10 @@
         <v>2933</v>
       </c>
       <c r="C171" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="D171" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="L171" s="4">
         <v>1</v>
@@ -8489,10 +8994,10 @@
         <v>2941</v>
       </c>
       <c r="C172" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="D172" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8503,10 +9008,10 @@
         <v>2942</v>
       </c>
       <c r="C173" t="s">
-        <v>457</v>
+        <v>401</v>
       </c>
       <c r="D173" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="E173">
         <v>2</v>
@@ -8517,10 +9022,10 @@
         <v>2943</v>
       </c>
       <c r="C174" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="D174" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="E174">
         <v>2</v>
@@ -8531,10 +9036,10 @@
         <v>2944</v>
       </c>
       <c r="C175" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="D175" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="E175">
         <v>2</v>
@@ -8551,10 +9056,10 @@
         <v>2945</v>
       </c>
       <c r="C176" t="s">
-        <v>460</v>
+        <v>404</v>
       </c>
       <c r="D176" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="E176">
         <v>2</v>
@@ -8565,10 +9070,10 @@
         <v>2946</v>
       </c>
       <c r="C177" t="s">
-        <v>461</v>
+        <v>405</v>
       </c>
       <c r="D177" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="E177">
         <v>2</v>
@@ -8579,10 +9084,10 @@
         <v>2947</v>
       </c>
       <c r="C178" t="s">
-        <v>462</v>
+        <v>406</v>
       </c>
       <c r="D178" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="E178">
         <v>2</v>
@@ -8593,10 +9098,10 @@
         <v>2948</v>
       </c>
       <c r="C179" t="s">
-        <v>463</v>
+        <v>407</v>
       </c>
       <c r="D179" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -8607,10 +9112,10 @@
         <v>2951</v>
       </c>
       <c r="C180" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="D180" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
     </row>
     <row r="181" spans="2:17" x14ac:dyDescent="0.25">
@@ -8618,10 +9123,10 @@
         <v>2952</v>
       </c>
       <c r="C181" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="D181" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
     </row>
     <row r="182" spans="2:17" x14ac:dyDescent="0.25">
@@ -8629,10 +9134,10 @@
         <v>2953</v>
       </c>
       <c r="C182" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="D182" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="L182" s="4">
         <v>1</v>
@@ -8646,10 +9151,10 @@
         <v>2954</v>
       </c>
       <c r="C183" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="D183" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="N183">
         <v>0.04</v>
@@ -8660,10 +9165,10 @@
         <v>2955</v>
       </c>
       <c r="C184" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="D184" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="L184" s="4">
         <v>1</v>
@@ -8677,10 +9182,10 @@
         <v>2956</v>
       </c>
       <c r="C185" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="D185" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="L185" s="4">
         <v>1</v>
@@ -8694,10 +9199,10 @@
         <v>2957</v>
       </c>
       <c r="C186" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="D186" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="L186" s="4">
         <v>1</v>
@@ -8711,10 +9216,10 @@
         <v>2961</v>
       </c>
       <c r="C187" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="D187" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -8734,10 +9239,10 @@
         <v>2962</v>
       </c>
       <c r="C188" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="D188" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="E188">
         <v>2</v>
@@ -8754,10 +9259,10 @@
         <v>2963</v>
       </c>
       <c r="C189" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="D189" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="E189">
         <v>2</v>
@@ -8771,10 +9276,10 @@
         <v>2964</v>
       </c>
       <c r="C190" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="D190" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="E190">
         <v>2</v>
@@ -8788,10 +9293,10 @@
         <v>2965</v>
       </c>
       <c r="C191" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="D191" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
     </row>
     <row r="192" spans="2:17" x14ac:dyDescent="0.25">
@@ -8799,10 +9304,10 @@
         <v>2966</v>
       </c>
       <c r="C192" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="D192" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="L192" s="4">
         <v>1</v>
@@ -8816,10 +9321,10 @@
         <v>2967</v>
       </c>
       <c r="C193" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="D193" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="L193" s="4">
         <v>2</v>
@@ -8836,10 +9341,10 @@
         <v>2968</v>
       </c>
       <c r="C194" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="D194" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="E194">
         <v>3</v>
@@ -8853,10 +9358,10 @@
         <v>2969</v>
       </c>
       <c r="C195" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="D195" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="E195">
         <v>3</v>
@@ -8870,10 +9375,10 @@
         <v>2970</v>
       </c>
       <c r="C196" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="D196" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="E196">
         <v>3</v>
@@ -8893,10 +9398,10 @@
         <v>2971</v>
       </c>
       <c r="C197" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="D197" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="E197">
         <v>2</v>
@@ -8913,10 +9418,10 @@
         <v>2972</v>
       </c>
       <c r="C198" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="D198" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="E198">
         <v>3</v>
@@ -8930,10 +9435,10 @@
         <v>2973</v>
       </c>
       <c r="C199" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="D199" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="L199" s="4">
         <v>1</v>
@@ -8970,7 +9475,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8981,16 +9486,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -9001,10 +9506,10 @@
         <v>3101</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="F3">
         <v>2931</v>
@@ -9016,7 +9521,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" t="s">
-        <v>455</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9024,10 +9529,10 @@
         <v>3102</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="F4">
         <v>2931</v>
@@ -9044,10 +9549,10 @@
         <v>3103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>554</v>
+        <v>498</v>
       </c>
       <c r="D5" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="F5">
         <v>2933</v>
@@ -9064,10 +9569,10 @@
         <v>3106</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="F6">
         <v>2932</v>
@@ -9084,10 +9589,10 @@
         <v>3107</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="F7">
         <v>2932</v>
@@ -9104,10 +9609,10 @@
         <v>3108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="D8" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -9121,12 +9626,12 @@
         <v>3111</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="D9" t="s">
-        <v>452</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9">
         <v>90</v>
       </c>
@@ -9139,12 +9644,12 @@
         <v>3112</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="D10" t="s">
-        <v>452</v>
-      </c>
-      <c r="F10" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F10" s="9"/>
       <c r="G10">
         <v>60</v>
       </c>
@@ -9160,9 +9665,9 @@
         <v>7.62</v>
       </c>
       <c r="D11" t="s">
-        <v>452</v>
-      </c>
-      <c r="F11" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F11" s="9"/>
       <c r="G11">
         <v>100</v>
       </c>
@@ -9178,9 +9683,9 @@
         <v>7.62</v>
       </c>
       <c r="D12" t="s">
-        <v>452</v>
-      </c>
-      <c r="F12" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F12" s="9"/>
       <c r="G12">
         <v>100</v>
       </c>
@@ -9196,9 +9701,9 @@
         <v>7.62</v>
       </c>
       <c r="D13" t="s">
-        <v>452</v>
-      </c>
-      <c r="F13" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F13" s="9"/>
       <c r="G13">
         <v>100</v>
       </c>
@@ -9211,9 +9716,9 @@
         <v>7.62</v>
       </c>
       <c r="D14" t="s">
-        <v>452</v>
-      </c>
-      <c r="F14" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F14" s="9"/>
       <c r="G14">
         <v>100</v>
       </c>
@@ -9223,12 +9728,12 @@
         <v>3117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="D15" t="s">
-        <v>452</v>
-      </c>
-      <c r="F15" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F15" s="9"/>
       <c r="G15">
         <v>30</v>
       </c>
@@ -9238,12 +9743,12 @@
         <v>3118</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="D16" t="s">
-        <v>452</v>
-      </c>
-      <c r="F16" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F16" s="9"/>
       <c r="G16">
         <v>45</v>
       </c>
@@ -9253,12 +9758,12 @@
         <v>3119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="D17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F17" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F17" s="9"/>
       <c r="G17">
         <v>100</v>
       </c>
@@ -9271,12 +9776,12 @@
         <v>3120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="D18" t="s">
-        <v>452</v>
-      </c>
-      <c r="F18" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F18" s="9"/>
       <c r="G18">
         <v>100</v>
       </c>
@@ -9292,9 +9797,9 @@
         <v>5.56</v>
       </c>
       <c r="D19" t="s">
-        <v>452</v>
-      </c>
-      <c r="F19" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F19" s="9"/>
       <c r="G19">
         <v>90</v>
       </c>
@@ -9307,9 +9812,9 @@
         <v>7.62</v>
       </c>
       <c r="D20" t="s">
-        <v>452</v>
-      </c>
-      <c r="F20" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F20" s="9"/>
       <c r="G20">
         <v>100</v>
       </c>
@@ -9319,12 +9824,12 @@
         <v>3123</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="D21" t="s">
-        <v>452</v>
-      </c>
-      <c r="F21" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F21" s="9"/>
       <c r="G21">
         <v>18</v>
       </c>
@@ -9337,12 +9842,12 @@
         <v>3124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="D22" t="s">
-        <v>452</v>
-      </c>
-      <c r="F22" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F22" s="9"/>
       <c r="G22">
         <v>30</v>
       </c>
@@ -9358,9 +9863,9 @@
         <v>7.62</v>
       </c>
       <c r="D23" t="s">
-        <v>452</v>
-      </c>
-      <c r="F23" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F23" s="9"/>
       <c r="G23">
         <v>100</v>
       </c>
@@ -9376,9 +9881,9 @@
         <v>7.62</v>
       </c>
       <c r="D24" t="s">
-        <v>452</v>
-      </c>
-      <c r="F24" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F24" s="9"/>
       <c r="G24">
         <v>100</v>
       </c>
@@ -9391,12 +9896,12 @@
         <v>3127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="D25" t="s">
-        <v>452</v>
-      </c>
-      <c r="F25" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F25" s="9"/>
       <c r="G25">
         <v>100</v>
       </c>
@@ -9409,12 +9914,12 @@
         <v>3128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="D26" t="s">
-        <v>452</v>
-      </c>
-      <c r="F26" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F26" s="9"/>
       <c r="G26">
         <v>100</v>
       </c>
@@ -9424,12 +9929,12 @@
         <v>3129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="D27" t="s">
-        <v>452</v>
-      </c>
-      <c r="F27" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F27" s="9"/>
       <c r="G27">
         <v>100</v>
       </c>
@@ -9442,12 +9947,12 @@
         <v>3130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="D28" t="s">
-        <v>452</v>
-      </c>
-      <c r="F28" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F28" s="9"/>
       <c r="G28">
         <v>100</v>
       </c>
@@ -9460,12 +9965,12 @@
         <v>3131</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="D29" t="s">
-        <v>452</v>
-      </c>
-      <c r="F29" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F29" s="9"/>
       <c r="G29">
         <v>90</v>
       </c>
@@ -9475,12 +9980,12 @@
         <v>3132</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="D30" t="s">
-        <v>452</v>
-      </c>
-      <c r="F30" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F30" s="9"/>
       <c r="G30">
         <v>90</v>
       </c>
@@ -9490,13 +9995,13 @@
         <v>3133</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="D31" t="s">
-        <v>452</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>620</v>
+        <v>396</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>564</v>
       </c>
       <c r="G31">
         <v>40</v>
@@ -9510,13 +10015,13 @@
         <v>3134</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="D32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>620</v>
+        <v>396</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>564</v>
       </c>
       <c r="G32">
         <v>60</v>
@@ -9533,9 +10038,9 @@
         <v>5.56</v>
       </c>
       <c r="D33" t="s">
-        <v>452</v>
-      </c>
-      <c r="F33" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F33" s="9"/>
       <c r="G33">
         <v>90</v>
       </c>
@@ -9551,9 +10056,9 @@
         <v>5.56</v>
       </c>
       <c r="D34" t="s">
-        <v>452</v>
-      </c>
-      <c r="F34" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F34" s="9"/>
       <c r="G34">
         <v>90</v>
       </c>
@@ -9566,12 +10071,12 @@
         <v>3137</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="D35" t="s">
-        <v>452</v>
-      </c>
-      <c r="F35" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F35" s="9"/>
       <c r="G35">
         <v>90</v>
       </c>
@@ -9584,12 +10089,12 @@
         <v>3138</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="D36" t="s">
-        <v>452</v>
-      </c>
-      <c r="F36" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F36" s="9"/>
       <c r="G36">
         <v>100</v>
       </c>
@@ -9605,9 +10110,9 @@
         <v>5.56</v>
       </c>
       <c r="D37" t="s">
-        <v>452</v>
-      </c>
-      <c r="F37" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F37" s="9"/>
       <c r="G37">
         <v>90</v>
       </c>
@@ -9620,7 +10125,7 @@
         <v>5.56</v>
       </c>
       <c r="D38" t="s">
-        <v>452</v>
+        <v>396</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -9634,13 +10139,13 @@
         <v>3201</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>619</v>
+        <v>563</v>
       </c>
       <c r="D40" t="s">
-        <v>595</v>
+        <v>539</v>
       </c>
       <c r="F40" t="s">
-        <v>621</v>
+        <v>565</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -9654,13 +10159,13 @@
         <v>3202</v>
       </c>
       <c r="C41" t="s">
-        <v>619</v>
+        <v>563</v>
       </c>
       <c r="D41" t="s">
-        <v>622</v>
+        <v>566</v>
       </c>
       <c r="F41" t="s">
-        <v>621</v>
+        <v>565</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -9711,7 +10216,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>555</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9722,493 +10227,493 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>558</v>
+        <v>502</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>650</v>
+        <v>594</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C4">
         <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>593</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>564</v>
+        <v>537</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>508</v>
       </c>
       <c r="I4" t="s">
-        <v>594</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
+      <c r="B5" s="15"/>
       <c r="C5">
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>595</v>
+        <v>539</v>
       </c>
       <c r="E5" t="s">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="F5" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="I5" t="s">
-        <v>615</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6">
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="E6" t="s">
-        <v>559</v>
+        <v>503</v>
       </c>
       <c r="F6" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="I6" t="s">
-        <v>634</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7">
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>597</v>
+        <v>541</v>
       </c>
       <c r="E7" t="s">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="F7" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="I7" t="s">
-        <v>598</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
       <c r="C8">
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>601</v>
+        <v>545</v>
       </c>
       <c r="E8" t="s">
-        <v>596</v>
+        <v>540</v>
       </c>
       <c r="F8" t="s">
-        <v>563</v>
+        <v>507</v>
       </c>
       <c r="I8" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
+      <c r="B9" s="15"/>
       <c r="C9">
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>623</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>564</v>
+        <v>567</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>508</v>
       </c>
       <c r="I9" t="s">
-        <v>644</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10">
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>622</v>
+        <v>566</v>
       </c>
       <c r="E10" t="s">
-        <v>632</v>
+        <v>576</v>
       </c>
       <c r="F10" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="I10" t="s">
-        <v>633</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
+      <c r="B11" s="15"/>
       <c r="C11">
         <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>624</v>
+        <v>568</v>
       </c>
       <c r="E11" t="s">
-        <v>631</v>
+        <v>575</v>
       </c>
       <c r="F11" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="I11" t="s">
-        <v>635</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
+      <c r="B12" s="15"/>
       <c r="C12">
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>625</v>
+        <v>569</v>
       </c>
       <c r="E12" t="s">
-        <v>630</v>
+        <v>574</v>
       </c>
       <c r="F12" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="I12" t="s">
-        <v>629</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
+      <c r="B13" s="15"/>
       <c r="C13">
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>626</v>
+        <v>570</v>
       </c>
       <c r="E13" t="s">
-        <v>627</v>
+        <v>571</v>
       </c>
       <c r="F13" t="s">
-        <v>563</v>
+        <v>507</v>
       </c>
       <c r="I13" t="s">
-        <v>628</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>537</v>
+      <c r="B15" s="15" t="s">
+        <v>481</v>
       </c>
       <c r="C15">
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>647</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>642</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>564</v>
+        <v>591</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>508</v>
       </c>
       <c r="I15" t="s">
-        <v>651</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
+      <c r="B16" s="15"/>
       <c r="C16">
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>606</v>
+        <v>550</v>
       </c>
       <c r="E16" t="s">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="F16" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>640</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
+      <c r="B17" s="15"/>
       <c r="C17">
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>605</v>
+        <v>549</v>
       </c>
       <c r="E17" t="s">
-        <v>559</v>
+        <v>503</v>
       </c>
       <c r="F17" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>646</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
+      <c r="B18" s="15"/>
       <c r="C18">
         <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>607</v>
+        <v>551</v>
       </c>
       <c r="E18" t="s">
-        <v>643</v>
+        <v>587</v>
       </c>
       <c r="F18" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>653</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
+      <c r="B19" s="15"/>
       <c r="C19">
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>608</v>
+        <v>552</v>
       </c>
       <c r="E19" t="s">
-        <v>596</v>
+        <v>540</v>
       </c>
       <c r="F19" t="s">
-        <v>563</v>
+        <v>507</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>609</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
+      <c r="B20" s="15"/>
       <c r="C20">
         <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>648</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>564</v>
+        <v>592</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>508</v>
       </c>
       <c r="I20" t="s">
-        <v>649</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
+      <c r="B21" s="15"/>
       <c r="C21">
         <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>636</v>
+        <v>580</v>
       </c>
       <c r="E21" t="s">
-        <v>632</v>
+        <v>576</v>
       </c>
       <c r="F21" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>641</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
+      <c r="B22" s="15"/>
       <c r="C22">
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>637</v>
+        <v>581</v>
       </c>
       <c r="E22" t="s">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="F22" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="G22">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>645</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
+      <c r="B23" s="15"/>
       <c r="C23">
         <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>638</v>
+        <v>582</v>
       </c>
       <c r="E23" t="s">
-        <v>652</v>
+        <v>596</v>
       </c>
       <c r="F23" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>654</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
+      <c r="B24" s="15"/>
       <c r="C24">
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>639</v>
+        <v>583</v>
       </c>
       <c r="E24" t="s">
-        <v>627</v>
+        <v>571</v>
       </c>
       <c r="F24" t="s">
-        <v>563</v>
+        <v>507</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>609</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
-        <v>603</v>
+      <c r="B26" s="15" t="s">
+        <v>547</v>
       </c>
       <c r="C26">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
       <c r="C27">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
+      <c r="B28" s="15"/>
       <c r="C28">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
+      <c r="B29" s="15"/>
       <c r="C29">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
+      <c r="B30" s="15"/>
       <c r="C30">
         <v>125</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
-        <v>604</v>
+      <c r="B32" s="15" t="s">
+        <v>548</v>
       </c>
       <c r="C32">
         <v>131</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
+      <c r="B33" s="15"/>
       <c r="C33">
         <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>610</v>
+        <v>554</v>
       </c>
       <c r="I33" t="s">
-        <v>611</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
+      <c r="B34" s="15"/>
       <c r="C34">
         <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>612</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
+      <c r="B35" s="15"/>
       <c r="C35">
         <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>613</v>
+        <v>557</v>
       </c>
       <c r="I35" t="s">
-        <v>614</v>
+        <v>558</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
+      <c r="B36" s="15"/>
       <c r="C36">
         <v>135</v>
       </c>
@@ -10244,26 +10749,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
@@ -10272,13 +10777,13 @@
       <c r="H3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4719FC0-A524-48EB-AF7D-98E97A0E72BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5026B144-02A4-48DE-864D-EAA739B0F46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -2327,9 +2327,6 @@
     <t>Sign, gray</t>
   </si>
   <si>
-    <t>Fridge</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
@@ -2502,6 +2499,9 @@
   </si>
   <si>
     <t>Appliance</t>
+  </si>
+  <si>
+    <t>Refridgerator</t>
   </si>
 </sst>
 </file>
@@ -3358,7 +3358,7 @@
         <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -3366,7 +3366,7 @@
         <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -3374,7 +3374,7 @@
         <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -4033,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4118,7 +4118,7 @@
         <v>214</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
         <v>755</v>
@@ -4302,7 +4302,7 @@
         <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -4311,7 +4311,7 @@
         <v>753</v>
       </c>
       <c r="H23" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4319,7 +4319,7 @@
         <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -4330,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -4352,7 +4352,7 @@
         <v>229</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
         <v>341</v>
@@ -4567,7 +4567,7 @@
         <v>238</v>
       </c>
       <c r="D46" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -4590,7 +4590,7 @@
         <v>344</v>
       </c>
       <c r="H47" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -4604,7 +4604,7 @@
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -4626,7 +4626,7 @@
         <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>760</v>
+        <v>818</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -4733,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -4741,7 +4741,7 @@
         <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -4766,7 +4766,7 @@
         <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H60" t="s">
         <v>747</v>
@@ -4788,7 +4788,7 @@
         <v>224</v>
       </c>
       <c r="D62" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E62">
         <v>100</v>
@@ -4811,27 +4811,27 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C64" t="s">
         <v>250</v>
       </c>
       <c r="D64" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E64">
         <v>7</v>
       </c>
       <c r="G64" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="H64" t="s">
         <v>805</v>
-      </c>
-      <c r="H64" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C65" t="s">
         <v>249</v>
@@ -4843,7 +4843,7 @@
         <v>508</v>
       </c>
       <c r="H65" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4854,7 +4854,7 @@
         <v>254</v>
       </c>
       <c r="D66" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C69" t="s">
         <v>219</v>
@@ -4889,10 +4889,10 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
+        <v>763</v>
+      </c>
+      <c r="H69" t="s">
         <v>764</v>
-      </c>
-      <c r="H69" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4906,7 +4906,7 @@
         <v>508</v>
       </c>
       <c r="H70" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4914,7 +4914,7 @@
         <v>312</v>
       </c>
       <c r="H71" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4922,27 +4922,33 @@
         <v>321</v>
       </c>
       <c r="C72" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D72" t="s">
-        <v>766</v>
+        <v>765</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H72" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>322</v>
       </c>
+      <c r="E73">
+        <v>100</v>
+      </c>
       <c r="G73" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H73" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4950,10 +4956,10 @@
         <v>323</v>
       </c>
       <c r="G74" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H74" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4962,16 +4968,19 @@
         <v>331</v>
       </c>
       <c r="C75" t="s">
+        <v>784</v>
+      </c>
+      <c r="D75" t="s">
+        <v>783</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>770</v>
+      </c>
+      <c r="H75" t="s">
         <v>785</v>
-      </c>
-      <c r="D75" t="s">
-        <v>784</v>
-      </c>
-      <c r="G75" t="s">
-        <v>771</v>
-      </c>
-      <c r="H75" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4980,7 +4989,7 @@
         <v>332</v>
       </c>
       <c r="H76" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4989,7 +4998,7 @@
         <v>333</v>
       </c>
       <c r="H77" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4998,7 +5007,7 @@
         <v>334</v>
       </c>
       <c r="H78" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5007,7 +5016,7 @@
         <v>335</v>
       </c>
       <c r="H79" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5016,7 +5025,7 @@
         <v>336</v>
       </c>
       <c r="H80" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5025,7 +5034,7 @@
         <v>337</v>
       </c>
       <c r="H81" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -5034,7 +5043,7 @@
         <v>338</v>
       </c>
       <c r="H82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5043,10 +5052,13 @@
         <v>339</v>
       </c>
       <c r="C83" t="s">
-        <v>794</v>
+        <v>793</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H83" t="s">
         <v>747</v>
@@ -5067,7 +5079,7 @@
         <v>341</v>
       </c>
       <c r="H85" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5076,7 +5088,7 @@
         <v>342</v>
       </c>
       <c r="H86" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5085,10 +5097,10 @@
         <v>343</v>
       </c>
       <c r="C87" t="s">
+        <v>794</v>
+      </c>
+      <c r="G87" t="s">
         <v>795</v>
-      </c>
-      <c r="G87" t="s">
-        <v>796</v>
       </c>
       <c r="H87" t="s">
         <v>747</v>
@@ -5109,7 +5121,7 @@
         <v>345</v>
       </c>
       <c r="H89" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5118,7 +5130,7 @@
         <v>346</v>
       </c>
       <c r="H90" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -5152,7 +5164,7 @@
         <v>304</v>
       </c>
       <c r="H93" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -5163,7 +5175,7 @@
         <v>305</v>
       </c>
       <c r="H94" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -5171,7 +5183,7 @@
         <v>421</v>
       </c>
       <c r="C95" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -5185,7 +5197,7 @@
         <v>422</v>
       </c>
       <c r="C96" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -5193,7 +5205,7 @@
         <v>423</v>
       </c>
       <c r="C97" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -5201,7 +5213,7 @@
         <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -5209,7 +5221,7 @@
         <v>425</v>
       </c>
       <c r="C99" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E99">
         <v>35</v>
@@ -5228,19 +5240,19 @@
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C101" t="s">
         <v>252</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G101" t="s">
         <v>343</v>
       </c>
       <c r="H101" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -5248,7 +5260,7 @@
         <v>442</v>
       </c>
       <c r="H102" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -5256,7 +5268,7 @@
         <v>443</v>
       </c>
       <c r="H103" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
@@ -5269,6 +5281,9 @@
       <c r="D105" t="s">
         <v>255</v>
       </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="4">
@@ -5308,6 +5323,9 @@
       </c>
       <c r="C110" t="s">
         <v>261</v>
+      </c>
+      <c r="E110">
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5026B144-02A4-48DE-864D-EAA739B0F46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A588387-542D-43BE-A82D-7430E5C752A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -716,6 +716,9 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>Door (open)</t>
+  </si>
+  <si>
     <t>Pillar</t>
   </si>
   <si>
@@ -2399,9 +2402,6 @@
     <t>Door</t>
   </si>
   <si>
-    <t>Wooden Door (open)</t>
-  </si>
-  <si>
     <t>up, left hinges</t>
   </si>
   <si>
@@ -2432,9 +2432,6 @@
     <t>Wooden Door (locked)</t>
   </si>
   <si>
-    <t>unlocks with key, can destroy</t>
-  </si>
-  <si>
     <t>diagonal left</t>
   </si>
   <si>
@@ -2502,6 +2499,9 @@
   </si>
   <si>
     <t>Refridgerator</t>
+  </si>
+  <si>
+    <t>unlocks with key</t>
   </si>
 </sst>
 </file>
@@ -2917,7 +2917,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -2929,10 +2929,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2943,7 +2943,7 @@
         <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2954,7 +2954,7 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D6" t="s">
         <v>217</v>
@@ -2968,7 +2968,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2976,7 +2976,7 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2984,7 +2984,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3000,7 +3000,7 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3008,7 +3008,7 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3016,7 +3016,7 @@
         <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3024,7 +3024,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3032,7 +3032,7 @@
         <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3048,7 +3048,7 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3064,7 +3064,7 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3072,7 +3072,7 @@
         <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3080,7 +3080,7 @@
         <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3088,7 +3088,7 @@
         <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3096,7 +3096,7 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -3104,7 +3104,7 @@
         <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
         <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3128,7 +3128,7 @@
         <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3136,7 +3136,7 @@
         <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3144,7 +3144,7 @@
         <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3152,7 +3152,7 @@
         <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3160,7 +3160,7 @@
         <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -3176,7 +3176,7 @@
         <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3184,7 +3184,7 @@
         <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3192,7 +3192,7 @@
         <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3200,7 +3200,7 @@
         <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3208,7 +3208,7 @@
         <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -3216,7 +3216,7 @@
         <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -3224,7 +3224,7 @@
         <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -3232,7 +3232,7 @@
         <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -3240,7 +3240,7 @@
         <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -3248,7 +3248,7 @@
         <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -3256,7 +3256,7 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -3264,7 +3264,7 @@
         <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -3272,7 +3272,7 @@
         <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -3280,7 +3280,7 @@
         <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -3288,7 +3288,7 @@
         <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -3296,7 +3296,7 @@
         <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D49" t="s">
         <v>220</v>
@@ -3310,7 +3310,7 @@
         <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -3318,7 +3318,7 @@
         <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -3326,7 +3326,7 @@
         <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -3334,7 +3334,7 @@
         <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -3342,7 +3342,7 @@
         <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -3350,7 +3350,7 @@
         <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -3358,7 +3358,7 @@
         <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -3366,7 +3366,7 @@
         <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -3374,7 +3374,7 @@
         <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -3385,13 +3385,13 @@
         <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D60" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E60" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -3399,7 +3399,7 @@
         <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -3407,7 +3407,7 @@
         <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -3415,7 +3415,7 @@
         <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -3423,7 +3423,7 @@
         <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -3431,7 +3431,7 @@
         <v>306</v>
       </c>
       <c r="C65" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -3439,7 +3439,7 @@
         <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -3447,7 +3447,7 @@
         <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -3455,7 +3455,7 @@
         <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -3463,7 +3463,7 @@
         <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -3471,7 +3471,7 @@
         <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -3479,7 +3479,7 @@
         <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -3487,7 +3487,7 @@
         <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
         <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -3503,7 +3503,7 @@
         <v>315</v>
       </c>
       <c r="C74" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -3511,7 +3511,7 @@
         <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -3519,7 +3519,7 @@
         <v>317</v>
       </c>
       <c r="C76" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -3527,7 +3527,7 @@
         <v>318</v>
       </c>
       <c r="C77" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
         <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -3543,7 +3543,7 @@
         <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -3551,7 +3551,7 @@
         <v>321</v>
       </c>
       <c r="C80" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
         <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
         <v>323</v>
       </c>
       <c r="C82" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -3575,7 +3575,7 @@
         <v>324</v>
       </c>
       <c r="C83" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -3608,7 +3608,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3619,300 +3619,300 @@
         <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D5" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F9" t="s">
         <v>606</v>
       </c>
-      <c r="D9" t="s">
-        <v>616</v>
-      </c>
-      <c r="F9" t="s">
-        <v>605</v>
-      </c>
       <c r="G9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D11" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F11" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G12" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D13" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C15" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D15" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G15" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D16" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G16" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D17" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F17" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G17" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F18" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D19" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G19" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D20" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F20" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G20" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D21" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G21" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F22" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F23" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" t="s">
+        <v>656</v>
+      </c>
+      <c r="D24" t="s">
         <v>655</v>
       </c>
-      <c r="D24" t="s">
-        <v>654</v>
-      </c>
       <c r="G24" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -4033,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4049,7 +4049,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -4064,7 +4064,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>221</v>
@@ -4087,10 +4087,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H4" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4101,13 +4101,13 @@
         <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4121,7 +4121,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4132,13 +4132,13 @@
         <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4152,7 +4152,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4160,19 +4160,19 @@
         <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H11" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4180,17 +4180,17 @@
         <v>102</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H12" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4201,7 +4201,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="H13" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4209,16 +4209,16 @@
         <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H14" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4226,7 +4226,7 @@
         <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4234,7 +4234,7 @@
         <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -4242,7 +4242,7 @@
         <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -4250,10 +4250,10 @@
         <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -4261,16 +4261,16 @@
         <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H19" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -4278,7 +4278,7 @@
         <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -4286,7 +4286,7 @@
         <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -4294,7 +4294,7 @@
         <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -4302,16 +4302,16 @@
         <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H23" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4319,7 +4319,7 @@
         <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -4330,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -4349,16 +4349,16 @@
         <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H27" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -4366,7 +4366,7 @@
         <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -4374,7 +4374,7 @@
         <v>133</v>
       </c>
       <c r="H29" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -4382,7 +4382,7 @@
         <v>134</v>
       </c>
       <c r="H30" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -4390,16 +4390,16 @@
         <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E31">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H31" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -4407,7 +4407,7 @@
         <v>142</v>
       </c>
       <c r="H32" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -4415,19 +4415,19 @@
         <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H33" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -4435,7 +4435,7 @@
         <v>152</v>
       </c>
       <c r="H34" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -4443,7 +4443,7 @@
         <v>153</v>
       </c>
       <c r="H35" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -4451,7 +4451,7 @@
         <v>154</v>
       </c>
       <c r="H36" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -4459,10 +4459,10 @@
         <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H37" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -4470,7 +4470,7 @@
         <v>156</v>
       </c>
       <c r="H38" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -4478,7 +4478,7 @@
         <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -4486,7 +4486,7 @@
         <v>158</v>
       </c>
       <c r="H40" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -4494,13 +4494,13 @@
         <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -4508,13 +4508,13 @@
         <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E42">
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -4522,13 +4522,13 @@
         <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E43">
         <v>-1</v>
       </c>
       <c r="G43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -4536,13 +4536,13 @@
         <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E44">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -4550,13 +4550,13 @@
         <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -4564,16 +4564,16 @@
         <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D46" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -4581,16 +4581,16 @@
         <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E47">
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H47" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -4598,13 +4598,13 @@
         <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E48">
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -4612,13 +4612,13 @@
         <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -4626,13 +4626,13 @@
         <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E50">
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -4640,13 +4640,13 @@
         <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -4654,13 +4654,13 @@
         <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -4668,16 +4668,16 @@
         <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -4685,13 +4685,13 @@
         <v>182</v>
       </c>
       <c r="C54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E54">
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -4699,13 +4699,13 @@
         <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -4713,13 +4713,13 @@
         <v>184</v>
       </c>
       <c r="C56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -4727,13 +4727,13 @@
         <v>185</v>
       </c>
       <c r="C57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -4741,16 +4741,16 @@
         <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E58">
         <v>5</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H58" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -4758,7 +4758,7 @@
         <v>192</v>
       </c>
       <c r="H59" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -4766,10 +4766,10 @@
         <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H60" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -4777,7 +4777,7 @@
         <v>194</v>
       </c>
       <c r="H61" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -4785,16 +4785,16 @@
         <v>201</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D62" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -4802,7 +4802,7 @@
         <v>202</v>
       </c>
       <c r="C63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -4811,39 +4811,39 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C64" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D64" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E64">
         <v>7</v>
       </c>
       <c r="G64" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="H64" t="s">
         <v>804</v>
-      </c>
-      <c r="H64" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C65" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E65">
         <v>9</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H65" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4851,19 +4851,19 @@
         <v>251</v>
       </c>
       <c r="C66" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H66" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4872,12 +4872,12 @@
       </c>
       <c r="G67" s="9"/>
       <c r="H67" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C69" t="s">
         <v>219</v>
@@ -4889,10 +4889,10 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H69" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4900,13 +4900,13 @@
         <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H70" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4914,7 +4914,7 @@
         <v>312</v>
       </c>
       <c r="H71" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4922,19 +4922,19 @@
         <v>321</v>
       </c>
       <c r="C72" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D72" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H72" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4945,10 +4945,10 @@
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H73" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4956,10 +4956,10 @@
         <v>323</v>
       </c>
       <c r="G74" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H74" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4968,16 +4968,16 @@
         <v>331</v>
       </c>
       <c r="C75" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" t="s">
         <v>784</v>
       </c>
-      <c r="D75" t="s">
-        <v>783</v>
-      </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H75" t="s">
         <v>785</v>
@@ -5058,10 +5058,10 @@
         <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H83" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5070,7 +5070,7 @@
         <v>340</v>
       </c>
       <c r="H84" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5079,7 +5079,7 @@
         <v>341</v>
       </c>
       <c r="H85" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5088,7 +5088,7 @@
         <v>342</v>
       </c>
       <c r="H86" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5100,10 +5100,10 @@
         <v>794</v>
       </c>
       <c r="G87" t="s">
-        <v>795</v>
+        <v>818</v>
       </c>
       <c r="H87" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -5112,7 +5112,7 @@
         <v>344</v>
       </c>
       <c r="H88" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5121,7 +5121,7 @@
         <v>345</v>
       </c>
       <c r="H89" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5130,7 +5130,7 @@
         <v>346</v>
       </c>
       <c r="H90" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -5138,16 +5138,16 @@
         <v>401</v>
       </c>
       <c r="C92" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D92" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -5155,16 +5155,16 @@
         <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H93" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -5172,10 +5172,10 @@
         <v>412</v>
       </c>
       <c r="G94" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H94" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -5183,13 +5183,13 @@
         <v>421</v>
       </c>
       <c r="C95" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E95">
         <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -5197,7 +5197,7 @@
         <v>422</v>
       </c>
       <c r="C96" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -5205,7 +5205,7 @@
         <v>423</v>
       </c>
       <c r="C97" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -5213,7 +5213,7 @@
         <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -5221,7 +5221,7 @@
         <v>425</v>
       </c>
       <c r="C99" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E99">
         <v>35</v>
@@ -5232,7 +5232,7 @@
         <v>431</v>
       </c>
       <c r="C100" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E100">
         <v>7</v>
@@ -5243,16 +5243,16 @@
         <v>441</v>
       </c>
       <c r="C101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E101">
         <v>5</v>
       </c>
       <c r="G101" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H101" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -5260,7 +5260,7 @@
         <v>442</v>
       </c>
       <c r="H102" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -5268,7 +5268,7 @@
         <v>443</v>
       </c>
       <c r="H103" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
@@ -5276,10 +5276,10 @@
         <v>501</v>
       </c>
       <c r="C105" t="s">
+        <v>257</v>
+      </c>
+      <c r="D105" t="s">
         <v>256</v>
-      </c>
-      <c r="D105" t="s">
-        <v>255</v>
       </c>
       <c r="E105">
         <v>5</v>
@@ -5290,7 +5290,7 @@
         <v>502</v>
       </c>
       <c r="C106" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -5298,7 +5298,7 @@
         <v>503</v>
       </c>
       <c r="C107" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
@@ -5306,7 +5306,7 @@
         <v>504</v>
       </c>
       <c r="C108" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
@@ -5314,7 +5314,7 @@
         <v>505</v>
       </c>
       <c r="C109" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -5322,7 +5322,7 @@
         <v>511</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E110">
         <v>9</v>
@@ -5333,7 +5333,7 @@
         <v>512</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
@@ -5341,7 +5341,7 @@
         <v>513</v>
       </c>
       <c r="C112" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5409,16 +5409,16 @@
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -5452,10 +5452,10 @@
         <v>1111</v>
       </c>
       <c r="C6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -5463,10 +5463,10 @@
         <v>1112</v>
       </c>
       <c r="C7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -5474,10 +5474,10 @@
         <v>1113</v>
       </c>
       <c r="C8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D8" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -5485,10 +5485,10 @@
         <v>1114</v>
       </c>
       <c r="C9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -5496,10 +5496,10 @@
         <v>1115</v>
       </c>
       <c r="C10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -5507,10 +5507,10 @@
         <v>1116</v>
       </c>
       <c r="C11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -5518,10 +5518,10 @@
         <v>1117</v>
       </c>
       <c r="C12" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -5529,10 +5529,10 @@
         <v>1118</v>
       </c>
       <c r="C13" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -5540,10 +5540,10 @@
         <v>1119</v>
       </c>
       <c r="C14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -5551,10 +5551,10 @@
         <v>1120</v>
       </c>
       <c r="C15" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D15" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -5879,27 +5879,27 @@
     </row>
     <row r="3" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -5911,16 +5911,16 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -5928,27 +5928,27 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -5956,13 +5956,13 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" t="s">
         <v>431</v>
-      </c>
-      <c r="E9" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -5970,159 +5970,159 @@
         <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C13" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C15" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E15" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C16" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D16" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C17" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D17" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C18" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C19" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D19" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C20" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C21" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E21" t="s">
         <v>472</v>
-      </c>
-      <c r="E21" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -6130,125 +6130,125 @@
         <v>206</v>
       </c>
       <c r="C22" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D22" t="s">
         <v>208</v>
       </c>
       <c r="E22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C23" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D23" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E23" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C24" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D24" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E24" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C25" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D25" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C26" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C27" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C28" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C29" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C30" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C31" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C33" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E33" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C34" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -6363,10 +6363,10 @@
         <v>7</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>9</v>
@@ -6436,7 +6436,7 @@
         <v>2105</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -6808,7 +6808,7 @@
         <v>2203</v>
       </c>
       <c r="C37" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L37" s="4">
         <v>3</v>
@@ -6822,7 +6822,7 @@
         <v>2204</v>
       </c>
       <c r="C38" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L38" s="4">
         <v>2</v>
@@ -6839,7 +6839,7 @@
         <v>2205</v>
       </c>
       <c r="C39" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -6859,7 +6859,7 @@
         <v>2206</v>
       </c>
       <c r="C40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -6882,7 +6882,7 @@
         <v>2207</v>
       </c>
       <c r="C41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L41" s="4">
         <v>1</v>
@@ -6902,7 +6902,7 @@
         <v>30</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N43">
         <v>3</v>
@@ -6911,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
@@ -6919,13 +6919,13 @@
         <v>2302</v>
       </c>
       <c r="C44" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N44">
         <v>5</v>
@@ -6937,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="W44" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -6963,7 +6963,7 @@
         <v>8</v>
       </c>
       <c r="W45" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
@@ -6989,7 +6989,7 @@
         <v>6</v>
       </c>
       <c r="W46" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
@@ -7003,7 +7003,7 @@
         <v>7</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N47">
         <v>11</v>
@@ -7015,7 +7015,7 @@
         <v>100</v>
       </c>
       <c r="W47" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
@@ -7029,7 +7029,7 @@
         <v>9</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N48">
         <v>12</v>
@@ -7041,7 +7041,7 @@
         <v>125</v>
       </c>
       <c r="W48" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
@@ -7055,7 +7055,7 @@
         <v>8</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N49">
         <v>10</v>
@@ -7067,7 +7067,7 @@
         <v>125</v>
       </c>
       <c r="W49" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
@@ -7081,7 +7081,7 @@
         <v>10</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N50">
         <v>11</v>
@@ -7093,7 +7093,7 @@
         <v>125</v>
       </c>
       <c r="W50" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
@@ -7122,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="W51" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -7148,7 +7148,7 @@
         <v>8</v>
       </c>
       <c r="W52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -7177,7 +7177,7 @@
         <v>20</v>
       </c>
       <c r="W53" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -7206,7 +7206,7 @@
         <v>40</v>
       </c>
       <c r="W54" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
@@ -7220,7 +7220,7 @@
         <v>6</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N55">
         <v>10</v>
@@ -7232,7 +7232,7 @@
         <v>35</v>
       </c>
       <c r="W55" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
@@ -7246,7 +7246,7 @@
         <v>8</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N56">
         <v>11</v>
@@ -7258,7 +7258,7 @@
         <v>35</v>
       </c>
       <c r="W56" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
         <v>6</v>
       </c>
       <c r="W57" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -7310,7 +7310,7 @@
         <v>6</v>
       </c>
       <c r="W58" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -7324,7 +7324,7 @@
         <v>4</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N59">
         <v>10</v>
@@ -7336,7 +7336,7 @@
         <v>20</v>
       </c>
       <c r="W59" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
@@ -7350,7 +7350,7 @@
         <v>6</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N60">
         <v>11</v>
@@ -7362,7 +7362,7 @@
         <v>30</v>
       </c>
       <c r="W60" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
@@ -7376,7 +7376,7 @@
         <v>4</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N61">
         <v>7</v>
@@ -7388,7 +7388,7 @@
         <v>6</v>
       </c>
       <c r="W61" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
@@ -7402,7 +7402,7 @@
         <v>6</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N62">
         <v>7</v>
@@ -7414,7 +7414,7 @@
         <v>12</v>
       </c>
       <c r="W62" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
@@ -7428,7 +7428,7 @@
         <v>7</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N63">
         <v>16</v>
@@ -7443,7 +7443,7 @@
         <v>4</v>
       </c>
       <c r="W63" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
@@ -7469,7 +7469,7 @@
         <v>8</v>
       </c>
       <c r="W64" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
@@ -7483,7 +7483,7 @@
         <v>3</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N65">
         <v>7</v>
@@ -7495,7 +7495,7 @@
         <v>20</v>
       </c>
       <c r="W65" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
@@ -7509,7 +7509,7 @@
         <v>5</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N66">
         <v>8</v>
@@ -7521,7 +7521,7 @@
         <v>20</v>
       </c>
       <c r="W66" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="W67" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
@@ -7585,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="W68" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N69">
         <v>9</v>
@@ -7611,7 +7611,7 @@
         <v>30</v>
       </c>
       <c r="W69" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
@@ -7625,7 +7625,7 @@
         <v>5</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N70">
         <v>10</v>
@@ -7637,7 +7637,7 @@
         <v>30</v>
       </c>
       <c r="W70" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
@@ -7651,7 +7651,7 @@
         <v>5</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N71">
         <v>4</v>
@@ -7663,7 +7663,7 @@
         <v>5</v>
       </c>
       <c r="W71" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
@@ -7677,7 +7677,7 @@
         <v>7</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N72">
         <v>5</v>
@@ -7689,7 +7689,7 @@
         <v>5</v>
       </c>
       <c r="W72" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
@@ -7703,7 +7703,7 @@
         <v>6</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N73">
         <v>11</v>
@@ -7715,7 +7715,7 @@
         <v>30</v>
       </c>
       <c r="W73" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.25">
@@ -7729,7 +7729,7 @@
         <v>8</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N74">
         <v>12</v>
@@ -7741,7 +7741,7 @@
         <v>30</v>
       </c>
       <c r="W74" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.25">
@@ -8118,7 +8118,7 @@
         <v>2515</v>
       </c>
       <c r="C104" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N104">
         <v>0.04</v>
@@ -8495,7 +8495,7 @@
         <v>2715</v>
       </c>
       <c r="C134" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O134">
         <v>2</v>
@@ -8509,7 +8509,7 @@
         <v>2716</v>
       </c>
       <c r="C135" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -8529,7 +8529,7 @@
         <v>2717</v>
       </c>
       <c r="C136" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -8656,7 +8656,7 @@
         <v>2811</v>
       </c>
       <c r="C148" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="149" spans="2:25" x14ac:dyDescent="0.25">
@@ -8664,7 +8664,7 @@
         <v>2812</v>
       </c>
       <c r="C149" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="150" spans="2:25" x14ac:dyDescent="0.25">
@@ -8672,7 +8672,7 @@
         <v>2813</v>
       </c>
       <c r="C150" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -8683,7 +8683,7 @@
         <v>2821</v>
       </c>
       <c r="C151" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E151">
         <v>3</v>
@@ -8697,13 +8697,13 @@
         <v>2901</v>
       </c>
       <c r="C153" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D153" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W153" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154" spans="2:25" x14ac:dyDescent="0.25">
@@ -8711,16 +8711,16 @@
         <v>2902</v>
       </c>
       <c r="C154" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D154" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E154">
         <v>2</v>
       </c>
       <c r="W154" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="2:25" x14ac:dyDescent="0.25">
@@ -8728,16 +8728,16 @@
         <v>2903</v>
       </c>
       <c r="C155" t="s">
+        <v>266</v>
+      </c>
+      <c r="D155" t="s">
         <v>265</v>
-      </c>
-      <c r="D155" t="s">
-        <v>264</v>
       </c>
       <c r="E155">
         <v>3</v>
       </c>
       <c r="W155" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="156" spans="2:25" x14ac:dyDescent="0.25">
@@ -8745,10 +8745,10 @@
         <v>2911</v>
       </c>
       <c r="C156" t="s">
+        <v>272</v>
+      </c>
+      <c r="D156" t="s">
         <v>271</v>
-      </c>
-      <c r="D156" t="s">
-        <v>270</v>
       </c>
       <c r="H156" s="7"/>
       <c r="L156" s="4">
@@ -8760,10 +8760,10 @@
         <v>2912</v>
       </c>
       <c r="C157" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D157" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L157" s="4">
         <v>1</v>
@@ -8774,10 +8774,10 @@
         <v>2913</v>
       </c>
       <c r="C158" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D158" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="159" spans="2:25" x14ac:dyDescent="0.25">
@@ -8785,10 +8785,10 @@
         <v>2914</v>
       </c>
       <c r="C159" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="160" spans="2:25" x14ac:dyDescent="0.25">
@@ -8796,10 +8796,10 @@
         <v>2915</v>
       </c>
       <c r="C160" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D160" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L160" s="4">
         <v>1</v>
@@ -8810,10 +8810,10 @@
         <v>2916</v>
       </c>
       <c r="C161" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="162" spans="2:23" x14ac:dyDescent="0.25">
@@ -8821,16 +8821,16 @@
         <v>2921</v>
       </c>
       <c r="C162" t="s">
+        <v>278</v>
+      </c>
+      <c r="D162" t="s">
         <v>277</v>
-      </c>
-      <c r="D162" t="s">
-        <v>276</v>
       </c>
       <c r="N162">
         <v>0.04</v>
       </c>
       <c r="W162" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" spans="2:23" x14ac:dyDescent="0.25">
@@ -8838,10 +8838,10 @@
         <v>2922</v>
       </c>
       <c r="C163" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D163" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -8850,7 +8850,7 @@
         <v>0.04</v>
       </c>
       <c r="W163" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="164" spans="2:23" x14ac:dyDescent="0.25">
@@ -8858,16 +8858,16 @@
         <v>2923</v>
       </c>
       <c r="C164" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D164" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N164">
         <v>0.04</v>
       </c>
       <c r="W164" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="2:23" x14ac:dyDescent="0.25">
@@ -8875,10 +8875,10 @@
         <v>2924</v>
       </c>
       <c r="C165" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D165" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L165" s="4">
         <v>1</v>
@@ -8890,7 +8890,7 @@
         <v>6</v>
       </c>
       <c r="W165" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="166" spans="2:23" x14ac:dyDescent="0.25">
@@ -8898,13 +8898,13 @@
         <v>2925</v>
       </c>
       <c r="C166" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D166" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W166" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.25">
@@ -8912,10 +8912,10 @@
         <v>2926</v>
       </c>
       <c r="C167" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D167" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E167">
         <v>2</v>
@@ -8927,7 +8927,7 @@
         <v>0.02</v>
       </c>
       <c r="W167" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="168" spans="2:23" x14ac:dyDescent="0.25">
@@ -8935,10 +8935,10 @@
         <v>2927</v>
       </c>
       <c r="C168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D168" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E168">
         <v>3</v>
@@ -8950,7 +8950,7 @@
         <v>0.02</v>
       </c>
       <c r="W168" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="169" spans="2:23" x14ac:dyDescent="0.25">
@@ -8958,10 +8958,10 @@
         <v>2931</v>
       </c>
       <c r="C169" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D169" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L169" s="4">
         <v>2</v>
@@ -8975,10 +8975,10 @@
         <v>2932</v>
       </c>
       <c r="C170" t="s">
+        <v>296</v>
+      </c>
+      <c r="D170" t="s">
         <v>295</v>
-      </c>
-      <c r="D170" t="s">
-        <v>294</v>
       </c>
       <c r="L170" s="4">
         <v>1</v>
@@ -8995,10 +8995,10 @@
         <v>2933</v>
       </c>
       <c r="C171" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D171" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L171" s="4">
         <v>1</v>
@@ -9012,10 +9012,10 @@
         <v>2941</v>
       </c>
       <c r="C172" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D172" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -9026,10 +9026,10 @@
         <v>2942</v>
       </c>
       <c r="C173" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D173" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E173">
         <v>2</v>
@@ -9040,10 +9040,10 @@
         <v>2943</v>
       </c>
       <c r="C174" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D174" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E174">
         <v>2</v>
@@ -9054,10 +9054,10 @@
         <v>2944</v>
       </c>
       <c r="C175" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D175" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E175">
         <v>2</v>
@@ -9074,10 +9074,10 @@
         <v>2945</v>
       </c>
       <c r="C176" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D176" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E176">
         <v>2</v>
@@ -9088,10 +9088,10 @@
         <v>2946</v>
       </c>
       <c r="C177" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D177" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E177">
         <v>2</v>
@@ -9102,10 +9102,10 @@
         <v>2947</v>
       </c>
       <c r="C178" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D178" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E178">
         <v>2</v>
@@ -9116,10 +9116,10 @@
         <v>2948</v>
       </c>
       <c r="C179" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D179" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -9130,10 +9130,10 @@
         <v>2951</v>
       </c>
       <c r="C180" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D180" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="181" spans="2:17" x14ac:dyDescent="0.25">
@@ -9141,10 +9141,10 @@
         <v>2952</v>
       </c>
       <c r="C181" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D181" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="182" spans="2:17" x14ac:dyDescent="0.25">
@@ -9152,10 +9152,10 @@
         <v>2953</v>
       </c>
       <c r="C182" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D182" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L182" s="4">
         <v>1</v>
@@ -9169,10 +9169,10 @@
         <v>2954</v>
       </c>
       <c r="C183" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D183" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N183">
         <v>0.04</v>
@@ -9183,10 +9183,10 @@
         <v>2955</v>
       </c>
       <c r="C184" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D184" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L184" s="4">
         <v>1</v>
@@ -9200,10 +9200,10 @@
         <v>2956</v>
       </c>
       <c r="C185" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D185" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L185" s="4">
         <v>1</v>
@@ -9217,10 +9217,10 @@
         <v>2957</v>
       </c>
       <c r="C186" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D186" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L186" s="4">
         <v>1</v>
@@ -9234,10 +9234,10 @@
         <v>2961</v>
       </c>
       <c r="C187" t="s">
+        <v>324</v>
+      </c>
+      <c r="D187" t="s">
         <v>323</v>
-      </c>
-      <c r="D187" t="s">
-        <v>322</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -9257,10 +9257,10 @@
         <v>2962</v>
       </c>
       <c r="C188" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D188" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E188">
         <v>2</v>
@@ -9277,10 +9277,10 @@
         <v>2963</v>
       </c>
       <c r="C189" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D189" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E189">
         <v>2</v>
@@ -9294,10 +9294,10 @@
         <v>2964</v>
       </c>
       <c r="C190" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D190" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E190">
         <v>2</v>
@@ -9311,10 +9311,10 @@
         <v>2965</v>
       </c>
       <c r="C191" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D191" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="192" spans="2:17" x14ac:dyDescent="0.25">
@@ -9322,10 +9322,10 @@
         <v>2966</v>
       </c>
       <c r="C192" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D192" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L192" s="4">
         <v>1</v>
@@ -9339,10 +9339,10 @@
         <v>2967</v>
       </c>
       <c r="C193" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D193" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L193" s="4">
         <v>2</v>
@@ -9359,10 +9359,10 @@
         <v>2968</v>
       </c>
       <c r="C194" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D194" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E194">
         <v>3</v>
@@ -9376,10 +9376,10 @@
         <v>2969</v>
       </c>
       <c r="C195" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D195" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E195">
         <v>3</v>
@@ -9393,10 +9393,10 @@
         <v>2970</v>
       </c>
       <c r="C196" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D196" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E196">
         <v>3</v>
@@ -9416,10 +9416,10 @@
         <v>2971</v>
       </c>
       <c r="C197" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D197" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E197">
         <v>2</v>
@@ -9436,10 +9436,10 @@
         <v>2972</v>
       </c>
       <c r="C198" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D198" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E198">
         <v>3</v>
@@ -9453,10 +9453,10 @@
         <v>2973</v>
       </c>
       <c r="C199" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D199" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L199" s="4">
         <v>1</v>
@@ -9493,7 +9493,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9504,16 +9504,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -9524,10 +9524,10 @@
         <v>3101</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F3">
         <v>2931</v>
@@ -9539,7 +9539,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9547,10 +9547,10 @@
         <v>3102</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F4">
         <v>2931</v>
@@ -9567,10 +9567,10 @@
         <v>3103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F5">
         <v>2933</v>
@@ -9587,10 +9587,10 @@
         <v>3106</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F6">
         <v>2932</v>
@@ -9607,10 +9607,10 @@
         <v>3107</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F7">
         <v>2932</v>
@@ -9627,10 +9627,10 @@
         <v>3108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -9644,10 +9644,10 @@
         <v>3111</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9">
@@ -9662,10 +9662,10 @@
         <v>3112</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10">
@@ -9683,7 +9683,7 @@
         <v>7.62</v>
       </c>
       <c r="D11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11">
@@ -9701,7 +9701,7 @@
         <v>7.62</v>
       </c>
       <c r="D12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12">
@@ -9719,7 +9719,7 @@
         <v>7.62</v>
       </c>
       <c r="D13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13">
@@ -9734,7 +9734,7 @@
         <v>7.62</v>
       </c>
       <c r="D14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14">
@@ -9746,10 +9746,10 @@
         <v>3117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15">
@@ -9761,10 +9761,10 @@
         <v>3118</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16">
@@ -9776,10 +9776,10 @@
         <v>3119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17">
@@ -9794,10 +9794,10 @@
         <v>3120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18">
@@ -9815,7 +9815,7 @@
         <v>5.56</v>
       </c>
       <c r="D19" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19">
@@ -9830,7 +9830,7 @@
         <v>7.62</v>
       </c>
       <c r="D20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20">
@@ -9842,10 +9842,10 @@
         <v>3123</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21">
@@ -9860,10 +9860,10 @@
         <v>3124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22">
@@ -9881,7 +9881,7 @@
         <v>7.62</v>
       </c>
       <c r="D23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23">
@@ -9899,7 +9899,7 @@
         <v>7.62</v>
       </c>
       <c r="D24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24">
@@ -9914,10 +9914,10 @@
         <v>3127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D25" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25">
@@ -9932,10 +9932,10 @@
         <v>3128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D26" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26">
@@ -9947,10 +9947,10 @@
         <v>3129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D27" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27">
@@ -9965,10 +9965,10 @@
         <v>3130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D28" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28">
@@ -9983,10 +9983,10 @@
         <v>3131</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D29" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29">
@@ -9998,10 +9998,10 @@
         <v>3132</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D30" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30">
@@ -10013,13 +10013,13 @@
         <v>3133</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D31" t="s">
         <v>397</v>
       </c>
-      <c r="D31" t="s">
-        <v>396</v>
-      </c>
       <c r="F31" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G31">
         <v>40</v>
@@ -10033,13 +10033,13 @@
         <v>3134</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D32" t="s">
         <v>397</v>
       </c>
-      <c r="D32" t="s">
-        <v>396</v>
-      </c>
       <c r="F32" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G32">
         <v>60</v>
@@ -10056,7 +10056,7 @@
         <v>5.56</v>
       </c>
       <c r="D33" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33">
@@ -10074,7 +10074,7 @@
         <v>5.56</v>
       </c>
       <c r="D34" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34">
@@ -10089,10 +10089,10 @@
         <v>3137</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35">
@@ -10107,10 +10107,10 @@
         <v>3138</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D36" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36">
@@ -10128,7 +10128,7 @@
         <v>5.56</v>
       </c>
       <c r="D37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37">
@@ -10143,7 +10143,7 @@
         <v>5.56</v>
       </c>
       <c r="D38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -10157,13 +10157,13 @@
         <v>3201</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D40" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F40" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -10177,13 +10177,13 @@
         <v>3202</v>
       </c>
       <c r="C41" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D41" t="s">
+        <v>567</v>
+      </c>
+      <c r="F41" t="s">
         <v>566</v>
-      </c>
-      <c r="F41" t="s">
-        <v>565</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -10234,7 +10234,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10245,13 +10245,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -10265,19 +10265,19 @@
         <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -10286,16 +10286,16 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -10304,16 +10304,16 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -10322,16 +10322,16 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F7" t="s">
+        <v>507</v>
+      </c>
+      <c r="I7" t="s">
         <v>543</v>
-      </c>
-      <c r="F7" t="s">
-        <v>506</v>
-      </c>
-      <c r="I7" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -10340,16 +10340,16 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10358,19 +10358,19 @@
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -10379,16 +10379,16 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -10397,16 +10397,16 @@
         <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E11" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F11" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -10415,16 +10415,16 @@
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E12" t="s">
+        <v>575</v>
+      </c>
+      <c r="F12" t="s">
+        <v>507</v>
+      </c>
+      <c r="I12" t="s">
         <v>574</v>
-      </c>
-      <c r="F12" t="s">
-        <v>506</v>
-      </c>
-      <c r="I12" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -10433,39 +10433,39 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E13" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F13" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C15">
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I15" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -10474,19 +10474,19 @@
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -10495,19 +10495,19 @@
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E17" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F17" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -10516,19 +10516,19 @@
         <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E18" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -10537,19 +10537,19 @@
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E19" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -10558,19 +10558,19 @@
         <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I20" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -10579,19 +10579,19 @@
         <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E21" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -10600,19 +10600,19 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E22" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F22" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G22">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -10621,19 +10621,19 @@
         <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E23" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F23" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -10642,24 +10642,24 @@
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E24" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F24" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C26">
         <v>121</v>
@@ -10691,7 +10691,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C32">
         <v>131</v>
@@ -10703,10 +10703,10 @@
         <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I33" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -10715,7 +10715,7 @@
         <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -10724,10 +10724,10 @@
         <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I35" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A588387-542D-43BE-A82D-7430E5C752A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475EA508-45DB-46D2-BFEE-BD4491B16876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrains" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="823">
   <si>
     <t>ID</t>
   </si>
@@ -1505,9 +1505,6 @@
     <t>Mark Spinny</t>
   </si>
   <si>
-    <t>Michael Mattus</t>
-  </si>
-  <si>
     <t>Jeremiah</t>
   </si>
   <si>
@@ -2502,6 +2499,21 @@
   </si>
   <si>
     <t>unlocks with key</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Gaia</t>
+  </si>
+  <si>
+    <t>Mad Dog Mattus</t>
+  </si>
+  <si>
+    <t>Confederacy</t>
+  </si>
+  <si>
+    <t>Hero</t>
   </si>
 </sst>
 </file>
@@ -2917,7 +2929,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -2929,10 +2941,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2943,7 +2955,7 @@
         <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2954,7 +2966,7 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D6" t="s">
         <v>217</v>
@@ -2968,7 +2980,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2976,7 +2988,7 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2984,7 +2996,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2992,7 +3004,7 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3000,7 +3012,7 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3008,7 +3020,7 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3016,7 +3028,7 @@
         <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3024,7 +3036,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3032,7 +3044,7 @@
         <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3048,7 +3060,7 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3056,7 +3068,7 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3064,7 +3076,7 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3072,7 +3084,7 @@
         <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3080,7 +3092,7 @@
         <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3088,7 +3100,7 @@
         <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3096,7 +3108,7 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -3104,7 +3116,7 @@
         <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3112,7 +3124,7 @@
         <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3120,7 +3132,7 @@
         <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3128,7 +3140,7 @@
         <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3136,7 +3148,7 @@
         <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3144,7 +3156,7 @@
         <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3152,7 +3164,7 @@
         <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3160,7 +3172,7 @@
         <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3168,7 +3180,7 @@
         <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -3176,7 +3188,7 @@
         <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3184,7 +3196,7 @@
         <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3192,7 +3204,7 @@
         <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3200,7 +3212,7 @@
         <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3208,7 +3220,7 @@
         <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -3216,7 +3228,7 @@
         <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -3224,7 +3236,7 @@
         <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -3232,7 +3244,7 @@
         <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -3240,7 +3252,7 @@
         <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -3248,7 +3260,7 @@
         <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -3256,7 +3268,7 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -3264,7 +3276,7 @@
         <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -3272,7 +3284,7 @@
         <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -3280,7 +3292,7 @@
         <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -3288,7 +3300,7 @@
         <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -3296,7 +3308,7 @@
         <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D49" t="s">
         <v>220</v>
@@ -3310,7 +3322,7 @@
         <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -3318,7 +3330,7 @@
         <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -3326,7 +3338,7 @@
         <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -3334,7 +3346,7 @@
         <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -3342,7 +3354,7 @@
         <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -3350,7 +3362,7 @@
         <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -3358,7 +3370,7 @@
         <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -3366,7 +3378,7 @@
         <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -3374,7 +3386,7 @@
         <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -3385,13 +3397,13 @@
         <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D60" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E60" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -3399,7 +3411,7 @@
         <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -3407,7 +3419,7 @@
         <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -3415,7 +3427,7 @@
         <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -3423,7 +3435,7 @@
         <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -3431,7 +3443,7 @@
         <v>306</v>
       </c>
       <c r="C65" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -3439,7 +3451,7 @@
         <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -3447,7 +3459,7 @@
         <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -3455,7 +3467,7 @@
         <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -3463,7 +3475,7 @@
         <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -3471,7 +3483,7 @@
         <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -3479,7 +3491,7 @@
         <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -3487,7 +3499,7 @@
         <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -3495,7 +3507,7 @@
         <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -3503,7 +3515,7 @@
         <v>315</v>
       </c>
       <c r="C74" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -3511,7 +3523,7 @@
         <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -3519,7 +3531,7 @@
         <v>317</v>
       </c>
       <c r="C76" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -3527,7 +3539,7 @@
         <v>318</v>
       </c>
       <c r="C77" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -3535,7 +3547,7 @@
         <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -3543,7 +3555,7 @@
         <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -3551,7 +3563,7 @@
         <v>321</v>
       </c>
       <c r="C80" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -3559,7 +3571,7 @@
         <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -3567,7 +3579,7 @@
         <v>323</v>
       </c>
       <c r="C82" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -3575,7 +3587,7 @@
         <v>324</v>
       </c>
       <c r="C83" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -3608,7 +3620,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3619,300 +3631,300 @@
         <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C15" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G16" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" t="s">
+        <v>651</v>
+      </c>
+      <c r="D19" t="s">
         <v>652</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>653</v>
-      </c>
-      <c r="G19" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D20" t="s">
+        <v>645</v>
+      </c>
+      <c r="F20" t="s">
+        <v>642</v>
+      </c>
+      <c r="G20" t="s">
         <v>646</v>
-      </c>
-      <c r="F20" t="s">
-        <v>643</v>
-      </c>
-      <c r="G20" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" t="s">
+        <v>643</v>
+      </c>
+      <c r="D21" t="s">
         <v>644</v>
       </c>
-      <c r="D21" t="s">
-        <v>645</v>
-      </c>
       <c r="F21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G21" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" t="s">
+        <v>655</v>
+      </c>
+      <c r="D24" t="s">
+        <v>654</v>
+      </c>
+      <c r="G24" t="s">
         <v>656</v>
-      </c>
-      <c r="D24" t="s">
-        <v>655</v>
-      </c>
-      <c r="G24" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -4033,8 +4045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4049,7 +4061,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -4064,7 +4076,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>221</v>
@@ -4087,10 +4099,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4101,13 +4113,13 @@
         <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4121,7 +4133,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4138,7 +4150,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4160,7 +4172,7 @@
         <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>231</v>
@@ -4169,10 +4181,10 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4190,7 +4202,7 @@
         <v>240</v>
       </c>
       <c r="H12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4201,7 +4213,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="H13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4209,16 +4221,16 @@
         <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4226,7 +4238,7 @@
         <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4234,7 +4246,7 @@
         <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -4242,7 +4254,7 @@
         <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -4250,7 +4262,7 @@
         <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G18" t="s">
         <v>342</v>
@@ -4270,7 +4282,7 @@
         <v>342</v>
       </c>
       <c r="H19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -4278,7 +4290,7 @@
         <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -4286,7 +4298,7 @@
         <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -4294,7 +4306,7 @@
         <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -4302,16 +4314,16 @@
         <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H23" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4319,7 +4331,7 @@
         <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -4330,7 +4342,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4341,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -4358,7 +4370,7 @@
         <v>342</v>
       </c>
       <c r="H27" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -4366,7 +4378,7 @@
         <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -4374,7 +4386,7 @@
         <v>133</v>
       </c>
       <c r="H29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -4382,7 +4394,7 @@
         <v>134</v>
       </c>
       <c r="H30" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -4399,7 +4411,7 @@
         <v>342</v>
       </c>
       <c r="H31" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -4407,7 +4419,7 @@
         <v>142</v>
       </c>
       <c r="H32" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -4415,7 +4427,7 @@
         <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D33" t="s">
         <v>233</v>
@@ -4424,10 +4436,10 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H33" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -4435,7 +4447,7 @@
         <v>152</v>
       </c>
       <c r="H34" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -4443,7 +4455,7 @@
         <v>153</v>
       </c>
       <c r="H35" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -4451,7 +4463,7 @@
         <v>154</v>
       </c>
       <c r="H36" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -4459,10 +4471,10 @@
         <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -4470,7 +4482,7 @@
         <v>156</v>
       </c>
       <c r="H38" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -4478,7 +4490,7 @@
         <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -4486,7 +4498,7 @@
         <v>158</v>
       </c>
       <c r="H40" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -4567,7 +4579,7 @@
         <v>239</v>
       </c>
       <c r="D46" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -4590,7 +4602,7 @@
         <v>345</v>
       </c>
       <c r="H47" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -4604,7 +4616,7 @@
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -4626,7 +4638,7 @@
         <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -4733,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -4741,16 +4753,16 @@
         <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E58">
         <v>5</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H58" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -4758,7 +4770,7 @@
         <v>192</v>
       </c>
       <c r="H59" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -4766,10 +4778,10 @@
         <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H60" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -4777,7 +4789,7 @@
         <v>194</v>
       </c>
       <c r="H61" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -4788,13 +4800,13 @@
         <v>225</v>
       </c>
       <c r="D62" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -4811,27 +4823,27 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C64" t="s">
         <v>251</v>
       </c>
       <c r="D64" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E64">
         <v>7</v>
       </c>
       <c r="G64" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="H64" t="s">
         <v>803</v>
-      </c>
-      <c r="H64" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C65" t="s">
         <v>250</v>
@@ -4840,10 +4852,10 @@
         <v>9</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H65" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4854,16 +4866,16 @@
         <v>255</v>
       </c>
       <c r="D66" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H66" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4872,12 +4884,12 @@
       </c>
       <c r="G67" s="9"/>
       <c r="H67" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C69" t="s">
         <v>219</v>
@@ -4889,10 +4901,10 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
+        <v>763</v>
+      </c>
+      <c r="H69" t="s">
         <v>764</v>
-      </c>
-      <c r="H69" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4903,10 +4915,10 @@
         <v>224</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H70" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4914,7 +4926,7 @@
         <v>312</v>
       </c>
       <c r="H71" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4922,19 +4934,19 @@
         <v>321</v>
       </c>
       <c r="C72" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D72" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H72" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4945,10 +4957,10 @@
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H73" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4956,10 +4968,10 @@
         <v>323</v>
       </c>
       <c r="G74" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H74" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4971,16 +4983,16 @@
         <v>223</v>
       </c>
       <c r="D75" t="s">
+        <v>783</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>770</v>
+      </c>
+      <c r="H75" t="s">
         <v>784</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>771</v>
-      </c>
-      <c r="H75" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4989,7 +5001,7 @@
         <v>332</v>
       </c>
       <c r="H76" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4998,7 +5010,7 @@
         <v>333</v>
       </c>
       <c r="H77" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5007,7 +5019,7 @@
         <v>334</v>
       </c>
       <c r="H78" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5016,7 +5028,7 @@
         <v>335</v>
       </c>
       <c r="H79" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5025,7 +5037,7 @@
         <v>336</v>
       </c>
       <c r="H80" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5034,7 +5046,7 @@
         <v>337</v>
       </c>
       <c r="H81" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -5043,7 +5055,7 @@
         <v>338</v>
       </c>
       <c r="H82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5052,16 +5064,16 @@
         <v>339</v>
       </c>
       <c r="C83" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E83">
         <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H83" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5070,7 +5082,7 @@
         <v>340</v>
       </c>
       <c r="H84" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5079,7 +5091,7 @@
         <v>341</v>
       </c>
       <c r="H85" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5088,7 +5100,7 @@
         <v>342</v>
       </c>
       <c r="H86" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5097,13 +5109,13 @@
         <v>343</v>
       </c>
       <c r="C87" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G87" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H87" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -5112,7 +5124,7 @@
         <v>344</v>
       </c>
       <c r="H88" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5121,7 +5133,7 @@
         <v>345</v>
       </c>
       <c r="H89" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5130,7 +5142,7 @@
         <v>346</v>
       </c>
       <c r="H90" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -5155,7 +5167,7 @@
         <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5164,7 +5176,7 @@
         <v>305</v>
       </c>
       <c r="H93" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -5175,7 +5187,7 @@
         <v>306</v>
       </c>
       <c r="H94" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -5183,7 +5195,7 @@
         <v>421</v>
       </c>
       <c r="C95" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -5197,7 +5209,7 @@
         <v>422</v>
       </c>
       <c r="C96" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -5205,7 +5217,7 @@
         <v>423</v>
       </c>
       <c r="C97" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -5213,7 +5225,7 @@
         <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -5221,7 +5233,7 @@
         <v>425</v>
       </c>
       <c r="C99" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E99">
         <v>35</v>
@@ -5252,7 +5264,7 @@
         <v>344</v>
       </c>
       <c r="H101" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -5260,7 +5272,7 @@
         <v>442</v>
       </c>
       <c r="H102" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -5268,7 +5280,7 @@
         <v>443</v>
       </c>
       <c r="H103" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
@@ -5351,25 +5363,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F803ACD-0C6B-4501-8A1D-9CD977C9D5BC}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -5377,36 +5390,39 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>193</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C3" t="s">
         <v>416</v>
@@ -5414,427 +5430,459 @@
       <c r="D3" t="s">
         <v>417</v>
       </c>
-      <c r="G3">
+      <c r="E3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>818</v>
+      </c>
+      <c r="D4" t="s">
+        <v>819</v>
+      </c>
+      <c r="E4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>1101</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1111</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1102</v>
+      </c>
+      <c r="C7" t="s">
         <v>482</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>1112</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1103</v>
+      </c>
+      <c r="C8" t="s">
         <v>484</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>485</v>
+      </c>
+      <c r="E9" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>485</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>820</v>
+      </c>
+      <c r="E10" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>488</v>
+      </c>
+      <c r="E13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>489</v>
+      </c>
+      <c r="E14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>490</v>
+      </c>
+      <c r="E16" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>1114</v>
-      </c>
-      <c r="C9" t="s">
-        <v>486</v>
-      </c>
-      <c r="D9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1115</v>
-      </c>
-      <c r="C10" t="s">
-        <v>487</v>
-      </c>
-      <c r="D10" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1116</v>
-      </c>
-      <c r="C11" t="s">
-        <v>488</v>
-      </c>
-      <c r="D11" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>1117</v>
-      </c>
-      <c r="C12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D12" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1118</v>
-      </c>
-      <c r="C13" t="s">
-        <v>490</v>
-      </c>
-      <c r="D13" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>1119</v>
-      </c>
-      <c r="C14" t="s">
-        <v>498</v>
-      </c>
-      <c r="D14" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>1120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>491</v>
-      </c>
-      <c r="D15" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>1401</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1201</v>
+      </c>
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
         <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>1402</v>
-      </c>
-      <c r="C18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>1403</v>
+        <v>1202</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="G19">
+        <v>194</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19" t="s">
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1203</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>1404</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1204</v>
+      </c>
+      <c r="C21" t="s">
         <v>203</v>
       </c>
-      <c r="E20">
+      <c r="F21">
         <v>4</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>1405</v>
-      </c>
-      <c r="C21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="M21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>1406</v>
+        <v>1205</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
+        <v>204</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
       </c>
       <c r="H22">
         <v>3</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>1407</v>
+        <v>1206</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23">
-        <v>7</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
+        <v>196</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1207</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="M23" t="s">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>1408</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1208</v>
+      </c>
+      <c r="C25" t="s">
         <v>198</v>
       </c>
-      <c r="E24">
+      <c r="F25">
         <v>8</v>
       </c>
-      <c r="G24">
+      <c r="H25">
         <v>5</v>
       </c>
-      <c r="H24">
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>3</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N25" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>1409</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1209</v>
+      </c>
+      <c r="C26" t="s">
         <v>199</v>
       </c>
-      <c r="E25">
+      <c r="F26">
         <v>9</v>
       </c>
-      <c r="G25">
+      <c r="H26">
         <v>5</v>
       </c>
-      <c r="H25">
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>1410</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1210</v>
+      </c>
+      <c r="C27" t="s">
         <v>200</v>
       </c>
-      <c r="E26">
+      <c r="F27">
         <v>10</v>
       </c>
-      <c r="G26">
+      <c r="H27">
         <v>5</v>
       </c>
-      <c r="H26">
+      <c r="I27">
         <v>3</v>
       </c>
-      <c r="I26">
+      <c r="J27">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>3</v>
       </c>
     </row>
@@ -5882,7 +5930,7 @@
         <v>450</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>454</v>
@@ -5893,7 +5941,7 @@
         <v>451</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>452</v>
@@ -5928,7 +5976,7 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
@@ -5956,7 +6004,7 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D9" t="s">
         <v>432</v>
@@ -5970,7 +6018,7 @@
         <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
@@ -5984,7 +6032,7 @@
         <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D12" t="s">
         <v>430</v>
@@ -5998,7 +6046,7 @@
         <v>438</v>
       </c>
       <c r="C13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D13" t="s">
         <v>427</v>
@@ -6012,7 +6060,7 @@
         <v>440</v>
       </c>
       <c r="C14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D14" t="s">
         <v>462</v>
@@ -6026,7 +6074,7 @@
         <v>441</v>
       </c>
       <c r="C15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D15" t="s">
         <v>463</v>
@@ -6040,7 +6088,7 @@
         <v>434</v>
       </c>
       <c r="C16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D16" t="s">
         <v>466</v>
@@ -6057,7 +6105,7 @@
         <v>435</v>
       </c>
       <c r="C17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D17" t="s">
         <v>426</v>
@@ -6072,7 +6120,7 @@
         <v>442</v>
       </c>
       <c r="C18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D18" t="s">
         <v>466</v>
@@ -6087,7 +6135,7 @@
         <v>443</v>
       </c>
       <c r="C19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D19" t="s">
         <v>467</v>
@@ -6102,7 +6150,7 @@
         <v>444</v>
       </c>
       <c r="C20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D20" t="s">
         <v>468</v>
@@ -6116,7 +6164,7 @@
         <v>445</v>
       </c>
       <c r="C21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D21" t="s">
         <v>473</v>
@@ -6130,7 +6178,7 @@
         <v>206</v>
       </c>
       <c r="C22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D22" t="s">
         <v>208</v>
@@ -6144,7 +6192,7 @@
         <v>446</v>
       </c>
       <c r="C23" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D23" t="s">
         <v>469</v>
@@ -6158,7 +6206,7 @@
         <v>447</v>
       </c>
       <c r="C24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D24" t="s">
         <v>479</v>
@@ -6172,7 +6220,7 @@
         <v>448</v>
       </c>
       <c r="C25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D25" t="s">
         <v>474</v>
@@ -6186,7 +6234,7 @@
         <v>449</v>
       </c>
       <c r="C26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -6194,7 +6242,7 @@
         <v>455</v>
       </c>
       <c r="C27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -6202,7 +6250,7 @@
         <v>456</v>
       </c>
       <c r="C28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -6210,7 +6258,7 @@
         <v>457</v>
       </c>
       <c r="C29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -6218,7 +6266,7 @@
         <v>458</v>
       </c>
       <c r="C30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -6226,29 +6274,29 @@
         <v>459</v>
       </c>
       <c r="C31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E33" t="s">
+        <v>535</v>
+      </c>
+      <c r="F33" t="s">
         <v>536</v>
-      </c>
-      <c r="F33" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>560</v>
+      </c>
+      <c r="C34" t="s">
         <v>561</v>
-      </c>
-      <c r="C34" t="s">
-        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -8683,7 +8731,7 @@
         <v>2821</v>
       </c>
       <c r="C151" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E151">
         <v>3</v>
@@ -9567,7 +9615,7 @@
         <v>3103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D5" t="s">
         <v>294</v>
@@ -10019,7 +10067,7 @@
         <v>397</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G31">
         <v>40</v>
@@ -10039,7 +10087,7 @@
         <v>397</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G32">
         <v>60</v>
@@ -10157,13 +10205,13 @@
         <v>3201</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D40" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F40" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -10177,13 +10225,13 @@
         <v>3202</v>
       </c>
       <c r="C41" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D41" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F41" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -10234,7 +10282,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10245,13 +10293,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -10265,19 +10313,19 @@
         <v>101</v>
       </c>
       <c r="D4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="I4" t="s">
         <v>538</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="I4" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -10286,16 +10334,16 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -10304,16 +10352,16 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -10322,16 +10370,16 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F7" t="s">
+        <v>506</v>
+      </c>
+      <c r="I7" t="s">
         <v>542</v>
-      </c>
-      <c r="E7" t="s">
-        <v>544</v>
-      </c>
-      <c r="F7" t="s">
-        <v>507</v>
-      </c>
-      <c r="I7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -10340,16 +10388,16 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
+        <v>545</v>
+      </c>
+      <c r="E8" t="s">
+        <v>540</v>
+      </c>
+      <c r="F8" t="s">
+        <v>507</v>
+      </c>
+      <c r="I8" t="s">
         <v>546</v>
-      </c>
-      <c r="E8" t="s">
-        <v>541</v>
-      </c>
-      <c r="F8" t="s">
-        <v>508</v>
-      </c>
-      <c r="I8" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10358,19 +10406,19 @@
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -10379,16 +10427,16 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E10" t="s">
+        <v>576</v>
+      </c>
+      <c r="F10" t="s">
+        <v>504</v>
+      </c>
+      <c r="I10" t="s">
         <v>577</v>
-      </c>
-      <c r="F10" t="s">
-        <v>505</v>
-      </c>
-      <c r="I10" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -10397,16 +10445,16 @@
         <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -10415,16 +10463,16 @@
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -10433,16 +10481,16 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
+        <v>570</v>
+      </c>
+      <c r="E13" t="s">
         <v>571</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>507</v>
+      </c>
+      <c r="I13" t="s">
         <v>572</v>
-      </c>
-      <c r="F13" t="s">
-        <v>508</v>
-      </c>
-      <c r="I13" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -10453,19 +10501,19 @@
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -10474,19 +10522,19 @@
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -10495,19 +10543,19 @@
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -10516,19 +10564,19 @@
         <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -10537,19 +10585,19 @@
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -10558,19 +10606,19 @@
         <v>116</v>
       </c>
       <c r="D20" t="s">
+        <v>592</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="I20" t="s">
         <v>593</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="I20" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -10579,19 +10627,19 @@
         <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -10600,19 +10648,19 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G22">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -10621,19 +10669,19 @@
         <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -10642,24 +10690,24 @@
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E24" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C26">
         <v>121</v>
@@ -10691,7 +10739,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C32">
         <v>131</v>
@@ -10703,10 +10751,10 @@
         <v>132</v>
       </c>
       <c r="D33" t="s">
+        <v>554</v>
+      </c>
+      <c r="I33" t="s">
         <v>555</v>
-      </c>
-      <c r="I33" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -10715,7 +10763,7 @@
         <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -10724,10 +10772,10 @@
         <v>134</v>
       </c>
       <c r="D35" t="s">
+        <v>557</v>
+      </c>
+      <c r="I35" t="s">
         <v>558</v>
-      </c>
-      <c r="I35" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475EA508-45DB-46D2-BFEE-BD4491B16876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8927AB0F-89F6-4F16-B011-10D43029872B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrains" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="829">
   <si>
     <t>ID</t>
   </si>
@@ -416,9 +416,6 @@
     <t>Fluorite Greaves</t>
   </si>
   <si>
-    <t>Apatite Greave</t>
-  </si>
-  <si>
     <t>Orthoclase Greaves</t>
   </si>
   <si>
@@ -2514,6 +2511,27 @@
   </si>
   <si>
     <t>Hero</t>
+  </si>
+  <si>
+    <t>Eraser</t>
+  </si>
+  <si>
+    <t>Central bank</t>
+  </si>
+  <si>
+    <t>All heroes can deposit, withdraw, use from central bank at atms (or at will?)</t>
+  </si>
+  <si>
+    <t>Apatite Greaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can pick up items 1 tier above </t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Can launch game (tutorial gives 1 achievement token)</t>
   </si>
 </sst>
 </file>
@@ -2929,7 +2947,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -2941,10 +2959,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2952,10 +2970,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2966,10 +2984,10 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2980,7 +2998,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2988,7 +3006,7 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2996,7 +3014,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3004,7 +3022,7 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3012,7 +3030,7 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3020,7 +3038,7 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3028,7 +3046,7 @@
         <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3036,7 +3054,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,7 +3062,7 @@
         <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3052,7 +3070,7 @@
         <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -3060,7 +3078,7 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3068,7 +3086,7 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3076,7 +3094,7 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3084,7 +3102,7 @@
         <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3092,7 +3110,7 @@
         <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3100,7 +3118,7 @@
         <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3108,7 +3126,7 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -3116,7 +3134,7 @@
         <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3124,7 +3142,7 @@
         <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3132,7 +3150,7 @@
         <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3140,7 +3158,7 @@
         <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3148,7 +3166,7 @@
         <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3156,7 +3174,7 @@
         <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3164,7 +3182,7 @@
         <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3172,7 +3190,7 @@
         <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3180,7 +3198,7 @@
         <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -3188,7 +3206,7 @@
         <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3196,7 +3214,7 @@
         <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3204,7 +3222,7 @@
         <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3212,7 +3230,7 @@
         <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3220,7 +3238,7 @@
         <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -3228,7 +3246,7 @@
         <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -3236,7 +3254,7 @@
         <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -3244,7 +3262,7 @@
         <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -3252,7 +3270,7 @@
         <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -3260,7 +3278,7 @@
         <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -3268,7 +3286,7 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -3276,7 +3294,7 @@
         <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -3284,7 +3302,7 @@
         <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -3292,7 +3310,7 @@
         <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -3300,7 +3318,7 @@
         <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -3308,10 +3326,10 @@
         <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -3322,7 +3340,7 @@
         <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -3330,7 +3348,7 @@
         <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -3338,7 +3356,7 @@
         <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -3346,7 +3364,7 @@
         <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -3354,7 +3372,7 @@
         <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -3362,7 +3380,7 @@
         <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -3370,7 +3388,7 @@
         <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -3378,7 +3396,7 @@
         <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -3386,7 +3404,7 @@
         <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -3397,13 +3415,13 @@
         <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D60" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E60" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -3411,7 +3429,7 @@
         <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -3419,7 +3437,7 @@
         <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -3427,7 +3445,7 @@
         <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -3435,7 +3453,7 @@
         <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -3443,7 +3461,7 @@
         <v>306</v>
       </c>
       <c r="C65" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -3451,7 +3469,7 @@
         <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -3459,7 +3477,7 @@
         <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -3467,7 +3485,7 @@
         <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -3475,7 +3493,7 @@
         <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -3483,7 +3501,7 @@
         <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -3491,7 +3509,7 @@
         <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -3499,7 +3517,7 @@
         <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -3507,7 +3525,7 @@
         <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -3515,7 +3533,7 @@
         <v>315</v>
       </c>
       <c r="C74" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -3523,7 +3541,7 @@
         <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -3531,7 +3549,7 @@
         <v>317</v>
       </c>
       <c r="C76" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -3539,7 +3557,7 @@
         <v>318</v>
       </c>
       <c r="C77" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -3547,7 +3565,7 @@
         <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -3555,7 +3573,7 @@
         <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -3563,7 +3581,7 @@
         <v>321</v>
       </c>
       <c r="C80" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -3571,7 +3589,7 @@
         <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -3579,7 +3597,7 @@
         <v>323</v>
       </c>
       <c r="C82" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -3587,7 +3605,7 @@
         <v>324</v>
       </c>
       <c r="C83" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -3603,10 +3621,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F6F072-5AA1-4DF6-9E79-0C2773550AE1}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3620,7 +3638,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3630,301 +3648,386 @@
       <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>827</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D4" t="s">
-        <v>611</v>
+        <v>610</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D5" t="s">
-        <v>612</v>
+        <v>611</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D6" t="s">
-        <v>613</v>
+        <v>612</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D7" t="s">
-        <v>614</v>
+        <v>613</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D8" t="s">
-        <v>615</v>
+        <v>614</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D9" t="s">
-        <v>616</v>
+        <v>615</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D10" t="s">
-        <v>617</v>
+        <v>616</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D11" t="s">
-        <v>618</v>
+        <v>617</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D12" t="s">
-        <v>619</v>
+        <v>618</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D13" t="s">
-        <v>620</v>
+        <v>619</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D15" t="s">
-        <v>636</v>
+        <v>635</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D16" t="s">
-        <v>639</v>
+        <v>638</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D17" t="s">
-        <v>650</v>
+        <v>649</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" t="s">
-        <v>658</v>
+        <v>657</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" t="s">
+        <v>650</v>
+      </c>
+      <c r="D19" t="s">
         <v>651</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
         <v>652</v>
-      </c>
-      <c r="G19" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D20" t="s">
+        <v>644</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>641</v>
+      </c>
+      <c r="G20" t="s">
         <v>645</v>
-      </c>
-      <c r="F20" t="s">
-        <v>642</v>
-      </c>
-      <c r="G20" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" t="s">
+        <v>642</v>
+      </c>
+      <c r="D21" t="s">
         <v>643</v>
       </c>
-      <c r="D21" t="s">
-        <v>644</v>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G21" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" t="s">
-        <v>658</v>
+        <v>657</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" t="s">
-        <v>658</v>
+        <v>657</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" t="s">
+        <v>654</v>
+      </c>
+      <c r="D24" t="s">
+        <v>653</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
         <v>655</v>
       </c>
-      <c r="D24" t="s">
-        <v>654</v>
-      </c>
-      <c r="G24" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G28" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>661</v>
+      <c r="A31" s="1"/>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>823</v>
+      </c>
+      <c r="G32" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -4061,7 +4164,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -4076,33 +4179,33 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
         <v>210</v>
       </c>
-      <c r="C4" t="s">
-        <v>211</v>
-      </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4110,16 +4213,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4127,13 +4230,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4141,16 +4244,16 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4158,13 +4261,13 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4172,19 +4275,19 @@
         <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4192,17 +4295,17 @@
         <v>102</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4213,7 +4316,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="H13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4221,16 +4324,16 @@
         <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H14" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4238,7 +4341,7 @@
         <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4246,7 +4349,7 @@
         <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -4254,7 +4357,7 @@
         <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -4262,10 +4365,10 @@
         <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -4273,16 +4376,16 @@
         <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -4290,7 +4393,7 @@
         <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -4298,7 +4401,7 @@
         <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -4306,7 +4409,7 @@
         <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -4314,16 +4417,16 @@
         <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H23" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4331,7 +4434,7 @@
         <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -4342,7 +4445,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4353,7 +4456,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -4361,16 +4464,16 @@
         <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H27" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -4378,7 +4481,7 @@
         <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -4386,7 +4489,7 @@
         <v>133</v>
       </c>
       <c r="H29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -4394,7 +4497,7 @@
         <v>134</v>
       </c>
       <c r="H30" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -4402,16 +4505,16 @@
         <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E31">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H31" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -4419,7 +4522,7 @@
         <v>142</v>
       </c>
       <c r="H32" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -4427,19 +4530,19 @@
         <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H33" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -4447,7 +4550,7 @@
         <v>152</v>
       </c>
       <c r="H34" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -4455,7 +4558,7 @@
         <v>153</v>
       </c>
       <c r="H35" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -4463,7 +4566,7 @@
         <v>154</v>
       </c>
       <c r="H36" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -4471,10 +4574,10 @@
         <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H37" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -4482,7 +4585,7 @@
         <v>156</v>
       </c>
       <c r="H38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -4490,7 +4593,7 @@
         <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -4498,7 +4601,7 @@
         <v>158</v>
       </c>
       <c r="H40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -4506,13 +4609,13 @@
         <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -4520,13 +4623,13 @@
         <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E42">
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -4534,13 +4637,13 @@
         <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E43">
         <v>-1</v>
       </c>
       <c r="G43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -4548,13 +4651,13 @@
         <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E44">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -4562,13 +4665,13 @@
         <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -4576,16 +4679,16 @@
         <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D46" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -4593,16 +4696,16 @@
         <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E47">
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H47" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -4610,13 +4713,13 @@
         <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E48">
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -4624,13 +4727,13 @@
         <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -4638,13 +4741,13 @@
         <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E50">
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -4652,13 +4755,13 @@
         <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -4666,13 +4769,13 @@
         <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -4680,16 +4783,16 @@
         <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -4697,13 +4800,13 @@
         <v>182</v>
       </c>
       <c r="C54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E54">
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -4711,13 +4814,13 @@
         <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -4725,13 +4828,13 @@
         <v>184</v>
       </c>
       <c r="C56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -4739,13 +4842,13 @@
         <v>185</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -4753,16 +4856,16 @@
         <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E58">
         <v>5</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H58" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -4770,7 +4873,7 @@
         <v>192</v>
       </c>
       <c r="H59" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -4778,10 +4881,10 @@
         <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H60" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -4789,7 +4892,7 @@
         <v>194</v>
       </c>
       <c r="H61" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -4797,16 +4900,16 @@
         <v>201</v>
       </c>
       <c r="C62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D62" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -4814,7 +4917,7 @@
         <v>202</v>
       </c>
       <c r="C63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -4823,39 +4926,39 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D64" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E64">
         <v>7</v>
       </c>
       <c r="G64" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="H64" t="s">
         <v>802</v>
-      </c>
-      <c r="H64" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E65">
         <v>9</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H65" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4863,19 +4966,19 @@
         <v>251</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D66" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H66" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4884,27 +4987,27 @@
       </c>
       <c r="G67" s="9"/>
       <c r="H67" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C69" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" t="s">
         <v>219</v>
-      </c>
-      <c r="D69" t="s">
-        <v>220</v>
       </c>
       <c r="E69">
         <v>100</v>
       </c>
       <c r="G69" t="s">
+        <v>762</v>
+      </c>
+      <c r="H69" t="s">
         <v>763</v>
-      </c>
-      <c r="H69" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4912,13 +5015,13 @@
         <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4926,7 +5029,7 @@
         <v>312</v>
       </c>
       <c r="H71" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4934,19 +5037,19 @@
         <v>321</v>
       </c>
       <c r="C72" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D72" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H72" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4957,10 +5060,10 @@
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H73" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4968,10 +5071,10 @@
         <v>323</v>
       </c>
       <c r="G74" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H74" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4980,19 +5083,19 @@
         <v>331</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" t="s">
+        <v>782</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>769</v>
+      </c>
+      <c r="H75" t="s">
         <v>783</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>770</v>
-      </c>
-      <c r="H75" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5001,7 +5104,7 @@
         <v>332</v>
       </c>
       <c r="H76" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5010,7 +5113,7 @@
         <v>333</v>
       </c>
       <c r="H77" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5019,7 +5122,7 @@
         <v>334</v>
       </c>
       <c r="H78" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5028,7 +5131,7 @@
         <v>335</v>
       </c>
       <c r="H79" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5037,7 +5140,7 @@
         <v>336</v>
       </c>
       <c r="H80" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5046,7 +5149,7 @@
         <v>337</v>
       </c>
       <c r="H81" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -5055,7 +5158,7 @@
         <v>338</v>
       </c>
       <c r="H82" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5064,16 +5167,16 @@
         <v>339</v>
       </c>
       <c r="C83" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E83">
         <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H83" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5082,7 +5185,7 @@
         <v>340</v>
       </c>
       <c r="H84" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5091,7 +5194,7 @@
         <v>341</v>
       </c>
       <c r="H85" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5100,7 +5203,7 @@
         <v>342</v>
       </c>
       <c r="H86" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5109,13 +5212,13 @@
         <v>343</v>
       </c>
       <c r="C87" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G87" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H87" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -5124,7 +5227,7 @@
         <v>344</v>
       </c>
       <c r="H88" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5133,7 +5236,7 @@
         <v>345</v>
       </c>
       <c r="H89" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5142,7 +5245,7 @@
         <v>346</v>
       </c>
       <c r="H90" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -5150,16 +5253,16 @@
         <v>401</v>
       </c>
       <c r="C92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D92" t="s">
+        <v>302</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
         <v>303</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="G92" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -5167,16 +5270,16 @@
         <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H93" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -5184,10 +5287,10 @@
         <v>412</v>
       </c>
       <c r="G94" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H94" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -5195,13 +5298,13 @@
         <v>421</v>
       </c>
       <c r="C95" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E95">
         <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -5209,7 +5312,7 @@
         <v>422</v>
       </c>
       <c r="C96" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -5217,7 +5320,7 @@
         <v>423</v>
       </c>
       <c r="C97" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -5225,7 +5328,7 @@
         <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -5233,7 +5336,7 @@
         <v>425</v>
       </c>
       <c r="C99" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E99">
         <v>35</v>
@@ -5244,7 +5347,7 @@
         <v>431</v>
       </c>
       <c r="C100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E100">
         <v>7</v>
@@ -5255,16 +5358,16 @@
         <v>441</v>
       </c>
       <c r="C101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E101">
         <v>5</v>
       </c>
       <c r="G101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H101" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -5272,7 +5375,7 @@
         <v>442</v>
       </c>
       <c r="H102" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -5280,7 +5383,7 @@
         <v>443</v>
       </c>
       <c r="H103" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
@@ -5288,10 +5391,10 @@
         <v>501</v>
       </c>
       <c r="C105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D105" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E105">
         <v>5</v>
@@ -5302,7 +5405,7 @@
         <v>502</v>
       </c>
       <c r="C106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -5310,7 +5413,7 @@
         <v>503</v>
       </c>
       <c r="C107" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
@@ -5318,7 +5421,7 @@
         <v>504</v>
       </c>
       <c r="C108" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
@@ -5326,7 +5429,7 @@
         <v>505</v>
       </c>
       <c r="C109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -5334,7 +5437,7 @@
         <v>511</v>
       </c>
       <c r="C110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E110">
         <v>9</v>
@@ -5345,7 +5448,7 @@
         <v>512</v>
       </c>
       <c r="C111" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
@@ -5353,7 +5456,7 @@
         <v>513</v>
       </c>
       <c r="C112" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5365,8 +5468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F803ACD-0C6B-4501-8A1D-9CD977C9D5BC}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5396,7 +5499,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -5425,13 +5528,13 @@
         <v>1001</v>
       </c>
       <c r="C3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" t="s">
         <v>416</v>
       </c>
-      <c r="D3" t="s">
-        <v>417</v>
-      </c>
       <c r="E3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5440,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5448,13 +5551,13 @@
         <v>1002</v>
       </c>
       <c r="C4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4" t="s">
         <v>818</v>
       </c>
-      <c r="D4" t="s">
-        <v>819</v>
-      </c>
       <c r="E4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5468,7 +5571,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -5497,10 +5600,10 @@
         <v>1102</v>
       </c>
       <c r="C7" t="s">
+        <v>481</v>
+      </c>
+      <c r="E7" t="s">
         <v>482</v>
-      </c>
-      <c r="E7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -5508,10 +5611,10 @@
         <v>1103</v>
       </c>
       <c r="C8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5519,10 +5622,10 @@
         <v>1104</v>
       </c>
       <c r="C9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -5530,10 +5633,10 @@
         <v>1105</v>
       </c>
       <c r="C10" t="s">
+        <v>819</v>
+      </c>
+      <c r="E10" t="s">
         <v>820</v>
-      </c>
-      <c r="E10" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -5541,10 +5644,10 @@
         <v>1106</v>
       </c>
       <c r="C11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -5552,10 +5655,10 @@
         <v>1116</v>
       </c>
       <c r="C12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -5563,10 +5666,10 @@
         <v>1117</v>
       </c>
       <c r="C13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -5574,10 +5677,10 @@
         <v>1118</v>
       </c>
       <c r="C14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -5585,10 +5688,10 @@
         <v>1119</v>
       </c>
       <c r="C15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -5596,10 +5699,10 @@
         <v>1120</v>
       </c>
       <c r="C16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -5634,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -5642,7 +5745,7 @@
         <v>1202</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -5668,7 +5771,7 @@
         <v>1203</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -5689,7 +5792,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -5697,7 +5800,7 @@
         <v>1204</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -5718,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -5726,7 +5829,7 @@
         <v>1205</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -5747,7 +5850,7 @@
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
@@ -5755,7 +5858,7 @@
         <v>1206</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -5781,7 +5884,7 @@
         <v>1207</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F24">
         <v>7</v>
@@ -5802,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -5810,7 +5913,7 @@
         <v>1208</v>
       </c>
       <c r="C25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -5831,7 +5934,7 @@
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -5839,7 +5942,7 @@
         <v>1209</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F26">
         <v>9</v>
@@ -5865,7 +5968,7 @@
         <v>1210</v>
       </c>
       <c r="C27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -5927,27 +6030,27 @@
     </row>
     <row r="3" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>452</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -5959,16 +6062,16 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -5976,27 +6079,27 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -6004,299 +6107,299 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E33" t="s">
+        <v>534</v>
+      </c>
+      <c r="F33" t="s">
         <v>535</v>
-      </c>
-      <c r="F33" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>559</v>
+      </c>
+      <c r="C34" t="s">
         <v>560</v>
-      </c>
-      <c r="C34" t="s">
-        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -6310,19 +6413,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE22176D-CFFA-4A34-AB14-C1369F5F19BF}">
-  <dimension ref="A1:Y199"/>
+  <dimension ref="A1:Y200"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S150" sqref="S150"/>
+      <selection pane="bottomRight" activeCell="A155" sqref="A152:XFD155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" customWidth="1"/>
     <col min="6" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" customWidth="1"/>
@@ -6369,7 +6472,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -6411,10 +6514,10 @@
         <v>7</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>9</v>
@@ -6484,7 +6587,7 @@
         <v>2105</v>
       </c>
       <c r="C8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -6612,7 +6715,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>2121</v>
+        <v>2131</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
@@ -6626,7 +6729,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>2122</v>
+        <v>2132</v>
       </c>
       <c r="C19" t="s">
         <v>83</v>
@@ -6640,7 +6743,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>2123</v>
+        <v>2133</v>
       </c>
       <c r="C20" t="s">
         <v>84</v>
@@ -6654,7 +6757,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>2124</v>
+        <v>2134</v>
       </c>
       <c r="C21" t="s">
         <v>85</v>
@@ -6668,7 +6771,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>2131</v>
+        <v>2141</v>
       </c>
       <c r="C22" t="s">
         <v>88</v>
@@ -6685,7 +6788,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>2132</v>
+        <v>2142</v>
       </c>
       <c r="C23" t="s">
         <v>89</v>
@@ -6705,7 +6808,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>2141</v>
+        <v>2151</v>
       </c>
       <c r="C24" t="s">
         <v>90</v>
@@ -6716,7 +6819,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>2142</v>
+        <v>2152</v>
       </c>
       <c r="C25" t="s">
         <v>91</v>
@@ -6727,7 +6830,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>2143</v>
+        <v>2153</v>
       </c>
       <c r="C26" t="s">
         <v>92</v>
@@ -6738,7 +6841,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>2144</v>
+        <v>2154</v>
       </c>
       <c r="C27" t="s">
         <v>93</v>
@@ -6749,7 +6852,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>2145</v>
+        <v>2155</v>
       </c>
       <c r="C28" t="s">
         <v>94</v>
@@ -6763,7 +6866,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>2146</v>
+        <v>2156</v>
       </c>
       <c r="C29" t="s">
         <v>95</v>
@@ -6777,7 +6880,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>2147</v>
+        <v>2157</v>
       </c>
       <c r="C30" t="s">
         <v>98</v>
@@ -6791,7 +6894,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>2148</v>
+        <v>2158</v>
       </c>
       <c r="C31" t="s">
         <v>96</v>
@@ -6805,7 +6908,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>2149</v>
+        <v>2159</v>
       </c>
       <c r="C32" t="s">
         <v>97</v>
@@ -6822,16 +6925,13 @@
         <v>2201</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
       </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
       <c r="L35" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>0.15</v>
@@ -6859,10 +6959,10 @@
         <v>284</v>
       </c>
       <c r="L37" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
@@ -6870,13 +6970,13 @@
         <v>2204</v>
       </c>
       <c r="C38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L38" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -6884,59 +6984,62 @@
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>2205</v>
+        <v>2211</v>
       </c>
       <c r="C39" t="s">
-        <v>286</v>
+        <v>21</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="L39" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N39">
-        <v>0.05</v>
-      </c>
-      <c r="Q39">
-        <v>8</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>2206</v>
+        <v>2212</v>
       </c>
       <c r="C40" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="L40" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="Q40">
-        <v>18</v>
-      </c>
-      <c r="S40">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>2207</v>
+        <v>2213</v>
       </c>
       <c r="C41" t="s">
-        <v>288</v>
+        <v>286</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
       </c>
       <c r="L41" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N41">
-        <v>0.15</v>
+        <v>0.3</v>
+      </c>
+      <c r="Q41">
+        <v>18</v>
+      </c>
+      <c r="S41">
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
@@ -6950,7 +7053,7 @@
         <v>30</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N43">
         <v>3</v>
@@ -6959,21 +7062,21 @@
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>2302</v>
+        <v>2311</v>
       </c>
       <c r="C44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N44">
         <v>5</v>
@@ -6985,15 +7088,15 @@
         <v>1</v>
       </c>
       <c r="W44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -7011,351 +7114,345 @@
         <v>8</v>
       </c>
       <c r="W45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>2312</v>
+        <v>2321</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L46" s="4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N46">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q46">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U46">
         <v>6</v>
       </c>
       <c r="W46" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>2313</v>
+        <v>2322</v>
       </c>
       <c r="C47" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N47">
         <v>7</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="N47">
-        <v>11</v>
-      </c>
       <c r="Q47">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U47">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="W47" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>2314</v>
+        <v>2323</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="N48">
         <v>9</v>
       </c>
-      <c r="L48" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="N48">
-        <v>12</v>
-      </c>
       <c r="Q48">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U48">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="W48" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>2315</v>
+        <v>2331</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="E49">
-        <v>8</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>353</v>
+        <v>4</v>
+      </c>
+      <c r="L49" s="4">
+        <v>1000</v>
       </c>
       <c r="N49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U49">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="W49" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>2316</v>
+        <v>2332</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="N50">
         <v>10</v>
       </c>
-      <c r="L50" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="N50">
-        <v>11</v>
-      </c>
       <c r="Q50">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U50">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="W50" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>2317</v>
+        <v>2333</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E51">
-        <v>5</v>
-      </c>
-      <c r="L51" s="4">
-        <v>600</v>
+        <v>4</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="N51">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q51">
+        <v>15</v>
+      </c>
+      <c r="U51">
         <v>6</v>
       </c>
-      <c r="S51">
-        <v>-1</v>
-      </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
       <c r="W51" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>2318</v>
+        <v>2341</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L52" s="4">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="N52">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q52">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="S52">
+        <v>-1</v>
       </c>
       <c r="U52">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W52" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>2319</v>
+        <v>2342</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L53" s="4">
-        <v>500</v>
-      </c>
-      <c r="M53">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N53">
-        <v>9</v>
-      </c>
-      <c r="R53">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="Q53">
+        <v>15</v>
       </c>
       <c r="U53">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="W53" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>2320</v>
+        <v>2343</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E54">
-        <v>10</v>
-      </c>
-      <c r="L54" s="4">
-        <v>500</v>
-      </c>
-      <c r="M54">
-        <v>500</v>
+        <v>5</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="N54">
-        <v>9</v>
-      </c>
-      <c r="R54">
         <v>8</v>
       </c>
+      <c r="Q54">
+        <v>15</v>
+      </c>
       <c r="U54">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W54" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>2321</v>
+        <v>2344</v>
       </c>
       <c r="C55" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="N55">
         <v>10</v>
       </c>
       <c r="Q55">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="U55">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W55" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>2322</v>
+        <v>2345</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="N56">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="U56">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="W56" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>2323</v>
+        <v>2351</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E57">
-        <v>3</v>
-      </c>
-      <c r="L57" s="4">
-        <v>200</v>
+        <v>6</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="N57">
         <v>10</v>
       </c>
       <c r="Q57">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="U57">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="W57" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>2324</v>
+        <v>2352</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E58">
-        <v>5</v>
-      </c>
-      <c r="L58" s="4">
-        <v>600</v>
+        <v>6</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="N58">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q58">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U58">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="W58" t="s">
         <v>382</v>
@@ -7363,158 +7460,164 @@
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>2325</v>
+        <v>2353</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E59">
-        <v>4</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>357</v>
+        <v>6</v>
+      </c>
+      <c r="L59" s="4">
+        <v>500</v>
       </c>
       <c r="N59">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q59">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>0.1</v>
       </c>
       <c r="U59">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W59" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>2326</v>
+        <v>2354</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E60">
         <v>6</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N60">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q60">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U60">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="W60" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>2327</v>
+        <v>2355</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>350</v>
       </c>
       <c r="N61">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U61">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="W61" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>2328</v>
+        <v>2361</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N62">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q62">
         <v>15</v>
       </c>
       <c r="U62">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="W62" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>2329</v>
+        <v>2362</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E63">
         <v>7</v>
       </c>
-      <c r="L63" s="4" t="s">
-        <v>359</v>
+      <c r="L63" s="4">
+        <v>1200</v>
       </c>
       <c r="N63">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q63">
-        <v>30</v>
-      </c>
-      <c r="S63">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U63">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W63" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>2330</v>
+        <v>2363</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E64">
-        <v>9</v>
-      </c>
-      <c r="L64" s="4">
-        <v>1000</v>
+        <v>7</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="N64">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q64">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="S64">
+        <v>-1</v>
       </c>
       <c r="U64">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W64" t="s">
         <v>386</v>
@@ -7522,274 +7625,274 @@
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>2331</v>
+        <v>2364</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="N65">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q65">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U65">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W65" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>2332</v>
+        <v>2371</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="N66">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q66">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U66">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="W66" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>2333</v>
+        <v>2372</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L67" s="4">
         <v>500</v>
       </c>
+      <c r="M67">
+        <v>500</v>
+      </c>
       <c r="N67">
-        <v>7</v>
-      </c>
-      <c r="Q67">
-        <v>25</v>
-      </c>
-      <c r="S67">
-        <v>1</v>
-      </c>
-      <c r="T67">
-        <v>0.1</v>
+        <v>9</v>
+      </c>
+      <c r="R67">
+        <v>4</v>
       </c>
       <c r="U67">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="W67" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>2334</v>
+        <v>2373</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E68">
         <v>8</v>
       </c>
-      <c r="L68" s="4">
-        <v>1000</v>
+      <c r="L68" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="N68">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q68">
+        <v>22</v>
+      </c>
+      <c r="U68">
         <v>35</v>
       </c>
-      <c r="S68">
-        <v>2</v>
-      </c>
-      <c r="T68">
-        <v>0.15</v>
-      </c>
-      <c r="U68">
-        <v>1</v>
-      </c>
       <c r="W68" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>2335</v>
+        <v>2374</v>
       </c>
       <c r="C69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E69">
-        <v>3</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>362</v>
+        <v>8</v>
+      </c>
+      <c r="L69" s="4">
+        <v>1000</v>
       </c>
       <c r="N69">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q69">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="S69">
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <v>0.15</v>
       </c>
       <c r="U69">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W69" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>2336</v>
+        <v>2375</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>363</v>
       </c>
       <c r="N70">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q70">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U70">
         <v>30</v>
       </c>
       <c r="W70" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>2337</v>
+        <v>2381</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="N71">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q71">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U71">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="W71" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>2338</v>
+        <v>2382</v>
       </c>
       <c r="C72" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E72">
-        <v>7</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>366</v>
+        <v>9</v>
+      </c>
+      <c r="L72" s="4">
+        <v>1000</v>
       </c>
       <c r="N72">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Q72">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="U72">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W72" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>2339</v>
+        <v>2391</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E73">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N73">
         <v>11</v>
       </c>
       <c r="Q73">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="U73">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="W73" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B74">
-        <v>2340</v>
+        <v>2392</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="L74" s="4">
+        <v>500</v>
+      </c>
+      <c r="M74">
+        <v>500</v>
+      </c>
+      <c r="N74">
+        <v>9</v>
+      </c>
+      <c r="R74">
         <v>8</v>
       </c>
-      <c r="L74" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="N74">
-        <v>12</v>
-      </c>
-      <c r="Q74">
-        <v>20</v>
-      </c>
       <c r="U74">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W74" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.25">
@@ -7811,13 +7914,7 @@
         <v>2402</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
-      </c>
-      <c r="E77">
-        <v>2</v>
-      </c>
-      <c r="O77">
-        <v>2</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.25">
@@ -7825,13 +7922,10 @@
         <v>2403</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
-      </c>
-      <c r="E78">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="O78">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.25">
@@ -7839,133 +7933,142 @@
         <v>2404</v>
       </c>
       <c r="C79" t="s">
-        <v>102</v>
-      </c>
-      <c r="E79">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="O79">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="S79">
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>2405</v>
+        <v>2411</v>
       </c>
       <c r="C80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="O80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>2421</v>
+      </c>
+      <c r="C81" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="O81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>2431</v>
+      </c>
+      <c r="C82" t="s">
+        <v>102</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="O82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>2441</v>
+      </c>
+      <c r="C83" t="s">
         <v>103</v>
       </c>
-      <c r="E80">
+      <c r="E83">
         <v>5</v>
       </c>
-      <c r="O80">
+      <c r="O83">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>2406</v>
-      </c>
-      <c r="C81" t="s">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>2451</v>
+      </c>
+      <c r="C84" t="s">
         <v>104</v>
       </c>
-      <c r="E81">
+      <c r="E84">
         <v>6</v>
       </c>
-      <c r="O81">
+      <c r="O84">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>2407</v>
-      </c>
-      <c r="C82" t="s">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>2461</v>
+      </c>
+      <c r="C85" t="s">
         <v>105</v>
       </c>
-      <c r="E82">
+      <c r="E85">
         <v>7</v>
       </c>
-      <c r="O82">
+      <c r="O85">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B83">
-        <v>2408</v>
-      </c>
-      <c r="C83" t="s">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>2471</v>
+      </c>
+      <c r="C86" t="s">
         <v>106</v>
       </c>
-      <c r="E83">
+      <c r="E86">
         <v>8</v>
       </c>
-      <c r="O83">
+      <c r="O86">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B84">
-        <v>2409</v>
-      </c>
-      <c r="C84" t="s">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>2481</v>
+      </c>
+      <c r="C87" t="s">
         <v>107</v>
       </c>
-      <c r="E84">
+      <c r="E87">
         <v>9</v>
       </c>
-      <c r="O84">
+      <c r="O87">
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B85">
-        <v>2410</v>
-      </c>
-      <c r="C85" t="s">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>2491</v>
+      </c>
+      <c r="C88" t="s">
         <v>108</v>
       </c>
-      <c r="E85">
+      <c r="E88">
         <v>10</v>
       </c>
-      <c r="O85">
+      <c r="O88">
         <v>1500</v>
       </c>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <v>2411</v>
-      </c>
-      <c r="C86" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <v>2412</v>
-      </c>
-      <c r="C87" t="s">
-        <v>181</v>
-      </c>
-      <c r="O87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <v>2413</v>
-      </c>
-      <c r="C88" t="s">
-        <v>180</v>
-      </c>
-      <c r="O88">
-        <v>2</v>
-      </c>
-      <c r="S88">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>2501</v>
       </c>
@@ -7979,197 +8082,197 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>2502</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
-      </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
-      <c r="O91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="N91">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>2503</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
-      </c>
-      <c r="E92">
-        <v>3</v>
-      </c>
-      <c r="O92">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="N92">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>2504</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
-      </c>
-      <c r="E93">
-        <v>4</v>
+        <v>183</v>
+      </c>
+      <c r="N93">
+        <v>0.04</v>
       </c>
       <c r="O93">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94">
-        <v>2505</v>
+        <v>2511</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E94">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O94">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95">
-        <v>2506</v>
+        <v>2512</v>
       </c>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="E95">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="N95">
+        <v>0.06</v>
       </c>
       <c r="O95">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96">
-        <v>2507</v>
+        <v>2513</v>
       </c>
       <c r="C96" t="s">
-        <v>115</v>
-      </c>
-      <c r="E96">
-        <v>7</v>
-      </c>
-      <c r="O96">
-        <v>100</v>
+        <v>318</v>
+      </c>
+      <c r="N96">
+        <v>0.04</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97">
-        <v>2508</v>
+        <v>2521</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E97">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O97">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98">
-        <v>2509</v>
+        <v>2531</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E98">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>400</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99">
-        <v>2510</v>
+        <v>2541</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E99">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O99">
-        <v>1500</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100">
-        <v>2511</v>
+        <v>2551</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
-      </c>
-      <c r="N100">
-        <v>0.04</v>
+        <v>114</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
+      </c>
+      <c r="O100">
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101">
-        <v>2512</v>
+        <v>2561</v>
       </c>
       <c r="C101" t="s">
-        <v>183</v>
-      </c>
-      <c r="N101">
-        <v>0.02</v>
+        <v>115</v>
+      </c>
+      <c r="E101">
+        <v>7</v>
+      </c>
+      <c r="O101">
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B102">
-        <v>2513</v>
+        <v>2571</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
-      </c>
-      <c r="N102">
-        <v>0.04</v>
+        <v>116</v>
+      </c>
+      <c r="E102">
+        <v>8</v>
       </c>
       <c r="O102">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B103">
-        <v>2514</v>
+        <v>2581</v>
       </c>
       <c r="C103" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="E103">
-        <v>2</v>
-      </c>
-      <c r="K103">
-        <v>3</v>
-      </c>
-      <c r="N103">
-        <v>0.06</v>
+        <v>9</v>
       </c>
       <c r="O103">
-        <v>2</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B104">
-        <v>2515</v>
+        <v>2591</v>
       </c>
       <c r="C104" t="s">
-        <v>319</v>
-      </c>
-      <c r="N104">
-        <v>0.04</v>
+        <v>118</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+      <c r="O104">
+        <v>1500</v>
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
@@ -8191,13 +8294,10 @@
         <v>2602</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
-      </c>
-      <c r="E107">
-        <v>2</v>
-      </c>
-      <c r="O107">
-        <v>2</v>
+        <v>184</v>
+      </c>
+      <c r="N107">
+        <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.25">
@@ -8205,13 +8305,10 @@
         <v>2603</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
-      </c>
-      <c r="E108">
-        <v>3</v>
-      </c>
-      <c r="O108">
-        <v>14</v>
+        <v>186</v>
+      </c>
+      <c r="N108">
+        <v>0.06</v>
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.25">
@@ -8219,141 +8316,147 @@
         <v>2604</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
-      </c>
-      <c r="E109">
-        <v>4</v>
+        <v>185</v>
+      </c>
+      <c r="N109">
+        <v>0.08</v>
       </c>
       <c r="O109">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B110">
-        <v>2605</v>
+        <v>2611</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E110">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O110">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B111">
-        <v>2606</v>
+        <v>2621</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E111">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O111">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B112">
-        <v>2607</v>
+        <v>2631</v>
       </c>
       <c r="C112" t="s">
+        <v>122</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="O112">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>2641</v>
+      </c>
+      <c r="C113" t="s">
+        <v>825</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+      <c r="O113">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>2651</v>
+      </c>
+      <c r="C114" t="s">
+        <v>123</v>
+      </c>
+      <c r="E114">
+        <v>6</v>
+      </c>
+      <c r="O114">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>2661</v>
+      </c>
+      <c r="C115" t="s">
+        <v>124</v>
+      </c>
+      <c r="E115">
+        <v>7</v>
+      </c>
+      <c r="O115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>2671</v>
+      </c>
+      <c r="C116" t="s">
         <v>125</v>
       </c>
-      <c r="E112">
-        <v>7</v>
-      </c>
-      <c r="O112">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B113">
-        <v>2608</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="E116">
+        <v>8</v>
+      </c>
+      <c r="O116">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>2681</v>
+      </c>
+      <c r="C117" t="s">
         <v>126</v>
       </c>
-      <c r="E113">
-        <v>8</v>
-      </c>
-      <c r="O113">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B114">
-        <v>2609</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="E117">
+        <v>9</v>
+      </c>
+      <c r="O117">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>2691</v>
+      </c>
+      <c r="C118" t="s">
         <v>127</v>
       </c>
-      <c r="E114">
-        <v>9</v>
-      </c>
-      <c r="O114">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B115">
-        <v>2610</v>
-      </c>
-      <c r="C115" t="s">
-        <v>128</v>
-      </c>
-      <c r="E115">
+      <c r="E118">
         <v>10</v>
       </c>
-      <c r="O115">
+      <c r="O118">
         <v>1500</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B116">
-        <v>2611</v>
-      </c>
-      <c r="C116" t="s">
-        <v>185</v>
-      </c>
-      <c r="N116">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B117">
-        <v>2612</v>
-      </c>
-      <c r="C117" t="s">
-        <v>187</v>
-      </c>
-      <c r="N117">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B118">
-        <v>2613</v>
-      </c>
-      <c r="C118" t="s">
-        <v>186</v>
-      </c>
-      <c r="N118">
-        <v>0.08</v>
-      </c>
-      <c r="O118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>2701</v>
       </c>
       <c r="C120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D120" t="s">
         <v>26</v>
@@ -8362,492 +8465,492 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>2702</v>
       </c>
       <c r="C121" t="s">
-        <v>130</v>
-      </c>
-      <c r="E121">
-        <v>2</v>
-      </c>
-      <c r="O121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>2703</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
-      </c>
-      <c r="E122">
-        <v>3</v>
-      </c>
-      <c r="O122">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="S122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>2704</v>
       </c>
       <c r="C123" t="s">
-        <v>132</v>
-      </c>
-      <c r="E123">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="O123">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>2705</v>
       </c>
       <c r="C124" t="s">
+        <v>319</v>
+      </c>
+      <c r="O124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>2711</v>
+      </c>
+      <c r="C125" t="s">
+        <v>129</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="O125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>2712</v>
+      </c>
+      <c r="C126" t="s">
+        <v>190</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="S126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>2713</v>
+      </c>
+      <c r="C127" t="s">
+        <v>320</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="L127" s="4">
+        <v>1</v>
+      </c>
+      <c r="O127">
+        <v>3</v>
+      </c>
+      <c r="S127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>2714</v>
+      </c>
+      <c r="C128" t="s">
+        <v>321</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="O128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>2721</v>
+      </c>
+      <c r="C129" t="s">
+        <v>130</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="O129">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>2731</v>
+      </c>
+      <c r="C130" t="s">
+        <v>131</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+      <c r="O130">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>2741</v>
+      </c>
+      <c r="C131" t="s">
+        <v>132</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+      <c r="O131">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>2751</v>
+      </c>
+      <c r="C132" t="s">
         <v>133</v>
       </c>
-      <c r="E124">
-        <v>5</v>
-      </c>
-      <c r="O124">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B125">
-        <v>2706</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="E132">
+        <v>6</v>
+      </c>
+      <c r="O132">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>2761</v>
+      </c>
+      <c r="C133" t="s">
         <v>134</v>
       </c>
-      <c r="E125">
-        <v>6</v>
-      </c>
-      <c r="O125">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B126">
-        <v>2707</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="E133">
+        <v>7</v>
+      </c>
+      <c r="O133">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>2771</v>
+      </c>
+      <c r="C134" t="s">
         <v>135</v>
       </c>
-      <c r="E126">
-        <v>7</v>
-      </c>
-      <c r="O126">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B127">
-        <v>2708</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="E134">
+        <v>8</v>
+      </c>
+      <c r="O134">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>2781</v>
+      </c>
+      <c r="C135" t="s">
         <v>136</v>
       </c>
-      <c r="E127">
-        <v>8</v>
-      </c>
-      <c r="O127">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B128">
-        <v>2709</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="E135">
+        <v>9</v>
+      </c>
+      <c r="O135">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="136" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>2791</v>
+      </c>
+      <c r="C136" t="s">
         <v>137</v>
       </c>
-      <c r="E128">
-        <v>9</v>
-      </c>
-      <c r="O128">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="129" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B129">
-        <v>2710</v>
-      </c>
-      <c r="C129" t="s">
-        <v>138</v>
-      </c>
-      <c r="E129">
+      <c r="E136">
         <v>10</v>
       </c>
-      <c r="O129">
+      <c r="O136">
         <v>1500</v>
       </c>
     </row>
-    <row r="130" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B130">
-        <v>2711</v>
-      </c>
-      <c r="C130" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="131" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B131">
-        <v>2712</v>
-      </c>
-      <c r="C131" t="s">
-        <v>189</v>
-      </c>
-      <c r="S131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B132">
-        <v>2713</v>
-      </c>
-      <c r="C132" t="s">
-        <v>190</v>
-      </c>
-      <c r="O132">
-        <v>1</v>
-      </c>
-      <c r="S132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B133">
-        <v>2714</v>
-      </c>
-      <c r="C133" t="s">
-        <v>191</v>
-      </c>
-      <c r="E133">
-        <v>2</v>
-      </c>
-      <c r="O133">
-        <v>1</v>
-      </c>
-      <c r="S133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B134">
-        <v>2715</v>
-      </c>
-      <c r="C134" t="s">
-        <v>320</v>
-      </c>
-      <c r="O134">
-        <v>2</v>
-      </c>
-      <c r="S134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B135">
-        <v>2716</v>
-      </c>
-      <c r="C135" t="s">
-        <v>321</v>
-      </c>
-      <c r="E135">
-        <v>2</v>
-      </c>
-      <c r="L135" s="4">
-        <v>1</v>
-      </c>
-      <c r="O135">
-        <v>3</v>
-      </c>
-      <c r="S135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B136">
-        <v>2717</v>
-      </c>
-      <c r="C136" t="s">
-        <v>322</v>
-      </c>
-      <c r="E136">
-        <v>2</v>
-      </c>
-      <c r="O136">
-        <v>2</v>
-      </c>
-      <c r="S136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>2801</v>
       </c>
       <c r="C138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D138" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>2802</v>
       </c>
       <c r="C139" t="s">
-        <v>140</v>
-      </c>
-      <c r="E139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="2:19" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="140" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>2803</v>
       </c>
       <c r="C140" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="141" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>2811</v>
+      </c>
+      <c r="C141" t="s">
+        <v>139</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>2812</v>
+      </c>
+      <c r="C142" t="s">
+        <v>317</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>2821</v>
+      </c>
+      <c r="C143" t="s">
+        <v>140</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>2822</v>
+      </c>
+      <c r="C144" t="s">
+        <v>598</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>2831</v>
+      </c>
+      <c r="C145" t="s">
         <v>141</v>
       </c>
-      <c r="E140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B141">
-        <v>2804</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="E145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>2841</v>
+      </c>
+      <c r="C146" t="s">
         <v>142</v>
       </c>
-      <c r="E141">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B142">
-        <v>2805</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="E146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>2851</v>
+      </c>
+      <c r="C147" t="s">
         <v>143</v>
       </c>
-      <c r="E142">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B143">
-        <v>2806</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="E147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>2861</v>
+      </c>
+      <c r="C148" t="s">
         <v>144</v>
       </c>
-      <c r="E143">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B144">
-        <v>2807</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="E148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>2871</v>
+      </c>
+      <c r="C149" t="s">
         <v>145</v>
       </c>
-      <c r="E144">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B145">
-        <v>2808</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="E149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>2881</v>
+      </c>
+      <c r="C150" t="s">
         <v>146</v>
       </c>
-      <c r="E145">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B146">
-        <v>2809</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="E150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>2891</v>
+      </c>
+      <c r="C151" t="s">
         <v>147</v>
       </c>
-      <c r="E146">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B147">
-        <v>2810</v>
-      </c>
-      <c r="C147" t="s">
-        <v>148</v>
-      </c>
-      <c r="E147">
+      <c r="E151">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B148">
-        <v>2811</v>
-      </c>
-      <c r="C148" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="149" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B149">
-        <v>2812</v>
-      </c>
-      <c r="C149" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="150" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B150">
-        <v>2813</v>
-      </c>
-      <c r="C150" t="s">
-        <v>318</v>
-      </c>
-      <c r="E150">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B151">
-        <v>2821</v>
-      </c>
-      <c r="C151" t="s">
-        <v>599</v>
-      </c>
-      <c r="E151">
-        <v>3</v>
-      </c>
-      <c r="Y151" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="153" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>2901</v>
       </c>
       <c r="C153" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D153" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W153" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="154" spans="2:25" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>2902</v>
       </c>
       <c r="C154" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D154" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E154">
         <v>2</v>
       </c>
       <c r="W154" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="155" spans="2:25" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>2903</v>
       </c>
       <c r="C155" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D155" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E155">
         <v>3</v>
       </c>
       <c r="W155" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="156" spans="2:25" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="156" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>2911</v>
       </c>
       <c r="C156" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D156" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H156" s="7"/>
       <c r="L156" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>2912</v>
       </c>
       <c r="C157" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D157" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L157" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>2913</v>
       </c>
       <c r="C158" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D158" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="159" spans="2:25" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>2914</v>
       </c>
       <c r="C159" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D159" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="160" spans="2:25" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="160" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>2915</v>
       </c>
       <c r="C160" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D160" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L160" s="4">
         <v>1</v>
@@ -8858,240 +8961,237 @@
         <v>2916</v>
       </c>
       <c r="C161" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D161" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B162">
-        <v>2921</v>
+        <v>2917</v>
       </c>
       <c r="C162" t="s">
-        <v>278</v>
+        <v>822</v>
       </c>
       <c r="D162" t="s">
-        <v>277</v>
-      </c>
-      <c r="N162">
-        <v>0.04</v>
-      </c>
-      <c r="W162" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B163">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="C163" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D163" t="s">
-        <v>277</v>
-      </c>
-      <c r="E163">
-        <v>2</v>
+        <v>276</v>
       </c>
       <c r="N163">
         <v>0.04</v>
       </c>
       <c r="W163" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B164">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="C164" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D164" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
       </c>
       <c r="N164">
         <v>0.04</v>
       </c>
       <c r="W164" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="165" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B165">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="C165" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="D165" t="s">
-        <v>277</v>
-      </c>
-      <c r="L165" s="4">
-        <v>1</v>
+        <v>276</v>
       </c>
       <c r="N165">
-        <v>2.5</v>
-      </c>
-      <c r="Q165">
-        <v>6</v>
+        <v>0.04</v>
       </c>
       <c r="W165" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
     </row>
     <row r="166" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B166">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="C166" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D166" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="L166" s="4">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>2.5</v>
+      </c>
+      <c r="Q166">
+        <v>6</v>
       </c>
       <c r="W166" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B167">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="C167" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D167" t="s">
-        <v>277</v>
-      </c>
-      <c r="E167">
-        <v>2</v>
-      </c>
-      <c r="L167" s="4">
-        <v>1</v>
-      </c>
-      <c r="N167">
-        <v>0.02</v>
+        <v>276</v>
       </c>
       <c r="W167" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="168" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B168">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="C168" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D168" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L168" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N168">
         <v>0.02</v>
       </c>
       <c r="W168" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="169" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B169">
-        <v>2931</v>
+        <v>2927</v>
       </c>
       <c r="C169" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="D169" t="s">
-        <v>295</v>
+        <v>276</v>
+      </c>
+      <c r="E169">
+        <v>3</v>
       </c>
       <c r="L169" s="4">
         <v>2</v>
       </c>
       <c r="N169">
-        <v>2.5</v>
+        <v>0.02</v>
+      </c>
+      <c r="W169" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="170" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B170">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="C170" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="D170" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L170" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N170">
         <v>2.5</v>
       </c>
-      <c r="Q170">
-        <v>4</v>
-      </c>
     </row>
     <row r="171" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B171">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="C171" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D171" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L171" s="4">
         <v>1</v>
       </c>
       <c r="N171">
-        <v>2</v>
+        <v>2.5</v>
+      </c>
+      <c r="Q171">
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B172">
-        <v>2941</v>
+        <v>2933</v>
       </c>
       <c r="C172" t="s">
-        <v>401</v>
+        <v>299</v>
       </c>
       <c r="D172" t="s">
-        <v>295</v>
-      </c>
-      <c r="E172">
+        <v>294</v>
+      </c>
+      <c r="L172" s="4">
         <v>1</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B173">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="C173" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D173" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B174">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="C174" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D174" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E174">
         <v>2</v>
@@ -9099,47 +9199,47 @@
     </row>
     <row r="175" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B175">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="C175" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D175" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E175">
         <v>2</v>
       </c>
-      <c r="L175" s="4">
-        <v>3</v>
-      </c>
-      <c r="N175">
-        <v>3</v>
-      </c>
     </row>
     <row r="176" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B176">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="C176" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D176" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E176">
         <v>2</v>
       </c>
+      <c r="L176" s="4">
+        <v>3</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B177">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="C177" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D177" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E177">
         <v>2</v>
@@ -9147,13 +9247,13 @@
     </row>
     <row r="178" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B178">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="C178" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D178" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E178">
         <v>2</v>
@@ -9161,13 +9261,13 @@
     </row>
     <row r="179" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B179">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="C179" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D179" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -9175,83 +9275,80 @@
     </row>
     <row r="180" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B180">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="C180" t="s">
-        <v>301</v>
+        <v>407</v>
       </c>
       <c r="D180" t="s">
-        <v>303</v>
+        <v>294</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B181">
-        <v>2952</v>
+        <v>2961</v>
       </c>
       <c r="C181" t="s">
+        <v>300</v>
+      </c>
+      <c r="D181" t="s">
         <v>302</v>
-      </c>
-      <c r="D181" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="182" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B182">
-        <v>2953</v>
+        <v>2962</v>
       </c>
       <c r="C182" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="D182" t="s">
-        <v>303</v>
-      </c>
-      <c r="L182" s="4">
-        <v>1</v>
-      </c>
-      <c r="N182">
-        <v>0.05</v>
+        <v>302</v>
       </c>
     </row>
     <row r="183" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B183">
-        <v>2954</v>
+        <v>2963</v>
       </c>
       <c r="C183" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D183" t="s">
-        <v>303</v>
+        <v>302</v>
+      </c>
+      <c r="L183" s="4">
+        <v>1</v>
       </c>
       <c r="N183">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="184" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B184">
-        <v>2955</v>
+        <v>2964</v>
       </c>
       <c r="C184" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D184" t="s">
-        <v>303</v>
-      </c>
-      <c r="L184" s="4">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="N184">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="185" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B185">
-        <v>2956</v>
+        <v>2965</v>
       </c>
       <c r="C185" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D185" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L185" s="4">
         <v>1</v>
@@ -9262,13 +9359,13 @@
     </row>
     <row r="186" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B186">
-        <v>2957</v>
+        <v>2966</v>
       </c>
       <c r="C186" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D186" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L186" s="4">
         <v>1</v>
@@ -9279,155 +9376,155 @@
     </row>
     <row r="187" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B187">
-        <v>2961</v>
+        <v>2967</v>
       </c>
       <c r="C187" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="D187" t="s">
-        <v>323</v>
-      </c>
-      <c r="E187">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="L187" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N187">
-        <v>0.08</v>
-      </c>
-      <c r="Q187">
-        <v>15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="188" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B188">
-        <v>2962</v>
+        <v>2971</v>
       </c>
       <c r="C188" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D188" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E188">
         <v>2</v>
       </c>
       <c r="L188" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N188">
-        <v>0.1</v>
+        <v>0.08</v>
+      </c>
+      <c r="Q188">
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B189">
-        <v>2963</v>
+        <v>2972</v>
       </c>
       <c r="C189" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D189" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E189">
         <v>2</v>
       </c>
       <c r="L189" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>0.1</v>
       </c>
     </row>
     <row r="190" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B190">
-        <v>2964</v>
+        <v>2973</v>
       </c>
       <c r="C190" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D190" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E190">
         <v>2</v>
       </c>
-      <c r="N190">
-        <v>0.05</v>
+      <c r="L190" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B191">
-        <v>2965</v>
+        <v>2974</v>
       </c>
       <c r="C191" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D191" t="s">
-        <v>323</v>
+        <v>322</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>0.05</v>
       </c>
     </row>
     <row r="192" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B192">
-        <v>2966</v>
+        <v>2975</v>
       </c>
       <c r="C192" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D192" t="s">
-        <v>323</v>
-      </c>
-      <c r="L192" s="4">
-        <v>1</v>
-      </c>
-      <c r="N192">
-        <v>0.02</v>
+        <v>322</v>
       </c>
     </row>
     <row r="193" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B193">
-        <v>2967</v>
+        <v>2976</v>
       </c>
       <c r="C193" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D193" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L193" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N193">
-        <v>0.05</v>
-      </c>
-      <c r="Q193">
-        <v>5</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="194" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B194">
-        <v>2968</v>
+        <v>2977</v>
       </c>
       <c r="C194" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D194" t="s">
-        <v>323</v>
-      </c>
-      <c r="E194">
-        <v>3</v>
+        <v>322</v>
       </c>
       <c r="L194" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>0.05</v>
+      </c>
+      <c r="Q194">
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B195">
-        <v>2969</v>
+        <v>2978</v>
       </c>
       <c r="C195" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D195" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E195">
         <v>3</v>
@@ -9438,78 +9535,95 @@
     </row>
     <row r="196" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B196">
-        <v>2970</v>
+        <v>2979</v>
       </c>
       <c r="C196" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D196" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E196">
         <v>3</v>
       </c>
       <c r="L196" s="4">
-        <v>5</v>
-      </c>
-      <c r="N196">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q196">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B197">
-        <v>2971</v>
+        <v>2980</v>
       </c>
       <c r="C197" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D197" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L197" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N197">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q197">
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B198">
-        <v>2972</v>
+        <v>2981</v>
       </c>
       <c r="C198" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D198" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L198" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N198">
+        <v>0.02</v>
       </c>
     </row>
     <row r="199" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B199">
-        <v>2973</v>
+        <v>2982</v>
       </c>
       <c r="C199" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D199" t="s">
-        <v>323</v>
+        <v>322</v>
+      </c>
+      <c r="E199">
+        <v>3</v>
       </c>
       <c r="L199" s="4">
         <v>1</v>
       </c>
-      <c r="N199">
+    </row>
+    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>2983</v>
+      </c>
+      <c r="C200" t="s">
+        <v>339</v>
+      </c>
+      <c r="D200" t="s">
+        <v>322</v>
+      </c>
+      <c r="L200" s="4">
+        <v>1</v>
+      </c>
+      <c r="N200">
         <v>0.02</v>
       </c>
     </row>
@@ -9541,7 +9655,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9552,16 +9666,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -9572,10 +9686,10 @@
         <v>3101</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F3">
         <v>2931</v>
@@ -9587,7 +9701,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9595,10 +9709,10 @@
         <v>3102</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4">
         <v>2931</v>
@@ -9615,10 +9729,10 @@
         <v>3103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F5">
         <v>2933</v>
@@ -9635,10 +9749,10 @@
         <v>3106</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F6">
         <v>2932</v>
@@ -9655,10 +9769,10 @@
         <v>3107</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F7">
         <v>2932</v>
@@ -9675,10 +9789,10 @@
         <v>3108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -9692,10 +9806,10 @@
         <v>3111</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9">
@@ -9710,10 +9824,10 @@
         <v>3112</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10">
@@ -9731,7 +9845,7 @@
         <v>7.62</v>
       </c>
       <c r="D11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11">
@@ -9749,7 +9863,7 @@
         <v>7.62</v>
       </c>
       <c r="D12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12">
@@ -9767,7 +9881,7 @@
         <v>7.62</v>
       </c>
       <c r="D13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13">
@@ -9782,7 +9896,7 @@
         <v>7.62</v>
       </c>
       <c r="D14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14">
@@ -9794,10 +9908,10 @@
         <v>3117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15">
@@ -9809,10 +9923,10 @@
         <v>3118</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16">
@@ -9824,10 +9938,10 @@
         <v>3119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17">
@@ -9842,10 +9956,10 @@
         <v>3120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18">
@@ -9863,7 +9977,7 @@
         <v>5.56</v>
       </c>
       <c r="D19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19">
@@ -9878,7 +9992,7 @@
         <v>7.62</v>
       </c>
       <c r="D20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20">
@@ -9890,10 +10004,10 @@
         <v>3123</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21">
@@ -9908,10 +10022,10 @@
         <v>3124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22">
@@ -9929,7 +10043,7 @@
         <v>7.62</v>
       </c>
       <c r="D23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23">
@@ -9947,7 +10061,7 @@
         <v>7.62</v>
       </c>
       <c r="D24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24">
@@ -9962,10 +10076,10 @@
         <v>3127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25">
@@ -9980,10 +10094,10 @@
         <v>3128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26">
@@ -9995,10 +10109,10 @@
         <v>3129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27">
@@ -10013,10 +10127,10 @@
         <v>3130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28">
@@ -10031,10 +10145,10 @@
         <v>3131</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29">
@@ -10046,10 +10160,10 @@
         <v>3132</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30">
@@ -10061,13 +10175,13 @@
         <v>3133</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G31">
         <v>40</v>
@@ -10081,13 +10195,13 @@
         <v>3134</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G32">
         <v>60</v>
@@ -10104,7 +10218,7 @@
         <v>5.56</v>
       </c>
       <c r="D33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33">
@@ -10122,7 +10236,7 @@
         <v>5.56</v>
       </c>
       <c r="D34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34">
@@ -10137,10 +10251,10 @@
         <v>3137</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35">
@@ -10155,10 +10269,10 @@
         <v>3138</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36">
@@ -10176,7 +10290,7 @@
         <v>5.56</v>
       </c>
       <c r="D37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37">
@@ -10191,7 +10305,7 @@
         <v>5.56</v>
       </c>
       <c r="D38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -10205,13 +10319,13 @@
         <v>3201</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -10225,13 +10339,13 @@
         <v>3202</v>
       </c>
       <c r="C41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D41" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F41" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -10282,7 +10396,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10293,13 +10407,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -10313,19 +10427,19 @@
         <v>101</v>
       </c>
       <c r="D4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="I4" t="s">
         <v>537</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="I4" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -10334,16 +10448,16 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -10352,16 +10466,16 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -10370,16 +10484,16 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
+        <v>540</v>
+      </c>
+      <c r="E7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F7" t="s">
+        <v>505</v>
+      </c>
+      <c r="I7" t="s">
         <v>541</v>
-      </c>
-      <c r="E7" t="s">
-        <v>543</v>
-      </c>
-      <c r="F7" t="s">
-        <v>506</v>
-      </c>
-      <c r="I7" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -10388,16 +10502,16 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
+        <v>544</v>
+      </c>
+      <c r="E8" t="s">
+        <v>539</v>
+      </c>
+      <c r="F8" t="s">
+        <v>506</v>
+      </c>
+      <c r="I8" t="s">
         <v>545</v>
-      </c>
-      <c r="E8" t="s">
-        <v>540</v>
-      </c>
-      <c r="F8" t="s">
-        <v>507</v>
-      </c>
-      <c r="I8" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10406,19 +10520,19 @@
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -10427,16 +10541,16 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E10" t="s">
+        <v>575</v>
+      </c>
+      <c r="F10" t="s">
+        <v>503</v>
+      </c>
+      <c r="I10" t="s">
         <v>576</v>
-      </c>
-      <c r="F10" t="s">
-        <v>504</v>
-      </c>
-      <c r="I10" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -10445,16 +10559,16 @@
         <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -10463,16 +10577,16 @@
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -10481,39 +10595,39 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
+        <v>569</v>
+      </c>
+      <c r="E13" t="s">
         <v>570</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>506</v>
+      </c>
+      <c r="I13" t="s">
         <v>571</v>
-      </c>
-      <c r="F13" t="s">
-        <v>507</v>
-      </c>
-      <c r="I13" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C15">
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -10522,19 +10636,19 @@
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -10543,19 +10657,19 @@
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -10564,19 +10678,19 @@
         <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -10585,19 +10699,19 @@
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -10606,19 +10720,19 @@
         <v>116</v>
       </c>
       <c r="D20" t="s">
+        <v>591</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="I20" t="s">
         <v>592</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="I20" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -10627,19 +10741,19 @@
         <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -10648,19 +10762,19 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E22" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G22">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -10669,19 +10783,19 @@
         <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -10690,24 +10804,24 @@
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C26">
         <v>121</v>
@@ -10739,7 +10853,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C32">
         <v>131</v>
@@ -10751,10 +10865,10 @@
         <v>132</v>
       </c>
       <c r="D33" t="s">
+        <v>553</v>
+      </c>
+      <c r="I33" t="s">
         <v>554</v>
-      </c>
-      <c r="I33" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -10763,7 +10877,7 @@
         <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -10772,10 +10886,10 @@
         <v>134</v>
       </c>
       <c r="D35" t="s">
+        <v>556</v>
+      </c>
+      <c r="I35" t="s">
         <v>557</v>
-      </c>
-      <c r="I35" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8927AB0F-89F6-4F16-B011-10D43029872B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8544B0B7-BF7B-43A3-A87D-9C7197D16D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -6413,13 +6413,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE22176D-CFFA-4A34-AB14-C1369F5F19BF}">
-  <dimension ref="A1:Y200"/>
+  <dimension ref="A1:Y199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A155" sqref="A152:XFD155"/>
+      <selection pane="bottomRight" activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6920,365 +6920,394 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2201</v>
+      </c>
+      <c r="C34" t="s">
+        <v>287</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0.15</v>
+      </c>
+    </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="C35" t="s">
-        <v>287</v>
-      </c>
-      <c r="D35" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L35" s="4">
         <v>1</v>
       </c>
       <c r="N35">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="L36" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="C37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L37" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>0.01</v>
+        <v>0.08</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>2204</v>
+        <v>2211</v>
       </c>
       <c r="C38" t="s">
-        <v>283</v>
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
       </c>
       <c r="L38" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N38">
-        <v>0.08</v>
-      </c>
-      <c r="Q38">
-        <v>4</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="L39" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>0.15</v>
+        <v>0.05</v>
+      </c>
+      <c r="Q39">
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="C40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="L40" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="Q40">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>2213</v>
-      </c>
-      <c r="C41" t="s">
-        <v>286</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="L41" s="4">
-        <v>5</v>
-      </c>
-      <c r="N41">
-        <v>0.3</v>
-      </c>
-      <c r="Q41">
         <v>18</v>
       </c>
-      <c r="S41">
+      <c r="S40">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2301</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="W42" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>2301</v>
+        <v>2311</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" t="s">
-        <v>30</v>
+        <v>288</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <v>15</v>
       </c>
       <c r="U43">
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="C44" t="s">
-        <v>288</v>
+        <v>174</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
-      <c r="L44" s="10" t="s">
-        <v>419</v>
+      <c r="L44" s="4">
+        <v>20</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W44" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>2312</v>
+        <v>2321</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L45" s="4">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N45">
+        <v>10</v>
+      </c>
+      <c r="Q45">
+        <v>10</v>
+      </c>
+      <c r="U45">
         <v>6</v>
       </c>
-      <c r="Q45">
-        <v>12</v>
-      </c>
-      <c r="U45">
-        <v>8</v>
-      </c>
       <c r="W45" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="C46" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
-      <c r="L46" s="4">
-        <v>200</v>
+      <c r="L46" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="N46">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q46">
         <v>10</v>
       </c>
       <c r="U46">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="W46" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E47">
         <v>3</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q47">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="U47">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="W47" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>2323</v>
+        <v>2331</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E48">
-        <v>3</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>361</v>
+        <v>4</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1000</v>
       </c>
       <c r="N48">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="U48">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="W48" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E49">
         <v>4</v>
       </c>
-      <c r="L49" s="4">
-        <v>1000</v>
+      <c r="L49" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="N49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q49">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U49">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="W49" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="N50">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q50">
         <v>15</v>
       </c>
       <c r="U50">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="W50" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>2333</v>
+        <v>2341</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E51">
-        <v>4</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>349</v>
+        <v>5</v>
+      </c>
+      <c r="L51" s="4">
+        <v>600</v>
       </c>
       <c r="N51">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q51">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="S51">
+        <v>-1</v>
       </c>
       <c r="U51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W51" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E52">
         <v>5</v>
@@ -7287,244 +7316,241 @@
         <v>600</v>
       </c>
       <c r="N52">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q52">
+        <v>15</v>
+      </c>
+      <c r="U52">
         <v>6</v>
       </c>
-      <c r="S52">
-        <v>-1</v>
-      </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
       <c r="W52" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E53">
         <v>5</v>
       </c>
-      <c r="L53" s="4">
-        <v>600</v>
+      <c r="L53" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="N53">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q53">
         <v>15</v>
       </c>
       <c r="U53">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="W53" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E54">
         <v>5</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N54">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q54">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="U54">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="W54" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E55">
         <v>5</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="Q55">
         <v>10</v>
       </c>
-      <c r="Q55">
-        <v>24</v>
-      </c>
       <c r="U55">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="W55" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>2345</v>
+        <v>2351</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="N56">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q56">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="U56">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="W56" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E57">
         <v>6</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q57">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="U57">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W57" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E58">
         <v>6</v>
       </c>
-      <c r="L58" s="4" t="s">
-        <v>357</v>
+      <c r="L58" s="4">
+        <v>500</v>
       </c>
       <c r="N58">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>0.1</v>
       </c>
       <c r="U58">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W58" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E59">
         <v>6</v>
       </c>
-      <c r="L59" s="4">
-        <v>500</v>
+      <c r="L59" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="N59">
         <v>7</v>
       </c>
       <c r="Q59">
-        <v>25</v>
-      </c>
-      <c r="S59">
-        <v>1</v>
-      </c>
-      <c r="T59">
-        <v>0.1</v>
+        <v>15</v>
       </c>
       <c r="U59">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="W59" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E60">
         <v>6</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N60">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q60">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U60">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="W60" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>2355</v>
+        <v>2361</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>350</v>
@@ -7533,247 +7559,247 @@
         <v>11</v>
       </c>
       <c r="Q61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U61">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="W61" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="E62">
         <v>7</v>
       </c>
-      <c r="L62" s="4" t="s">
-        <v>350</v>
+      <c r="L62" s="4">
+        <v>1200</v>
       </c>
       <c r="N62">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q62">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="U62">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="W62" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E63">
         <v>7</v>
       </c>
-      <c r="L63" s="4">
-        <v>1200</v>
+      <c r="L63" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="N63">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q63">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="S63">
+        <v>-1</v>
       </c>
       <c r="U63">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W63" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E64">
         <v>7</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="N64">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q64">
-        <v>30</v>
-      </c>
-      <c r="S64">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="U64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W64" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>2364</v>
+        <v>2371</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q65">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="U65">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="W65" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E66">
         <v>8</v>
       </c>
-      <c r="L66" s="4" t="s">
-        <v>352</v>
+      <c r="L66" s="4">
+        <v>500</v>
+      </c>
+      <c r="M66">
+        <v>500</v>
       </c>
       <c r="N66">
-        <v>10</v>
-      </c>
-      <c r="Q66">
+        <v>9</v>
+      </c>
+      <c r="R66">
+        <v>4</v>
+      </c>
+      <c r="U66">
         <v>20</v>
       </c>
-      <c r="U66">
-        <v>125</v>
-      </c>
       <c r="W66" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E67">
         <v>8</v>
       </c>
-      <c r="L67" s="4">
-        <v>500</v>
-      </c>
-      <c r="M67">
-        <v>500</v>
+      <c r="L67" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="N67">
-        <v>9</v>
-      </c>
-      <c r="R67">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="Q67">
+        <v>22</v>
       </c>
       <c r="U67">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="W67" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E68">
         <v>8</v>
       </c>
-      <c r="L68" s="4" t="s">
-        <v>355</v>
+      <c r="L68" s="4">
+        <v>1000</v>
       </c>
       <c r="N68">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q68">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="S68">
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <v>0.15</v>
       </c>
       <c r="U68">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="W68" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E69">
         <v>8</v>
       </c>
-      <c r="L69" s="4">
-        <v>1000</v>
+      <c r="L69" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="N69">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q69">
-        <v>35</v>
-      </c>
-      <c r="S69">
-        <v>2</v>
-      </c>
-      <c r="T69">
-        <v>0.15</v>
+        <v>20</v>
       </c>
       <c r="U69">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="W69" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>2375</v>
+        <v>2381</v>
       </c>
       <c r="C70" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="N70">
         <v>12</v>
@@ -7782,717 +7808,705 @@
         <v>20</v>
       </c>
       <c r="U70">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="W70" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E71">
         <v>9</v>
       </c>
-      <c r="L71" s="4" t="s">
-        <v>351</v>
+      <c r="L71" s="4">
+        <v>1000</v>
       </c>
       <c r="N71">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q71">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="U71">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="W71" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>2382</v>
+        <v>2391</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E72">
-        <v>9</v>
-      </c>
-      <c r="L72" s="4">
-        <v>1000</v>
+        <v>10</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="N72">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q72">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="U72">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="W72" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E73">
         <v>10</v>
       </c>
-      <c r="L73" s="4" t="s">
-        <v>353</v>
+      <c r="L73" s="4">
+        <v>500</v>
+      </c>
+      <c r="M73">
+        <v>500</v>
       </c>
       <c r="N73">
-        <v>11</v>
-      </c>
-      <c r="Q73">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="R73">
+        <v>8</v>
       </c>
       <c r="U73">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="W73" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>2392</v>
-      </c>
-      <c r="C74" t="s">
-        <v>153</v>
-      </c>
-      <c r="E74">
-        <v>10</v>
-      </c>
-      <c r="L74" s="4">
-        <v>500</v>
-      </c>
-      <c r="M74">
-        <v>500</v>
-      </c>
-      <c r="N74">
-        <v>9</v>
-      </c>
-      <c r="R74">
-        <v>8</v>
-      </c>
-      <c r="U74">
-        <v>40</v>
-      </c>
-      <c r="W74" t="s">
         <v>375</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>2401</v>
+      </c>
+      <c r="C75" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" t="s">
-        <v>23</v>
-      </c>
-      <c r="O76">
-        <v>1</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="C77" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="C78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O78">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>2404</v>
+        <v>2411</v>
       </c>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>100</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
       </c>
       <c r="O79">
         <v>2</v>
       </c>
-      <c r="S79">
-        <v>-1</v>
-      </c>
     </row>
     <row r="80" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>2411</v>
+        <v>2421</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O80">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>2421</v>
+        <v>2431</v>
       </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O81">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>2431</v>
+        <v>2441</v>
       </c>
       <c r="C82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O82">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>2441</v>
+        <v>2451</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O83">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>2451</v>
+        <v>2461</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O84">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85">
-        <v>2461</v>
+        <v>2471</v>
       </c>
       <c r="C85" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E85">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O85">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86">
-        <v>2471</v>
+        <v>2481</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E86">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O86">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87">
-        <v>2481</v>
+        <v>2491</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O87">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <v>2491</v>
-      </c>
-      <c r="C88" t="s">
-        <v>108</v>
-      </c>
-      <c r="E88">
-        <v>10</v>
-      </c>
-      <c r="O88">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>2501</v>
+      </c>
+      <c r="C89" t="s">
+        <v>109</v>
+      </c>
+      <c r="D89" t="s">
+        <v>24</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="C90" t="s">
-        <v>109</v>
-      </c>
-      <c r="D90" t="s">
-        <v>24</v>
-      </c>
-      <c r="O90">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="N90">
+        <v>0.04</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N91">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N92">
-        <v>0.02</v>
+        <v>0.04</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93">
-        <v>2504</v>
+        <v>2511</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
-      </c>
-      <c r="N93">
-        <v>0.04</v>
+        <v>110</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
       </c>
       <c r="O93">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="E94">
         <v>2</v>
       </c>
+      <c r="K94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>0.06</v>
+      </c>
       <c r="O94">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="C95" t="s">
-        <v>191</v>
-      </c>
-      <c r="E95">
-        <v>2</v>
-      </c>
-      <c r="K95">
-        <v>3</v>
+        <v>318</v>
       </c>
       <c r="N95">
-        <v>0.06</v>
-      </c>
-      <c r="O95">
-        <v>2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96">
-        <v>2513</v>
+        <v>2521</v>
       </c>
       <c r="C96" t="s">
-        <v>318</v>
-      </c>
-      <c r="N96">
-        <v>0.04</v>
+        <v>111</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="O96">
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97">
-        <v>2521</v>
+        <v>2531</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O97">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98">
-        <v>2531</v>
+        <v>2541</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O98">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99">
-        <v>2541</v>
+        <v>2551</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O99">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100">
-        <v>2551</v>
+        <v>2561</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O100">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101">
-        <v>2561</v>
+        <v>2571</v>
       </c>
       <c r="C101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E101">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O101">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B102">
-        <v>2571</v>
+        <v>2581</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E102">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O102">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B103">
-        <v>2581</v>
+        <v>2591</v>
       </c>
       <c r="C103" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E103">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O103">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B104">
-        <v>2591</v>
-      </c>
-      <c r="C104" t="s">
-        <v>118</v>
-      </c>
-      <c r="E104">
-        <v>10</v>
-      </c>
-      <c r="O104">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>2601</v>
+      </c>
+      <c r="C105" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B106">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
-      </c>
-      <c r="D106" t="s">
-        <v>25</v>
-      </c>
-      <c r="O106">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="N106">
+        <v>0.02</v>
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B107">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="C107" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N107">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B108">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="C108" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N108">
-        <v>0.06</v>
+        <v>0.08</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B109">
-        <v>2604</v>
+        <v>2611</v>
       </c>
       <c r="C109" t="s">
-        <v>185</v>
-      </c>
-      <c r="N109">
-        <v>0.08</v>
+        <v>120</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
       </c>
       <c r="O109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B110">
-        <v>2611</v>
+        <v>2621</v>
       </c>
       <c r="C110" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O110">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B111">
-        <v>2621</v>
+        <v>2631</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O111">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B112">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="C112" t="s">
-        <v>122</v>
+        <v>825</v>
       </c>
       <c r="E112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O112">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B113">
-        <v>2641</v>
+        <v>2651</v>
       </c>
       <c r="C113" t="s">
-        <v>825</v>
+        <v>123</v>
       </c>
       <c r="E113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O113">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B114">
-        <v>2651</v>
+        <v>2661</v>
       </c>
       <c r="C114" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E114">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O114">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B115">
-        <v>2661</v>
+        <v>2671</v>
       </c>
       <c r="C115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E115">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O115">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B116">
-        <v>2671</v>
+        <v>2681</v>
       </c>
       <c r="C116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E116">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O116">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B117">
-        <v>2681</v>
+        <v>2691</v>
       </c>
       <c r="C117" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E117">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O117">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="118" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B118">
-        <v>2691</v>
-      </c>
-      <c r="C118" t="s">
-        <v>127</v>
-      </c>
-      <c r="E118">
-        <v>10</v>
-      </c>
-      <c r="O118">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>2701</v>
+      </c>
+      <c r="C119" t="s">
+        <v>128</v>
+      </c>
+      <c r="D119" t="s">
+        <v>26</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B120">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="C120" t="s">
-        <v>128</v>
-      </c>
-      <c r="D120" t="s">
-        <v>26</v>
-      </c>
-      <c r="O120">
-        <v>1</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B121">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="C121" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="S121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B122">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="C122" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
       </c>
       <c r="S122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B123">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="C123" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="O123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S123">
         <v>2</v>
@@ -8500,231 +8514,228 @@
     </row>
     <row r="124" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B124">
-        <v>2705</v>
+        <v>2711</v>
       </c>
       <c r="C124" t="s">
-        <v>319</v>
+        <v>129</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
       </c>
       <c r="O124">
         <v>2</v>
       </c>
-      <c r="S124">
-        <v>2</v>
-      </c>
     </row>
     <row r="125" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B125">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="C125" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="E125">
         <v>2</v>
       </c>
       <c r="O125">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="S125">
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B126">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="C126" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="E126">
         <v>2</v>
       </c>
+      <c r="L126" s="4">
+        <v>1</v>
+      </c>
       <c r="O126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S126">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B127">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="C127" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E127">
         <v>2</v>
       </c>
-      <c r="L127" s="4">
-        <v>1</v>
-      </c>
       <c r="O127">
+        <v>2</v>
+      </c>
+      <c r="S127">
         <v>3</v>
-      </c>
-      <c r="S127">
-        <v>2</v>
       </c>
     </row>
     <row r="128" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B128">
-        <v>2714</v>
+        <v>2721</v>
       </c>
       <c r="C128" t="s">
-        <v>321</v>
+        <v>130</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O128">
-        <v>2</v>
-      </c>
-      <c r="S128">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B129">
-        <v>2721</v>
+        <v>2731</v>
       </c>
       <c r="C129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O129">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B130">
-        <v>2731</v>
+        <v>2741</v>
       </c>
       <c r="C130" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O130">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B131">
-        <v>2741</v>
+        <v>2751</v>
       </c>
       <c r="C131" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E131">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O131">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B132">
-        <v>2751</v>
+        <v>2761</v>
       </c>
       <c r="C132" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O132">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B133">
-        <v>2761</v>
+        <v>2771</v>
       </c>
       <c r="C133" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E133">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O133">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B134">
-        <v>2771</v>
+        <v>2781</v>
       </c>
       <c r="C134" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E134">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O134">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B135">
-        <v>2781</v>
+        <v>2791</v>
       </c>
       <c r="C135" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E135">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O135">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="136" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B136">
-        <v>2791</v>
-      </c>
-      <c r="C136" t="s">
-        <v>137</v>
-      </c>
-      <c r="E136">
-        <v>10</v>
-      </c>
-      <c r="O136">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="137" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>2801</v>
+      </c>
+      <c r="C137" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B138">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="C138" t="s">
-        <v>138</v>
-      </c>
-      <c r="D138" t="s">
-        <v>27</v>
+        <v>315</v>
       </c>
     </row>
     <row r="139" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B139">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="C139" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B140">
-        <v>2803</v>
+        <v>2811</v>
       </c>
       <c r="C140" t="s">
-        <v>316</v>
+        <v>139</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B141">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="C141" t="s">
-        <v>139</v>
+        <v>317</v>
       </c>
       <c r="E141">
         <v>2</v>
@@ -8732,200 +8743,200 @@
     </row>
     <row r="142" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B142">
-        <v>2812</v>
+        <v>2821</v>
       </c>
       <c r="C142" t="s">
-        <v>317</v>
+        <v>140</v>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B143">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="C143" t="s">
-        <v>140</v>
+        <v>598</v>
       </c>
       <c r="E143">
         <v>3</v>
       </c>
+      <c r="Y143" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="144" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B144">
-        <v>2822</v>
+        <v>2831</v>
       </c>
       <c r="C144" t="s">
-        <v>598</v>
+        <v>141</v>
       </c>
       <c r="E144">
-        <v>3</v>
-      </c>
-      <c r="Y144" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B145">
-        <v>2831</v>
+        <v>2841</v>
       </c>
       <c r="C145" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E145">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B146">
-        <v>2841</v>
+        <v>2851</v>
       </c>
       <c r="C146" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E146">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B147">
-        <v>2851</v>
+        <v>2861</v>
       </c>
       <c r="C147" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E147">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B148">
-        <v>2861</v>
+        <v>2871</v>
       </c>
       <c r="C148" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E148">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B149">
-        <v>2871</v>
+        <v>2881</v>
       </c>
       <c r="C149" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E149">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B150">
-        <v>2881</v>
+        <v>2891</v>
       </c>
       <c r="C150" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E150">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B151">
-        <v>2891</v>
-      </c>
-      <c r="C151" t="s">
-        <v>147</v>
-      </c>
-      <c r="E151">
         <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>2901</v>
+      </c>
+      <c r="C152" t="s">
+        <v>264</v>
+      </c>
+      <c r="D152" t="s">
+        <v>264</v>
+      </c>
+      <c r="W152" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B153">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="C153" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D153" t="s">
         <v>264</v>
       </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
       <c r="W153" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B154">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="C154" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D154" t="s">
         <v>264</v>
       </c>
       <c r="E154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W154" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B155">
-        <v>2903</v>
+        <v>2911</v>
       </c>
       <c r="C155" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D155" t="s">
-        <v>264</v>
-      </c>
-      <c r="E155">
-        <v>3</v>
-      </c>
-      <c r="W155" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="H155" s="7"/>
+      <c r="L155" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B156">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="C156" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D156" t="s">
         <v>270</v>
       </c>
-      <c r="H156" s="7"/>
       <c r="L156" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B157">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="C157" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D157" t="s">
         <v>270</v>
       </c>
-      <c r="L157" s="4">
-        <v>1</v>
-      </c>
     </row>
     <row r="158" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B158">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="C158" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D158" t="s">
         <v>270</v>
@@ -8933,35 +8944,35 @@
     </row>
     <row r="159" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B159">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="C159" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D159" t="s">
         <v>270</v>
       </c>
+      <c r="L159" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B160">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="C160" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="D160" t="s">
         <v>270</v>
       </c>
-      <c r="L160" s="4">
-        <v>1</v>
-      </c>
     </row>
     <row r="161" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B161">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="C161" t="s">
-        <v>306</v>
+        <v>822</v>
       </c>
       <c r="D161" t="s">
         <v>270</v>
@@ -8969,175 +8980,184 @@
     </row>
     <row r="162" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B162">
-        <v>2917</v>
+        <v>2921</v>
       </c>
       <c r="C162" t="s">
-        <v>822</v>
+        <v>277</v>
       </c>
       <c r="D162" t="s">
-        <v>270</v>
+        <v>276</v>
+      </c>
+      <c r="N162">
+        <v>0.04</v>
+      </c>
+      <c r="W162" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B163">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="C163" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D163" t="s">
         <v>276</v>
       </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
       <c r="N163">
         <v>0.04</v>
       </c>
       <c r="W163" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B164">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="C164" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D164" t="s">
         <v>276</v>
       </c>
-      <c r="E164">
-        <v>2</v>
-      </c>
       <c r="N164">
         <v>0.04</v>
       </c>
       <c r="W164" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="165" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B165">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="C165" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D165" t="s">
         <v>276</v>
       </c>
+      <c r="L165" s="4">
+        <v>1</v>
+      </c>
       <c r="N165">
-        <v>0.04</v>
+        <v>2.5</v>
+      </c>
+      <c r="Q165">
+        <v>6</v>
       </c>
       <c r="W165" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B166">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="C166" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D166" t="s">
         <v>276</v>
       </c>
-      <c r="L166" s="4">
-        <v>1</v>
-      </c>
-      <c r="N166">
-        <v>2.5</v>
-      </c>
-      <c r="Q166">
-        <v>6</v>
-      </c>
       <c r="W166" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B167">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="C167" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D167" t="s">
         <v>276</v>
       </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="L167" s="4">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>0.02</v>
+      </c>
       <c r="W167" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="168" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B168">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="C168" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D168" t="s">
         <v>276</v>
       </c>
       <c r="E168">
+        <v>3</v>
+      </c>
+      <c r="L168" s="4">
         <v>2</v>
-      </c>
-      <c r="L168" s="4">
-        <v>1</v>
       </c>
       <c r="N168">
         <v>0.02</v>
       </c>
       <c r="W168" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="169" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B169">
-        <v>2927</v>
+        <v>2931</v>
       </c>
       <c r="C169" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="D169" t="s">
-        <v>276</v>
-      </c>
-      <c r="E169">
-        <v>3</v>
+        <v>294</v>
       </c>
       <c r="L169" s="4">
         <v>2</v>
       </c>
       <c r="N169">
-        <v>0.02</v>
-      </c>
-      <c r="W169" t="s">
-        <v>313</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="170" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B170">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="C170" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="D170" t="s">
         <v>294</v>
       </c>
       <c r="L170" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N170">
         <v>2.5</v>
       </c>
+      <c r="Q170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B171">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="C171" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D171" t="s">
         <v>294</v>
@@ -9146,49 +9166,40 @@
         <v>1</v>
       </c>
       <c r="N171">
-        <v>2.5</v>
-      </c>
-      <c r="Q171">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B172">
-        <v>2933</v>
+        <v>2941</v>
       </c>
       <c r="C172" t="s">
-        <v>299</v>
+        <v>400</v>
       </c>
       <c r="D172" t="s">
         <v>294</v>
       </c>
-      <c r="L172" s="4">
-        <v>1</v>
-      </c>
-      <c r="N172">
-        <v>2</v>
-      </c>
     </row>
     <row r="173" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B173">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="C173" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D173" t="s">
         <v>294</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B174">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="C174" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D174" t="s">
         <v>294</v>
@@ -9199,10 +9210,10 @@
     </row>
     <row r="175" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B175">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="C175" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D175" t="s">
         <v>294</v>
@@ -9210,13 +9221,19 @@
       <c r="E175">
         <v>2</v>
       </c>
+      <c r="L175" s="4">
+        <v>3</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
     </row>
     <row r="176" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B176">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="C176" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D176" t="s">
         <v>294</v>
@@ -9224,19 +9241,13 @@
       <c r="E176">
         <v>2</v>
       </c>
-      <c r="L176" s="4">
-        <v>3</v>
-      </c>
-      <c r="N176">
-        <v>3</v>
-      </c>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B177">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="C177" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D177" t="s">
         <v>294</v>
@@ -9247,10 +9258,10 @@
     </row>
     <row r="178" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B178">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="C178" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D178" t="s">
         <v>294</v>
@@ -9261,10 +9272,10 @@
     </row>
     <row r="179" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B179">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="C179" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D179" t="s">
         <v>294</v>
@@ -9275,24 +9286,21 @@
     </row>
     <row r="180" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B180">
-        <v>2948</v>
+        <v>2961</v>
       </c>
       <c r="C180" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
       <c r="D180" t="s">
-        <v>294</v>
-      </c>
-      <c r="E180">
-        <v>2</v>
+        <v>302</v>
       </c>
     </row>
     <row r="181" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B181">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="C181" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D181" t="s">
         <v>302</v>
@@ -9300,52 +9308,58 @@
     </row>
     <row r="182" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B182">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="C182" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="D182" t="s">
         <v>302</v>
       </c>
+      <c r="L182" s="4">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="183" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B183">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="C183" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D183" t="s">
         <v>302</v>
       </c>
-      <c r="L183" s="4">
-        <v>1</v>
-      </c>
       <c r="N183">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="184" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B184">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="C184" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D184" t="s">
         <v>302</v>
       </c>
+      <c r="L184" s="4">
+        <v>1</v>
+      </c>
       <c r="N184">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="185" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B185">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="C185" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D185" t="s">
         <v>302</v>
@@ -9359,10 +9373,10 @@
     </row>
     <row r="186" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B186">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="C186" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D186" t="s">
         <v>302</v>
@@ -9376,27 +9390,33 @@
     </row>
     <row r="187" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B187">
-        <v>2967</v>
+        <v>2971</v>
       </c>
       <c r="C187" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D187" t="s">
-        <v>302</v>
+        <v>322</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
       </c>
       <c r="L187" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N187">
-        <v>0.05</v>
+        <v>0.08</v>
+      </c>
+      <c r="Q187">
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B188">
-        <v>2971</v>
+        <v>2972</v>
       </c>
       <c r="C188" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D188" t="s">
         <v>322</v>
@@ -9405,21 +9425,18 @@
         <v>2</v>
       </c>
       <c r="L188" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N188">
-        <v>0.08</v>
-      </c>
-      <c r="Q188">
-        <v>15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="189" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B189">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="C189" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D189" t="s">
         <v>322</v>
@@ -9428,18 +9445,15 @@
         <v>2</v>
       </c>
       <c r="L189" s="4">
-        <v>2</v>
-      </c>
-      <c r="N189">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B190">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="C190" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D190" t="s">
         <v>322</v>
@@ -9447,81 +9461,84 @@
       <c r="E190">
         <v>2</v>
       </c>
-      <c r="L190" s="4">
-        <v>1</v>
+      <c r="N190">
+        <v>0.05</v>
       </c>
     </row>
     <row r="191" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B191">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="C191" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D191" t="s">
         <v>322</v>
       </c>
-      <c r="E191">
-        <v>2</v>
-      </c>
-      <c r="N191">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="192" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B192">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="C192" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D192" t="s">
         <v>322</v>
       </c>
+      <c r="L192" s="4">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="193" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B193">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="C193" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D193" t="s">
         <v>322</v>
       </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
       <c r="L193" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N193">
-        <v>0.02</v>
+        <v>0.05</v>
+      </c>
+      <c r="Q193">
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B194">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="C194" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D194" t="s">
         <v>322</v>
       </c>
+      <c r="E194">
+        <v>3</v>
+      </c>
       <c r="L194" s="4">
-        <v>2</v>
-      </c>
-      <c r="N194">
-        <v>0.05</v>
-      </c>
-      <c r="Q194">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B195">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="C195" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D195" t="s">
         <v>322</v>
@@ -9535,10 +9552,10 @@
     </row>
     <row r="196" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B196">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="C196" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D196" t="s">
         <v>322</v>
@@ -9547,83 +9564,66 @@
         <v>3</v>
       </c>
       <c r="L196" s="4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="N196">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q196">
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B197">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="C197" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D197" t="s">
         <v>322</v>
       </c>
       <c r="E197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L197" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N197">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q197">
-        <v>20</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="198" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B198">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="C198" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D198" t="s">
         <v>322</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L198" s="4">
-        <v>2</v>
-      </c>
-      <c r="N198">
-        <v>0.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B199">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="C199" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D199" t="s">
         <v>322</v>
       </c>
-      <c r="E199">
-        <v>3</v>
-      </c>
       <c r="L199" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B200">
-        <v>2983</v>
-      </c>
-      <c r="C200" t="s">
-        <v>339</v>
-      </c>
-      <c r="D200" t="s">
-        <v>322</v>
-      </c>
-      <c r="L200" s="4">
-        <v>1</v>
-      </c>
-      <c r="N200">
+      <c r="N199">
         <v>0.02</v>
       </c>
     </row>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8544B0B7-BF7B-43A3-A87D-9C7197D16D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FB563A-9889-421D-BA43-8A939938634E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="831">
   <si>
     <t>ID</t>
   </si>
@@ -2532,6 +2532,12 @@
   </si>
   <si>
     <t>Can launch game (tutorial gives 1 achievement token)</t>
+  </si>
+  <si>
+    <t>Can see allied vision</t>
+  </si>
+  <si>
+    <t>"14"</t>
   </si>
 </sst>
 </file>
@@ -3621,10 +3627,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F6F072-5AA1-4DF6-9E79-0C2773550AE1}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4010,6 +4016,9 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
+      <c r="D31" t="s">
+        <v>830</v>
+      </c>
       <c r="E31">
         <v>1</v>
       </c>
@@ -4028,6 +4037,11 @@
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>826</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -4148,7 +4162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
@@ -5468,8 +5482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F803ACD-0C6B-4501-8A1D-9CD977C9D5BC}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6413,13 +6427,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE22176D-CFFA-4A34-AB14-C1369F5F19BF}">
-  <dimension ref="A1:Y199"/>
+  <dimension ref="A1:Y202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E187" sqref="E187"/>
+      <selection pane="bottomRight" activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9242,7 +9256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>2946</v>
       </c>
@@ -9256,7 +9270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>2947</v>
       </c>
@@ -9270,7 +9284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>2948</v>
       </c>
@@ -9284,7 +9298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>2961</v>
       </c>
@@ -9295,7 +9309,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>2962</v>
       </c>
@@ -9306,7 +9320,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>2963</v>
       </c>
@@ -9323,7 +9337,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>2964</v>
       </c>
@@ -9337,7 +9351,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>2965</v>
       </c>
@@ -9354,7 +9368,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>2966</v>
       </c>
@@ -9371,7 +9385,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>2967</v>
       </c>
@@ -9388,67 +9402,52 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>2971</v>
       </c>
       <c r="C187" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D187" t="s">
         <v>322</v>
       </c>
-      <c r="E187">
-        <v>2</v>
-      </c>
-      <c r="L187" s="4">
-        <v>3</v>
-      </c>
-      <c r="N187">
-        <v>0.08</v>
-      </c>
-      <c r="Q187">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>2972</v>
       </c>
       <c r="C188" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D188" t="s">
         <v>322</v>
       </c>
-      <c r="E188">
-        <v>2</v>
-      </c>
       <c r="L188" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N188">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>2973</v>
       </c>
       <c r="C189" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="D189" t="s">
         <v>322</v>
       </c>
-      <c r="E189">
-        <v>2</v>
-      </c>
       <c r="L189" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N189">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>2974</v>
       </c>
@@ -9465,32 +9464,41 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>2975</v>
       </c>
       <c r="C191" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D191" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="L191" s="4">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>2976</v>
       </c>
       <c r="C192" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D192" t="s">
         <v>322</v>
       </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
       <c r="L192" s="4">
         <v>1</v>
-      </c>
-      <c r="N192">
-        <v>0.02</v>
       </c>
     </row>
     <row r="193" spans="2:17" x14ac:dyDescent="0.25">
@@ -9498,22 +9506,22 @@
         <v>2977</v>
       </c>
       <c r="C193" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D193" t="s">
         <v>322</v>
       </c>
       <c r="E193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L193" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N193">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="Q193">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="2:17" x14ac:dyDescent="0.25">
@@ -9521,7 +9529,7 @@
         <v>2978</v>
       </c>
       <c r="C194" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D194" t="s">
         <v>322</v>
@@ -9530,7 +9538,10 @@
         <v>3</v>
       </c>
       <c r="L194" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>0.1</v>
       </c>
     </row>
     <row r="195" spans="2:17" x14ac:dyDescent="0.25">
@@ -9538,7 +9549,7 @@
         <v>2979</v>
       </c>
       <c r="C195" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D195" t="s">
         <v>322</v>
@@ -9547,7 +9558,13 @@
         <v>3</v>
       </c>
       <c r="L195" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N195">
+        <v>0.05</v>
+      </c>
+      <c r="Q195">
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="2:17" x14ac:dyDescent="0.25">
@@ -9555,22 +9572,16 @@
         <v>2980</v>
       </c>
       <c r="C196" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D196" t="s">
         <v>322</v>
       </c>
       <c r="E196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L196" s="4">
-        <v>5</v>
-      </c>
-      <c r="N196">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q196">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="2:17" x14ac:dyDescent="0.25">
@@ -9578,19 +9589,16 @@
         <v>2981</v>
       </c>
       <c r="C197" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D197" t="s">
         <v>322</v>
       </c>
       <c r="E197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L197" s="4">
-        <v>2</v>
-      </c>
-      <c r="N197">
-        <v>0.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="2:17" x14ac:dyDescent="0.25">
@@ -9598,13 +9606,13 @@
         <v>2982</v>
       </c>
       <c r="C198" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D198" t="s">
         <v>322</v>
       </c>
       <c r="E198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L198" s="4">
         <v>1</v>
@@ -9615,17 +9623,35 @@
         <v>2983</v>
       </c>
       <c r="C199" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D199" t="s">
         <v>322</v>
       </c>
+      <c r="E199">
+        <v>5</v>
+      </c>
       <c r="L199" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N199">
-        <v>0.02</v>
-      </c>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q199">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K200" s="4"/>
+      <c r="L200"/>
+    </row>
+    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K201" s="4"/>
+      <c r="L201"/>
+    </row>
+    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K202" s="4"/>
+      <c r="L202"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FB563A-9889-421D-BA43-8A939938634E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D952E5EE-7E2F-4F82-9C31-4DC11272AD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="831">
   <si>
     <t>ID</t>
   </si>
@@ -911,9 +911,6 @@
     <t>Foam Sword</t>
   </si>
   <si>
-    <t>Bow</t>
-  </si>
-  <si>
     <t>Projectiles</t>
   </si>
   <si>
@@ -2538,6 +2535,9 @@
   </si>
   <si>
     <t>"14"</t>
+  </si>
+  <si>
+    <t>Recurve Bow</t>
   </si>
 </sst>
 </file>
@@ -2953,7 +2953,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -2965,10 +2965,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2979,7 +2979,7 @@
         <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2990,7 +2990,7 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D6" t="s">
         <v>216</v>
@@ -3004,7 +3004,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3036,7 +3036,7 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,7 +3044,7 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3052,7 +3052,7 @@
         <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3068,7 +3068,7 @@
         <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3156,7 +3156,7 @@
         <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3164,7 +3164,7 @@
         <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
         <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
         <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
         <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3196,7 +3196,7 @@
         <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
         <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3220,7 +3220,7 @@
         <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3228,7 +3228,7 @@
         <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
         <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
         <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -3252,7 +3252,7 @@
         <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
         <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -3268,7 +3268,7 @@
         <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
         <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
         <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -3300,7 +3300,7 @@
         <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -3308,7 +3308,7 @@
         <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
         <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
         <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D49" t="s">
         <v>219</v>
@@ -3346,7 +3346,7 @@
         <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -3354,7 +3354,7 @@
         <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -3362,7 +3362,7 @@
         <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -3370,7 +3370,7 @@
         <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -3378,7 +3378,7 @@
         <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -3386,7 +3386,7 @@
         <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -3394,7 +3394,7 @@
         <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -3402,7 +3402,7 @@
         <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -3410,7 +3410,7 @@
         <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -3421,13 +3421,13 @@
         <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D60" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E60" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -3435,7 +3435,7 @@
         <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -3443,7 +3443,7 @@
         <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -3451,7 +3451,7 @@
         <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -3459,7 +3459,7 @@
         <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -3467,7 +3467,7 @@
         <v>306</v>
       </c>
       <c r="C65" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -3475,7 +3475,7 @@
         <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -3483,7 +3483,7 @@
         <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -3491,7 +3491,7 @@
         <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -3499,7 +3499,7 @@
         <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -3507,7 +3507,7 @@
         <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -3515,7 +3515,7 @@
         <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -3523,7 +3523,7 @@
         <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -3531,7 +3531,7 @@
         <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -3539,7 +3539,7 @@
         <v>315</v>
       </c>
       <c r="C74" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -3547,7 +3547,7 @@
         <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -3555,7 +3555,7 @@
         <v>317</v>
       </c>
       <c r="C76" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -3563,7 +3563,7 @@
         <v>318</v>
       </c>
       <c r="C77" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -3571,7 +3571,7 @@
         <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -3579,7 +3579,7 @@
         <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -3587,7 +3587,7 @@
         <v>321</v>
       </c>
       <c r="C80" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -3595,7 +3595,7 @@
         <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -3603,7 +3603,7 @@
         <v>323</v>
       </c>
       <c r="C82" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -3611,7 +3611,7 @@
         <v>324</v>
       </c>
       <c r="C83" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -3644,7 +3644,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3655,393 +3655,393 @@
         <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G13" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" t="s">
+        <v>649</v>
+      </c>
+      <c r="D19" t="s">
         <v>650</v>
-      </c>
-      <c r="D19" t="s">
-        <v>651</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G20" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" t="s">
+        <v>641</v>
+      </c>
+      <c r="D21" t="s">
         <v>642</v>
-      </c>
-      <c r="D21" t="s">
-        <v>643</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D24" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
+        <v>822</v>
+      </c>
+      <c r="G32" t="s">
         <v>823</v>
-      </c>
-      <c r="G32" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -4178,7 +4178,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -4193,7 +4193,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>220</v>
@@ -4216,10 +4216,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4230,13 +4230,13 @@
         <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4250,7 +4250,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4261,13 +4261,13 @@
         <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4289,7 +4289,7 @@
         <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>230</v>
@@ -4298,10 +4298,10 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4319,7 +4319,7 @@
         <v>239</v>
       </c>
       <c r="H12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4330,7 +4330,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="H13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4338,16 +4338,16 @@
         <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4355,7 +4355,7 @@
         <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4363,7 +4363,7 @@
         <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -4371,7 +4371,7 @@
         <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -4379,10 +4379,10 @@
         <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -4396,10 +4396,10 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -4407,7 +4407,7 @@
         <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -4415,7 +4415,7 @@
         <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -4423,7 +4423,7 @@
         <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -4431,16 +4431,16 @@
         <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H23" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4448,7 +4448,7 @@
         <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -4459,7 +4459,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4470,7 +4470,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -4484,10 +4484,10 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H27" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -4495,7 +4495,7 @@
         <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -4503,7 +4503,7 @@
         <v>133</v>
       </c>
       <c r="H29" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -4511,7 +4511,7 @@
         <v>134</v>
       </c>
       <c r="H30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -4525,10 +4525,10 @@
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H31" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -4536,7 +4536,7 @@
         <v>142</v>
       </c>
       <c r="H32" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -4544,7 +4544,7 @@
         <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D33" t="s">
         <v>232</v>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H33" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -4564,7 +4564,7 @@
         <v>152</v>
       </c>
       <c r="H34" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -4572,7 +4572,7 @@
         <v>153</v>
       </c>
       <c r="H35" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -4580,7 +4580,7 @@
         <v>154</v>
       </c>
       <c r="H36" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -4588,10 +4588,10 @@
         <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -4599,7 +4599,7 @@
         <v>156</v>
       </c>
       <c r="H38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -4607,7 +4607,7 @@
         <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -4615,7 +4615,7 @@
         <v>158</v>
       </c>
       <c r="H40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -4696,7 +4696,7 @@
         <v>238</v>
       </c>
       <c r="D46" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -4716,10 +4716,10 @@
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H47" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -4733,7 +4733,7 @@
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -4755,7 +4755,7 @@
         <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -4870,16 +4870,16 @@
         <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E58">
         <v>5</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -4887,7 +4887,7 @@
         <v>192</v>
       </c>
       <c r="H59" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -4895,10 +4895,10 @@
         <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H60" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -4906,7 +4906,7 @@
         <v>194</v>
       </c>
       <c r="H61" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -4917,13 +4917,13 @@
         <v>224</v>
       </c>
       <c r="D62" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -4940,27 +4940,27 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C64" t="s">
         <v>250</v>
       </c>
       <c r="D64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E64">
         <v>7</v>
       </c>
       <c r="G64" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H64" t="s">
         <v>801</v>
-      </c>
-      <c r="H64" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C65" t="s">
         <v>249</v>
@@ -4969,10 +4969,10 @@
         <v>9</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H65" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4983,16 +4983,16 @@
         <v>254</v>
       </c>
       <c r="D66" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H66" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -5001,12 +5001,12 @@
       </c>
       <c r="G67" s="9"/>
       <c r="H67" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C69" t="s">
         <v>218</v>
@@ -5018,10 +5018,10 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
+        <v>761</v>
+      </c>
+      <c r="H69" t="s">
         <v>762</v>
-      </c>
-      <c r="H69" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -5032,10 +5032,10 @@
         <v>223</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H70" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -5043,7 +5043,7 @@
         <v>312</v>
       </c>
       <c r="H71" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -5051,19 +5051,19 @@
         <v>321</v>
       </c>
       <c r="C72" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D72" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H72" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -5074,10 +5074,10 @@
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H73" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -5085,10 +5085,10 @@
         <v>323</v>
       </c>
       <c r="G74" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H74" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5100,16 +5100,16 @@
         <v>222</v>
       </c>
       <c r="D75" t="s">
+        <v>781</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>768</v>
+      </c>
+      <c r="H75" t="s">
         <v>782</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>769</v>
-      </c>
-      <c r="H75" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5118,7 +5118,7 @@
         <v>332</v>
       </c>
       <c r="H76" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5127,7 +5127,7 @@
         <v>333</v>
       </c>
       <c r="H77" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5136,7 +5136,7 @@
         <v>334</v>
       </c>
       <c r="H78" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5145,7 +5145,7 @@
         <v>335</v>
       </c>
       <c r="H79" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5154,7 +5154,7 @@
         <v>336</v>
       </c>
       <c r="H80" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5163,7 +5163,7 @@
         <v>337</v>
       </c>
       <c r="H81" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -5172,7 +5172,7 @@
         <v>338</v>
       </c>
       <c r="H82" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5181,16 +5181,16 @@
         <v>339</v>
       </c>
       <c r="C83" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E83">
         <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H83" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5199,7 +5199,7 @@
         <v>340</v>
       </c>
       <c r="H84" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5208,7 +5208,7 @@
         <v>341</v>
       </c>
       <c r="H85" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5217,7 +5217,7 @@
         <v>342</v>
       </c>
       <c r="H86" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5226,13 +5226,13 @@
         <v>343</v>
       </c>
       <c r="C87" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G87" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H87" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -5241,7 +5241,7 @@
         <v>344</v>
       </c>
       <c r="H88" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5250,7 +5250,7 @@
         <v>345</v>
       </c>
       <c r="H89" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5259,7 +5259,7 @@
         <v>346</v>
       </c>
       <c r="H90" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -5267,16 +5267,16 @@
         <v>401</v>
       </c>
       <c r="C92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D92" t="s">
+        <v>301</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
         <v>302</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="G92" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -5284,16 +5284,16 @@
         <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H93" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -5301,10 +5301,10 @@
         <v>412</v>
       </c>
       <c r="G94" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H94" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -5312,13 +5312,13 @@
         <v>421</v>
       </c>
       <c r="C95" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E95">
         <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -5326,7 +5326,7 @@
         <v>422</v>
       </c>
       <c r="C96" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -5334,7 +5334,7 @@
         <v>423</v>
       </c>
       <c r="C97" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -5342,7 +5342,7 @@
         <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -5350,7 +5350,7 @@
         <v>425</v>
       </c>
       <c r="C99" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E99">
         <v>35</v>
@@ -5378,10 +5378,10 @@
         <v>5</v>
       </c>
       <c r="G101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H101" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -5389,7 +5389,7 @@
         <v>442</v>
       </c>
       <c r="H102" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -5397,7 +5397,7 @@
         <v>443</v>
       </c>
       <c r="H103" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
@@ -5542,13 +5542,13 @@
         <v>1001</v>
       </c>
       <c r="C3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D3" t="s">
         <v>415</v>
       </c>
-      <c r="D3" t="s">
-        <v>416</v>
-      </c>
       <c r="E3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5565,13 +5565,13 @@
         <v>1002</v>
       </c>
       <c r="C4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D4" t="s">
         <v>817</v>
       </c>
-      <c r="D4" t="s">
-        <v>818</v>
-      </c>
       <c r="E4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5585,7 +5585,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -5614,10 +5614,10 @@
         <v>1102</v>
       </c>
       <c r="C7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E7" t="s">
         <v>481</v>
-      </c>
-      <c r="E7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -5625,10 +5625,10 @@
         <v>1103</v>
       </c>
       <c r="C8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5636,10 +5636,10 @@
         <v>1104</v>
       </c>
       <c r="C9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -5647,10 +5647,10 @@
         <v>1105</v>
       </c>
       <c r="C10" t="s">
+        <v>818</v>
+      </c>
+      <c r="E10" t="s">
         <v>819</v>
-      </c>
-      <c r="E10" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -5658,10 +5658,10 @@
         <v>1106</v>
       </c>
       <c r="C11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -5669,10 +5669,10 @@
         <v>1116</v>
       </c>
       <c r="C12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -5680,10 +5680,10 @@
         <v>1117</v>
       </c>
       <c r="C13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -5691,10 +5691,10 @@
         <v>1118</v>
       </c>
       <c r="C14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -5702,10 +5702,10 @@
         <v>1119</v>
       </c>
       <c r="C15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -5713,10 +5713,10 @@
         <v>1120</v>
       </c>
       <c r="C16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -6044,27 +6044,27 @@
     </row>
     <row r="3" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -6076,16 +6076,16 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -6093,27 +6093,27 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -6121,13 +6121,13 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -6135,159 +6135,159 @@
         <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -6295,125 +6295,125 @@
         <v>205</v>
       </c>
       <c r="C22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D22" t="s">
         <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C23" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E33" t="s">
+        <v>533</v>
+      </c>
+      <c r="F33" t="s">
         <v>534</v>
-      </c>
-      <c r="F33" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>558</v>
+      </c>
+      <c r="C34" t="s">
         <v>559</v>
-      </c>
-      <c r="C34" t="s">
-        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -6430,10 +6430,10 @@
   <dimension ref="A1:Y202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E199" sqref="E199"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6528,10 +6528,10 @@
         <v>7</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>9</v>
@@ -6601,7 +6601,7 @@
         <v>2105</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -7067,7 +7067,7 @@
         <v>30</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N42">
         <v>3</v>
@@ -7076,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="W42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
@@ -7084,13 +7084,13 @@
         <v>2311</v>
       </c>
       <c r="C43" t="s">
-        <v>288</v>
+        <v>830</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N43">
         <v>5</v>
@@ -7102,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
@@ -7128,7 +7128,7 @@
         <v>8</v>
       </c>
       <c r="W44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -7154,7 +7154,7 @@
         <v>6</v>
       </c>
       <c r="W45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
@@ -7168,7 +7168,7 @@
         <v>3</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N46">
         <v>7</v>
@@ -7180,7 +7180,7 @@
         <v>20</v>
       </c>
       <c r="W46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
@@ -7194,7 +7194,7 @@
         <v>3</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N47">
         <v>9</v>
@@ -7206,7 +7206,7 @@
         <v>30</v>
       </c>
       <c r="W47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
@@ -7232,7 +7232,7 @@
         <v>6</v>
       </c>
       <c r="W48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
@@ -7246,7 +7246,7 @@
         <v>4</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N49">
         <v>10</v>
@@ -7258,7 +7258,7 @@
         <v>20</v>
       </c>
       <c r="W49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
@@ -7272,7 +7272,7 @@
         <v>4</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N50">
         <v>7</v>
@@ -7284,7 +7284,7 @@
         <v>6</v>
       </c>
       <c r="W50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
@@ -7313,7 +7313,7 @@
         <v>1</v>
       </c>
       <c r="W51" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -7339,7 +7339,7 @@
         <v>6</v>
       </c>
       <c r="W52" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -7353,7 +7353,7 @@
         <v>5</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N53">
         <v>8</v>
@@ -7365,7 +7365,7 @@
         <v>20</v>
       </c>
       <c r="W53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -7379,7 +7379,7 @@
         <v>5</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N54">
         <v>10</v>
@@ -7391,7 +7391,7 @@
         <v>30</v>
       </c>
       <c r="W54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
@@ -7405,7 +7405,7 @@
         <v>5</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N55">
         <v>4</v>
@@ -7417,7 +7417,7 @@
         <v>5</v>
       </c>
       <c r="W55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
@@ -7431,7 +7431,7 @@
         <v>6</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N56">
         <v>10</v>
@@ -7443,7 +7443,7 @@
         <v>35</v>
       </c>
       <c r="W56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
@@ -7457,7 +7457,7 @@
         <v>6</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N57">
         <v>11</v>
@@ -7469,7 +7469,7 @@
         <v>30</v>
       </c>
       <c r="W57" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -7501,7 +7501,7 @@
         <v>1</v>
       </c>
       <c r="W58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -7515,7 +7515,7 @@
         <v>6</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N59">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         <v>12</v>
       </c>
       <c r="W59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
@@ -7541,7 +7541,7 @@
         <v>6</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N60">
         <v>11</v>
@@ -7553,7 +7553,7 @@
         <v>30</v>
       </c>
       <c r="W60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
@@ -7567,7 +7567,7 @@
         <v>7</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N61">
         <v>11</v>
@@ -7579,7 +7579,7 @@
         <v>100</v>
       </c>
       <c r="W61" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
@@ -7605,7 +7605,7 @@
         <v>8</v>
       </c>
       <c r="W62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
@@ -7619,7 +7619,7 @@
         <v>7</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N63">
         <v>16</v>
@@ -7634,7 +7634,7 @@
         <v>4</v>
       </c>
       <c r="W63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
@@ -7648,7 +7648,7 @@
         <v>7</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N64">
         <v>5</v>
@@ -7660,7 +7660,7 @@
         <v>5</v>
       </c>
       <c r="W64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
@@ -7674,7 +7674,7 @@
         <v>8</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N65">
         <v>10</v>
@@ -7686,7 +7686,7 @@
         <v>125</v>
       </c>
       <c r="W65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
@@ -7715,7 +7715,7 @@
         <v>20</v>
       </c>
       <c r="W66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
@@ -7729,7 +7729,7 @@
         <v>8</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N67">
         <v>11</v>
@@ -7741,7 +7741,7 @@
         <v>35</v>
       </c>
       <c r="W67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
@@ -7773,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="W68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
@@ -7787,7 +7787,7 @@
         <v>8</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N69">
         <v>12</v>
@@ -7799,7 +7799,7 @@
         <v>30</v>
       </c>
       <c r="W69" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
@@ -7813,7 +7813,7 @@
         <v>9</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N70">
         <v>12</v>
@@ -7825,7 +7825,7 @@
         <v>125</v>
       </c>
       <c r="W70" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
@@ -7851,7 +7851,7 @@
         <v>8</v>
       </c>
       <c r="W71" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
@@ -7865,7 +7865,7 @@
         <v>10</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N72">
         <v>11</v>
@@ -7877,7 +7877,7 @@
         <v>125</v>
       </c>
       <c r="W72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
@@ -7906,7 +7906,7 @@
         <v>40</v>
       </c>
       <c r="W73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.25">
@@ -8171,7 +8171,7 @@
         <v>2513</v>
       </c>
       <c r="C95" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N95">
         <v>0.04</v>
@@ -8386,7 +8386,7 @@
         <v>2641</v>
       </c>
       <c r="C112" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -8517,7 +8517,7 @@
         <v>2705</v>
       </c>
       <c r="C123" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O123">
         <v>2</v>
@@ -8562,7 +8562,7 @@
         <v>2713</v>
       </c>
       <c r="C126" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -8582,7 +8582,7 @@
         <v>2714</v>
       </c>
       <c r="C127" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -8722,7 +8722,7 @@
         <v>2802</v>
       </c>
       <c r="C138" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="2:25" x14ac:dyDescent="0.25">
@@ -8730,7 +8730,7 @@
         <v>2803</v>
       </c>
       <c r="C139" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="140" spans="2:25" x14ac:dyDescent="0.25">
@@ -8749,7 +8749,7 @@
         <v>2812</v>
       </c>
       <c r="C141" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E141">
         <v>2</v>
@@ -8771,7 +8771,7 @@
         <v>2822</v>
       </c>
       <c r="C143" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E143">
         <v>3</v>
@@ -8975,7 +8975,7 @@
         <v>2916</v>
       </c>
       <c r="C160" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D160" t="s">
         <v>270</v>
@@ -8986,7 +8986,7 @@
         <v>2917</v>
       </c>
       <c r="C161" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D161" t="s">
         <v>270</v>
@@ -9051,7 +9051,7 @@
         <v>2924</v>
       </c>
       <c r="C165" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D165" t="s">
         <v>276</v>
@@ -9066,7 +9066,7 @@
         <v>6</v>
       </c>
       <c r="W165" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="166" spans="2:23" x14ac:dyDescent="0.25">
@@ -9074,13 +9074,13 @@
         <v>2925</v>
       </c>
       <c r="C166" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D166" t="s">
         <v>276</v>
       </c>
       <c r="W166" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.25">
@@ -9088,7 +9088,7 @@
         <v>2926</v>
       </c>
       <c r="C167" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D167" t="s">
         <v>276</v>
@@ -9103,7 +9103,7 @@
         <v>0.02</v>
       </c>
       <c r="W167" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="168" spans="2:23" x14ac:dyDescent="0.25">
@@ -9111,7 +9111,7 @@
         <v>2927</v>
       </c>
       <c r="C168" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D168" t="s">
         <v>276</v>
@@ -9126,7 +9126,7 @@
         <v>0.02</v>
       </c>
       <c r="W168" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="169" spans="2:23" x14ac:dyDescent="0.25">
@@ -9137,7 +9137,7 @@
         <v>251</v>
       </c>
       <c r="D169" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L169" s="4">
         <v>2</v>
@@ -9151,10 +9151,10 @@
         <v>2932</v>
       </c>
       <c r="C170" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D170" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L170" s="4">
         <v>1</v>
@@ -9171,10 +9171,10 @@
         <v>2933</v>
       </c>
       <c r="C171" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D171" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L171" s="4">
         <v>1</v>
@@ -9188,10 +9188,10 @@
         <v>2941</v>
       </c>
       <c r="C172" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D172" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="173" spans="2:23" x14ac:dyDescent="0.25">
@@ -9199,10 +9199,10 @@
         <v>2942</v>
       </c>
       <c r="C173" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D173" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E173">
         <v>2</v>
@@ -9213,10 +9213,10 @@
         <v>2943</v>
       </c>
       <c r="C174" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D174" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E174">
         <v>2</v>
@@ -9227,10 +9227,10 @@
         <v>2944</v>
       </c>
       <c r="C175" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D175" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E175">
         <v>2</v>
@@ -9247,10 +9247,10 @@
         <v>2945</v>
       </c>
       <c r="C176" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D176" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E176">
         <v>2</v>
@@ -9261,10 +9261,10 @@
         <v>2946</v>
       </c>
       <c r="C177" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D177" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E177">
         <v>2</v>
@@ -9275,10 +9275,10 @@
         <v>2947</v>
       </c>
       <c r="C178" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D178" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E178">
         <v>2</v>
@@ -9289,10 +9289,10 @@
         <v>2948</v>
       </c>
       <c r="C179" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D179" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -9303,10 +9303,10 @@
         <v>2961</v>
       </c>
       <c r="C180" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D180" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="181" spans="2:14" x14ac:dyDescent="0.25">
@@ -9314,10 +9314,10 @@
         <v>2962</v>
       </c>
       <c r="C181" t="s">
+        <v>300</v>
+      </c>
+      <c r="D181" t="s">
         <v>301</v>
-      </c>
-      <c r="D181" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="182" spans="2:14" x14ac:dyDescent="0.25">
@@ -9325,10 +9325,10 @@
         <v>2963</v>
       </c>
       <c r="C182" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D182" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L182" s="4">
         <v>1</v>
@@ -9342,10 +9342,10 @@
         <v>2964</v>
       </c>
       <c r="C183" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D183" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N183">
         <v>0.04</v>
@@ -9356,10 +9356,10 @@
         <v>2965</v>
       </c>
       <c r="C184" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D184" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L184" s="4">
         <v>1</v>
@@ -9373,10 +9373,10 @@
         <v>2966</v>
       </c>
       <c r="C185" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D185" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L185" s="4">
         <v>1</v>
@@ -9390,10 +9390,10 @@
         <v>2967</v>
       </c>
       <c r="C186" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D186" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L186" s="4">
         <v>1</v>
@@ -9407,10 +9407,10 @@
         <v>2971</v>
       </c>
       <c r="C187" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D187" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="188" spans="2:14" x14ac:dyDescent="0.25">
@@ -9418,10 +9418,10 @@
         <v>2972</v>
       </c>
       <c r="C188" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D188" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L188" s="4">
         <v>1</v>
@@ -9435,10 +9435,10 @@
         <v>2973</v>
       </c>
       <c r="C189" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D189" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L189" s="4">
         <v>1</v>
@@ -9452,10 +9452,10 @@
         <v>2974</v>
       </c>
       <c r="C190" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D190" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E190">
         <v>2</v>
@@ -9469,10 +9469,10 @@
         <v>2975</v>
       </c>
       <c r="C191" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D191" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E191">
         <v>2</v>
@@ -9489,10 +9489,10 @@
         <v>2976</v>
       </c>
       <c r="C192" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D192" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -9506,10 +9506,10 @@
         <v>2977</v>
       </c>
       <c r="C193" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D193" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E193">
         <v>3</v>
@@ -9529,10 +9529,10 @@
         <v>2978</v>
       </c>
       <c r="C194" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D194" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E194">
         <v>3</v>
@@ -9549,10 +9549,10 @@
         <v>2979</v>
       </c>
       <c r="C195" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D195" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E195">
         <v>3</v>
@@ -9572,10 +9572,10 @@
         <v>2980</v>
       </c>
       <c r="C196" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D196" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E196">
         <v>4</v>
@@ -9589,10 +9589,10 @@
         <v>2981</v>
       </c>
       <c r="C197" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D197" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E197">
         <v>4</v>
@@ -9606,10 +9606,10 @@
         <v>2982</v>
       </c>
       <c r="C198" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D198" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -9623,10 +9623,10 @@
         <v>2983</v>
       </c>
       <c r="C199" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D199" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E199">
         <v>5</v>
@@ -9681,7 +9681,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9692,16 +9692,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -9712,10 +9712,10 @@
         <v>3101</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F3">
         <v>2931</v>
@@ -9727,7 +9727,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9735,10 +9735,10 @@
         <v>3102</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F4">
         <v>2931</v>
@@ -9755,10 +9755,10 @@
         <v>3103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5">
         <v>2933</v>
@@ -9775,10 +9775,10 @@
         <v>3106</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F6">
         <v>2932</v>
@@ -9795,10 +9795,10 @@
         <v>3107</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F7">
         <v>2932</v>
@@ -9815,10 +9815,10 @@
         <v>3108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -9832,10 +9832,10 @@
         <v>3111</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9">
@@ -9850,10 +9850,10 @@
         <v>3112</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10">
@@ -9871,7 +9871,7 @@
         <v>7.62</v>
       </c>
       <c r="D11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11">
@@ -9889,7 +9889,7 @@
         <v>7.62</v>
       </c>
       <c r="D12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12">
@@ -9907,7 +9907,7 @@
         <v>7.62</v>
       </c>
       <c r="D13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13">
@@ -9922,7 +9922,7 @@
         <v>7.62</v>
       </c>
       <c r="D14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14">
@@ -9934,10 +9934,10 @@
         <v>3117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15">
@@ -9949,10 +9949,10 @@
         <v>3118</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16">
@@ -9964,10 +9964,10 @@
         <v>3119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17">
@@ -9982,10 +9982,10 @@
         <v>3120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18">
@@ -10003,7 +10003,7 @@
         <v>5.56</v>
       </c>
       <c r="D19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19">
@@ -10018,7 +10018,7 @@
         <v>7.62</v>
       </c>
       <c r="D20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20">
@@ -10030,10 +10030,10 @@
         <v>3123</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21">
@@ -10048,10 +10048,10 @@
         <v>3124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22">
@@ -10069,7 +10069,7 @@
         <v>7.62</v>
       </c>
       <c r="D23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23">
@@ -10087,7 +10087,7 @@
         <v>7.62</v>
       </c>
       <c r="D24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24">
@@ -10102,10 +10102,10 @@
         <v>3127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25">
@@ -10120,10 +10120,10 @@
         <v>3128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26">
@@ -10135,10 +10135,10 @@
         <v>3129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27">
@@ -10153,10 +10153,10 @@
         <v>3130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28">
@@ -10171,10 +10171,10 @@
         <v>3131</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29">
@@ -10186,10 +10186,10 @@
         <v>3132</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30">
@@ -10201,13 +10201,13 @@
         <v>3133</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G31">
         <v>40</v>
@@ -10221,13 +10221,13 @@
         <v>3134</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G32">
         <v>60</v>
@@ -10244,7 +10244,7 @@
         <v>5.56</v>
       </c>
       <c r="D33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33">
@@ -10262,7 +10262,7 @@
         <v>5.56</v>
       </c>
       <c r="D34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34">
@@ -10277,10 +10277,10 @@
         <v>3137</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35">
@@ -10295,10 +10295,10 @@
         <v>3138</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36">
@@ -10316,7 +10316,7 @@
         <v>5.56</v>
       </c>
       <c r="D37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37">
@@ -10331,7 +10331,7 @@
         <v>5.56</v>
       </c>
       <c r="D38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -10345,13 +10345,13 @@
         <v>3201</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D40" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -10365,13 +10365,13 @@
         <v>3202</v>
       </c>
       <c r="C41" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D41" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F41" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -10422,7 +10422,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10433,13 +10433,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -10453,19 +10453,19 @@
         <v>101</v>
       </c>
       <c r="D4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="I4" t="s">
         <v>536</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="I4" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -10474,16 +10474,16 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -10492,16 +10492,16 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -10510,16 +10510,16 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
+        <v>539</v>
+      </c>
+      <c r="E7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F7" t="s">
+        <v>504</v>
+      </c>
+      <c r="I7" t="s">
         <v>540</v>
-      </c>
-      <c r="E7" t="s">
-        <v>542</v>
-      </c>
-      <c r="F7" t="s">
-        <v>505</v>
-      </c>
-      <c r="I7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -10528,16 +10528,16 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E8" t="s">
+        <v>538</v>
+      </c>
+      <c r="F8" t="s">
+        <v>505</v>
+      </c>
+      <c r="I8" t="s">
         <v>544</v>
-      </c>
-      <c r="E8" t="s">
-        <v>539</v>
-      </c>
-      <c r="F8" t="s">
-        <v>506</v>
-      </c>
-      <c r="I8" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10546,19 +10546,19 @@
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -10567,16 +10567,16 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E10" t="s">
+        <v>574</v>
+      </c>
+      <c r="F10" t="s">
+        <v>502</v>
+      </c>
+      <c r="I10" t="s">
         <v>575</v>
-      </c>
-      <c r="F10" t="s">
-        <v>503</v>
-      </c>
-      <c r="I10" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -10585,16 +10585,16 @@
         <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -10603,16 +10603,16 @@
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -10621,39 +10621,39 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
+        <v>568</v>
+      </c>
+      <c r="E13" t="s">
         <v>569</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>505</v>
+      </c>
+      <c r="I13" t="s">
         <v>570</v>
-      </c>
-      <c r="F13" t="s">
-        <v>506</v>
-      </c>
-      <c r="I13" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C15">
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -10662,19 +10662,19 @@
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -10683,19 +10683,19 @@
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -10704,19 +10704,19 @@
         <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -10725,19 +10725,19 @@
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -10746,19 +10746,19 @@
         <v>116</v>
       </c>
       <c r="D20" t="s">
+        <v>590</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="I20" t="s">
         <v>591</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="I20" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -10767,19 +10767,19 @@
         <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -10788,19 +10788,19 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G22">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -10809,19 +10809,19 @@
         <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -10830,24 +10830,24 @@
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E24" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C26">
         <v>121</v>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C32">
         <v>131</v>
@@ -10891,10 +10891,10 @@
         <v>132</v>
       </c>
       <c r="D33" t="s">
+        <v>552</v>
+      </c>
+      <c r="I33" t="s">
         <v>553</v>
-      </c>
-      <c r="I33" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -10903,7 +10903,7 @@
         <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -10912,10 +10912,10 @@
         <v>134</v>
       </c>
       <c r="D35" t="s">
+        <v>555</v>
+      </c>
+      <c r="I35" t="s">
         <v>556</v>
-      </c>
-      <c r="I35" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D952E5EE-7E2F-4F82-9C31-4DC11272AD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0290B12B-A1B4-451F-BDCA-4212435BACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -989,9 +989,6 @@
     <t>holds 30 thirst, can also throw</t>
   </si>
   <si>
-    <t>Glass</t>
-  </si>
-  <si>
     <t>Wire</t>
   </si>
   <si>
@@ -2538,6 +2535,9 @@
   </si>
   <si>
     <t>Recurve Bow</t>
+  </si>
+  <si>
+    <t>Broken Glass</t>
   </si>
 </sst>
 </file>
@@ -2953,7 +2953,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -2965,10 +2965,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2979,7 +2979,7 @@
         <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2990,7 +2990,7 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D6" t="s">
         <v>216</v>
@@ -3004,7 +3004,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3036,7 +3036,7 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,7 +3044,7 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3052,7 +3052,7 @@
         <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3068,7 +3068,7 @@
         <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3156,7 +3156,7 @@
         <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3164,7 +3164,7 @@
         <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
         <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
         <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
         <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3196,7 +3196,7 @@
         <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
         <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3220,7 +3220,7 @@
         <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3228,7 +3228,7 @@
         <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
         <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
         <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -3252,7 +3252,7 @@
         <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
         <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -3268,7 +3268,7 @@
         <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
         <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
         <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -3300,7 +3300,7 @@
         <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -3308,7 +3308,7 @@
         <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
         <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
         <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D49" t="s">
         <v>219</v>
@@ -3346,7 +3346,7 @@
         <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -3354,7 +3354,7 @@
         <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -3362,7 +3362,7 @@
         <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -3370,7 +3370,7 @@
         <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -3378,7 +3378,7 @@
         <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -3386,7 +3386,7 @@
         <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -3394,7 +3394,7 @@
         <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -3402,7 +3402,7 @@
         <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -3410,7 +3410,7 @@
         <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -3421,13 +3421,13 @@
         <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D60" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E60" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -3435,7 +3435,7 @@
         <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -3443,7 +3443,7 @@
         <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -3451,7 +3451,7 @@
         <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -3459,7 +3459,7 @@
         <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -3467,7 +3467,7 @@
         <v>306</v>
       </c>
       <c r="C65" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -3475,7 +3475,7 @@
         <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -3483,7 +3483,7 @@
         <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -3491,7 +3491,7 @@
         <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -3499,7 +3499,7 @@
         <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -3507,7 +3507,7 @@
         <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -3515,7 +3515,7 @@
         <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -3523,7 +3523,7 @@
         <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -3531,7 +3531,7 @@
         <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -3539,7 +3539,7 @@
         <v>315</v>
       </c>
       <c r="C74" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -3547,7 +3547,7 @@
         <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -3555,7 +3555,7 @@
         <v>317</v>
       </c>
       <c r="C76" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -3563,7 +3563,7 @@
         <v>318</v>
       </c>
       <c r="C77" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -3571,7 +3571,7 @@
         <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -3579,7 +3579,7 @@
         <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -3587,7 +3587,7 @@
         <v>321</v>
       </c>
       <c r="C80" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -3595,7 +3595,7 @@
         <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -3603,7 +3603,7 @@
         <v>323</v>
       </c>
       <c r="C82" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -3611,7 +3611,7 @@
         <v>324</v>
       </c>
       <c r="C83" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -3644,7 +3644,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3655,393 +3655,393 @@
         <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C15" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" t="s">
+        <v>648</v>
+      </c>
+      <c r="D19" t="s">
         <v>649</v>
-      </c>
-      <c r="D19" t="s">
-        <v>650</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D20" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" t="s">
+        <v>640</v>
+      </c>
+      <c r="D21" t="s">
         <v>641</v>
-      </c>
-      <c r="D21" t="s">
-        <v>642</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D24" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
+        <v>821</v>
+      </c>
+      <c r="G32" t="s">
         <v>822</v>
-      </c>
-      <c r="G32" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -4178,7 +4178,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -4193,7 +4193,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>220</v>
@@ -4216,10 +4216,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4230,13 +4230,13 @@
         <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4250,7 +4250,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4261,13 +4261,13 @@
         <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4289,7 +4289,7 @@
         <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>230</v>
@@ -4298,10 +4298,10 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4319,7 +4319,7 @@
         <v>239</v>
       </c>
       <c r="H12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4330,7 +4330,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="H13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4338,16 +4338,16 @@
         <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H14" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4355,7 +4355,7 @@
         <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4363,7 +4363,7 @@
         <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -4371,7 +4371,7 @@
         <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -4379,10 +4379,10 @@
         <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -4396,10 +4396,10 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -4407,7 +4407,7 @@
         <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -4415,7 +4415,7 @@
         <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -4423,7 +4423,7 @@
         <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -4431,16 +4431,16 @@
         <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H23" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4448,7 +4448,7 @@
         <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -4459,7 +4459,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4470,7 +4470,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -4484,10 +4484,10 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H27" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -4495,7 +4495,7 @@
         <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -4503,7 +4503,7 @@
         <v>133</v>
       </c>
       <c r="H29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -4511,7 +4511,7 @@
         <v>134</v>
       </c>
       <c r="H30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -4525,10 +4525,10 @@
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H31" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -4536,7 +4536,7 @@
         <v>142</v>
       </c>
       <c r="H32" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -4544,7 +4544,7 @@
         <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D33" t="s">
         <v>232</v>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H33" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -4564,7 +4564,7 @@
         <v>152</v>
       </c>
       <c r="H34" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -4572,7 +4572,7 @@
         <v>153</v>
       </c>
       <c r="H35" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -4580,7 +4580,7 @@
         <v>154</v>
       </c>
       <c r="H36" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -4588,10 +4588,10 @@
         <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H37" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -4599,7 +4599,7 @@
         <v>156</v>
       </c>
       <c r="H38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -4607,7 +4607,7 @@
         <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -4615,7 +4615,7 @@
         <v>158</v>
       </c>
       <c r="H40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -4696,7 +4696,7 @@
         <v>238</v>
       </c>
       <c r="D46" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -4716,10 +4716,10 @@
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H47" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -4733,7 +4733,7 @@
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -4755,7 +4755,7 @@
         <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -4870,16 +4870,16 @@
         <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E58">
         <v>5</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H58" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -4887,7 +4887,7 @@
         <v>192</v>
       </c>
       <c r="H59" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -4895,10 +4895,10 @@
         <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H60" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -4906,7 +4906,7 @@
         <v>194</v>
       </c>
       <c r="H61" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -4917,13 +4917,13 @@
         <v>224</v>
       </c>
       <c r="D62" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -4940,27 +4940,27 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C64" t="s">
         <v>250</v>
       </c>
       <c r="D64" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E64">
         <v>7</v>
       </c>
       <c r="G64" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="H64" t="s">
         <v>800</v>
-      </c>
-      <c r="H64" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C65" t="s">
         <v>249</v>
@@ -4969,10 +4969,10 @@
         <v>9</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H65" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4983,16 +4983,16 @@
         <v>254</v>
       </c>
       <c r="D66" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H66" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -5001,12 +5001,12 @@
       </c>
       <c r="G67" s="9"/>
       <c r="H67" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C69" t="s">
         <v>218</v>
@@ -5018,10 +5018,10 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
+        <v>760</v>
+      </c>
+      <c r="H69" t="s">
         <v>761</v>
-      </c>
-      <c r="H69" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -5032,10 +5032,10 @@
         <v>223</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H70" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -5043,7 +5043,7 @@
         <v>312</v>
       </c>
       <c r="H71" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -5051,19 +5051,19 @@
         <v>321</v>
       </c>
       <c r="C72" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D72" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H72" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -5074,10 +5074,10 @@
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H73" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -5085,10 +5085,10 @@
         <v>323</v>
       </c>
       <c r="G74" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H74" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5100,16 +5100,16 @@
         <v>222</v>
       </c>
       <c r="D75" t="s">
+        <v>780</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>767</v>
+      </c>
+      <c r="H75" t="s">
         <v>781</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>768</v>
-      </c>
-      <c r="H75" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5118,7 +5118,7 @@
         <v>332</v>
       </c>
       <c r="H76" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5127,7 +5127,7 @@
         <v>333</v>
       </c>
       <c r="H77" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5136,7 +5136,7 @@
         <v>334</v>
       </c>
       <c r="H78" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5145,7 +5145,7 @@
         <v>335</v>
       </c>
       <c r="H79" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5154,7 +5154,7 @@
         <v>336</v>
       </c>
       <c r="H80" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5163,7 +5163,7 @@
         <v>337</v>
       </c>
       <c r="H81" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -5172,7 +5172,7 @@
         <v>338</v>
       </c>
       <c r="H82" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5181,16 +5181,16 @@
         <v>339</v>
       </c>
       <c r="C83" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E83">
         <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H83" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5199,7 +5199,7 @@
         <v>340</v>
       </c>
       <c r="H84" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5208,7 +5208,7 @@
         <v>341</v>
       </c>
       <c r="H85" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5217,7 +5217,7 @@
         <v>342</v>
       </c>
       <c r="H86" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5226,13 +5226,13 @@
         <v>343</v>
       </c>
       <c r="C87" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G87" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H87" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -5241,7 +5241,7 @@
         <v>344</v>
       </c>
       <c r="H88" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5250,7 +5250,7 @@
         <v>345</v>
       </c>
       <c r="H89" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5259,7 +5259,7 @@
         <v>346</v>
       </c>
       <c r="H90" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -5284,7 +5284,7 @@
         <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>303</v>
       </c>
       <c r="H93" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -5304,7 +5304,7 @@
         <v>304</v>
       </c>
       <c r="H94" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -5312,13 +5312,13 @@
         <v>421</v>
       </c>
       <c r="C95" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E95">
         <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -5326,7 +5326,7 @@
         <v>422</v>
       </c>
       <c r="C96" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -5334,7 +5334,7 @@
         <v>423</v>
       </c>
       <c r="C97" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -5342,7 +5342,7 @@
         <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -5350,7 +5350,7 @@
         <v>425</v>
       </c>
       <c r="C99" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E99">
         <v>35</v>
@@ -5378,10 +5378,10 @@
         <v>5</v>
       </c>
       <c r="G101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H101" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -5389,7 +5389,7 @@
         <v>442</v>
       </c>
       <c r="H102" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -5397,7 +5397,7 @@
         <v>443</v>
       </c>
       <c r="H103" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
@@ -5483,7 +5483,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5542,13 +5542,13 @@
         <v>1001</v>
       </c>
       <c r="C3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" t="s">
         <v>414</v>
       </c>
-      <c r="D3" t="s">
-        <v>415</v>
-      </c>
       <c r="E3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5565,13 +5565,13 @@
         <v>1002</v>
       </c>
       <c r="C4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D4" t="s">
         <v>816</v>
       </c>
-      <c r="D4" t="s">
-        <v>817</v>
-      </c>
       <c r="E4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5585,7 +5585,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -5614,10 +5614,10 @@
         <v>1102</v>
       </c>
       <c r="C7" t="s">
+        <v>479</v>
+      </c>
+      <c r="E7" t="s">
         <v>480</v>
-      </c>
-      <c r="E7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -5625,10 +5625,10 @@
         <v>1103</v>
       </c>
       <c r="C8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5636,10 +5636,10 @@
         <v>1104</v>
       </c>
       <c r="C9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -5647,10 +5647,10 @@
         <v>1105</v>
       </c>
       <c r="C10" t="s">
+        <v>817</v>
+      </c>
+      <c r="E10" t="s">
         <v>818</v>
-      </c>
-      <c r="E10" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -5658,10 +5658,10 @@
         <v>1106</v>
       </c>
       <c r="C11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -5669,10 +5669,10 @@
         <v>1116</v>
       </c>
       <c r="C12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -5680,10 +5680,10 @@
         <v>1117</v>
       </c>
       <c r="C13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -5691,10 +5691,10 @@
         <v>1118</v>
       </c>
       <c r="C14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -5702,10 +5702,10 @@
         <v>1119</v>
       </c>
       <c r="C15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -5713,10 +5713,10 @@
         <v>1120</v>
       </c>
       <c r="C16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -6044,27 +6044,27 @@
     </row>
     <row r="3" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>450</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -6076,16 +6076,16 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -6093,27 +6093,27 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -6121,13 +6121,13 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -6135,159 +6135,159 @@
         <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -6295,125 +6295,125 @@
         <v>205</v>
       </c>
       <c r="C22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D22" t="s">
         <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E33" t="s">
+        <v>532</v>
+      </c>
+      <c r="F33" t="s">
         <v>533</v>
-      </c>
-      <c r="F33" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C34" t="s">
         <v>558</v>
-      </c>
-      <c r="C34" t="s">
-        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -6430,10 +6430,10 @@
   <dimension ref="A1:Y202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomRight" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6528,10 +6528,10 @@
         <v>7</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>9</v>
@@ -6601,7 +6601,7 @@
         <v>2105</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -7067,7 +7067,7 @@
         <v>30</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N42">
         <v>3</v>
@@ -7076,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="W42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
@@ -7084,13 +7084,13 @@
         <v>2311</v>
       </c>
       <c r="C43" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N43">
         <v>5</v>
@@ -7102,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
@@ -7128,7 +7128,7 @@
         <v>8</v>
       </c>
       <c r="W44" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -7154,7 +7154,7 @@
         <v>6</v>
       </c>
       <c r="W45" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
@@ -7168,7 +7168,7 @@
         <v>3</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N46">
         <v>7</v>
@@ -7180,7 +7180,7 @@
         <v>20</v>
       </c>
       <c r="W46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
@@ -7194,7 +7194,7 @@
         <v>3</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N47">
         <v>9</v>
@@ -7206,7 +7206,7 @@
         <v>30</v>
       </c>
       <c r="W47" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
@@ -7232,7 +7232,7 @@
         <v>6</v>
       </c>
       <c r="W48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
@@ -7246,7 +7246,7 @@
         <v>4</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N49">
         <v>10</v>
@@ -7258,7 +7258,7 @@
         <v>20</v>
       </c>
       <c r="W49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
@@ -7272,7 +7272,7 @@
         <v>4</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N50">
         <v>7</v>
@@ -7284,7 +7284,7 @@
         <v>6</v>
       </c>
       <c r="W50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
@@ -7313,7 +7313,7 @@
         <v>1</v>
       </c>
       <c r="W51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -7339,7 +7339,7 @@
         <v>6</v>
       </c>
       <c r="W52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -7353,7 +7353,7 @@
         <v>5</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N53">
         <v>8</v>
@@ -7365,7 +7365,7 @@
         <v>20</v>
       </c>
       <c r="W53" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -7379,7 +7379,7 @@
         <v>5</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N54">
         <v>10</v>
@@ -7391,7 +7391,7 @@
         <v>30</v>
       </c>
       <c r="W54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
@@ -7405,7 +7405,7 @@
         <v>5</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N55">
         <v>4</v>
@@ -7417,7 +7417,7 @@
         <v>5</v>
       </c>
       <c r="W55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
@@ -7431,7 +7431,7 @@
         <v>6</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N56">
         <v>10</v>
@@ -7443,7 +7443,7 @@
         <v>35</v>
       </c>
       <c r="W56" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
@@ -7457,7 +7457,7 @@
         <v>6</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N57">
         <v>11</v>
@@ -7469,7 +7469,7 @@
         <v>30</v>
       </c>
       <c r="W57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -7501,7 +7501,7 @@
         <v>1</v>
       </c>
       <c r="W58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -7515,7 +7515,7 @@
         <v>6</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N59">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         <v>12</v>
       </c>
       <c r="W59" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
@@ -7541,7 +7541,7 @@
         <v>6</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N60">
         <v>11</v>
@@ -7553,7 +7553,7 @@
         <v>30</v>
       </c>
       <c r="W60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
@@ -7567,7 +7567,7 @@
         <v>7</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N61">
         <v>11</v>
@@ -7579,7 +7579,7 @@
         <v>100</v>
       </c>
       <c r="W61" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
@@ -7605,7 +7605,7 @@
         <v>8</v>
       </c>
       <c r="W62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
@@ -7619,7 +7619,7 @@
         <v>7</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N63">
         <v>16</v>
@@ -7634,7 +7634,7 @@
         <v>4</v>
       </c>
       <c r="W63" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
@@ -7648,7 +7648,7 @@
         <v>7</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N64">
         <v>5</v>
@@ -7660,7 +7660,7 @@
         <v>5</v>
       </c>
       <c r="W64" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
@@ -7674,7 +7674,7 @@
         <v>8</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N65">
         <v>10</v>
@@ -7686,7 +7686,7 @@
         <v>125</v>
       </c>
       <c r="W65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
@@ -7715,7 +7715,7 @@
         <v>20</v>
       </c>
       <c r="W66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
@@ -7729,7 +7729,7 @@
         <v>8</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N67">
         <v>11</v>
@@ -7741,7 +7741,7 @@
         <v>35</v>
       </c>
       <c r="W67" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
@@ -7773,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="W68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
@@ -7787,7 +7787,7 @@
         <v>8</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N69">
         <v>12</v>
@@ -7799,7 +7799,7 @@
         <v>30</v>
       </c>
       <c r="W69" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
@@ -7813,7 +7813,7 @@
         <v>9</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N70">
         <v>12</v>
@@ -7825,7 +7825,7 @@
         <v>125</v>
       </c>
       <c r="W70" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
@@ -7851,7 +7851,7 @@
         <v>8</v>
       </c>
       <c r="W71" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
@@ -7865,7 +7865,7 @@
         <v>10</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N72">
         <v>11</v>
@@ -7877,7 +7877,7 @@
         <v>125</v>
       </c>
       <c r="W72" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
@@ -7906,7 +7906,7 @@
         <v>40</v>
       </c>
       <c r="W73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.25">
@@ -8171,7 +8171,7 @@
         <v>2513</v>
       </c>
       <c r="C95" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N95">
         <v>0.04</v>
@@ -8386,7 +8386,7 @@
         <v>2641</v>
       </c>
       <c r="C112" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -8517,7 +8517,7 @@
         <v>2705</v>
       </c>
       <c r="C123" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O123">
         <v>2</v>
@@ -8562,7 +8562,7 @@
         <v>2713</v>
       </c>
       <c r="C126" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -8582,7 +8582,7 @@
         <v>2714</v>
       </c>
       <c r="C127" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -8722,7 +8722,7 @@
         <v>2802</v>
       </c>
       <c r="C138" t="s">
-        <v>314</v>
+        <v>830</v>
       </c>
     </row>
     <row r="139" spans="2:25" x14ac:dyDescent="0.25">
@@ -8730,7 +8730,7 @@
         <v>2803</v>
       </c>
       <c r="C139" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="2:25" x14ac:dyDescent="0.25">
@@ -8749,7 +8749,7 @@
         <v>2812</v>
       </c>
       <c r="C141" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E141">
         <v>2</v>
@@ -8771,7 +8771,7 @@
         <v>2822</v>
       </c>
       <c r="C143" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E143">
         <v>3</v>
@@ -8986,7 +8986,7 @@
         <v>2917</v>
       </c>
       <c r="C161" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D161" t="s">
         <v>270</v>
@@ -9188,7 +9188,7 @@
         <v>2941</v>
       </c>
       <c r="C172" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D172" t="s">
         <v>293</v>
@@ -9199,7 +9199,7 @@
         <v>2942</v>
       </c>
       <c r="C173" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D173" t="s">
         <v>293</v>
@@ -9213,7 +9213,7 @@
         <v>2943</v>
       </c>
       <c r="C174" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D174" t="s">
         <v>293</v>
@@ -9227,7 +9227,7 @@
         <v>2944</v>
       </c>
       <c r="C175" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D175" t="s">
         <v>293</v>
@@ -9247,7 +9247,7 @@
         <v>2945</v>
       </c>
       <c r="C176" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D176" t="s">
         <v>293</v>
@@ -9261,7 +9261,7 @@
         <v>2946</v>
       </c>
       <c r="C177" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D177" t="s">
         <v>293</v>
@@ -9275,7 +9275,7 @@
         <v>2947</v>
       </c>
       <c r="C178" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D178" t="s">
         <v>293</v>
@@ -9289,7 +9289,7 @@
         <v>2948</v>
       </c>
       <c r="C179" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D179" t="s">
         <v>293</v>
@@ -9325,7 +9325,7 @@
         <v>2963</v>
       </c>
       <c r="C182" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D182" t="s">
         <v>301</v>
@@ -9342,7 +9342,7 @@
         <v>2964</v>
       </c>
       <c r="C183" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D183" t="s">
         <v>301</v>
@@ -9356,7 +9356,7 @@
         <v>2965</v>
       </c>
       <c r="C184" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D184" t="s">
         <v>301</v>
@@ -9373,7 +9373,7 @@
         <v>2966</v>
       </c>
       <c r="C185" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D185" t="s">
         <v>301</v>
@@ -9390,7 +9390,7 @@
         <v>2967</v>
       </c>
       <c r="C186" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D186" t="s">
         <v>301</v>
@@ -9407,10 +9407,10 @@
         <v>2971</v>
       </c>
       <c r="C187" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D187" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="188" spans="2:14" x14ac:dyDescent="0.25">
@@ -9418,10 +9418,10 @@
         <v>2972</v>
       </c>
       <c r="C188" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D188" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L188" s="4">
         <v>1</v>
@@ -9435,10 +9435,10 @@
         <v>2973</v>
       </c>
       <c r="C189" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D189" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L189" s="4">
         <v>1</v>
@@ -9452,10 +9452,10 @@
         <v>2974</v>
       </c>
       <c r="C190" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D190" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E190">
         <v>2</v>
@@ -9469,10 +9469,10 @@
         <v>2975</v>
       </c>
       <c r="C191" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D191" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E191">
         <v>2</v>
@@ -9489,10 +9489,10 @@
         <v>2976</v>
       </c>
       <c r="C192" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D192" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -9506,10 +9506,10 @@
         <v>2977</v>
       </c>
       <c r="C193" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D193" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E193">
         <v>3</v>
@@ -9529,10 +9529,10 @@
         <v>2978</v>
       </c>
       <c r="C194" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D194" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E194">
         <v>3</v>
@@ -9549,10 +9549,10 @@
         <v>2979</v>
       </c>
       <c r="C195" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D195" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E195">
         <v>3</v>
@@ -9572,10 +9572,10 @@
         <v>2980</v>
       </c>
       <c r="C196" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D196" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E196">
         <v>4</v>
@@ -9589,10 +9589,10 @@
         <v>2981</v>
       </c>
       <c r="C197" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D197" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E197">
         <v>4</v>
@@ -9606,10 +9606,10 @@
         <v>2982</v>
       </c>
       <c r="C198" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D198" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -9623,10 +9623,10 @@
         <v>2983</v>
       </c>
       <c r="C199" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D199" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E199">
         <v>5</v>
@@ -9701,7 +9701,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -9727,7 +9727,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9755,7 +9755,7 @@
         <v>3103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D5" t="s">
         <v>292</v>
@@ -9815,7 +9815,7 @@
         <v>3108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D8" t="s">
         <v>292</v>
@@ -9832,10 +9832,10 @@
         <v>3111</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9">
@@ -9850,10 +9850,10 @@
         <v>3112</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10">
@@ -9871,7 +9871,7 @@
         <v>7.62</v>
       </c>
       <c r="D11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11">
@@ -9889,7 +9889,7 @@
         <v>7.62</v>
       </c>
       <c r="D12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12">
@@ -9907,7 +9907,7 @@
         <v>7.62</v>
       </c>
       <c r="D13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13">
@@ -9922,7 +9922,7 @@
         <v>7.62</v>
       </c>
       <c r="D14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14">
@@ -9934,10 +9934,10 @@
         <v>3117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15">
@@ -9949,10 +9949,10 @@
         <v>3118</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16">
@@ -9964,10 +9964,10 @@
         <v>3119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17">
@@ -9982,10 +9982,10 @@
         <v>3120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18">
@@ -10003,7 +10003,7 @@
         <v>5.56</v>
       </c>
       <c r="D19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19">
@@ -10018,7 +10018,7 @@
         <v>7.62</v>
       </c>
       <c r="D20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20">
@@ -10030,10 +10030,10 @@
         <v>3123</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21">
@@ -10048,10 +10048,10 @@
         <v>3124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22">
@@ -10069,7 +10069,7 @@
         <v>7.62</v>
       </c>
       <c r="D23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23">
@@ -10087,7 +10087,7 @@
         <v>7.62</v>
       </c>
       <c r="D24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24">
@@ -10102,10 +10102,10 @@
         <v>3127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25">
@@ -10120,10 +10120,10 @@
         <v>3128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26">
@@ -10135,10 +10135,10 @@
         <v>3129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27">
@@ -10153,10 +10153,10 @@
         <v>3130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28">
@@ -10171,10 +10171,10 @@
         <v>3131</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29">
@@ -10186,10 +10186,10 @@
         <v>3132</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30">
@@ -10201,13 +10201,13 @@
         <v>3133</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G31">
         <v>40</v>
@@ -10221,13 +10221,13 @@
         <v>3134</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G32">
         <v>60</v>
@@ -10244,7 +10244,7 @@
         <v>5.56</v>
       </c>
       <c r="D33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33">
@@ -10262,7 +10262,7 @@
         <v>5.56</v>
       </c>
       <c r="D34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34">
@@ -10277,10 +10277,10 @@
         <v>3137</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35">
@@ -10295,10 +10295,10 @@
         <v>3138</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36">
@@ -10316,7 +10316,7 @@
         <v>5.56</v>
       </c>
       <c r="D37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37">
@@ -10331,7 +10331,7 @@
         <v>5.56</v>
       </c>
       <c r="D38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -10345,13 +10345,13 @@
         <v>3201</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -10365,13 +10365,13 @@
         <v>3202</v>
       </c>
       <c r="C41" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D41" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -10422,7 +10422,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10433,13 +10433,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -10453,19 +10453,19 @@
         <v>101</v>
       </c>
       <c r="D4" t="s">
+        <v>534</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="I4" t="s">
         <v>535</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="I4" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -10474,16 +10474,16 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -10492,16 +10492,16 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -10510,16 +10510,16 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F7" t="s">
+        <v>503</v>
+      </c>
+      <c r="I7" t="s">
         <v>539</v>
-      </c>
-      <c r="E7" t="s">
-        <v>541</v>
-      </c>
-      <c r="F7" t="s">
-        <v>504</v>
-      </c>
-      <c r="I7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -10528,16 +10528,16 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
+        <v>542</v>
+      </c>
+      <c r="E8" t="s">
+        <v>537</v>
+      </c>
+      <c r="F8" t="s">
+        <v>504</v>
+      </c>
+      <c r="I8" t="s">
         <v>543</v>
-      </c>
-      <c r="E8" t="s">
-        <v>538</v>
-      </c>
-      <c r="F8" t="s">
-        <v>505</v>
-      </c>
-      <c r="I8" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10546,19 +10546,19 @@
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -10567,16 +10567,16 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E10" t="s">
+        <v>573</v>
+      </c>
+      <c r="F10" t="s">
+        <v>501</v>
+      </c>
+      <c r="I10" t="s">
         <v>574</v>
-      </c>
-      <c r="F10" t="s">
-        <v>502</v>
-      </c>
-      <c r="I10" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -10585,16 +10585,16 @@
         <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -10603,16 +10603,16 @@
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -10621,39 +10621,39 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
+        <v>567</v>
+      </c>
+      <c r="E13" t="s">
         <v>568</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>504</v>
+      </c>
+      <c r="I13" t="s">
         <v>569</v>
-      </c>
-      <c r="F13" t="s">
-        <v>505</v>
-      </c>
-      <c r="I13" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C15">
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -10662,19 +10662,19 @@
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -10683,19 +10683,19 @@
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -10704,19 +10704,19 @@
         <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -10725,19 +10725,19 @@
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -10746,19 +10746,19 @@
         <v>116</v>
       </c>
       <c r="D20" t="s">
+        <v>589</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="I20" t="s">
         <v>590</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="I20" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -10767,19 +10767,19 @@
         <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -10788,19 +10788,19 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G22">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -10809,19 +10809,19 @@
         <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F23" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -10830,24 +10830,24 @@
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C26">
         <v>121</v>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C32">
         <v>131</v>
@@ -10891,10 +10891,10 @@
         <v>132</v>
       </c>
       <c r="D33" t="s">
+        <v>551</v>
+      </c>
+      <c r="I33" t="s">
         <v>552</v>
-      </c>
-      <c r="I33" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -10903,7 +10903,7 @@
         <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -10912,10 +10912,10 @@
         <v>134</v>
       </c>
       <c r="D35" t="s">
+        <v>554</v>
+      </c>
+      <c r="I35" t="s">
         <v>555</v>
-      </c>
-      <c r="I35" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C25D3A-4973-4B3D-A568-9EA9A329301C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACCDACB-62D0-4013-BDFA-1C58BCFBEA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="6" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -16250,7 +16250,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACCDACB-62D0-4013-BDFA-1C58BCFBEA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C53545-765D-4B5D-A90E-0B8920A40AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="6" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="1" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrains" sheetId="13" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="838">
   <si>
     <t>ID</t>
   </si>
@@ -2557,6 +2557,9 @@
   </si>
   <si>
     <t>max frame</t>
+  </si>
+  <si>
+    <t>Tree, pine</t>
   </si>
 </sst>
 </file>
@@ -10018,10 +10021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11216,118 +11219,129 @@
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="4">
+        <v>426</v>
+      </c>
+      <c r="C100" t="s">
+        <v>837</v>
+      </c>
+      <c r="E100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="4">
         <v>431</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>251</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="3">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="3">
         <v>441</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>252</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <v>5</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G102" t="s">
         <v>341</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H102" t="s">
         <v>808</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="4">
-        <v>442</v>
-      </c>
-      <c r="H102" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="4">
+        <v>442</v>
+      </c>
+      <c r="H103" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="4">
         <v>443</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H104" t="s">
         <v>810</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="4">
-        <v>501</v>
-      </c>
-      <c r="C105" t="s">
-        <v>256</v>
-      </c>
-      <c r="D105" t="s">
-        <v>255</v>
-      </c>
-      <c r="E105">
-        <v>5</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C106" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="D106" t="s">
+        <v>255</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="4">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="4">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C108" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="4">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C109" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="4">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
-      </c>
-      <c r="E110">
-        <v>9</v>
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="4">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="E111">
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="4">
+        <v>512</v>
+      </c>
+      <c r="C112" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="4">
         <v>513</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>263</v>
       </c>
     </row>
@@ -16249,7 +16263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CBCF6E-AD46-4C01-9700-4E08CEE8B938}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C53545-765D-4B5D-A90E-0B8920A40AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B99E38-8216-46B3-B860-1709BD4F3950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="1" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="4" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrains" sheetId="13" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="HeroTree" sheetId="11" r:id="rId11"/>
     <sheet name="Conditions" sheetId="5" r:id="rId12"/>
     <sheet name="Effects" sheetId="6" r:id="rId13"/>
+    <sheet name="Crafting" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="888">
   <si>
     <t>ID</t>
   </si>
@@ -990,6 +991,9 @@
     <t>holds 30 thirst, can also throw</t>
   </si>
   <si>
+    <t>Glass</t>
+  </si>
+  <si>
     <t>Wire</t>
   </si>
   <si>
@@ -2560,13 +2564,612 @@
   </si>
   <si>
     <t>Tree, pine</t>
+  </si>
+  <si>
+    <t>Talc's unique properties make it an important ingredient for making ceramics, paint, paper, roofing materials, plastics, rubber, insecticides, and many other products</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <r>
+      <t>Mg</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Si</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(OH)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CaSO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·2H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CaCO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CaF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ca</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(PO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(OH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Cl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KAlSi</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SiO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Al</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SiO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(OH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Al</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Soapstone</t>
+  </si>
+  <si>
+    <t>widely mined and is used as a fertilizer and as the main constituent in many forms of plaster, blackboard/sidewalk chalk, and drywall. A massive fine-grained white or lightly tinted variety of gypsum, called alabaster, has been used for sculpture, also as food additive (source of calcium) in the east</t>
+  </si>
+  <si>
+    <t>The "ubiquitous" metal, found everywhere. High-grade optical calcite was used in World War II for gun sights, specifically in bomb sights and anti-aircraft weaponry. Also, experiments have been conducted to use calcite for a cloak of invisibility. Microbiologically precipitated calcite has a wide range of applications, such as soil remediation, soil stabilization and concrete repair.</t>
+  </si>
+  <si>
+    <t>Other Names/Derivatives</t>
+  </si>
+  <si>
+    <t>Aragonite, Vaterite, Iceland Spar</t>
+  </si>
+  <si>
+    <t>Alabaster, Selenite</t>
+  </si>
+  <si>
+    <t>Talc Ore</t>
+  </si>
+  <si>
+    <t>Talc Crystal</t>
+  </si>
+  <si>
+    <t>Talc Powder</t>
+  </si>
+  <si>
+    <t>Gypsum Ore</t>
+  </si>
+  <si>
+    <t>Gypsum Crystal</t>
+  </si>
+  <si>
+    <t>Gypsum Powder</t>
+  </si>
+  <si>
+    <t>Calcite Ore</t>
+  </si>
+  <si>
+    <t>Calcite Crystal</t>
+  </si>
+  <si>
+    <t>Iceland Spar</t>
+  </si>
+  <si>
+    <t>Chalk</t>
+  </si>
+  <si>
+    <t>Fluorite Ore</t>
+  </si>
+  <si>
+    <t>Fluorite Crystal</t>
+  </si>
+  <si>
+    <t>Apatite Crystal</t>
+  </si>
+  <si>
+    <t>Apatite Ore</t>
+  </si>
+  <si>
+    <t>Orthoclase Ore</t>
+  </si>
+  <si>
+    <t>Moonstone</t>
+  </si>
+  <si>
+    <t>Quartz Ore</t>
+  </si>
+  <si>
+    <t>Topaz Ore</t>
+  </si>
+  <si>
+    <t>Corundum Ore</t>
+  </si>
+  <si>
+    <t>Diamond Ore</t>
+  </si>
+  <si>
+    <t>Orthoclase Chunk</t>
+  </si>
+  <si>
+    <t>Quartz Crystal</t>
+  </si>
+  <si>
+    <t>Amethyst</t>
+  </si>
+  <si>
+    <t>Can make amethyst and glass</t>
+  </si>
+  <si>
+    <t>Can make glass and topaz gem</t>
+  </si>
+  <si>
+    <t>Topaz Chunk</t>
+  </si>
+  <si>
+    <t>Can make sandpaper, ruby, sapphire</t>
+  </si>
+  <si>
+    <t>Corundum Chunk</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Selenite Crystal</t>
+  </si>
+  <si>
+    <t>Topaz Gem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2578,6 +3181,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2600,10 +3227,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2643,8 +3271,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2959,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF2113E-D79E-4CB9-ADC9-BF3629B5384A}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -2987,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3001,7 +3631,7 @@
         <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3012,7 +3642,7 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D6" t="s">
         <v>216</v>
@@ -3026,7 +3656,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3034,7 +3664,7 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3042,7 +3672,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3050,7 +3680,7 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3058,7 +3688,7 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3066,7 +3696,7 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3074,7 +3704,7 @@
         <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3082,7 +3712,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3090,7 +3720,7 @@
         <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3106,7 +3736,7 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3114,7 +3744,7 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3122,7 +3752,7 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3130,7 +3760,7 @@
         <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3138,7 +3768,7 @@
         <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3146,7 +3776,7 @@
         <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3154,7 +3784,7 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -3162,7 +3792,7 @@
         <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3170,7 +3800,7 @@
         <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3178,7 +3808,7 @@
         <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3186,7 +3816,7 @@
         <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3194,7 +3824,7 @@
         <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3202,7 +3832,7 @@
         <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3210,7 +3840,7 @@
         <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3218,7 +3848,7 @@
         <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3226,7 +3856,7 @@
         <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -3234,7 +3864,7 @@
         <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3242,7 +3872,7 @@
         <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3250,7 +3880,7 @@
         <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3258,7 +3888,7 @@
         <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3266,7 +3896,7 @@
         <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -3274,7 +3904,7 @@
         <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -3282,7 +3912,7 @@
         <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -3290,7 +3920,7 @@
         <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -3298,7 +3928,7 @@
         <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -3306,7 +3936,7 @@
         <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -3314,7 +3944,7 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -3322,7 +3952,7 @@
         <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -3330,7 +3960,7 @@
         <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -3338,7 +3968,7 @@
         <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -3346,7 +3976,7 @@
         <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -3354,7 +3984,7 @@
         <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D49" t="s">
         <v>219</v>
@@ -3368,7 +3998,7 @@
         <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -3376,7 +4006,7 @@
         <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -3384,7 +4014,7 @@
         <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -3392,7 +4022,7 @@
         <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -3400,7 +4030,7 @@
         <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -3408,7 +4038,7 @@
         <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -3416,7 +4046,7 @@
         <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -3424,7 +4054,7 @@
         <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -3432,7 +4062,7 @@
         <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -3443,13 +4073,13 @@
         <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D60" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E60" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -3457,7 +4087,7 @@
         <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -3465,7 +4095,7 @@
         <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -3473,7 +4103,7 @@
         <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -3481,7 +4111,7 @@
         <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -3489,7 +4119,7 @@
         <v>306</v>
       </c>
       <c r="C65" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -3497,7 +4127,7 @@
         <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -3505,7 +4135,7 @@
         <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -3513,7 +4143,7 @@
         <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -3521,7 +4151,7 @@
         <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -3529,7 +4159,7 @@
         <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -3537,7 +4167,7 @@
         <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -3545,7 +4175,7 @@
         <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -3553,7 +4183,7 @@
         <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -3561,7 +4191,7 @@
         <v>315</v>
       </c>
       <c r="C74" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -3569,7 +4199,7 @@
         <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -3577,7 +4207,7 @@
         <v>317</v>
       </c>
       <c r="C76" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -3585,7 +4215,7 @@
         <v>318</v>
       </c>
       <c r="C77" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -3593,7 +4223,7 @@
         <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -3601,7 +4231,7 @@
         <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -3609,7 +4239,7 @@
         <v>321</v>
       </c>
       <c r="C80" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -3617,7 +4247,7 @@
         <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -3625,7 +4255,7 @@
         <v>323</v>
       </c>
       <c r="C82" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -3633,7 +4263,7 @@
         <v>324</v>
       </c>
       <c r="C83" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -9505,7 +10135,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9516,393 +10146,393 @@
         <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G5" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D11" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G11" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D12" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G12" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G13" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C15" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D15" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D16" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D17" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G17" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D19" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D20" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G20" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" t="s">
+        <v>653</v>
+      </c>
+      <c r="D24" t="s">
         <v>652</v>
-      </c>
-      <c r="D24" t="s">
-        <v>651</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G32" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -10019,12 +10649,156 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB578E3F-B349-4E0B-84D4-8A532F346B44}">
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="150.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>851</v>
+      </c>
+      <c r="D3" t="s">
+        <v>841</v>
+      </c>
+      <c r="E3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>856</v>
+      </c>
+      <c r="D4" t="s">
+        <v>842</v>
+      </c>
+      <c r="E4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>855</v>
+      </c>
+      <c r="D5" t="s">
+        <v>843</v>
+      </c>
+      <c r="E5" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>845</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>847</v>
+      </c>
+      <c r="E9" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>848</v>
+      </c>
+      <c r="E10" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>849</v>
+      </c>
+      <c r="E11" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
+        <v>850</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10039,7 +10813,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -10054,7 +10828,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>220</v>
@@ -10077,10 +10851,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -10091,13 +10865,13 @@
         <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -10111,7 +10885,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -10122,13 +10896,13 @@
         <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10150,7 +10924,7 @@
         <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>230</v>
@@ -10159,10 +10933,10 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H11" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -10180,7 +10954,7 @@
         <v>239</v>
       </c>
       <c r="H12" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -10191,7 +10965,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="H13" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -10199,16 +10973,16 @@
         <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H14" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -10216,7 +10990,7 @@
         <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -10224,7 +10998,7 @@
         <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -10232,7 +11006,7 @@
         <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -10240,10 +11014,10 @@
         <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G18" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -10257,10 +11031,10 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H19" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -10268,7 +11042,7 @@
         <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -10276,7 +11050,7 @@
         <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -10284,7 +11058,7 @@
         <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -10292,16 +11066,16 @@
         <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H23" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -10309,7 +11083,7 @@
         <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -10320,7 +11094,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -10331,7 +11105,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -10345,10 +11119,10 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H27" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -10356,7 +11130,7 @@
         <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -10364,7 +11138,7 @@
         <v>133</v>
       </c>
       <c r="H29" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -10372,7 +11146,7 @@
         <v>134</v>
       </c>
       <c r="H30" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -10386,10 +11160,10 @@
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H31" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -10397,7 +11171,7 @@
         <v>142</v>
       </c>
       <c r="H32" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -10405,7 +11179,7 @@
         <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D33" t="s">
         <v>232</v>
@@ -10414,10 +11188,10 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H33" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -10425,7 +11199,7 @@
         <v>152</v>
       </c>
       <c r="H34" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -10433,7 +11207,7 @@
         <v>153</v>
       </c>
       <c r="H35" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -10441,7 +11215,7 @@
         <v>154</v>
       </c>
       <c r="H36" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -10449,10 +11223,10 @@
         <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H37" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -10460,7 +11234,7 @@
         <v>156</v>
       </c>
       <c r="H38" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -10468,7 +11242,7 @@
         <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -10476,7 +11250,7 @@
         <v>158</v>
       </c>
       <c r="H40" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -10557,7 +11331,7 @@
         <v>238</v>
       </c>
       <c r="D46" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -10577,10 +11351,10 @@
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H47" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -10594,7 +11368,7 @@
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -10616,7 +11390,7 @@
         <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -10723,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -10731,16 +11505,16 @@
         <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E58">
         <v>5</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H58" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -10748,7 +11522,7 @@
         <v>192</v>
       </c>
       <c r="H59" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -10756,10 +11530,10 @@
         <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H60" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -10767,7 +11541,7 @@
         <v>194</v>
       </c>
       <c r="H61" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -10778,13 +11552,13 @@
         <v>224</v>
       </c>
       <c r="D62" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -10801,27 +11575,27 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C64" t="s">
         <v>250</v>
       </c>
       <c r="D64" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E64">
         <v>7</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H64" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C65" t="s">
         <v>249</v>
@@ -10830,10 +11604,10 @@
         <v>9</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H65" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -10844,16 +11618,16 @@
         <v>254</v>
       </c>
       <c r="D66" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H66" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -10862,12 +11636,12 @@
       </c>
       <c r="G67" s="9"/>
       <c r="H67" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C69" t="s">
         <v>218</v>
@@ -10879,10 +11653,10 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H69" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -10893,10 +11667,10 @@
         <v>223</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H70" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -10904,7 +11678,7 @@
         <v>312</v>
       </c>
       <c r="H71" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -10912,19 +11686,19 @@
         <v>321</v>
       </c>
       <c r="C72" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D72" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H72" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -10935,10 +11709,10 @@
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H73" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -10946,10 +11720,10 @@
         <v>323</v>
       </c>
       <c r="G74" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H74" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -10961,16 +11735,16 @@
         <v>222</v>
       </c>
       <c r="D75" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H75" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -10979,7 +11753,7 @@
         <v>332</v>
       </c>
       <c r="H76" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -10988,7 +11762,7 @@
         <v>333</v>
       </c>
       <c r="H77" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -10997,7 +11771,7 @@
         <v>334</v>
       </c>
       <c r="H78" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -11006,7 +11780,7 @@
         <v>335</v>
       </c>
       <c r="H79" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -11015,7 +11789,7 @@
         <v>336</v>
       </c>
       <c r="H80" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -11024,7 +11798,7 @@
         <v>337</v>
       </c>
       <c r="H81" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -11033,7 +11807,7 @@
         <v>338</v>
       </c>
       <c r="H82" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -11042,16 +11816,16 @@
         <v>339</v>
       </c>
       <c r="C83" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E83">
         <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H83" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -11060,7 +11834,7 @@
         <v>340</v>
       </c>
       <c r="H84" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -11069,7 +11843,7 @@
         <v>341</v>
       </c>
       <c r="H85" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -11078,7 +11852,7 @@
         <v>342</v>
       </c>
       <c r="H86" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -11087,13 +11861,13 @@
         <v>343</v>
       </c>
       <c r="C87" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G87" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H87" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -11102,7 +11876,7 @@
         <v>344</v>
       </c>
       <c r="H88" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -11111,7 +11885,7 @@
         <v>345</v>
       </c>
       <c r="H89" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -11120,7 +11894,7 @@
         <v>346</v>
       </c>
       <c r="H90" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -11145,7 +11919,7 @@
         <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -11154,7 +11928,7 @@
         <v>303</v>
       </c>
       <c r="H93" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -11165,7 +11939,7 @@
         <v>304</v>
       </c>
       <c r="H94" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -11173,13 +11947,13 @@
         <v>421</v>
       </c>
       <c r="C95" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E95">
         <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -11187,7 +11961,7 @@
         <v>422</v>
       </c>
       <c r="C96" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -11195,7 +11969,7 @@
         <v>423</v>
       </c>
       <c r="C97" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -11203,7 +11977,7 @@
         <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -11211,7 +11985,7 @@
         <v>425</v>
       </c>
       <c r="C99" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E99">
         <v>35</v>
@@ -11222,7 +11996,7 @@
         <v>426</v>
       </c>
       <c r="C100" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E100">
         <v>20</v>
@@ -11250,10 +12024,10 @@
         <v>5</v>
       </c>
       <c r="G102" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H102" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -11261,7 +12035,7 @@
         <v>442</v>
       </c>
       <c r="H103" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -11269,7 +12043,7 @@
         <v>443</v>
       </c>
       <c r="H104" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
@@ -11415,13 +12189,13 @@
         <v>1001</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -11430,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -11438,13 +12212,13 @@
         <v>1002</v>
       </c>
       <c r="C4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -11458,7 +12232,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -11487,10 +12261,10 @@
         <v>1102</v>
       </c>
       <c r="C7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -11498,10 +12272,10 @@
         <v>1103</v>
       </c>
       <c r="C8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -11509,10 +12283,10 @@
         <v>1104</v>
       </c>
       <c r="C9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -11520,10 +12294,10 @@
         <v>1105</v>
       </c>
       <c r="C10" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E10" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -11531,10 +12305,10 @@
         <v>1106</v>
       </c>
       <c r="C11" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E11" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -11542,10 +12316,10 @@
         <v>1116</v>
       </c>
       <c r="C12" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E12" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -11553,10 +12327,10 @@
         <v>1117</v>
       </c>
       <c r="C13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -11564,10 +12338,10 @@
         <v>1118</v>
       </c>
       <c r="C14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -11575,10 +12349,10 @@
         <v>1119</v>
       </c>
       <c r="C15" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E15" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -11586,10 +12360,10 @@
         <v>1120</v>
       </c>
       <c r="C16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -11918,27 +12692,27 @@
     </row>
     <row r="3" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -11950,16 +12724,16 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -11967,27 +12741,27 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -11995,13 +12769,13 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E9" t="s">
         <v>429</v>
-      </c>
-      <c r="E9" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -12009,159 +12783,159 @@
         <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C12" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C13" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D15" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C16" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C17" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D17" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E17" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C18" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D18" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E18" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C19" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D19" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E19" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C20" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E20" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C21" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D21" t="s">
+        <v>471</v>
+      </c>
+      <c r="E21" t="s">
         <v>470</v>
-      </c>
-      <c r="E21" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -12169,125 +12943,125 @@
         <v>205</v>
       </c>
       <c r="C22" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D22" t="s">
         <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C23" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D23" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E23" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C24" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D24" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E24" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C25" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D25" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E25" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C26" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C28" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C29" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C30" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C31" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C33" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E33" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F33" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C34" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -12301,13 +13075,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE22176D-CFFA-4A34-AB14-C1369F5F19BF}">
-  <dimension ref="A1:Y202"/>
+  <dimension ref="A1:Y227"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C138" sqref="C138"/>
+      <selection pane="bottomRight" activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12402,10 +13176,10 @@
         <v>7</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>9</v>
@@ -12475,7 +13249,7 @@
         <v>2105</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -12941,7 +13715,7 @@
         <v>30</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N42">
         <v>3</v>
@@ -12950,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="W42" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
@@ -12958,13 +13732,13 @@
         <v>2311</v>
       </c>
       <c r="C43" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N43">
         <v>5</v>
@@ -12976,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
@@ -13002,7 +13776,7 @@
         <v>8</v>
       </c>
       <c r="W44" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -13028,7 +13802,7 @@
         <v>6</v>
       </c>
       <c r="W45" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
@@ -13042,7 +13816,7 @@
         <v>3</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N46">
         <v>7</v>
@@ -13054,7 +13828,7 @@
         <v>20</v>
       </c>
       <c r="W46" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
@@ -13068,7 +13842,7 @@
         <v>3</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N47">
         <v>9</v>
@@ -13080,7 +13854,7 @@
         <v>30</v>
       </c>
       <c r="W47" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
@@ -13106,7 +13880,7 @@
         <v>6</v>
       </c>
       <c r="W48" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
@@ -13120,7 +13894,7 @@
         <v>4</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N49">
         <v>10</v>
@@ -13132,7 +13906,7 @@
         <v>20</v>
       </c>
       <c r="W49" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
@@ -13146,7 +13920,7 @@
         <v>4</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N50">
         <v>7</v>
@@ -13158,7 +13932,7 @@
         <v>6</v>
       </c>
       <c r="W50" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
@@ -13187,7 +13961,7 @@
         <v>1</v>
       </c>
       <c r="W51" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -13213,7 +13987,7 @@
         <v>6</v>
       </c>
       <c r="W52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -13227,7 +14001,7 @@
         <v>5</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N53">
         <v>8</v>
@@ -13239,7 +14013,7 @@
         <v>20</v>
       </c>
       <c r="W53" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -13253,7 +14027,7 @@
         <v>5</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N54">
         <v>10</v>
@@ -13265,7 +14039,7 @@
         <v>30</v>
       </c>
       <c r="W54" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
@@ -13279,7 +14053,7 @@
         <v>5</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N55">
         <v>4</v>
@@ -13291,7 +14065,7 @@
         <v>5</v>
       </c>
       <c r="W55" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
@@ -13305,7 +14079,7 @@
         <v>6</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N56">
         <v>10</v>
@@ -13317,7 +14091,7 @@
         <v>35</v>
       </c>
       <c r="W56" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
@@ -13331,7 +14105,7 @@
         <v>6</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N57">
         <v>11</v>
@@ -13343,7 +14117,7 @@
         <v>30</v>
       </c>
       <c r="W57" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -13375,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="W58" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -13389,7 +14163,7 @@
         <v>6</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N59">
         <v>7</v>
@@ -13401,7 +14175,7 @@
         <v>12</v>
       </c>
       <c r="W59" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
@@ -13415,7 +14189,7 @@
         <v>6</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N60">
         <v>11</v>
@@ -13427,7 +14201,7 @@
         <v>30</v>
       </c>
       <c r="W60" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
@@ -13441,7 +14215,7 @@
         <v>7</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N61">
         <v>11</v>
@@ -13453,7 +14227,7 @@
         <v>100</v>
       </c>
       <c r="W61" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
@@ -13479,7 +14253,7 @@
         <v>8</v>
       </c>
       <c r="W62" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
@@ -13493,7 +14267,7 @@
         <v>7</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N63">
         <v>16</v>
@@ -13508,7 +14282,7 @@
         <v>4</v>
       </c>
       <c r="W63" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
@@ -13522,7 +14296,7 @@
         <v>7</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N64">
         <v>5</v>
@@ -13534,7 +14308,7 @@
         <v>5</v>
       </c>
       <c r="W64" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
@@ -13548,7 +14322,7 @@
         <v>8</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N65">
         <v>10</v>
@@ -13560,7 +14334,7 @@
         <v>125</v>
       </c>
       <c r="W65" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
@@ -13589,7 +14363,7 @@
         <v>20</v>
       </c>
       <c r="W66" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
@@ -13603,7 +14377,7 @@
         <v>8</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N67">
         <v>11</v>
@@ -13615,7 +14389,7 @@
         <v>35</v>
       </c>
       <c r="W67" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
@@ -13647,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="W68" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
@@ -13661,7 +14435,7 @@
         <v>8</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N69">
         <v>12</v>
@@ -13673,7 +14447,7 @@
         <v>30</v>
       </c>
       <c r="W69" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
@@ -13687,7 +14461,7 @@
         <v>9</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N70">
         <v>12</v>
@@ -13699,7 +14473,7 @@
         <v>125</v>
       </c>
       <c r="W70" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
@@ -13725,7 +14499,7 @@
         <v>8</v>
       </c>
       <c r="W71" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
@@ -13739,7 +14513,7 @@
         <v>10</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N72">
         <v>11</v>
@@ -13751,7 +14525,7 @@
         <v>125</v>
       </c>
       <c r="W72" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
@@ -13780,7 +14554,7 @@
         <v>40</v>
       </c>
       <c r="W73" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.25">
@@ -14045,7 +14819,7 @@
         <v>2513</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N95">
         <v>0.04</v>
@@ -14260,7 +15034,7 @@
         <v>2641</v>
       </c>
       <c r="C112" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -14391,7 +15165,7 @@
         <v>2705</v>
       </c>
       <c r="C123" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O123">
         <v>2</v>
@@ -14436,7 +15210,7 @@
         <v>2713</v>
       </c>
       <c r="C126" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -14456,7 +15230,7 @@
         <v>2714</v>
       </c>
       <c r="C127" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -14482,7 +15256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>2731</v>
       </c>
@@ -14496,7 +15270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>2741</v>
       </c>
@@ -14510,7 +15284,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>2751</v>
       </c>
@@ -14524,7 +15298,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="132" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>2761</v>
       </c>
@@ -14538,7 +15312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>2771</v>
       </c>
@@ -14552,7 +15326,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="134" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>2781</v>
       </c>
@@ -14566,7 +15340,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>2791</v>
       </c>
@@ -14580,793 +15354,574 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="137" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>2801</v>
       </c>
       <c r="C137" t="s">
-        <v>138</v>
+        <v>857</v>
       </c>
       <c r="D137" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>2802</v>
       </c>
       <c r="C138" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="139" spans="2:25" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>2803</v>
       </c>
       <c r="C139" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>2804</v>
+      </c>
+      <c r="C140" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>2805</v>
+      </c>
+      <c r="C141" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>2806</v>
+      </c>
+      <c r="C142" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="145" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="146" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="147" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>2811</v>
+      </c>
+      <c r="C147" t="s">
+        <v>860</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>2812</v>
+      </c>
+      <c r="C148" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="149" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>2813</v>
+      </c>
+      <c r="C149" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="150" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>2814</v>
+      </c>
+      <c r="C150" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="151" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>2815</v>
+      </c>
+      <c r="C151" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>2821</v>
+      </c>
+      <c r="C152" t="s">
+        <v>863</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>2822</v>
+      </c>
+      <c r="C153" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="154" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>2823</v>
+      </c>
+      <c r="C154" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="155" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>2834</v>
+      </c>
+      <c r="C155" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="156" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>2825</v>
+      </c>
+      <c r="C156" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y156" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="157" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>2831</v>
+      </c>
+      <c r="C157" t="s">
+        <v>867</v>
+      </c>
+      <c r="E157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>2832</v>
+      </c>
+      <c r="C158" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="159" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>2841</v>
+      </c>
+      <c r="C159" t="s">
+        <v>870</v>
+      </c>
+      <c r="E159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>2842</v>
+      </c>
+      <c r="C160" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>2851</v>
+      </c>
+      <c r="C161" t="s">
+        <v>871</v>
+      </c>
+      <c r="E161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>2852</v>
+      </c>
+      <c r="C162" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>2853</v>
+      </c>
+      <c r="C163" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>2861</v>
+      </c>
+      <c r="C164" t="s">
+        <v>873</v>
+      </c>
+      <c r="E164">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>2862</v>
+      </c>
+      <c r="C165" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>2863</v>
+      </c>
+      <c r="C166" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>2864</v>
+      </c>
+      <c r="C167" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="140" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B140">
-        <v>2811</v>
-      </c>
-      <c r="C140" t="s">
-        <v>139</v>
-      </c>
-      <c r="E140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B141">
-        <v>2812</v>
-      </c>
-      <c r="C141" t="s">
-        <v>315</v>
-      </c>
-      <c r="E141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B142">
-        <v>2821</v>
-      </c>
-      <c r="C142" t="s">
-        <v>140</v>
-      </c>
-      <c r="E142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B143">
-        <v>2822</v>
-      </c>
-      <c r="C143" t="s">
-        <v>596</v>
-      </c>
-      <c r="E143">
-        <v>3</v>
-      </c>
-      <c r="Y143" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="144" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B144">
-        <v>2831</v>
-      </c>
-      <c r="C144" t="s">
-        <v>141</v>
-      </c>
-      <c r="E144">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B145">
-        <v>2841</v>
-      </c>
-      <c r="C145" t="s">
-        <v>142</v>
-      </c>
-      <c r="E145">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B146">
-        <v>2851</v>
-      </c>
-      <c r="C146" t="s">
-        <v>143</v>
-      </c>
-      <c r="E146">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B147">
-        <v>2861</v>
-      </c>
-      <c r="C147" t="s">
-        <v>144</v>
-      </c>
-      <c r="E147">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B148">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168">
         <v>2871</v>
       </c>
-      <c r="C148" t="s">
-        <v>145</v>
-      </c>
-      <c r="E148">
+      <c r="C168" t="s">
+        <v>874</v>
+      </c>
+      <c r="E168">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B149">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>2872</v>
+      </c>
+      <c r="C169" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>2873</v>
+      </c>
+      <c r="C170" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171">
         <v>2881</v>
       </c>
-      <c r="C149" t="s">
-        <v>146</v>
-      </c>
-      <c r="E149">
+      <c r="C171" t="s">
+        <v>875</v>
+      </c>
+      <c r="E171">
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B150">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>2882</v>
+      </c>
+      <c r="C172" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>2883</v>
+      </c>
+      <c r="C173" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174">
         <v>2891</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C174" t="s">
+        <v>876</v>
+      </c>
+      <c r="E174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>2892</v>
+      </c>
+      <c r="C175" t="s">
         <v>147</v>
       </c>
-      <c r="E150">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B152">
+    </row>
+    <row r="177" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B177">
         <v>2901</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C177" t="s">
         <v>264</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D177" t="s">
         <v>264</v>
       </c>
-      <c r="W152" t="s">
+      <c r="W177" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B153">
+    <row r="178" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B178">
         <v>2902</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C178" t="s">
         <v>266</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D178" t="s">
         <v>264</v>
-      </c>
-      <c r="E153">
-        <v>2</v>
-      </c>
-      <c r="W153" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B154">
-        <v>2903</v>
-      </c>
-      <c r="C154" t="s">
-        <v>265</v>
-      </c>
-      <c r="D154" t="s">
-        <v>264</v>
-      </c>
-      <c r="E154">
-        <v>3</v>
-      </c>
-      <c r="W154" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B155">
-        <v>2911</v>
-      </c>
-      <c r="C155" t="s">
-        <v>271</v>
-      </c>
-      <c r="D155" t="s">
-        <v>270</v>
-      </c>
-      <c r="H155" s="7"/>
-      <c r="L155" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B156">
-        <v>2912</v>
-      </c>
-      <c r="C156" t="s">
-        <v>272</v>
-      </c>
-      <c r="D156" t="s">
-        <v>270</v>
-      </c>
-      <c r="L156" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B157">
-        <v>2913</v>
-      </c>
-      <c r="C157" t="s">
-        <v>273</v>
-      </c>
-      <c r="D157" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B158">
-        <v>2914</v>
-      </c>
-      <c r="C158" t="s">
-        <v>274</v>
-      </c>
-      <c r="D158" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B159">
-        <v>2915</v>
-      </c>
-      <c r="C159" t="s">
-        <v>275</v>
-      </c>
-      <c r="D159" t="s">
-        <v>270</v>
-      </c>
-      <c r="L159" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B160">
-        <v>2916</v>
-      </c>
-      <c r="C160" t="s">
-        <v>305</v>
-      </c>
-      <c r="D160" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="161" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B161">
-        <v>2917</v>
-      </c>
-      <c r="C161" t="s">
-        <v>820</v>
-      </c>
-      <c r="D161" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="162" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B162">
-        <v>2921</v>
-      </c>
-      <c r="C162" t="s">
-        <v>277</v>
-      </c>
-      <c r="D162" t="s">
-        <v>276</v>
-      </c>
-      <c r="N162">
-        <v>0.04</v>
-      </c>
-      <c r="W162" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="163" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B163">
-        <v>2922</v>
-      </c>
-      <c r="C163" t="s">
-        <v>278</v>
-      </c>
-      <c r="D163" t="s">
-        <v>276</v>
-      </c>
-      <c r="E163">
-        <v>2</v>
-      </c>
-      <c r="N163">
-        <v>0.04</v>
-      </c>
-      <c r="W163" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="164" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B164">
-        <v>2923</v>
-      </c>
-      <c r="C164" t="s">
-        <v>279</v>
-      </c>
-      <c r="D164" t="s">
-        <v>276</v>
-      </c>
-      <c r="N164">
-        <v>0.04</v>
-      </c>
-      <c r="W164" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="165" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B165">
-        <v>2924</v>
-      </c>
-      <c r="C165" t="s">
-        <v>306</v>
-      </c>
-      <c r="D165" t="s">
-        <v>276</v>
-      </c>
-      <c r="L165" s="4">
-        <v>1</v>
-      </c>
-      <c r="N165">
-        <v>2.5</v>
-      </c>
-      <c r="Q165">
-        <v>6</v>
-      </c>
-      <c r="W165" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="166" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B166">
-        <v>2925</v>
-      </c>
-      <c r="C166" t="s">
-        <v>307</v>
-      </c>
-      <c r="D166" t="s">
-        <v>276</v>
-      </c>
-      <c r="W166" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="167" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B167">
-        <v>2926</v>
-      </c>
-      <c r="C167" t="s">
-        <v>308</v>
-      </c>
-      <c r="D167" t="s">
-        <v>276</v>
-      </c>
-      <c r="E167">
-        <v>2</v>
-      </c>
-      <c r="L167" s="4">
-        <v>1</v>
-      </c>
-      <c r="N167">
-        <v>0.02</v>
-      </c>
-      <c r="W167" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="168" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B168">
-        <v>2927</v>
-      </c>
-      <c r="C168" t="s">
-        <v>309</v>
-      </c>
-      <c r="D168" t="s">
-        <v>276</v>
-      </c>
-      <c r="E168">
-        <v>3</v>
-      </c>
-      <c r="L168" s="4">
-        <v>2</v>
-      </c>
-      <c r="N168">
-        <v>0.02</v>
-      </c>
-      <c r="W168" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="169" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B169">
-        <v>2931</v>
-      </c>
-      <c r="C169" t="s">
-        <v>251</v>
-      </c>
-      <c r="D169" t="s">
-        <v>293</v>
-      </c>
-      <c r="L169" s="4">
-        <v>2</v>
-      </c>
-      <c r="N169">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="170" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B170">
-        <v>2932</v>
-      </c>
-      <c r="C170" t="s">
-        <v>294</v>
-      </c>
-      <c r="D170" t="s">
-        <v>293</v>
-      </c>
-      <c r="L170" s="4">
-        <v>1</v>
-      </c>
-      <c r="N170">
-        <v>2.5</v>
-      </c>
-      <c r="Q170">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B171">
-        <v>2933</v>
-      </c>
-      <c r="C171" t="s">
-        <v>298</v>
-      </c>
-      <c r="D171" t="s">
-        <v>293</v>
-      </c>
-      <c r="L171" s="4">
-        <v>1</v>
-      </c>
-      <c r="N171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B172">
-        <v>2941</v>
-      </c>
-      <c r="C172" t="s">
-        <v>398</v>
-      </c>
-      <c r="D172" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="173" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B173">
-        <v>2942</v>
-      </c>
-      <c r="C173" t="s">
-        <v>399</v>
-      </c>
-      <c r="D173" t="s">
-        <v>293</v>
-      </c>
-      <c r="E173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B174">
-        <v>2943</v>
-      </c>
-      <c r="C174" t="s">
-        <v>400</v>
-      </c>
-      <c r="D174" t="s">
-        <v>293</v>
-      </c>
-      <c r="E174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B175">
-        <v>2944</v>
-      </c>
-      <c r="C175" t="s">
-        <v>401</v>
-      </c>
-      <c r="D175" t="s">
-        <v>293</v>
-      </c>
-      <c r="E175">
-        <v>2</v>
-      </c>
-      <c r="L175" s="4">
-        <v>3</v>
-      </c>
-      <c r="N175">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B176">
-        <v>2945</v>
-      </c>
-      <c r="C176" t="s">
-        <v>402</v>
-      </c>
-      <c r="D176" t="s">
-        <v>293</v>
-      </c>
-      <c r="E176">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B177">
-        <v>2946</v>
-      </c>
-      <c r="C177" t="s">
-        <v>403</v>
-      </c>
-      <c r="D177" t="s">
-        <v>293</v>
-      </c>
-      <c r="E177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B178">
-        <v>2947</v>
-      </c>
-      <c r="C178" t="s">
-        <v>404</v>
-      </c>
-      <c r="D178" t="s">
-        <v>293</v>
       </c>
       <c r="E178">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="W178" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="179" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B179">
-        <v>2948</v>
+        <v>2903</v>
       </c>
       <c r="C179" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="D179" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="E179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="W179" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="180" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B180">
-        <v>2961</v>
+        <v>2911</v>
       </c>
       <c r="C180" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="D180" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="H180" s="7"/>
+      <c r="L180" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B181">
-        <v>2962</v>
+        <v>2912</v>
       </c>
       <c r="C181" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="D181" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="L181" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B182">
-        <v>2963</v>
+        <v>2913</v>
       </c>
       <c r="C182" t="s">
-        <v>331</v>
+        <v>273</v>
       </c>
       <c r="D182" t="s">
-        <v>301</v>
-      </c>
-      <c r="L182" s="4">
-        <v>1</v>
-      </c>
-      <c r="N182">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="183" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B183">
-        <v>2964</v>
+        <v>2914</v>
       </c>
       <c r="C183" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="D183" t="s">
-        <v>301</v>
-      </c>
-      <c r="N183">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="184" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B184">
-        <v>2965</v>
+        <v>2915</v>
       </c>
       <c r="C184" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="D184" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="L184" s="4">
         <v>1</v>
       </c>
-      <c r="N184">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B185">
-        <v>2966</v>
+        <v>2916</v>
       </c>
       <c r="C185" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="D185" t="s">
-        <v>301</v>
-      </c>
-      <c r="L185" s="4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="186" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>2917</v>
+      </c>
+      <c r="C186" t="s">
+        <v>821</v>
+      </c>
+      <c r="D186" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="187" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>2921</v>
+      </c>
+      <c r="C187" t="s">
+        <v>277</v>
+      </c>
+      <c r="D187" t="s">
+        <v>276</v>
+      </c>
+      <c r="N187">
+        <v>0.04</v>
+      </c>
+      <c r="W187" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="188" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>2922</v>
+      </c>
+      <c r="C188" t="s">
+        <v>278</v>
+      </c>
+      <c r="D188" t="s">
+        <v>276</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>0.04</v>
+      </c>
+      <c r="W188" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="189" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>2923</v>
+      </c>
+      <c r="C189" t="s">
+        <v>279</v>
+      </c>
+      <c r="D189" t="s">
+        <v>276</v>
+      </c>
+      <c r="N189">
+        <v>0.04</v>
+      </c>
+      <c r="W189" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="190" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>2924</v>
+      </c>
+      <c r="C190" t="s">
+        <v>306</v>
+      </c>
+      <c r="D190" t="s">
+        <v>276</v>
+      </c>
+      <c r="L190" s="4">
         <v>1</v>
       </c>
-      <c r="N185">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B186">
-        <v>2967</v>
-      </c>
-      <c r="C186" t="s">
-        <v>334</v>
-      </c>
-      <c r="D186" t="s">
-        <v>301</v>
-      </c>
-      <c r="L186" s="4">
-        <v>1</v>
-      </c>
-      <c r="N186">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B187">
-        <v>2971</v>
-      </c>
-      <c r="C187" t="s">
-        <v>325</v>
-      </c>
-      <c r="D187" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B188">
-        <v>2972</v>
-      </c>
-      <c r="C188" t="s">
-        <v>326</v>
-      </c>
-      <c r="D188" t="s">
-        <v>320</v>
-      </c>
-      <c r="L188" s="4">
-        <v>1</v>
-      </c>
-      <c r="N188">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B189">
-        <v>2973</v>
-      </c>
-      <c r="C189" t="s">
-        <v>337</v>
-      </c>
-      <c r="D189" t="s">
-        <v>320</v>
-      </c>
-      <c r="L189" s="4">
-        <v>1</v>
-      </c>
-      <c r="N189">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B190">
-        <v>2974</v>
-      </c>
-      <c r="C190" t="s">
-        <v>324</v>
-      </c>
-      <c r="D190" t="s">
-        <v>320</v>
-      </c>
-      <c r="E190">
-        <v>2</v>
-      </c>
       <c r="N190">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+      <c r="Q190">
+        <v>6</v>
+      </c>
+      <c r="W190" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="191" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B191">
-        <v>2975</v>
+        <v>2925</v>
       </c>
       <c r="C191" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="D191" t="s">
-        <v>320</v>
-      </c>
-      <c r="E191">
-        <v>2</v>
-      </c>
-      <c r="L191" s="4">
-        <v>2</v>
-      </c>
-      <c r="N191">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="W191" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="192" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B192">
-        <v>2976</v>
+        <v>2926</v>
       </c>
       <c r="C192" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D192" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -15374,158 +15929,559 @@
       <c r="L192" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N192">
+        <v>0.02</v>
+      </c>
+      <c r="W192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="193" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B193">
-        <v>2977</v>
+        <v>2927</v>
       </c>
       <c r="C193" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D193" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="E193">
         <v>3</v>
       </c>
       <c r="L193" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N193">
-        <v>0.08</v>
-      </c>
-      <c r="Q193">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+      <c r="W193" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="194" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B194">
-        <v>2978</v>
+        <v>2931</v>
       </c>
       <c r="C194" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
       <c r="D194" t="s">
-        <v>320</v>
-      </c>
-      <c r="E194">
-        <v>3</v>
+        <v>293</v>
       </c>
       <c r="L194" s="4">
         <v>2</v>
       </c>
       <c r="N194">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B195">
-        <v>2979</v>
+        <v>2932</v>
       </c>
       <c r="C195" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="D195" t="s">
-        <v>320</v>
-      </c>
-      <c r="E195">
-        <v>3</v>
+        <v>293</v>
       </c>
       <c r="L195" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N195">
-        <v>0.05</v>
+        <v>2.5</v>
       </c>
       <c r="Q195">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B196">
-        <v>2980</v>
+        <v>2933</v>
       </c>
       <c r="C196" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D196" t="s">
-        <v>320</v>
-      </c>
-      <c r="E196">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="L196" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B197">
+        <v>2941</v>
+      </c>
+      <c r="C197" t="s">
+        <v>399</v>
+      </c>
+      <c r="D197" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="198" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>2942</v>
+      </c>
+      <c r="C198" t="s">
+        <v>400</v>
+      </c>
+      <c r="D198" t="s">
+        <v>293</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>2943</v>
+      </c>
+      <c r="C199" t="s">
+        <v>401</v>
+      </c>
+      <c r="D199" t="s">
+        <v>293</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>2944</v>
+      </c>
+      <c r="C200" t="s">
+        <v>402</v>
+      </c>
+      <c r="D200" t="s">
+        <v>293</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="L200" s="4">
+        <v>3</v>
+      </c>
+      <c r="N200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>2945</v>
+      </c>
+      <c r="C201" t="s">
+        <v>403</v>
+      </c>
+      <c r="D201" t="s">
+        <v>293</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>2946</v>
+      </c>
+      <c r="C202" t="s">
+        <v>404</v>
+      </c>
+      <c r="D202" t="s">
+        <v>293</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>2947</v>
+      </c>
+      <c r="C203" t="s">
+        <v>405</v>
+      </c>
+      <c r="D203" t="s">
+        <v>293</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>2948</v>
+      </c>
+      <c r="C204" t="s">
+        <v>406</v>
+      </c>
+      <c r="D204" t="s">
+        <v>293</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>2961</v>
+      </c>
+      <c r="C205" t="s">
+        <v>299</v>
+      </c>
+      <c r="D205" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="206" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>2962</v>
+      </c>
+      <c r="C206" t="s">
+        <v>300</v>
+      </c>
+      <c r="D206" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="207" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>2963</v>
+      </c>
+      <c r="C207" t="s">
+        <v>332</v>
+      </c>
+      <c r="D207" t="s">
+        <v>301</v>
+      </c>
+      <c r="L207" s="4">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="208" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>2964</v>
+      </c>
+      <c r="C208" t="s">
+        <v>339</v>
+      </c>
+      <c r="D208" t="s">
+        <v>301</v>
+      </c>
+      <c r="N208">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="209" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>2965</v>
+      </c>
+      <c r="C209" t="s">
+        <v>333</v>
+      </c>
+      <c r="D209" t="s">
+        <v>301</v>
+      </c>
+      <c r="L209" s="4">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="210" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>2966</v>
+      </c>
+      <c r="C210" t="s">
+        <v>334</v>
+      </c>
+      <c r="D210" t="s">
+        <v>301</v>
+      </c>
+      <c r="L210" s="4">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="211" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>2967</v>
+      </c>
+      <c r="C211" t="s">
+        <v>335</v>
+      </c>
+      <c r="D211" t="s">
+        <v>301</v>
+      </c>
+      <c r="L211" s="4">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="212" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>2971</v>
+      </c>
+      <c r="C212" t="s">
+        <v>326</v>
+      </c>
+      <c r="D212" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="213" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>2972</v>
+      </c>
+      <c r="C213" t="s">
+        <v>327</v>
+      </c>
+      <c r="D213" t="s">
+        <v>321</v>
+      </c>
+      <c r="L213" s="4">
+        <v>1</v>
+      </c>
+      <c r="N213">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="214" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>2973</v>
+      </c>
+      <c r="C214" t="s">
+        <v>338</v>
+      </c>
+      <c r="D214" t="s">
+        <v>321</v>
+      </c>
+      <c r="L214" s="4">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="215" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>2974</v>
+      </c>
+      <c r="C215" t="s">
+        <v>325</v>
+      </c>
+      <c r="D215" t="s">
+        <v>321</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="N215">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="216" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>2975</v>
+      </c>
+      <c r="C216" t="s">
+        <v>336</v>
+      </c>
+      <c r="D216" t="s">
+        <v>321</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="L216" s="4">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="217" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>2976</v>
+      </c>
+      <c r="C217" t="s">
+        <v>324</v>
+      </c>
+      <c r="D217" t="s">
+        <v>321</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+      <c r="L217" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>2977</v>
+      </c>
+      <c r="C218" t="s">
+        <v>322</v>
+      </c>
+      <c r="D218" t="s">
+        <v>321</v>
+      </c>
+      <c r="E218">
+        <v>3</v>
+      </c>
+      <c r="L218" s="4">
+        <v>3</v>
+      </c>
+      <c r="N218">
+        <v>0.08</v>
+      </c>
+      <c r="Q218">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>2978</v>
+      </c>
+      <c r="C219" t="s">
+        <v>323</v>
+      </c>
+      <c r="D219" t="s">
+        <v>321</v>
+      </c>
+      <c r="E219">
+        <v>3</v>
+      </c>
+      <c r="L219" s="4">
+        <v>2</v>
+      </c>
+      <c r="N219">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="220" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>2979</v>
+      </c>
+      <c r="C220" t="s">
+        <v>328</v>
+      </c>
+      <c r="D220" t="s">
+        <v>321</v>
+      </c>
+      <c r="E220">
+        <v>3</v>
+      </c>
+      <c r="L220" s="4">
+        <v>2</v>
+      </c>
+      <c r="N220">
+        <v>0.05</v>
+      </c>
+      <c r="Q220">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>2980</v>
+      </c>
+      <c r="C221" t="s">
+        <v>337</v>
+      </c>
+      <c r="D221" t="s">
+        <v>321</v>
+      </c>
+      <c r="E221">
+        <v>4</v>
+      </c>
+      <c r="L221" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B222">
         <v>2981</v>
       </c>
-      <c r="C197" t="s">
-        <v>328</v>
-      </c>
-      <c r="D197" t="s">
-        <v>320</v>
-      </c>
-      <c r="E197">
+      <c r="C222" t="s">
+        <v>329</v>
+      </c>
+      <c r="D222" t="s">
+        <v>321</v>
+      </c>
+      <c r="E222">
         <v>4</v>
       </c>
-      <c r="L197" s="4">
+      <c r="L222" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B198">
+    <row r="223" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B223">
         <v>2982</v>
       </c>
-      <c r="C198" t="s">
-        <v>329</v>
-      </c>
-      <c r="D198" t="s">
-        <v>320</v>
-      </c>
-      <c r="E198">
+      <c r="C223" t="s">
+        <v>330</v>
+      </c>
+      <c r="D223" t="s">
+        <v>321</v>
+      </c>
+      <c r="E223">
         <v>4</v>
       </c>
-      <c r="L198" s="4">
+      <c r="L223" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B199">
+    <row r="224" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B224">
         <v>2983</v>
       </c>
-      <c r="C199" t="s">
-        <v>330</v>
-      </c>
-      <c r="D199" t="s">
-        <v>320</v>
-      </c>
-      <c r="E199">
+      <c r="C224" t="s">
+        <v>331</v>
+      </c>
+      <c r="D224" t="s">
+        <v>321</v>
+      </c>
+      <c r="E224">
         <v>5</v>
       </c>
-      <c r="L199" s="4">
+      <c r="L224" s="4">
         <v>5</v>
       </c>
-      <c r="N199">
+      <c r="N224">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q199">
+      <c r="Q224">
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K200" s="4"/>
-      <c r="L200"/>
-    </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K201" s="4"/>
-      <c r="L201"/>
-    </row>
-    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K202" s="4"/>
-      <c r="L202"/>
+    <row r="225" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K225" s="4"/>
+      <c r="L225"/>
+    </row>
+    <row r="226" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K226" s="4"/>
+      <c r="L226"/>
+    </row>
+    <row r="227" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K227" s="4"/>
+      <c r="L227"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15575,7 +16531,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -15601,7 +16557,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -15629,7 +16585,7 @@
         <v>3103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D5" t="s">
         <v>292</v>
@@ -15689,7 +16645,7 @@
         <v>3108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D8" t="s">
         <v>292</v>
@@ -15706,10 +16662,10 @@
         <v>3111</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9">
@@ -15724,10 +16680,10 @@
         <v>3112</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10">
@@ -15745,7 +16701,7 @@
         <v>7.62</v>
       </c>
       <c r="D11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11">
@@ -15763,7 +16719,7 @@
         <v>7.62</v>
       </c>
       <c r="D12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12">
@@ -15781,7 +16737,7 @@
         <v>7.62</v>
       </c>
       <c r="D13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13">
@@ -15796,7 +16752,7 @@
         <v>7.62</v>
       </c>
       <c r="D14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14">
@@ -15808,10 +16764,10 @@
         <v>3117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15">
@@ -15823,10 +16779,10 @@
         <v>3118</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16">
@@ -15838,10 +16794,10 @@
         <v>3119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17">
@@ -15856,10 +16812,10 @@
         <v>3120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18">
@@ -15877,7 +16833,7 @@
         <v>5.56</v>
       </c>
       <c r="D19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19">
@@ -15892,7 +16848,7 @@
         <v>7.62</v>
       </c>
       <c r="D20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20">
@@ -15904,10 +16860,10 @@
         <v>3123</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21">
@@ -15922,10 +16878,10 @@
         <v>3124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22">
@@ -15943,7 +16899,7 @@
         <v>7.62</v>
       </c>
       <c r="D23" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23">
@@ -15961,7 +16917,7 @@
         <v>7.62</v>
       </c>
       <c r="D24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24">
@@ -15976,10 +16932,10 @@
         <v>3127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D25" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25">
@@ -15994,10 +16950,10 @@
         <v>3128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D26" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26">
@@ -16009,10 +16965,10 @@
         <v>3129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27">
@@ -16027,10 +16983,10 @@
         <v>3130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28">
@@ -16045,10 +17001,10 @@
         <v>3131</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D29" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29">
@@ -16060,10 +17016,10 @@
         <v>3132</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D30" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30">
@@ -16075,13 +17031,13 @@
         <v>3133</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D31" t="s">
         <v>395</v>
       </c>
-      <c r="D31" t="s">
-        <v>394</v>
-      </c>
       <c r="F31" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G31">
         <v>40</v>
@@ -16095,13 +17051,13 @@
         <v>3134</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" t="s">
         <v>395</v>
       </c>
-      <c r="D32" t="s">
-        <v>394</v>
-      </c>
       <c r="F32" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G32">
         <v>60</v>
@@ -16118,7 +17074,7 @@
         <v>5.56</v>
       </c>
       <c r="D33" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33">
@@ -16136,7 +17092,7 @@
         <v>5.56</v>
       </c>
       <c r="D34" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34">
@@ -16151,10 +17107,10 @@
         <v>3137</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D35" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35">
@@ -16169,10 +17125,10 @@
         <v>3138</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36">
@@ -16190,7 +17146,7 @@
         <v>5.56</v>
       </c>
       <c r="D37" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37">
@@ -16205,7 +17161,7 @@
         <v>5.56</v>
       </c>
       <c r="D38" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -16219,13 +17175,13 @@
         <v>3201</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D40" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F40" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -16239,13 +17195,13 @@
         <v>3202</v>
       </c>
       <c r="C41" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D41" t="s">
+        <v>564</v>
+      </c>
+      <c r="F41" t="s">
         <v>563</v>
-      </c>
-      <c r="F41" t="s">
-        <v>562</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -16278,7 +17234,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16289,13 +17245,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -16303,10 +17259,10 @@
         <v>4001</v>
       </c>
       <c r="C3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E3" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F3">
         <v>35</v>
@@ -16357,7 +17313,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16368,13 +17324,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -16388,19 +17344,19 @@
         <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -16409,16 +17365,16 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -16427,16 +17383,16 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -16445,16 +17401,16 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F7" t="s">
+        <v>504</v>
+      </c>
+      <c r="I7" t="s">
         <v>540</v>
-      </c>
-      <c r="F7" t="s">
-        <v>503</v>
-      </c>
-      <c r="I7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -16463,16 +17419,16 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E8" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -16481,19 +17437,19 @@
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -16502,16 +17458,16 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -16520,16 +17476,16 @@
         <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E11" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F11" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I11" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -16538,16 +17494,16 @@
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E12" t="s">
+        <v>572</v>
+      </c>
+      <c r="F12" t="s">
+        <v>504</v>
+      </c>
+      <c r="I12" t="s">
         <v>571</v>
-      </c>
-      <c r="F12" t="s">
-        <v>503</v>
-      </c>
-      <c r="I12" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -16556,39 +17512,39 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F13" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C15">
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I15" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -16597,19 +17553,19 @@
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -16618,19 +17574,19 @@
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E17" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F17" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -16639,19 +17595,19 @@
         <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E18" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F18" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -16660,19 +17616,19 @@
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E19" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F19" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -16681,19 +17637,19 @@
         <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I20" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -16702,19 +17658,19 @@
         <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E21" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F21" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -16723,19 +17679,19 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E22" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F22" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G22">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -16744,19 +17700,19 @@
         <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E23" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F23" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -16765,24 +17721,24 @@
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E24" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F24" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C26">
         <v>121</v>
@@ -16814,7 +17770,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C32">
         <v>131</v>
@@ -16826,10 +17782,10 @@
         <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I33" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -16838,7 +17794,7 @@
         <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -16847,10 +17803,10 @@
         <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I35" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B99E38-8216-46B3-B860-1709BD4F3950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE497A5C-F8F2-43D8-848C-90EE269729B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="4" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -3156,13 +3156,13 @@
     <t>Corundum Chunk</t>
   </si>
   <si>
-    <t>Ruby</t>
-  </si>
-  <si>
     <t>Selenite Crystal</t>
   </si>
   <si>
     <t>Topaz Gem</t>
+  </si>
+  <si>
+    <t>Sapphire</t>
   </si>
 </sst>
 </file>
@@ -13081,7 +13081,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C171" sqref="C171"/>
+      <selection pane="bottomRight" activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15457,7 +15457,7 @@
         <v>2814</v>
       </c>
       <c r="C150" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="151" spans="2:25" x14ac:dyDescent="0.25">
@@ -15638,7 +15638,7 @@
         <v>2873</v>
       </c>
       <c r="C170" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.25">
@@ -15665,7 +15665,7 @@
         <v>2883</v>
       </c>
       <c r="C173" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40685795-ECA7-4BED-BA5C-B0E7BC847F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FF4A62-50CD-4823-B718-D1490258510C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="9" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="5" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrains" sheetId="13" r:id="rId1"/>
@@ -4288,8 +4288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A114E18-4580-4CF1-BE70-B14A03AAF800}">
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13099,10 +13099,10 @@
   <dimension ref="A1:Y227"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomRight" activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16517,8 +16517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DAF6DD-D8FA-4653-B50E-0B687056C45B}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16680,7 +16680,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>3111</v>
+        <v>3312</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>397</v>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FF4A62-50CD-4823-B718-D1490258510C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9380534-0BC6-42B6-BADD-AFC8CC2D5CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="5" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="1" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrains" sheetId="13" r:id="rId1"/>
@@ -10818,7 +10818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
@@ -16517,7 +16517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DAF6DD-D8FA-4653-B50E-0B687056C45B}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9380534-0BC6-42B6-BADD-AFC8CC2D5CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1A37C8-CABC-4BF1-90C0-83A1CD9491BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="1" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="4" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrains" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="891">
   <si>
     <t>ID</t>
   </si>
@@ -3169,6 +3169,9 @@
   </si>
   <si>
     <t>(level)</t>
+  </si>
+  <si>
+    <t>dur=60, cd=300, rec=0, inac=0.1</t>
   </si>
 </sst>
 </file>
@@ -10818,8 +10821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13098,11 +13101,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE22176D-CFFA-4A34-AB14-C1369F5F19BF}">
   <dimension ref="A1:Y227"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W38" sqref="W38"/>
+      <selection pane="bottomRight" activeCell="W196" sqref="W196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15996,6 +15999,9 @@
       <c r="N194">
         <v>2.5</v>
       </c>
+      <c r="W194" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="195" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B195">
@@ -16032,6 +16038,9 @@
       </c>
       <c r="N196">
         <v>2</v>
+      </c>
+      <c r="W196" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="197" spans="2:23" x14ac:dyDescent="0.25">
@@ -16518,7 +16527,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1A37C8-CABC-4BF1-90C0-83A1CD9491BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EB40FA-63C2-4849-9798-98813DB54C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="4" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="5" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrains" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="889">
   <si>
     <t>ID</t>
   </si>
@@ -1129,12 +1129,6 @@
     <t>dur=10, cd=96 (937rpm for first 7 rounds), rec=0.02, inac=0.08, automatic</t>
   </si>
   <si>
-    <t>dur=350, cd=1500, rec=0, inac=0.12</t>
-  </si>
-  <si>
-    <t>dur=300, cd=1800, rec=0, inac=0.12</t>
-  </si>
-  <si>
     <t>dur=10, cd=96, rec=0.005, inac=0.12</t>
   </si>
   <si>
@@ -1268,12 +1262,6 @@
   </si>
   <si>
     <t>Unkillable, records damage in description</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>currHealth DoT, can give weak</t>
@@ -3173,6 +3161,12 @@
   <si>
     <t>dur=60, cd=300, rec=0, inac=0.1</t>
   </si>
+  <si>
+    <t>dur=350, cd=1300, rec=0, inac=0.12</t>
+  </si>
+  <si>
+    <t>dur=300, cd=1500, rec=0, inac=0.12</t>
+  </si>
 </sst>
 </file>
 
@@ -3263,9 +3257,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3282,6 +3273,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3615,7 +3609,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -3627,10 +3621,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3641,7 +3635,7 @@
         <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3652,7 +3646,7 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D6" t="s">
         <v>206</v>
@@ -3666,7 +3660,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3674,7 +3668,7 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3682,7 +3676,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3690,7 +3684,7 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3698,7 +3692,7 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3706,7 +3700,7 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3714,7 +3708,7 @@
         <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3722,7 +3716,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3730,7 +3724,7 @@
         <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3746,7 +3740,7 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3754,7 +3748,7 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3762,7 +3756,7 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3770,7 +3764,7 @@
         <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3778,7 +3772,7 @@
         <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3786,7 +3780,7 @@
         <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3794,7 +3788,7 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -3802,7 +3796,7 @@
         <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3810,7 +3804,7 @@
         <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3818,7 +3812,7 @@
         <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3826,7 +3820,7 @@
         <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3834,7 +3828,7 @@
         <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3842,7 +3836,7 @@
         <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3850,7 +3844,7 @@
         <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3858,7 +3852,7 @@
         <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3866,7 +3860,7 @@
         <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -3874,7 +3868,7 @@
         <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3882,7 +3876,7 @@
         <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3890,7 +3884,7 @@
         <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3898,7 +3892,7 @@
         <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3906,7 +3900,7 @@
         <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -3914,7 +3908,7 @@
         <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -3922,7 +3916,7 @@
         <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -3930,7 +3924,7 @@
         <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -3938,7 +3932,7 @@
         <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -3946,7 +3940,7 @@
         <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -3954,7 +3948,7 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -3962,7 +3956,7 @@
         <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -3970,7 +3964,7 @@
         <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -3978,7 +3972,7 @@
         <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -3986,7 +3980,7 @@
         <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -3994,7 +3988,7 @@
         <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D49" t="s">
         <v>209</v>
@@ -4008,7 +4002,7 @@
         <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -4016,7 +4010,7 @@
         <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -4024,7 +4018,7 @@
         <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -4032,7 +4026,7 @@
         <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -4040,7 +4034,7 @@
         <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -4048,7 +4042,7 @@
         <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -4056,7 +4050,7 @@
         <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -4064,7 +4058,7 @@
         <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -4072,7 +4066,7 @@
         <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -4083,13 +4077,13 @@
         <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D60" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E60" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -4097,7 +4091,7 @@
         <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -4105,7 +4099,7 @@
         <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -4113,7 +4107,7 @@
         <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -4121,7 +4115,7 @@
         <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -4129,7 +4123,7 @@
         <v>306</v>
       </c>
       <c r="C65" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -4137,7 +4131,7 @@
         <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -4145,7 +4139,7 @@
         <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -4153,7 +4147,7 @@
         <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -4161,7 +4155,7 @@
         <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -4169,7 +4163,7 @@
         <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -4177,7 +4171,7 @@
         <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -4185,7 +4179,7 @@
         <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -4193,7 +4187,7 @@
         <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -4201,7 +4195,7 @@
         <v>315</v>
       </c>
       <c r="C74" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -4209,7 +4203,7 @@
         <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -4217,7 +4211,7 @@
         <v>317</v>
       </c>
       <c r="C76" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -4225,7 +4219,7 @@
         <v>318</v>
       </c>
       <c r="C77" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -4233,7 +4227,7 @@
         <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -4241,7 +4235,7 @@
         <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -4249,7 +4243,7 @@
         <v>321</v>
       </c>
       <c r="C80" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -4257,7 +4251,7 @@
         <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -4265,7 +4259,7 @@
         <v>323</v>
       </c>
       <c r="C82" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -4273,7 +4267,7 @@
         <v>324</v>
       </c>
       <c r="C83" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -4298,7 +4292,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -4309,26 +4303,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
@@ -4337,13 +4331,13 @@
       <c r="H3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4352,14 +4346,14 @@
       <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="I4" s="1">
         <v>1.4</v>
@@ -4376,7 +4370,7 @@
         <f>_xlfn.CEILING.MATH(1 + A5^$B$3)</f>
         <v>1</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f>I10/B5</f>
         <v>1</v>
       </c>
@@ -4417,7 +4411,7 @@
         <f t="shared" ref="B6:B69" si="0">_xlfn.CEILING.MATH(1 + A6^$B$3)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f>I11/B6</f>
         <v>1.5</v>
       </c>
@@ -4426,7 +4420,7 @@
         <v>2.5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -4440,7 +4434,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <f t="shared" ref="C7:C69" si="1">I12/B7</f>
         <v>2.25</v>
       </c>
@@ -4488,7 +4482,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <f t="shared" si="1"/>
         <v>2.7142857142857144</v>
       </c>
@@ -4505,7 +4499,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f t="shared" si="1"/>
         <v>3.6666666666666665</v>
       </c>
@@ -4558,7 +4552,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <f t="shared" si="1"/>
         <v>3.8461538461538463</v>
       </c>
@@ -4622,7 +4616,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -4684,7 +4678,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <f t="shared" si="1"/>
         <v>4.9000000000000004</v>
       </c>
@@ -4740,7 +4734,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <f t="shared" si="1"/>
         <v>5.291666666666667</v>
       </c>
@@ -4796,7 +4790,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <f t="shared" si="1"/>
         <v>5.7142857142857144</v>
       </c>
@@ -4852,7 +4846,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <f t="shared" si="1"/>
         <v>95.060606060606062</v>
       </c>
@@ -4908,7 +4902,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <f t="shared" si="1"/>
         <v>99.89473684210526</v>
       </c>
@@ -4964,7 +4958,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <f t="shared" si="1"/>
         <v>105.04651162790698</v>
       </c>
@@ -5020,7 +5014,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <f t="shared" si="1"/>
         <v>110.4375</v>
       </c>
@@ -5076,7 +5070,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <f t="shared" si="1"/>
         <v>113.85185185185185</v>
       </c>
@@ -5132,7 +5126,7 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <f t="shared" si="1"/>
         <v>117.61666666666666</v>
       </c>
@@ -5188,7 +5182,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <f t="shared" si="1"/>
         <v>123.53846153846153</v>
       </c>
@@ -5244,7 +5238,7 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <f t="shared" si="1"/>
         <v>125.90277777777777</v>
       </c>
@@ -5300,7 +5294,7 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <f t="shared" si="1"/>
         <v>130.28205128205127</v>
       </c>
@@ -5356,7 +5350,7 @@
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <f t="shared" si="1"/>
         <v>134.78571428571428</v>
       </c>
@@ -5412,7 +5406,7 @@
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <f t="shared" si="1"/>
         <v>422.16483516483515</v>
       </c>
@@ -5468,7 +5462,7 @@
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <f t="shared" si="1"/>
         <v>432.19387755102042</v>
       </c>
@@ -5524,7 +5518,7 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="17">
         <f t="shared" si="1"/>
         <v>442.71428571428572</v>
       </c>
@@ -5580,7 +5574,7 @@
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <f t="shared" si="1"/>
         <v>453.63392857142856</v>
       </c>
@@ -5636,7 +5630,7 @@
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="17">
         <f t="shared" si="1"/>
         <v>464.88235294117646</v>
       </c>
@@ -5692,7 +5686,7 @@
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="17">
         <f t="shared" si="1"/>
         <v>476.39682539682542</v>
       </c>
@@ -5748,7 +5742,7 @@
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="17">
         <f t="shared" si="1"/>
         <v>484.5149253731343</v>
       </c>
@@ -5804,7 +5798,7 @@
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <f t="shared" si="1"/>
         <v>493.06338028169012</v>
       </c>
@@ -5860,7 +5854,7 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <f t="shared" si="1"/>
         <v>501.98</v>
       </c>
@@ -5916,7 +5910,7 @@
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <f t="shared" si="1"/>
         <v>511.20886075949369</v>
       </c>
@@ -5972,7 +5966,7 @@
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="17">
         <f t="shared" si="1"/>
         <v>1062.6566265060242</v>
       </c>
@@ -6028,7 +6022,7 @@
         <f t="shared" si="0"/>
         <v>174</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="17">
         <f t="shared" si="1"/>
         <v>1082.5114942528735</v>
       </c>
@@ -6084,7 +6078,7 @@
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="17">
         <f t="shared" si="1"/>
         <v>1096.7486338797814</v>
       </c>
@@ -6140,7 +6134,7 @@
         <f t="shared" si="0"/>
         <v>191</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="17">
         <f t="shared" si="1"/>
         <v>1117.5130890052355</v>
       </c>
@@ -6196,7 +6190,7 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="17">
         <f t="shared" si="1"/>
         <v>1132.885</v>
       </c>
@@ -6252,7 +6246,7 @@
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="17">
         <f t="shared" si="1"/>
         <v>1148.8086124401914</v>
       </c>
@@ -6308,7 +6302,7 @@
         <f t="shared" si="0"/>
         <v>217</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="17">
         <f t="shared" si="1"/>
         <v>1170.5852534562212</v>
       </c>
@@ -6364,7 +6358,7 @@
         <f t="shared" si="0"/>
         <v>227</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="17">
         <f t="shared" si="1"/>
         <v>1182.0484581497797</v>
       </c>
@@ -6420,7 +6414,7 @@
         <f t="shared" si="0"/>
         <v>236</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="17">
         <f t="shared" si="1"/>
         <v>1199.2584745762713</v>
       </c>
@@ -6476,7 +6470,7 @@
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="17">
         <f t="shared" si="1"/>
         <v>1216.8040816326532</v>
       </c>
@@ -6532,7 +6526,7 @@
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="17">
         <f t="shared" si="1"/>
         <v>2086.5551181102364</v>
       </c>
@@ -6588,7 +6582,7 @@
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="17">
         <f t="shared" si="1"/>
         <v>2109.151515151515</v>
       </c>
@@ -6644,7 +6638,7 @@
         <f t="shared" si="0"/>
         <v>274</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="17">
         <f t="shared" si="1"/>
         <v>2132.5145985401459</v>
       </c>
@@ -6700,7 +6694,7 @@
         <f t="shared" si="0"/>
         <v>283</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="17">
         <f t="shared" si="1"/>
         <v>2164.1837455830387</v>
       </c>
@@ -6756,7 +6750,7 @@
         <f t="shared" si="0"/>
         <v>293</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="17">
         <f t="shared" si="1"/>
         <v>2188.6757679180887</v>
       </c>
@@ -6812,7 +6806,7 @@
         <f t="shared" si="0"/>
         <v>303</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="17">
         <f t="shared" si="1"/>
         <v>2213.7359735973596</v>
       </c>
@@ -6868,7 +6862,7 @@
         <f t="shared" si="0"/>
         <v>313</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="17">
         <f t="shared" si="1"/>
         <v>2239.3130990415334</v>
       </c>
@@ -6924,7 +6918,7 @@
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="17">
         <f t="shared" si="1"/>
         <v>2258.3672839506171</v>
       </c>
@@ -6980,7 +6974,7 @@
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="17">
         <f t="shared" si="1"/>
         <v>2284.9640718562873</v>
       </c>
@@ -7036,7 +7030,7 @@
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="17">
         <f t="shared" si="1"/>
         <v>2311.9447674418607</v>
       </c>
@@ -7092,7 +7086,7 @@
         <f t="shared" si="0"/>
         <v>355</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="17">
         <f t="shared" si="1"/>
         <v>3533.5239436619718</v>
       </c>
@@ -7148,7 +7142,7 @@
         <f t="shared" si="0"/>
         <v>366</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="17">
         <f t="shared" si="1"/>
         <v>3565.789617486339</v>
       </c>
@@ -7204,7 +7198,7 @@
         <f t="shared" si="0"/>
         <v>376</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="17">
         <f t="shared" si="1"/>
         <v>3608.4069148936169</v>
       </c>
@@ -7260,7 +7254,7 @@
         <f t="shared" si="0"/>
         <v>387</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="17">
         <f t="shared" si="1"/>
         <v>3641.9767441860463</v>
       </c>
@@ -7316,7 +7310,7 @@
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="17">
         <f t="shared" si="1"/>
         <v>3676.21608040201</v>
       </c>
@@ -7372,7 +7366,7 @@
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="17">
         <f t="shared" si="1"/>
         <v>3711.0635696821514</v>
       </c>
@@ -7428,7 +7422,7 @@
         <f t="shared" si="0"/>
         <v>421</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="17">
         <f t="shared" si="1"/>
         <v>3737.5795724465556</v>
       </c>
@@ -7484,7 +7478,7 @@
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C62" s="17">
         <f t="shared" si="1"/>
         <v>3773.6574074074074</v>
       </c>
@@ -7540,7 +7534,7 @@
         <f t="shared" si="0"/>
         <v>443</v>
       </c>
-      <c r="C63" s="18">
+      <c r="C63" s="17">
         <f t="shared" si="1"/>
         <v>3810.2076749435664</v>
       </c>
@@ -7596,7 +7590,7 @@
         <f t="shared" si="0"/>
         <v>455</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="17">
         <f t="shared" si="1"/>
         <v>3838.7428571428572</v>
       </c>
@@ -7652,7 +7646,7 @@
         <f t="shared" si="0"/>
         <v>466</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="17">
         <f t="shared" si="1"/>
         <v>5466.1309012875536</v>
       </c>
@@ -7708,7 +7702,7 @@
         <f t="shared" si="0"/>
         <v>478</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="17">
         <f t="shared" si="1"/>
         <v>5508.0167364016734</v>
       </c>
@@ -7764,7 +7758,7 @@
         <f t="shared" si="0"/>
         <v>490</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="17">
         <f t="shared" si="1"/>
         <v>5550.7387755102045</v>
       </c>
@@ -7820,7 +7814,7 @@
         <f t="shared" si="0"/>
         <v>502</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C68" s="17">
         <f t="shared" si="1"/>
         <v>5594.2370517928284</v>
       </c>
@@ -7876,7 +7870,7 @@
         <f t="shared" si="0"/>
         <v>513</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="17">
         <f t="shared" si="1"/>
         <v>5649.4483430799219</v>
       </c>
@@ -7932,7 +7926,7 @@
         <f t="shared" ref="B70:B105" si="10">_xlfn.CEILING.MATH(1 + A70^$B$3)</f>
         <v>526</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="17">
         <f t="shared" ref="C70:C104" si="11">I75/B70</f>
         <v>5683.3498098859318</v>
       </c>
@@ -7988,7 +7982,7 @@
         <f t="shared" si="10"/>
         <v>538</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="17">
         <f t="shared" si="11"/>
         <v>5728.871747211896</v>
       </c>
@@ -8044,7 +8038,7 @@
         <f t="shared" si="10"/>
         <v>550</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C72" s="17">
         <f t="shared" si="11"/>
         <v>5774.9781818181818</v>
       </c>
@@ -8100,7 +8094,7 @@
         <f t="shared" si="10"/>
         <v>562</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C73" s="17">
         <f t="shared" si="11"/>
         <v>5821.6352313167263</v>
       </c>
@@ -8156,7 +8150,7 @@
         <f t="shared" si="10"/>
         <v>575</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C74" s="17">
         <f t="shared" si="11"/>
         <v>5858.6</v>
       </c>
@@ -8212,7 +8206,7 @@
         <f t="shared" si="10"/>
         <v>587</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="17">
         <f t="shared" si="11"/>
         <v>7918.8023850085183</v>
       </c>
@@ -8268,7 +8262,7 @@
         <f t="shared" si="10"/>
         <v>600</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="17">
         <f t="shared" si="11"/>
         <v>7970.16</v>
       </c>
@@ -8324,7 +8318,7 @@
         <f t="shared" si="10"/>
         <v>612</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C77" s="17">
         <f t="shared" si="11"/>
         <v>8035.5408496732025</v>
       </c>
@@ -8380,7 +8374,7 @@
         <f t="shared" si="10"/>
         <v>625</v>
       </c>
-      <c r="C78" s="18">
+      <c r="C78" s="17">
         <f t="shared" si="11"/>
         <v>8088.4863999999998</v>
       </c>
@@ -8436,7 +8430,7 @@
         <f t="shared" si="10"/>
         <v>638</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C79" s="17">
         <f t="shared" si="11"/>
         <v>8142.2476489028213</v>
       </c>
@@ -8492,7 +8486,7 @@
         <f t="shared" si="10"/>
         <v>651</v>
       </c>
-      <c r="C80" s="18">
+      <c r="C80" s="17">
         <f t="shared" si="11"/>
         <v>8196.7757296466971</v>
       </c>
@@ -8548,7 +8542,7 @@
         <f t="shared" si="10"/>
         <v>664</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C81" s="17">
         <f t="shared" si="11"/>
         <v>8252.0271084337346</v>
       </c>
@@ -8604,7 +8598,7 @@
         <f t="shared" si="10"/>
         <v>677</v>
       </c>
-      <c r="C82" s="18">
+      <c r="C82" s="17">
         <f t="shared" si="11"/>
         <v>8307.9586410635147</v>
       </c>
@@ -8660,7 +8654,7 @@
         <f t="shared" si="10"/>
         <v>690</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C83" s="17">
         <f t="shared" si="11"/>
         <v>8364.5318840579712</v>
       </c>
@@ -8716,7 +8710,7 @@
         <f t="shared" si="10"/>
         <v>704</v>
       </c>
-      <c r="C84" s="18">
+      <c r="C84" s="17">
         <f t="shared" si="11"/>
         <v>8409.75</v>
       </c>
@@ -8772,7 +8766,7 @@
         <f t="shared" si="10"/>
         <v>717</v>
       </c>
-      <c r="C85" s="18">
+      <c r="C85" s="17">
         <f t="shared" si="11"/>
         <v>10934.450488145048</v>
       </c>
@@ -8828,7 +8822,7 @@
         <f t="shared" si="10"/>
         <v>730</v>
       </c>
-      <c r="C86" s="18">
+      <c r="C86" s="17">
         <f t="shared" si="11"/>
         <v>11009.898630136986</v>
       </c>
@@ -8884,7 +8878,7 @@
         <f t="shared" si="10"/>
         <v>744</v>
       </c>
-      <c r="C87" s="18">
+      <c r="C87" s="17">
         <f t="shared" si="11"/>
         <v>11071.103494623656</v>
       </c>
@@ -8940,7 +8934,7 @@
         <f t="shared" si="10"/>
         <v>758</v>
       </c>
-      <c r="C88" s="18">
+      <c r="C88" s="17">
         <f t="shared" si="11"/>
         <v>11133.279683377308</v>
       </c>
@@ -8996,7 +8990,7 @@
         <f t="shared" si="10"/>
         <v>771</v>
       </c>
-      <c r="C89" s="18">
+      <c r="C89" s="17">
         <f t="shared" si="11"/>
         <v>11210.896238651103</v>
       </c>
@@ -9052,7 +9046,7 @@
         <f t="shared" si="10"/>
         <v>785</v>
       </c>
-      <c r="C90" s="18">
+      <c r="C90" s="17">
         <f t="shared" si="11"/>
         <v>11274.68280254777</v>
       </c>
@@ -9108,7 +9102,7 @@
         <f t="shared" si="10"/>
         <v>799</v>
       </c>
-      <c r="C91" s="18">
+      <c r="C91" s="17">
         <f t="shared" si="11"/>
         <v>11339.300375469336</v>
       </c>
@@ -9164,7 +9158,7 @@
         <f t="shared" si="10"/>
         <v>813</v>
       </c>
-      <c r="C92" s="18">
+      <c r="C92" s="17">
         <f t="shared" si="11"/>
         <v>11404.706027060271</v>
       </c>
@@ -9220,7 +9214,7 @@
         <f t="shared" si="10"/>
         <v>827</v>
       </c>
-      <c r="C93" s="18">
+      <c r="C93" s="17">
         <f t="shared" si="11"/>
         <v>11470.859733978235</v>
       </c>
@@ -9276,7 +9270,7 @@
         <f t="shared" si="10"/>
         <v>841</v>
       </c>
-      <c r="C94" s="18">
+      <c r="C94" s="17">
         <f t="shared" si="11"/>
         <v>11537.724137931034</v>
       </c>
@@ -9332,7 +9326,7 @@
         <f t="shared" si="10"/>
         <v>855</v>
       </c>
-      <c r="C95" s="18">
+      <c r="C95" s="17">
         <f t="shared" si="11"/>
         <v>14557.643274853801</v>
       </c>
@@ -9388,7 +9382,7 @@
         <f t="shared" si="10"/>
         <v>870</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C96" s="17">
         <f t="shared" si="11"/>
         <v>14626.341379310345</v>
       </c>
@@ -9444,7 +9438,7 @@
         <f t="shared" si="10"/>
         <v>884</v>
       </c>
-      <c r="C97" s="18">
+      <c r="C97" s="17">
         <f t="shared" si="11"/>
         <v>14712.807692307691</v>
       </c>
@@ -9500,7 +9494,7 @@
         <f t="shared" si="10"/>
         <v>898</v>
       </c>
-      <c r="C98" s="18">
+      <c r="C98" s="17">
         <f t="shared" si="11"/>
         <v>14800.001113585746</v>
       </c>
@@ -9556,7 +9550,7 @@
         <f t="shared" si="10"/>
         <v>913</v>
       </c>
-      <c r="C99" s="18">
+      <c r="C99" s="17">
         <f t="shared" si="11"/>
         <v>14871.580503833517</v>
       </c>
@@ -9612,7 +9606,7 @@
         <f t="shared" si="10"/>
         <v>927</v>
       </c>
-      <c r="C100" s="18">
+      <c r="C100" s="17">
         <f t="shared" si="11"/>
         <v>14960.277238403452</v>
       </c>
@@ -9668,7 +9662,7 @@
         <f t="shared" si="10"/>
         <v>942</v>
       </c>
-      <c r="C101" s="18">
+      <c r="C101" s="17">
         <f t="shared" si="11"/>
         <v>15033.626326963906</v>
       </c>
@@ -9724,7 +9718,7 @@
         <f t="shared" si="10"/>
         <v>957</v>
       </c>
-      <c r="C102" s="18">
+      <c r="C102" s="17">
         <f t="shared" si="11"/>
         <v>15107.886102403343</v>
       </c>
@@ -9780,7 +9774,7 @@
         <f t="shared" si="10"/>
         <v>972</v>
       </c>
-      <c r="C103" s="18">
+      <c r="C103" s="17">
         <f t="shared" si="11"/>
         <v>15183.01646090535</v>
       </c>
@@ -9836,7 +9830,7 @@
         <f t="shared" si="10"/>
         <v>987</v>
       </c>
-      <c r="C104" s="18">
+      <c r="C104" s="17">
         <f t="shared" si="11"/>
         <v>15258.976697061804</v>
       </c>
@@ -10159,7 +10153,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10170,393 +10164,393 @@
         <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>620</v>
+      <c r="B4" s="14" t="s">
+        <v>616</v>
       </c>
       <c r="C4" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D5" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D9" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G9" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G10" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D11" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
+        <v>589</v>
+      </c>
+      <c r="G11" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" t="s">
         <v>593</v>
       </c>
-      <c r="G11" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" t="s">
-        <v>597</v>
-      </c>
       <c r="D12" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G12" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D13" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G13" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>637</v>
+      <c r="B15" s="14" t="s">
+        <v>633</v>
       </c>
       <c r="C15" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D15" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
       <c r="C16" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D16" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D17" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G17" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
+      <c r="B18" s="14"/>
       <c r="C18" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D19" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
+      <c r="B20" s="14"/>
       <c r="C20" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D20" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
+        <v>626</v>
+      </c>
+      <c r="G20" t="s">
         <v>630</v>
       </c>
-      <c r="G20" t="s">
-        <v>634</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
       <c r="C21" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D21" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="G21" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
+      <c r="B22" s="14"/>
       <c r="C22" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
+      <c r="B24" s="14"/>
       <c r="C24" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D24" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G32" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -10694,10 +10688,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>211</v>
@@ -10708,13 +10702,13 @@
         <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D3" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -10722,13 +10716,13 @@
         <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D4" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -10736,13 +10730,13 @@
         <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D5" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E5" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -10750,7 +10744,7 @@
         <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
@@ -10758,16 +10752,16 @@
         <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>835</v>
-      </c>
-      <c r="E7" s="17"/>
+        <v>831</v>
+      </c>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -10775,10 +10769,10 @@
         <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E9" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
@@ -10786,10 +10780,10 @@
         <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E10" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -10797,10 +10791,10 @@
         <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E11" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -10808,7 +10802,7 @@
         <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -10837,7 +10831,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -10852,7 +10846,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>210</v>
@@ -10875,10 +10869,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
+        <v>716</v>
+      </c>
+      <c r="H4" t="s">
         <v>720</v>
-      </c>
-      <c r="H4" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -10889,13 +10883,13 @@
         <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -10909,7 +10903,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -10926,7 +10920,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10948,7 +10942,7 @@
         <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>220</v>
@@ -10957,10 +10951,10 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H11" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -10978,7 +10972,7 @@
         <v>229</v>
       </c>
       <c r="H12" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -10989,7 +10983,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="H13" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -10997,16 +10991,16 @@
         <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H14" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11014,7 +11008,7 @@
         <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11022,7 +11016,7 @@
         <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -11030,7 +11024,7 @@
         <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -11038,7 +11032,7 @@
         <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G18" t="s">
         <v>330</v>
@@ -11058,7 +11052,7 @@
         <v>330</v>
       </c>
       <c r="H19" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -11066,7 +11060,7 @@
         <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -11074,7 +11068,7 @@
         <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -11082,7 +11076,7 @@
         <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -11090,16 +11084,16 @@
         <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H23" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -11107,7 +11101,7 @@
         <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -11118,7 +11112,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -11129,7 +11123,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -11146,7 +11140,7 @@
         <v>330</v>
       </c>
       <c r="H27" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -11154,7 +11148,7 @@
         <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -11162,7 +11156,7 @@
         <v>133</v>
       </c>
       <c r="H29" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -11170,7 +11164,7 @@
         <v>134</v>
       </c>
       <c r="H30" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -11187,7 +11181,7 @@
         <v>330</v>
       </c>
       <c r="H31" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -11195,7 +11189,7 @@
         <v>142</v>
       </c>
       <c r="H32" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -11203,7 +11197,7 @@
         <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D33" t="s">
         <v>222</v>
@@ -11212,10 +11206,10 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H33" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -11223,7 +11217,7 @@
         <v>152</v>
       </c>
       <c r="H34" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -11231,7 +11225,7 @@
         <v>153</v>
       </c>
       <c r="H35" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -11239,7 +11233,7 @@
         <v>154</v>
       </c>
       <c r="H36" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -11247,10 +11241,10 @@
         <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="H37" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -11258,7 +11252,7 @@
         <v>156</v>
       </c>
       <c r="H38" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -11266,7 +11260,7 @@
         <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -11274,7 +11268,7 @@
         <v>158</v>
       </c>
       <c r="H40" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -11355,7 +11349,7 @@
         <v>228</v>
       </c>
       <c r="D46" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -11378,7 +11372,7 @@
         <v>333</v>
       </c>
       <c r="H47" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -11392,7 +11386,7 @@
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -11414,7 +11408,7 @@
         <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -11521,7 +11515,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -11529,16 +11523,16 @@
         <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E58">
         <v>5</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H58" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -11546,7 +11540,7 @@
         <v>192</v>
       </c>
       <c r="H59" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -11554,10 +11548,10 @@
         <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="H60" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -11565,7 +11559,7 @@
         <v>194</v>
       </c>
       <c r="H61" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -11576,13 +11570,13 @@
         <v>214</v>
       </c>
       <c r="D62" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -11599,27 +11593,27 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C64" t="s">
         <v>240</v>
       </c>
       <c r="D64" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E64">
         <v>7</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="H64" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C65" t="s">
         <v>239</v>
@@ -11628,10 +11622,10 @@
         <v>9</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H65" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -11642,16 +11636,16 @@
         <v>244</v>
       </c>
       <c r="D66" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H66" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -11660,12 +11654,12 @@
       </c>
       <c r="G67" s="9"/>
       <c r="H67" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C69" t="s">
         <v>208</v>
@@ -11677,10 +11671,10 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H69" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -11691,10 +11685,10 @@
         <v>213</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H70" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -11702,7 +11696,7 @@
         <v>312</v>
       </c>
       <c r="H71" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -11710,19 +11704,19 @@
         <v>321</v>
       </c>
       <c r="C72" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D72" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="H72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -11733,10 +11727,10 @@
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="H73" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -11744,10 +11738,10 @@
         <v>323</v>
       </c>
       <c r="G74" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="H74" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -11759,16 +11753,16 @@
         <v>212</v>
       </c>
       <c r="D75" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="H75" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -11777,7 +11771,7 @@
         <v>332</v>
       </c>
       <c r="H76" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -11786,7 +11780,7 @@
         <v>333</v>
       </c>
       <c r="H77" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -11795,7 +11789,7 @@
         <v>334</v>
       </c>
       <c r="H78" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -11804,7 +11798,7 @@
         <v>335</v>
       </c>
       <c r="H79" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -11813,7 +11807,7 @@
         <v>336</v>
       </c>
       <c r="H80" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -11822,7 +11816,7 @@
         <v>337</v>
       </c>
       <c r="H81" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -11831,7 +11825,7 @@
         <v>338</v>
       </c>
       <c r="H82" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -11840,16 +11834,16 @@
         <v>339</v>
       </c>
       <c r="C83" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E83">
         <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="H83" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -11858,7 +11852,7 @@
         <v>340</v>
       </c>
       <c r="H84" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -11867,7 +11861,7 @@
         <v>341</v>
       </c>
       <c r="H85" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -11876,7 +11870,7 @@
         <v>342</v>
       </c>
       <c r="H86" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -11885,13 +11879,13 @@
         <v>343</v>
       </c>
       <c r="C87" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G87" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="H87" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -11900,7 +11894,7 @@
         <v>344</v>
       </c>
       <c r="H88" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -11909,7 +11903,7 @@
         <v>345</v>
       </c>
       <c r="H89" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -11918,7 +11912,7 @@
         <v>346</v>
       </c>
       <c r="H90" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -11943,7 +11937,7 @@
         <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -11952,7 +11946,7 @@
         <v>293</v>
       </c>
       <c r="H93" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -11963,7 +11957,7 @@
         <v>294</v>
       </c>
       <c r="H94" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -11971,7 +11965,7 @@
         <v>421</v>
       </c>
       <c r="C95" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -11985,7 +11979,7 @@
         <v>422</v>
       </c>
       <c r="C96" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -11993,7 +11987,7 @@
         <v>423</v>
       </c>
       <c r="C97" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -12001,7 +11995,7 @@
         <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -12009,7 +12003,7 @@
         <v>425</v>
       </c>
       <c r="C99" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E99">
         <v>35</v>
@@ -12020,7 +12014,7 @@
         <v>426</v>
       </c>
       <c r="C100" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="E100">
         <v>20</v>
@@ -12051,7 +12045,7 @@
         <v>332</v>
       </c>
       <c r="H102" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -12059,7 +12053,7 @@
         <v>442</v>
       </c>
       <c r="H103" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -12067,7 +12061,7 @@
         <v>443</v>
       </c>
       <c r="H104" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
@@ -12213,13 +12207,13 @@
         <v>1001</v>
       </c>
       <c r="C3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -12228,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -12236,13 +12230,13 @@
         <v>1002</v>
       </c>
       <c r="C4" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D4" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -12256,7 +12250,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -12285,10 +12279,10 @@
         <v>1102</v>
       </c>
       <c r="C7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -12296,10 +12290,10 @@
         <v>1103</v>
       </c>
       <c r="C8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -12307,10 +12301,10 @@
         <v>1104</v>
       </c>
       <c r="C9" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -12318,10 +12312,10 @@
         <v>1105</v>
       </c>
       <c r="C10" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E10" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -12329,10 +12323,10 @@
         <v>1106</v>
       </c>
       <c r="C11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -12340,10 +12334,10 @@
         <v>1116</v>
       </c>
       <c r="C12" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E12" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -12351,10 +12345,10 @@
         <v>1117</v>
       </c>
       <c r="C13" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E13" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -12362,10 +12356,10 @@
         <v>1118</v>
       </c>
       <c r="C14" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E14" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -12373,10 +12367,10 @@
         <v>1119</v>
       </c>
       <c r="C15" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E15" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -12384,10 +12378,10 @@
         <v>1120</v>
       </c>
       <c r="C16" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E16" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -12714,29 +12708,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>441</v>
+    </row>
+    <row r="4" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -12748,16 +12742,16 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -12765,27 +12759,27 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -12793,13 +12787,13 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D9" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E9" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -12807,159 +12801,159 @@
         <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E12" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C13" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E13" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C14" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D14" t="s">
-        <v>450</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C15" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D15" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C16" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E16" t="s">
-        <v>452</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>468</v>
+        <v>448</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C17" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D17" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E17" t="s">
-        <v>453</v>
-      </c>
-      <c r="F17" s="13"/>
+        <v>449</v>
+      </c>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C18" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D18" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E18" t="s">
-        <v>464</v>
-      </c>
-      <c r="F18" s="13"/>
+        <v>460</v>
+      </c>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C19" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D19" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E19" t="s">
-        <v>465</v>
-      </c>
-      <c r="F19" s="13"/>
+        <v>461</v>
+      </c>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C20" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D20" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E20" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C21" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D21" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E21" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -12967,125 +12961,125 @@
         <v>195</v>
       </c>
       <c r="C22" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D22" t="s">
         <v>197</v>
       </c>
       <c r="E22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C23" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D23" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E23" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C24" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D24" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E24" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C25" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D25" t="s">
+        <v>458</v>
+      </c>
+      <c r="E25" t="s">
         <v>462</v>
-      </c>
-      <c r="E25" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C26" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C27" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C28" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C29" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C30" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C31" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C33" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E33" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F33" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C34" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -13101,11 +13095,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE22176D-CFFA-4A34-AB14-C1369F5F19BF}">
   <dimension ref="A1:Y227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D174" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W196" sqref="W196"/>
+      <selection pane="bottomRight" activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13127,23 +13121,23 @@
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
     </row>
@@ -13738,8 +13732,8 @@
       <c r="D42" t="s">
         <v>30</v>
       </c>
-      <c r="L42" s="10" t="s">
-        <v>407</v>
+      <c r="L42" s="18">
+        <v>5</v>
       </c>
       <c r="N42">
         <v>3</v>
@@ -13748,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="W42" t="s">
-        <v>360</v>
+        <v>887</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
@@ -13756,13 +13750,13 @@
         <v>2311</v>
       </c>
       <c r="C43" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
-      <c r="L43" s="10" t="s">
-        <v>408</v>
+      <c r="L43" s="18">
+        <v>8</v>
       </c>
       <c r="N43">
         <v>5</v>
@@ -13774,7 +13768,7 @@
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>361</v>
+        <v>888</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
@@ -13800,7 +13794,7 @@
         <v>8</v>
       </c>
       <c r="W44" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -13826,7 +13820,7 @@
         <v>6</v>
       </c>
       <c r="W45" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
@@ -13852,7 +13846,7 @@
         <v>20</v>
       </c>
       <c r="W46" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
@@ -13878,7 +13872,7 @@
         <v>30</v>
       </c>
       <c r="W47" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
@@ -13930,7 +13924,7 @@
         <v>20</v>
       </c>
       <c r="W49" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
@@ -13956,7 +13950,7 @@
         <v>6</v>
       </c>
       <c r="W50" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
@@ -13985,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="W51" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -14011,7 +14005,7 @@
         <v>6</v>
       </c>
       <c r="W52" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -14037,7 +14031,7 @@
         <v>20</v>
       </c>
       <c r="W53" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -14063,7 +14057,7 @@
         <v>30</v>
       </c>
       <c r="W54" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
@@ -14089,7 +14083,7 @@
         <v>5</v>
       </c>
       <c r="W55" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
@@ -14115,7 +14109,7 @@
         <v>35</v>
       </c>
       <c r="W56" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
@@ -14141,7 +14135,7 @@
         <v>30</v>
       </c>
       <c r="W57" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -14173,7 +14167,7 @@
         <v>1</v>
       </c>
       <c r="W58" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -14199,7 +14193,7 @@
         <v>12</v>
       </c>
       <c r="W59" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
@@ -14225,7 +14219,7 @@
         <v>30</v>
       </c>
       <c r="W60" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
@@ -14277,7 +14271,7 @@
         <v>8</v>
       </c>
       <c r="W62" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
@@ -14306,7 +14300,7 @@
         <v>4</v>
       </c>
       <c r="W63" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
@@ -14332,7 +14326,7 @@
         <v>5</v>
       </c>
       <c r="W64" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
@@ -14387,7 +14381,7 @@
         <v>20</v>
       </c>
       <c r="W66" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
@@ -14413,7 +14407,7 @@
         <v>35</v>
       </c>
       <c r="W67" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
@@ -14445,7 +14439,7 @@
         <v>1</v>
       </c>
       <c r="W68" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
@@ -14471,7 +14465,7 @@
         <v>30</v>
       </c>
       <c r="W69" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
@@ -14523,7 +14517,7 @@
         <v>8</v>
       </c>
       <c r="W71" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
@@ -14578,7 +14572,7 @@
         <v>40</v>
       </c>
       <c r="W73" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.25">
@@ -14759,7 +14753,7 @@
         <v>2501</v>
       </c>
       <c r="C89" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -14809,7 +14803,7 @@
         <v>2511</v>
       </c>
       <c r="C93" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -14854,7 +14848,7 @@
         <v>2521</v>
       </c>
       <c r="C96" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -14868,7 +14862,7 @@
         <v>2531</v>
       </c>
       <c r="C97" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -14882,7 +14876,7 @@
         <v>2541</v>
       </c>
       <c r="C98" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E98">
         <v>5</v>
@@ -14896,7 +14890,7 @@
         <v>2551</v>
       </c>
       <c r="C99" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="E99">
         <v>6</v>
@@ -14910,7 +14904,7 @@
         <v>2561</v>
       </c>
       <c r="C100" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E100">
         <v>7</v>
@@ -14924,7 +14918,7 @@
         <v>2571</v>
       </c>
       <c r="C101" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E101">
         <v>8</v>
@@ -14938,7 +14932,7 @@
         <v>2581</v>
       </c>
       <c r="C102" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E102">
         <v>9</v>
@@ -14952,7 +14946,7 @@
         <v>2591</v>
       </c>
       <c r="C103" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E103">
         <v>10</v>
@@ -15058,7 +15052,7 @@
         <v>2641</v>
       </c>
       <c r="C112" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -15383,7 +15377,7 @@
         <v>2801</v>
       </c>
       <c r="C137" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D137" t="s">
         <v>27</v>
@@ -15394,7 +15388,7 @@
         <v>2802</v>
       </c>
       <c r="C138" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.25">
@@ -15402,7 +15396,7 @@
         <v>2803</v>
       </c>
       <c r="C139" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.25">
@@ -15410,7 +15404,7 @@
         <v>2804</v>
       </c>
       <c r="C140" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.25">
@@ -15418,7 +15412,7 @@
         <v>2805</v>
       </c>
       <c r="C141" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.25">
@@ -15454,7 +15448,7 @@
         <v>2811</v>
       </c>
       <c r="C147" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="E147">
         <v>2</v>
@@ -15465,7 +15459,7 @@
         <v>2812</v>
       </c>
       <c r="C148" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="149" spans="2:25" x14ac:dyDescent="0.25">
@@ -15473,7 +15467,7 @@
         <v>2813</v>
       </c>
       <c r="C149" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="150" spans="2:25" x14ac:dyDescent="0.25">
@@ -15481,7 +15475,7 @@
         <v>2814</v>
       </c>
       <c r="C150" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="151" spans="2:25" x14ac:dyDescent="0.25">
@@ -15497,7 +15491,7 @@
         <v>2821</v>
       </c>
       <c r="C152" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -15508,7 +15502,7 @@
         <v>2822</v>
       </c>
       <c r="C153" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="154" spans="2:25" x14ac:dyDescent="0.25">
@@ -15516,7 +15510,7 @@
         <v>2823</v>
       </c>
       <c r="C154" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="155" spans="2:25" x14ac:dyDescent="0.25">
@@ -15524,7 +15518,7 @@
         <v>2834</v>
       </c>
       <c r="C155" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="156" spans="2:25" x14ac:dyDescent="0.25">
@@ -15532,7 +15526,7 @@
         <v>2825</v>
       </c>
       <c r="C156" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="Y156" t="s">
         <v>203</v>
@@ -15543,7 +15537,7 @@
         <v>2831</v>
       </c>
       <c r="C157" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E157">
         <v>4</v>
@@ -15554,7 +15548,7 @@
         <v>2832</v>
       </c>
       <c r="C158" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="159" spans="2:25" x14ac:dyDescent="0.25">
@@ -15562,7 +15556,7 @@
         <v>2841</v>
       </c>
       <c r="C159" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E159">
         <v>5</v>
@@ -15573,7 +15567,7 @@
         <v>2842</v>
       </c>
       <c r="C160" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
@@ -15581,7 +15575,7 @@
         <v>2851</v>
       </c>
       <c r="C161" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E161">
         <v>6</v>
@@ -15592,7 +15586,7 @@
         <v>2852</v>
       </c>
       <c r="C162" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
@@ -15600,7 +15594,7 @@
         <v>2853</v>
       </c>
       <c r="C163" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
@@ -15608,7 +15602,7 @@
         <v>2861</v>
       </c>
       <c r="C164" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E164">
         <v>7</v>
@@ -15619,7 +15613,7 @@
         <v>2862</v>
       </c>
       <c r="C165" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.25">
@@ -15627,7 +15621,7 @@
         <v>2863</v>
       </c>
       <c r="C166" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.25">
@@ -15643,7 +15637,7 @@
         <v>2871</v>
       </c>
       <c r="C168" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E168">
         <v>8</v>
@@ -15654,7 +15648,7 @@
         <v>2872</v>
       </c>
       <c r="C169" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.25">
@@ -15662,7 +15656,7 @@
         <v>2873</v>
       </c>
       <c r="C170" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.25">
@@ -15670,7 +15664,7 @@
         <v>2881</v>
       </c>
       <c r="C171" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E171">
         <v>9</v>
@@ -15681,7 +15675,7 @@
         <v>2882</v>
       </c>
       <c r="C172" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
@@ -15689,7 +15683,7 @@
         <v>2883</v>
       </c>
       <c r="C173" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">
@@ -15697,7 +15691,7 @@
         <v>2891</v>
       </c>
       <c r="C174" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E174">
         <v>10</v>
@@ -15840,7 +15834,7 @@
         <v>2917</v>
       </c>
       <c r="C186" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D186" t="s">
         <v>260</v>
@@ -16000,7 +15994,7 @@
         <v>2.5</v>
       </c>
       <c r="W194" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="195" spans="2:23" x14ac:dyDescent="0.25">
@@ -16040,7 +16034,7 @@
         <v>2</v>
       </c>
       <c r="W196" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="197" spans="2:23" x14ac:dyDescent="0.25">
@@ -16048,7 +16042,7 @@
         <v>2941</v>
       </c>
       <c r="C197" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D197" t="s">
         <v>283</v>
@@ -16059,7 +16053,7 @@
         <v>2942</v>
       </c>
       <c r="C198" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D198" t="s">
         <v>283</v>
@@ -16073,7 +16067,7 @@
         <v>2943</v>
       </c>
       <c r="C199" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D199" t="s">
         <v>283</v>
@@ -16087,7 +16081,7 @@
         <v>2944</v>
       </c>
       <c r="C200" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D200" t="s">
         <v>283</v>
@@ -16107,7 +16101,7 @@
         <v>2945</v>
       </c>
       <c r="C201" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D201" t="s">
         <v>283</v>
@@ -16121,7 +16115,7 @@
         <v>2946</v>
       </c>
       <c r="C202" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D202" t="s">
         <v>283</v>
@@ -16135,7 +16129,7 @@
         <v>2947</v>
       </c>
       <c r="C203" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D203" t="s">
         <v>283</v>
@@ -16149,7 +16143,7 @@
         <v>2948</v>
       </c>
       <c r="C204" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D204" t="s">
         <v>283</v>
@@ -16526,8 +16520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DAF6DD-D8FA-4653-B50E-0B687056C45B}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16561,7 +16555,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -16587,7 +16581,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -16615,7 +16609,7 @@
         <v>3103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D5" t="s">
         <v>282</v>
@@ -16675,7 +16669,7 @@
         <v>3108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D8" t="s">
         <v>282</v>
@@ -16692,10 +16686,10 @@
         <v>3312</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9">
@@ -16710,10 +16704,10 @@
         <v>3112</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10">
@@ -16731,7 +16725,7 @@
         <v>7.62</v>
       </c>
       <c r="D11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11">
@@ -16749,7 +16743,7 @@
         <v>7.62</v>
       </c>
       <c r="D12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12">
@@ -16767,7 +16761,7 @@
         <v>7.62</v>
       </c>
       <c r="D13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13">
@@ -16782,7 +16776,7 @@
         <v>7.62</v>
       </c>
       <c r="D14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14">
@@ -16794,10 +16788,10 @@
         <v>3117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15">
@@ -16809,10 +16803,10 @@
         <v>3118</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16">
@@ -16824,10 +16818,10 @@
         <v>3119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17">
@@ -16842,10 +16836,10 @@
         <v>3120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D18" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18">
@@ -16863,7 +16857,7 @@
         <v>5.56</v>
       </c>
       <c r="D19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19">
@@ -16878,7 +16872,7 @@
         <v>7.62</v>
       </c>
       <c r="D20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20">
@@ -16890,10 +16884,10 @@
         <v>3123</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21">
@@ -16908,10 +16902,10 @@
         <v>3124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22">
@@ -16929,7 +16923,7 @@
         <v>7.62</v>
       </c>
       <c r="D23" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23">
@@ -16947,7 +16941,7 @@
         <v>7.62</v>
       </c>
       <c r="D24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24">
@@ -16962,10 +16956,10 @@
         <v>3127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25">
@@ -16980,10 +16974,10 @@
         <v>3128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D26" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26">
@@ -16995,10 +16989,10 @@
         <v>3129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D27" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27">
@@ -17013,10 +17007,10 @@
         <v>3130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28">
@@ -17031,10 +17025,10 @@
         <v>3131</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29">
@@ -17046,10 +17040,10 @@
         <v>3132</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D30" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30">
@@ -17061,13 +17055,13 @@
         <v>3133</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D31" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G31">
         <v>40</v>
@@ -17081,13 +17075,13 @@
         <v>3134</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G32">
         <v>60</v>
@@ -17104,7 +17098,7 @@
         <v>5.56</v>
       </c>
       <c r="D33" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33">
@@ -17122,7 +17116,7 @@
         <v>5.56</v>
       </c>
       <c r="D34" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34">
@@ -17137,10 +17131,10 @@
         <v>3137</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D35" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35">
@@ -17155,10 +17149,10 @@
         <v>3138</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D36" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36">
@@ -17176,7 +17170,7 @@
         <v>5.56</v>
       </c>
       <c r="D37" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37">
@@ -17191,7 +17185,7 @@
         <v>5.56</v>
       </c>
       <c r="D38" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -17205,13 +17199,13 @@
         <v>3201</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D40" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F40" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -17225,13 +17219,13 @@
         <v>3202</v>
       </c>
       <c r="C41" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D41" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F41" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -17264,7 +17258,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17275,13 +17269,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>827</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17289,10 +17283,10 @@
         <v>4001</v>
       </c>
       <c r="C3" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="E3" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F3">
         <v>35</v>
@@ -17343,7 +17337,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17354,493 +17348,493 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C4">
         <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5">
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6">
         <v>103</v>
       </c>
       <c r="D6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E6" t="s">
+        <v>487</v>
+      </c>
+      <c r="F6" t="s">
         <v>489</v>
       </c>
-      <c r="E6" t="s">
-        <v>491</v>
-      </c>
-      <c r="F6" t="s">
-        <v>493</v>
-      </c>
       <c r="I6" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7">
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8">
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I8" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9">
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I9" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10">
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I10" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11">
         <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E11" t="s">
+        <v>559</v>
+      </c>
+      <c r="F11" t="s">
+        <v>489</v>
+      </c>
+      <c r="I11" t="s">
         <v>563</v>
       </c>
-      <c r="F11" t="s">
-        <v>493</v>
-      </c>
-      <c r="I11" t="s">
-        <v>567</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12">
         <v>109</v>
       </c>
       <c r="D12" t="s">
+        <v>553</v>
+      </c>
+      <c r="E12" t="s">
+        <v>558</v>
+      </c>
+      <c r="F12" t="s">
+        <v>490</v>
+      </c>
+      <c r="I12" t="s">
         <v>557</v>
       </c>
-      <c r="E12" t="s">
-        <v>562</v>
-      </c>
-      <c r="F12" t="s">
-        <v>494</v>
-      </c>
-      <c r="I12" t="s">
-        <v>561</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13">
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E13" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F13" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I13" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>470</v>
+      <c r="B15" s="14" t="s">
+        <v>466</v>
       </c>
       <c r="C15">
         <v>111</v>
       </c>
       <c r="D15" t="s">
+        <v>575</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="I15" t="s">
         <v>579</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="I15" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
       <c r="C16">
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E16" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F16" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17">
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E17" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F17" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
+      <c r="B18" s="14"/>
       <c r="C18">
         <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E18" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F18" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19">
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E19" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F19" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
+      <c r="B20" s="14"/>
       <c r="C20">
         <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I20" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
       <c r="C21">
         <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E21" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F21" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
+      <c r="B22" s="14"/>
       <c r="C22">
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E22" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F22" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G22">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23">
         <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E23" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F23" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
+      <c r="B24" s="14"/>
       <c r="C24">
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E24" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F24" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
-        <v>535</v>
+      <c r="B26" s="14" t="s">
+        <v>531</v>
       </c>
       <c r="C26">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
+      <c r="B27" s="14"/>
       <c r="C27">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
+      <c r="B28" s="14"/>
       <c r="C28">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
+      <c r="B29" s="14"/>
       <c r="C29">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
+      <c r="B30" s="14"/>
       <c r="C30">
         <v>125</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
-        <v>536</v>
+      <c r="B32" s="14" t="s">
+        <v>532</v>
       </c>
       <c r="C32">
         <v>131</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
+      <c r="B33" s="14"/>
       <c r="C33">
         <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I33" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
+      <c r="B34" s="14"/>
       <c r="C34">
         <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
+      <c r="B35" s="14"/>
       <c r="C35">
         <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I35" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
+      <c r="B36" s="14"/>
       <c r="C36">
         <v>135</v>
       </c>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EB40FA-63C2-4849-9798-98813DB54C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721A3702-DF2A-4B30-8E0B-7BAE5030898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="5" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="8" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrains" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="890">
   <si>
     <t>ID</t>
   </si>
@@ -3166,6 +3166,9 @@
   </si>
   <si>
     <t>dur=300, cd=1500, rec=0, inac=0.12</t>
+  </si>
+  <si>
+    <t>100s</t>
   </si>
 </sst>
 </file>
@@ -16520,8 +16523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DAF6DD-D8FA-4653-B50E-0B687056C45B}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17324,8 +17327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E132C5F-9A98-41A1-A3AA-2A3458C20EAF}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17397,6 +17400,9 @@
       <c r="F5" t="s">
         <v>488</v>
       </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
       <c r="I5" t="s">
         <v>543</v>
       </c>
@@ -17415,6 +17421,9 @@
       <c r="F6" t="s">
         <v>489</v>
       </c>
+      <c r="G6" s="3">
+        <v>-8</v>
+      </c>
       <c r="I6" t="s">
         <v>562</v>
       </c>
@@ -17433,6 +17442,9 @@
       <c r="F7" t="s">
         <v>490</v>
       </c>
+      <c r="G7" s="3">
+        <v>-8</v>
+      </c>
       <c r="I7" t="s">
         <v>526</v>
       </c>
@@ -17451,6 +17463,9 @@
       <c r="F8" t="s">
         <v>491</v>
       </c>
+      <c r="G8" s="9">
+        <v>-40</v>
+      </c>
       <c r="I8" t="s">
         <v>530</v>
       </c>
@@ -17490,6 +17505,9 @@
       <c r="F10" t="s">
         <v>488</v>
       </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
       <c r="I10" t="s">
         <v>561</v>
       </c>
@@ -17508,6 +17526,9 @@
       <c r="F11" t="s">
         <v>489</v>
       </c>
+      <c r="G11">
+        <v>-15</v>
+      </c>
       <c r="I11" t="s">
         <v>563</v>
       </c>
@@ -17526,6 +17547,9 @@
       <c r="F12" t="s">
         <v>490</v>
       </c>
+      <c r="G12">
+        <v>-15</v>
+      </c>
       <c r="I12" t="s">
         <v>557</v>
       </c>
@@ -17539,10 +17563,13 @@
         <v>554</v>
       </c>
       <c r="E13" t="s">
-        <v>555</v>
+        <v>889</v>
       </c>
       <c r="F13" t="s">
         <v>491</v>
+      </c>
+      <c r="G13">
+        <v>-60</v>
       </c>
       <c r="I13" t="s">
         <v>556</v>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721A3702-DF2A-4B30-8E0B-7BAE5030898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BDDB97-4A99-477C-B0C4-12DAEB06BC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="8" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="3" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrains" sheetId="13" r:id="rId1"/>
@@ -12681,8 +12681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981A228F-2BB3-44AC-82E9-D9BE084DFD89}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17327,8 +17327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E132C5F-9A98-41A1-A3AA-2A3458C20EAF}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BDDB97-4A99-477C-B0C4-12DAEB06BC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F82D6B7-2DA1-482D-8120-1CFFAD31E784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="3" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="889">
   <si>
     <t>ID</t>
   </si>
@@ -262,9 +262,6 @@
     <t>number=0.9</t>
   </si>
   <si>
-    <t>timer=1500</t>
-  </si>
-  <si>
     <t>Unknown Food (wasabi)</t>
   </si>
   <si>
@@ -1285,19 +1282,7 @@
     <t>timer=900, number=0.04</t>
   </si>
   <si>
-    <t>timer=2500, number=0.02, damageLimit = 0.5</t>
-  </si>
-  <si>
-    <t>timer=2500, number=0.02, damageLimit = 0.35</t>
-  </si>
-  <si>
-    <t>timer=1500, number=0.02, damageLimit = 0.1</t>
-  </si>
-  <si>
     <t>stop action, turn a random direction / amount</t>
-  </si>
-  <si>
-    <t>timer=2500</t>
   </si>
   <si>
     <t>stop action, move in a random direction / amount</t>
@@ -3169,6 +3154,18 @@
   </si>
   <si>
     <t>100s</t>
+  </si>
+  <si>
+    <t>timer=1200, number=0.02, damageLimit = 0.1</t>
+  </si>
+  <si>
+    <t>timer=1400, number=0.02, damageLimit = 0.5</t>
+  </si>
+  <si>
+    <t>timer=1400, number=0.02, damageLimit = 0.35</t>
+  </si>
+  <si>
+    <t>timer=10s</t>
   </si>
 </sst>
 </file>
@@ -3612,7 +3609,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -3624,10 +3621,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3635,10 +3632,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3649,10 +3646,10 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3663,7 +3660,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3671,7 +3668,7 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3679,7 +3676,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3687,7 +3684,7 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3695,7 +3692,7 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3703,7 +3700,7 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3711,7 +3708,7 @@
         <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3719,7 +3716,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3727,7 +3724,7 @@
         <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3735,7 +3732,7 @@
         <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -3743,7 +3740,7 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3751,7 +3748,7 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3759,7 +3756,7 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3767,7 +3764,7 @@
         <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3775,7 +3772,7 @@
         <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3783,7 +3780,7 @@
         <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3791,7 +3788,7 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -3799,7 +3796,7 @@
         <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3807,7 +3804,7 @@
         <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3815,7 +3812,7 @@
         <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3823,7 +3820,7 @@
         <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3831,7 +3828,7 @@
         <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3839,7 +3836,7 @@
         <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3847,7 +3844,7 @@
         <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3855,7 +3852,7 @@
         <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3863,7 +3860,7 @@
         <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -3871,7 +3868,7 @@
         <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3879,7 +3876,7 @@
         <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3887,7 +3884,7 @@
         <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3895,7 +3892,7 @@
         <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3903,7 +3900,7 @@
         <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -3911,7 +3908,7 @@
         <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -3919,7 +3916,7 @@
         <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -3927,7 +3924,7 @@
         <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -3935,7 +3932,7 @@
         <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -3943,7 +3940,7 @@
         <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -3951,7 +3948,7 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -3959,7 +3956,7 @@
         <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -3967,7 +3964,7 @@
         <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -3975,7 +3972,7 @@
         <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -3983,7 +3980,7 @@
         <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -3991,10 +3988,10 @@
         <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -4005,7 +4002,7 @@
         <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -4013,7 +4010,7 @@
         <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -4021,7 +4018,7 @@
         <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -4029,7 +4026,7 @@
         <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -4037,7 +4034,7 @@
         <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -4045,7 +4042,7 @@
         <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -4053,7 +4050,7 @@
         <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -4061,7 +4058,7 @@
         <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -4069,7 +4066,7 @@
         <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -4080,13 +4077,13 @@
         <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D60" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="E60" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -4094,7 +4091,7 @@
         <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -4102,7 +4099,7 @@
         <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -4110,7 +4107,7 @@
         <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -4118,7 +4115,7 @@
         <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -4126,7 +4123,7 @@
         <v>306</v>
       </c>
       <c r="C65" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -4134,7 +4131,7 @@
         <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -4142,7 +4139,7 @@
         <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -4150,7 +4147,7 @@
         <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -4158,7 +4155,7 @@
         <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -4166,7 +4163,7 @@
         <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -4174,7 +4171,7 @@
         <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -4182,7 +4179,7 @@
         <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -4190,7 +4187,7 @@
         <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -4198,7 +4195,7 @@
         <v>315</v>
       </c>
       <c r="C74" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -4206,7 +4203,7 @@
         <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -4214,7 +4211,7 @@
         <v>317</v>
       </c>
       <c r="C76" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -4222,7 +4219,7 @@
         <v>318</v>
       </c>
       <c r="C77" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -4230,7 +4227,7 @@
         <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -4238,7 +4235,7 @@
         <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -4246,7 +4243,7 @@
         <v>321</v>
       </c>
       <c r="C80" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -4254,7 +4251,7 @@
         <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -4262,7 +4259,7 @@
         <v>323</v>
       </c>
       <c r="C82" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -4270,7 +4267,7 @@
         <v>324</v>
       </c>
       <c r="C83" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -4356,7 +4353,7 @@
         <v>65</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="I4" s="1">
         <v>1.4</v>
@@ -4423,7 +4420,7 @@
         <v>2.5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -10156,7 +10153,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10167,393 +10164,393 @@
         <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C4" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G4" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D5" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G5" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D6" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G6" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D8" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G8" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D9" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G9" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
       <c r="C10" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D10" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G10" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G11" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D12" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G12" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D13" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G13" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C15" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D15" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D16" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D17" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G17" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D19" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" t="s">
+        <v>619</v>
+      </c>
+      <c r="D20" t="s">
         <v>624</v>
-      </c>
-      <c r="D20" t="s">
-        <v>629</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G20" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D21" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G21" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D24" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G32" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -10691,121 +10688,121 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="D3" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E3" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="D4" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E4" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D5" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="E5" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="E9" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E10" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="E11" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -10834,7 +10831,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -10849,33 +10846,33 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
         <v>199</v>
       </c>
-      <c r="C4" t="s">
-        <v>200</v>
-      </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="H4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -10883,16 +10880,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -10900,13 +10897,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -10914,16 +10911,16 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10931,13 +10928,13 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -10945,19 +10942,19 @@
         <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="H11" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -10965,17 +10962,17 @@
         <v>102</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H12" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -10986,7 +10983,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="H13" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -10994,16 +10991,16 @@
         <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="H14" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11011,7 +11008,7 @@
         <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11019,7 +11016,7 @@
         <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -11027,7 +11024,7 @@
         <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -11035,10 +11032,10 @@
         <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -11046,16 +11043,16 @@
         <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H19" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -11063,7 +11060,7 @@
         <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -11071,7 +11068,7 @@
         <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -11079,7 +11076,7 @@
         <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -11087,16 +11084,16 @@
         <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="H23" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -11104,7 +11101,7 @@
         <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -11115,7 +11112,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -11126,7 +11123,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -11134,16 +11131,16 @@
         <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H27" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -11151,7 +11148,7 @@
         <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -11159,7 +11156,7 @@
         <v>133</v>
       </c>
       <c r="H29" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -11167,7 +11164,7 @@
         <v>134</v>
       </c>
       <c r="H30" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -11175,16 +11172,16 @@
         <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E31">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H31" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -11192,7 +11189,7 @@
         <v>142</v>
       </c>
       <c r="H32" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -11200,19 +11197,19 @@
         <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H33" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -11220,7 +11217,7 @@
         <v>152</v>
       </c>
       <c r="H34" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -11228,7 +11225,7 @@
         <v>153</v>
       </c>
       <c r="H35" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -11236,7 +11233,7 @@
         <v>154</v>
       </c>
       <c r="H36" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -11244,10 +11241,10 @@
         <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="H37" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -11255,7 +11252,7 @@
         <v>156</v>
       </c>
       <c r="H38" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -11263,7 +11260,7 @@
         <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -11271,7 +11268,7 @@
         <v>158</v>
       </c>
       <c r="H40" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -11279,13 +11276,13 @@
         <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -11293,13 +11290,13 @@
         <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E42">
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -11307,13 +11304,13 @@
         <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E43">
         <v>-1</v>
       </c>
       <c r="G43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -11321,13 +11318,13 @@
         <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E44">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -11335,13 +11332,13 @@
         <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -11349,16 +11346,16 @@
         <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D46" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -11366,16 +11363,16 @@
         <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E47">
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H47" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -11383,13 +11380,13 @@
         <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E48">
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -11397,13 +11394,13 @@
         <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -11411,13 +11408,13 @@
         <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E50">
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -11425,13 +11422,13 @@
         <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -11439,13 +11436,13 @@
         <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -11453,16 +11450,16 @@
         <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -11470,13 +11467,13 @@
         <v>182</v>
       </c>
       <c r="C54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E54">
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -11484,13 +11481,13 @@
         <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -11498,13 +11495,13 @@
         <v>184</v>
       </c>
       <c r="C56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -11512,13 +11509,13 @@
         <v>185</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -11526,16 +11523,16 @@
         <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E58">
         <v>5</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H58" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -11543,7 +11540,7 @@
         <v>192</v>
       </c>
       <c r="H59" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -11551,10 +11548,10 @@
         <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H60" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -11562,7 +11559,7 @@
         <v>194</v>
       </c>
       <c r="H61" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -11570,16 +11567,16 @@
         <v>201</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D62" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -11587,7 +11584,7 @@
         <v>202</v>
       </c>
       <c r="C63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -11596,39 +11593,39 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D64" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E64">
         <v>7</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="H64" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E65">
         <v>9</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H65" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -11636,19 +11633,19 @@
         <v>251</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D66" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H66" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -11657,27 +11654,27 @@
       </c>
       <c r="G67" s="9"/>
       <c r="H67" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C69" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" t="s">
         <v>208</v>
-      </c>
-      <c r="D69" t="s">
-        <v>209</v>
       </c>
       <c r="E69">
         <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H69" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -11685,13 +11682,13 @@
         <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H70" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -11699,7 +11696,7 @@
         <v>312</v>
       </c>
       <c r="H71" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -11707,19 +11704,19 @@
         <v>321</v>
       </c>
       <c r="C72" t="s">
+        <v>744</v>
+      </c>
+      <c r="D72" t="s">
+        <v>744</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
         <v>749</v>
       </c>
-      <c r="D72" t="s">
-        <v>749</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>754</v>
-      </c>
       <c r="H72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -11730,10 +11727,10 @@
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="H73" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -11741,10 +11738,10 @@
         <v>323</v>
       </c>
       <c r="G74" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H74" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -11753,19 +11750,19 @@
         <v>331</v>
       </c>
       <c r="C75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="H75" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -11774,7 +11771,7 @@
         <v>332</v>
       </c>
       <c r="H76" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -11783,7 +11780,7 @@
         <v>333</v>
       </c>
       <c r="H77" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -11792,7 +11789,7 @@
         <v>334</v>
       </c>
       <c r="H78" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -11801,7 +11798,7 @@
         <v>335</v>
       </c>
       <c r="H79" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -11810,7 +11807,7 @@
         <v>336</v>
       </c>
       <c r="H80" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -11819,7 +11816,7 @@
         <v>337</v>
       </c>
       <c r="H81" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -11828,7 +11825,7 @@
         <v>338</v>
       </c>
       <c r="H82" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -11837,16 +11834,16 @@
         <v>339</v>
       </c>
       <c r="C83" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="E83">
         <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="H83" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -11855,7 +11852,7 @@
         <v>340</v>
       </c>
       <c r="H84" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -11864,7 +11861,7 @@
         <v>341</v>
       </c>
       <c r="H85" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -11873,7 +11870,7 @@
         <v>342</v>
       </c>
       <c r="H86" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -11882,13 +11879,13 @@
         <v>343</v>
       </c>
       <c r="C87" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="G87" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="H87" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -11897,7 +11894,7 @@
         <v>344</v>
       </c>
       <c r="H88" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -11906,7 +11903,7 @@
         <v>345</v>
       </c>
       <c r="H89" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -11915,7 +11912,7 @@
         <v>346</v>
       </c>
       <c r="H90" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -11923,16 +11920,16 @@
         <v>401</v>
       </c>
       <c r="C92" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D92" t="s">
+        <v>290</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
         <v>291</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="G92" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -11940,16 +11937,16 @@
         <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H93" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -11957,10 +11954,10 @@
         <v>412</v>
       </c>
       <c r="G94" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H94" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -11968,13 +11965,13 @@
         <v>421</v>
       </c>
       <c r="C95" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="E95">
         <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -11982,7 +11979,7 @@
         <v>422</v>
       </c>
       <c r="C96" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -11990,7 +11987,7 @@
         <v>423</v>
       </c>
       <c r="C97" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -11998,7 +11995,7 @@
         <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -12006,7 +12003,7 @@
         <v>425</v>
       </c>
       <c r="C99" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E99">
         <v>35</v>
@@ -12017,7 +12014,7 @@
         <v>426</v>
       </c>
       <c r="C100" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="E100">
         <v>20</v>
@@ -12028,7 +12025,7 @@
         <v>431</v>
       </c>
       <c r="C101" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E101">
         <v>7</v>
@@ -12039,16 +12036,16 @@
         <v>441</v>
       </c>
       <c r="C102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E102">
         <v>5</v>
       </c>
       <c r="G102" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H102" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -12056,7 +12053,7 @@
         <v>442</v>
       </c>
       <c r="H103" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -12064,7 +12061,7 @@
         <v>443</v>
       </c>
       <c r="H104" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
@@ -12072,10 +12069,10 @@
         <v>501</v>
       </c>
       <c r="C106" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E106">
         <v>5</v>
@@ -12086,7 +12083,7 @@
         <v>502</v>
       </c>
       <c r="C107" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
@@ -12094,7 +12091,7 @@
         <v>503</v>
       </c>
       <c r="C108" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
@@ -12102,7 +12099,7 @@
         <v>504</v>
       </c>
       <c r="C109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -12110,7 +12107,7 @@
         <v>505</v>
       </c>
       <c r="C110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -12118,7 +12115,7 @@
         <v>511</v>
       </c>
       <c r="C111" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E111">
         <v>9</v>
@@ -12129,7 +12126,7 @@
         <v>512</v>
       </c>
       <c r="C112" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
@@ -12137,7 +12134,7 @@
         <v>513</v>
       </c>
       <c r="C113" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -12181,7 +12178,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
@@ -12210,13 +12207,13 @@
         <v>1001</v>
       </c>
       <c r="C3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" t="s">
         <v>402</v>
       </c>
-      <c r="D3" t="s">
-        <v>403</v>
-      </c>
       <c r="E3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -12225,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -12233,13 +12230,13 @@
         <v>1002</v>
       </c>
       <c r="C4" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D4" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -12253,7 +12250,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -12282,10 +12279,10 @@
         <v>1102</v>
       </c>
       <c r="C7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -12293,10 +12290,10 @@
         <v>1103</v>
       </c>
       <c r="C8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -12304,10 +12301,10 @@
         <v>1104</v>
       </c>
       <c r="C9" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -12315,10 +12312,10 @@
         <v>1105</v>
       </c>
       <c r="C10" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E10" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -12326,10 +12323,10 @@
         <v>1106</v>
       </c>
       <c r="C11" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -12337,10 +12334,10 @@
         <v>1116</v>
       </c>
       <c r="C12" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E12" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -12348,10 +12345,10 @@
         <v>1117</v>
       </c>
       <c r="C13" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E13" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -12359,10 +12356,10 @@
         <v>1118</v>
       </c>
       <c r="C14" t="s">
+        <v>468</v>
+      </c>
+      <c r="E14" t="s">
         <v>473</v>
-      </c>
-      <c r="E14" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -12370,10 +12367,10 @@
         <v>1119</v>
       </c>
       <c r="C15" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E15" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -12381,10 +12378,10 @@
         <v>1120</v>
       </c>
       <c r="C16" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E16" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -12419,7 +12416,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -12427,7 +12424,7 @@
         <v>1202</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -12453,7 +12450,7 @@
         <v>1203</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -12474,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -12482,7 +12479,7 @@
         <v>1204</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -12503,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -12511,7 +12508,7 @@
         <v>1205</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -12532,7 +12529,7 @@
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
@@ -12540,7 +12537,7 @@
         <v>1206</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -12566,7 +12563,7 @@
         <v>1207</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F24">
         <v>7</v>
@@ -12587,7 +12584,7 @@
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -12595,7 +12592,7 @@
         <v>1208</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -12616,7 +12613,7 @@
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -12624,7 +12621,7 @@
         <v>1209</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F26">
         <v>9</v>
@@ -12650,7 +12647,7 @@
         <v>1210</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -12682,7 +12679,7 @@
   <dimension ref="B2:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12713,27 +12710,27 @@
     </row>
     <row r="3" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -12745,16 +12742,16 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>412</v>
+        <v>886</v>
       </c>
       <c r="E6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -12762,27 +12759,27 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>413</v>
+        <v>887</v>
       </c>
       <c r="E8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -12790,299 +12787,299 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D9" t="s">
-        <v>416</v>
+        <v>888</v>
       </c>
       <c r="E9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>888</v>
       </c>
       <c r="E10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C12" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D12" t="s">
-        <v>414</v>
+        <v>885</v>
       </c>
       <c r="E12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C13" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C14" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C15" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D15" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E15" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C16" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D16" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E16" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C17" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E17" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C18" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D18" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E18" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C19" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D19" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E19" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C20" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D20" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E20" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C21" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E21" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E22" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C23" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D23" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E23" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C24" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D24" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E24" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C25" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D25" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E25" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C26" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C27" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C28" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C29" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C30" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C31" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C33" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E33" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F33" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C34" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -13155,7 +13152,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -13197,10 +13194,10 @@
         <v>7</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>9</v>
@@ -13228,7 +13225,7 @@
         <v>2102</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -13242,7 +13239,7 @@
         <v>2103</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -13256,7 +13253,7 @@
         <v>2104</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -13270,7 +13267,7 @@
         <v>2105</v>
       </c>
       <c r="C8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -13281,7 +13278,7 @@
         <v>2106</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -13295,7 +13292,7 @@
         <v>2107</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -13309,7 +13306,7 @@
         <v>2108</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H11">
         <v>25</v>
@@ -13323,7 +13320,7 @@
         <v>2109</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12">
         <v>40</v>
@@ -13337,7 +13334,7 @@
         <v>2110</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13">
         <v>20</v>
@@ -13351,7 +13348,7 @@
         <v>2111</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14">
         <v>20</v>
@@ -13362,7 +13359,7 @@
         <v>2112</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15">
         <v>18</v>
@@ -13373,7 +13370,7 @@
         <v>2113</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -13387,7 +13384,7 @@
         <v>2114</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -13401,7 +13398,7 @@
         <v>2131</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -13415,7 +13412,7 @@
         <v>2132</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19">
         <v>6</v>
@@ -13429,7 +13426,7 @@
         <v>2133</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20">
         <v>6</v>
@@ -13443,7 +13440,7 @@
         <v>2134</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21">
         <v>8</v>
@@ -13457,7 +13454,7 @@
         <v>2141</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -13474,7 +13471,7 @@
         <v>2142</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -13494,7 +13491,7 @@
         <v>2151</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -13505,7 +13502,7 @@
         <v>2152</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -13516,7 +13513,7 @@
         <v>2153</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -13527,7 +13524,7 @@
         <v>2154</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27">
         <v>50</v>
@@ -13538,7 +13535,7 @@
         <v>2155</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -13552,7 +13549,7 @@
         <v>2156</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -13566,7 +13563,7 @@
         <v>2157</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -13580,7 +13577,7 @@
         <v>2158</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -13594,7 +13591,7 @@
         <v>2159</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -13608,7 +13605,7 @@
         <v>2201</v>
       </c>
       <c r="C34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -13639,7 +13636,7 @@
         <v>2203</v>
       </c>
       <c r="C36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L36" s="4">
         <v>2</v>
@@ -13653,7 +13650,7 @@
         <v>2204</v>
       </c>
       <c r="C37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L37" s="4">
         <v>3</v>
@@ -13687,7 +13684,7 @@
         <v>2212</v>
       </c>
       <c r="C39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -13707,7 +13704,7 @@
         <v>2213</v>
       </c>
       <c r="C40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -13745,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="W42" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
@@ -13753,7 +13750,7 @@
         <v>2311</v>
       </c>
       <c r="C43" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -13771,7 +13768,7 @@
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
@@ -13779,7 +13776,7 @@
         <v>2312</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -13797,7 +13794,7 @@
         <v>8</v>
       </c>
       <c r="W44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -13805,7 +13802,7 @@
         <v>2321</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -13823,7 +13820,7 @@
         <v>6</v>
       </c>
       <c r="W45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
@@ -13831,13 +13828,13 @@
         <v>2322</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N46">
         <v>7</v>
@@ -13849,7 +13846,7 @@
         <v>20</v>
       </c>
       <c r="W46" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
@@ -13857,13 +13854,13 @@
         <v>2323</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E47">
         <v>3</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N47">
         <v>9</v>
@@ -13875,7 +13872,7 @@
         <v>30</v>
       </c>
       <c r="W47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
@@ -13883,7 +13880,7 @@
         <v>2331</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E48">
         <v>4</v>
@@ -13901,7 +13898,7 @@
         <v>6</v>
       </c>
       <c r="W48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
@@ -13909,13 +13906,13 @@
         <v>2332</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E49">
         <v>4</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N49">
         <v>10</v>
@@ -13927,7 +13924,7 @@
         <v>20</v>
       </c>
       <c r="W49" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
@@ -13935,13 +13932,13 @@
         <v>2333</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N50">
         <v>7</v>
@@ -13953,7 +13950,7 @@
         <v>6</v>
       </c>
       <c r="W50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
@@ -13961,7 +13958,7 @@
         <v>2341</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -13982,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="W51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -13990,7 +13987,7 @@
         <v>2342</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E52">
         <v>5</v>
@@ -14008,7 +14005,7 @@
         <v>6</v>
       </c>
       <c r="W52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -14016,13 +14013,13 @@
         <v>2343</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E53">
         <v>5</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N53">
         <v>8</v>
@@ -14034,7 +14031,7 @@
         <v>20</v>
       </c>
       <c r="W53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -14042,13 +14039,13 @@
         <v>2344</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E54">
         <v>5</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N54">
         <v>10</v>
@@ -14060,7 +14057,7 @@
         <v>30</v>
       </c>
       <c r="W54" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
@@ -14068,13 +14065,13 @@
         <v>2345</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E55">
         <v>5</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N55">
         <v>4</v>
@@ -14086,7 +14083,7 @@
         <v>5</v>
       </c>
       <c r="W55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
@@ -14094,13 +14091,13 @@
         <v>2351</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E56">
         <v>6</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N56">
         <v>10</v>
@@ -14112,7 +14109,7 @@
         <v>35</v>
       </c>
       <c r="W56" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
@@ -14120,13 +14117,13 @@
         <v>2352</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E57">
         <v>6</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N57">
         <v>11</v>
@@ -14138,7 +14135,7 @@
         <v>30</v>
       </c>
       <c r="W57" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -14146,7 +14143,7 @@
         <v>2353</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E58">
         <v>6</v>
@@ -14170,7 +14167,7 @@
         <v>1</v>
       </c>
       <c r="W58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -14178,13 +14175,13 @@
         <v>2354</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E59">
         <v>6</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N59">
         <v>7</v>
@@ -14196,7 +14193,7 @@
         <v>12</v>
       </c>
       <c r="W59" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
@@ -14204,13 +14201,13 @@
         <v>2355</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E60">
         <v>6</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N60">
         <v>11</v>
@@ -14222,7 +14219,7 @@
         <v>30</v>
       </c>
       <c r="W60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
@@ -14230,13 +14227,13 @@
         <v>2361</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E61">
         <v>7</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N61">
         <v>11</v>
@@ -14248,7 +14245,7 @@
         <v>100</v>
       </c>
       <c r="W61" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
@@ -14256,7 +14253,7 @@
         <v>2362</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -14274,7 +14271,7 @@
         <v>8</v>
       </c>
       <c r="W62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
@@ -14282,13 +14279,13 @@
         <v>2363</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E63">
         <v>7</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N63">
         <v>16</v>
@@ -14303,7 +14300,7 @@
         <v>4</v>
       </c>
       <c r="W63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
@@ -14311,13 +14308,13 @@
         <v>2364</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E64">
         <v>7</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N64">
         <v>5</v>
@@ -14329,7 +14326,7 @@
         <v>5</v>
       </c>
       <c r="W64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
@@ -14337,13 +14334,13 @@
         <v>2371</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E65">
         <v>8</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N65">
         <v>10</v>
@@ -14355,7 +14352,7 @@
         <v>125</v>
       </c>
       <c r="W65" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
@@ -14363,7 +14360,7 @@
         <v>2372</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E66">
         <v>8</v>
@@ -14384,7 +14381,7 @@
         <v>20</v>
       </c>
       <c r="W66" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
@@ -14392,13 +14389,13 @@
         <v>2373</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E67">
         <v>8</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N67">
         <v>11</v>
@@ -14410,7 +14407,7 @@
         <v>35</v>
       </c>
       <c r="W67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
@@ -14418,7 +14415,7 @@
         <v>2374</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E68">
         <v>8</v>
@@ -14442,7 +14439,7 @@
         <v>1</v>
       </c>
       <c r="W68" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
@@ -14450,13 +14447,13 @@
         <v>2375</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E69">
         <v>8</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N69">
         <v>12</v>
@@ -14468,7 +14465,7 @@
         <v>30</v>
       </c>
       <c r="W69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
@@ -14476,13 +14473,13 @@
         <v>2381</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E70">
         <v>9</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N70">
         <v>12</v>
@@ -14494,7 +14491,7 @@
         <v>125</v>
       </c>
       <c r="W70" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
@@ -14502,7 +14499,7 @@
         <v>2382</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E71">
         <v>9</v>
@@ -14520,7 +14517,7 @@
         <v>8</v>
       </c>
       <c r="W71" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
@@ -14528,13 +14525,13 @@
         <v>2391</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E72">
         <v>10</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N72">
         <v>11</v>
@@ -14546,7 +14543,7 @@
         <v>125</v>
       </c>
       <c r="W72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
@@ -14554,7 +14551,7 @@
         <v>2392</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E73">
         <v>10</v>
@@ -14575,7 +14572,7 @@
         <v>40</v>
       </c>
       <c r="W73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.25">
@@ -14583,7 +14580,7 @@
         <v>2401</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -14597,7 +14594,7 @@
         <v>2402</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="2:23" x14ac:dyDescent="0.25">
@@ -14605,7 +14602,7 @@
         <v>2403</v>
       </c>
       <c r="C77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -14616,7 +14613,7 @@
         <v>2404</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O78">
         <v>2</v>
@@ -14630,7 +14627,7 @@
         <v>2411</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -14644,7 +14641,7 @@
         <v>2421</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -14658,7 +14655,7 @@
         <v>2431</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -14672,7 +14669,7 @@
         <v>2441</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E82">
         <v>5</v>
@@ -14686,7 +14683,7 @@
         <v>2451</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E83">
         <v>6</v>
@@ -14700,7 +14697,7 @@
         <v>2461</v>
       </c>
       <c r="C84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E84">
         <v>7</v>
@@ -14714,7 +14711,7 @@
         <v>2471</v>
       </c>
       <c r="C85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E85">
         <v>8</v>
@@ -14728,7 +14725,7 @@
         <v>2481</v>
       </c>
       <c r="C86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E86">
         <v>9</v>
@@ -14742,7 +14739,7 @@
         <v>2491</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E87">
         <v>10</v>
@@ -14756,7 +14753,7 @@
         <v>2501</v>
       </c>
       <c r="C89" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -14770,7 +14767,7 @@
         <v>2502</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N90">
         <v>0.04</v>
@@ -14781,7 +14778,7 @@
         <v>2503</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N91">
         <v>0.02</v>
@@ -14792,7 +14789,7 @@
         <v>2504</v>
       </c>
       <c r="C92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N92">
         <v>0.04</v>
@@ -14806,7 +14803,7 @@
         <v>2511</v>
       </c>
       <c r="C93" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -14820,7 +14817,7 @@
         <v>2512</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -14840,7 +14837,7 @@
         <v>2513</v>
       </c>
       <c r="C95" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N95">
         <v>0.04</v>
@@ -14851,7 +14848,7 @@
         <v>2521</v>
       </c>
       <c r="C96" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -14865,7 +14862,7 @@
         <v>2531</v>
       </c>
       <c r="C97" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -14879,7 +14876,7 @@
         <v>2541</v>
       </c>
       <c r="C98" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="E98">
         <v>5</v>
@@ -14893,7 +14890,7 @@
         <v>2551</v>
       </c>
       <c r="C99" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="E99">
         <v>6</v>
@@ -14907,7 +14904,7 @@
         <v>2561</v>
       </c>
       <c r="C100" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="E100">
         <v>7</v>
@@ -14921,7 +14918,7 @@
         <v>2571</v>
       </c>
       <c r="C101" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="E101">
         <v>8</v>
@@ -14935,7 +14932,7 @@
         <v>2581</v>
       </c>
       <c r="C102" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="E102">
         <v>9</v>
@@ -14949,7 +14946,7 @@
         <v>2591</v>
       </c>
       <c r="C103" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="E103">
         <v>10</v>
@@ -14963,7 +14960,7 @@
         <v>2601</v>
       </c>
       <c r="C105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D105" t="s">
         <v>25</v>
@@ -14977,7 +14974,7 @@
         <v>2602</v>
       </c>
       <c r="C106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N106">
         <v>0.02</v>
@@ -14988,7 +14985,7 @@
         <v>2603</v>
       </c>
       <c r="C107" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N107">
         <v>0.06</v>
@@ -14999,7 +14996,7 @@
         <v>2604</v>
       </c>
       <c r="C108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N108">
         <v>0.08</v>
@@ -15013,7 +15010,7 @@
         <v>2611</v>
       </c>
       <c r="C109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -15027,7 +15024,7 @@
         <v>2621</v>
       </c>
       <c r="C110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E110">
         <v>3</v>
@@ -15041,7 +15038,7 @@
         <v>2631</v>
       </c>
       <c r="C111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E111">
         <v>4</v>
@@ -15055,7 +15052,7 @@
         <v>2641</v>
       </c>
       <c r="C112" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -15069,7 +15066,7 @@
         <v>2651</v>
       </c>
       <c r="C113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E113">
         <v>6</v>
@@ -15083,7 +15080,7 @@
         <v>2661</v>
       </c>
       <c r="C114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E114">
         <v>7</v>
@@ -15097,7 +15094,7 @@
         <v>2671</v>
       </c>
       <c r="C115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E115">
         <v>8</v>
@@ -15111,7 +15108,7 @@
         <v>2681</v>
       </c>
       <c r="C116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E116">
         <v>9</v>
@@ -15125,7 +15122,7 @@
         <v>2691</v>
       </c>
       <c r="C117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E117">
         <v>10</v>
@@ -15139,7 +15136,7 @@
         <v>2701</v>
       </c>
       <c r="C119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D119" t="s">
         <v>26</v>
@@ -15153,7 +15150,7 @@
         <v>2702</v>
       </c>
       <c r="C120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.25">
@@ -15161,7 +15158,7 @@
         <v>2703</v>
       </c>
       <c r="C121" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S121">
         <v>1</v>
@@ -15172,7 +15169,7 @@
         <v>2704</v>
       </c>
       <c r="C122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O122">
         <v>1</v>
@@ -15186,7 +15183,7 @@
         <v>2705</v>
       </c>
       <c r="C123" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O123">
         <v>2</v>
@@ -15200,7 +15197,7 @@
         <v>2711</v>
       </c>
       <c r="C124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -15214,7 +15211,7 @@
         <v>2712</v>
       </c>
       <c r="C125" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -15231,7 +15228,7 @@
         <v>2713</v>
       </c>
       <c r="C126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -15251,7 +15248,7 @@
         <v>2714</v>
       </c>
       <c r="C127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -15268,7 +15265,7 @@
         <v>2721</v>
       </c>
       <c r="C128" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E128">
         <v>3</v>
@@ -15282,7 +15279,7 @@
         <v>2731</v>
       </c>
       <c r="C129" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E129">
         <v>4</v>
@@ -15296,7 +15293,7 @@
         <v>2741</v>
       </c>
       <c r="C130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E130">
         <v>5</v>
@@ -15310,7 +15307,7 @@
         <v>2751</v>
       </c>
       <c r="C131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E131">
         <v>6</v>
@@ -15324,7 +15321,7 @@
         <v>2761</v>
       </c>
       <c r="C132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E132">
         <v>7</v>
@@ -15338,7 +15335,7 @@
         <v>2771</v>
       </c>
       <c r="C133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E133">
         <v>8</v>
@@ -15352,7 +15349,7 @@
         <v>2781</v>
       </c>
       <c r="C134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E134">
         <v>9</v>
@@ -15366,7 +15363,7 @@
         <v>2791</v>
       </c>
       <c r="C135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E135">
         <v>10</v>
@@ -15380,7 +15377,7 @@
         <v>2801</v>
       </c>
       <c r="C137" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D137" t="s">
         <v>27</v>
@@ -15391,7 +15388,7 @@
         <v>2802</v>
       </c>
       <c r="C138" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.25">
@@ -15399,7 +15396,7 @@
         <v>2803</v>
       </c>
       <c r="C139" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.25">
@@ -15407,7 +15404,7 @@
         <v>2804</v>
       </c>
       <c r="C140" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.25">
@@ -15415,7 +15412,7 @@
         <v>2805</v>
       </c>
       <c r="C141" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.25">
@@ -15423,7 +15420,7 @@
         <v>2806</v>
       </c>
       <c r="C142" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.25">
@@ -15451,7 +15448,7 @@
         <v>2811</v>
       </c>
       <c r="C147" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="E147">
         <v>2</v>
@@ -15462,7 +15459,7 @@
         <v>2812</v>
       </c>
       <c r="C148" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="149" spans="2:25" x14ac:dyDescent="0.25">
@@ -15470,7 +15467,7 @@
         <v>2813</v>
       </c>
       <c r="C149" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="150" spans="2:25" x14ac:dyDescent="0.25">
@@ -15478,7 +15475,7 @@
         <v>2814</v>
       </c>
       <c r="C150" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="151" spans="2:25" x14ac:dyDescent="0.25">
@@ -15486,7 +15483,7 @@
         <v>2815</v>
       </c>
       <c r="C151" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="2:25" x14ac:dyDescent="0.25">
@@ -15494,7 +15491,7 @@
         <v>2821</v>
       </c>
       <c r="C152" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -15505,7 +15502,7 @@
         <v>2822</v>
       </c>
       <c r="C153" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="154" spans="2:25" x14ac:dyDescent="0.25">
@@ -15513,7 +15510,7 @@
         <v>2823</v>
       </c>
       <c r="C154" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="155" spans="2:25" x14ac:dyDescent="0.25">
@@ -15521,7 +15518,7 @@
         <v>2834</v>
       </c>
       <c r="C155" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="156" spans="2:25" x14ac:dyDescent="0.25">
@@ -15529,10 +15526,10 @@
         <v>2825</v>
       </c>
       <c r="C156" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="Y156" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="157" spans="2:25" x14ac:dyDescent="0.25">
@@ -15540,7 +15537,7 @@
         <v>2831</v>
       </c>
       <c r="C157" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E157">
         <v>4</v>
@@ -15551,7 +15548,7 @@
         <v>2832</v>
       </c>
       <c r="C158" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="159" spans="2:25" x14ac:dyDescent="0.25">
@@ -15559,7 +15556,7 @@
         <v>2841</v>
       </c>
       <c r="C159" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="E159">
         <v>5</v>
@@ -15570,7 +15567,7 @@
         <v>2842</v>
       </c>
       <c r="C160" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
@@ -15578,7 +15575,7 @@
         <v>2851</v>
       </c>
       <c r="C161" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="E161">
         <v>6</v>
@@ -15589,7 +15586,7 @@
         <v>2852</v>
       </c>
       <c r="C162" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
@@ -15597,7 +15594,7 @@
         <v>2853</v>
       </c>
       <c r="C163" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
@@ -15605,7 +15602,7 @@
         <v>2861</v>
       </c>
       <c r="C164" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E164">
         <v>7</v>
@@ -15616,7 +15613,7 @@
         <v>2862</v>
       </c>
       <c r="C165" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.25">
@@ -15624,7 +15621,7 @@
         <v>2863</v>
       </c>
       <c r="C166" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.25">
@@ -15632,7 +15629,7 @@
         <v>2864</v>
       </c>
       <c r="C167" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.25">
@@ -15640,7 +15637,7 @@
         <v>2871</v>
       </c>
       <c r="C168" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E168">
         <v>8</v>
@@ -15651,7 +15648,7 @@
         <v>2872</v>
       </c>
       <c r="C169" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.25">
@@ -15659,7 +15656,7 @@
         <v>2873</v>
       </c>
       <c r="C170" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.25">
@@ -15667,7 +15664,7 @@
         <v>2881</v>
       </c>
       <c r="C171" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E171">
         <v>9</v>
@@ -15678,7 +15675,7 @@
         <v>2882</v>
       </c>
       <c r="C172" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
@@ -15686,7 +15683,7 @@
         <v>2883</v>
       </c>
       <c r="C173" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">
@@ -15694,7 +15691,7 @@
         <v>2891</v>
       </c>
       <c r="C174" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E174">
         <v>10</v>
@@ -15705,7 +15702,7 @@
         <v>2892</v>
       </c>
       <c r="C175" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="177" spans="2:23" x14ac:dyDescent="0.25">
@@ -15713,13 +15710,13 @@
         <v>2901</v>
       </c>
       <c r="C177" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D177" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W177" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="178" spans="2:23" x14ac:dyDescent="0.25">
@@ -15727,16 +15724,16 @@
         <v>2902</v>
       </c>
       <c r="C178" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D178" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E178">
         <v>2</v>
       </c>
       <c r="W178" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="179" spans="2:23" x14ac:dyDescent="0.25">
@@ -15744,16 +15741,16 @@
         <v>2903</v>
       </c>
       <c r="C179" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D179" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E179">
         <v>3</v>
       </c>
       <c r="W179" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="180" spans="2:23" x14ac:dyDescent="0.25">
@@ -15761,10 +15758,10 @@
         <v>2911</v>
       </c>
       <c r="C180" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D180" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H180" s="7"/>
       <c r="L180" s="4">
@@ -15776,10 +15773,10 @@
         <v>2912</v>
       </c>
       <c r="C181" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D181" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L181" s="4">
         <v>1</v>
@@ -15790,10 +15787,10 @@
         <v>2913</v>
       </c>
       <c r="C182" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D182" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="183" spans="2:23" x14ac:dyDescent="0.25">
@@ -15801,10 +15798,10 @@
         <v>2914</v>
       </c>
       <c r="C183" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D183" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="184" spans="2:23" x14ac:dyDescent="0.25">
@@ -15812,10 +15809,10 @@
         <v>2915</v>
       </c>
       <c r="C184" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D184" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L184" s="4">
         <v>1</v>
@@ -15826,10 +15823,10 @@
         <v>2916</v>
       </c>
       <c r="C185" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D185" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="186" spans="2:23" x14ac:dyDescent="0.25">
@@ -15837,10 +15834,10 @@
         <v>2917</v>
       </c>
       <c r="C186" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D186" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="187" spans="2:23" x14ac:dyDescent="0.25">
@@ -15848,16 +15845,16 @@
         <v>2921</v>
       </c>
       <c r="C187" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D187" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N187">
         <v>0.04</v>
       </c>
       <c r="W187" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="188" spans="2:23" x14ac:dyDescent="0.25">
@@ -15865,10 +15862,10 @@
         <v>2922</v>
       </c>
       <c r="C188" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D188" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E188">
         <v>2</v>
@@ -15877,7 +15874,7 @@
         <v>0.04</v>
       </c>
       <c r="W188" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="189" spans="2:23" x14ac:dyDescent="0.25">
@@ -15885,16 +15882,16 @@
         <v>2923</v>
       </c>
       <c r="C189" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D189" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N189">
         <v>0.04</v>
       </c>
       <c r="W189" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="190" spans="2:23" x14ac:dyDescent="0.25">
@@ -15902,10 +15899,10 @@
         <v>2924</v>
       </c>
       <c r="C190" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D190" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L190" s="4">
         <v>1</v>
@@ -15917,7 +15914,7 @@
         <v>6</v>
       </c>
       <c r="W190" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="191" spans="2:23" x14ac:dyDescent="0.25">
@@ -15925,13 +15922,13 @@
         <v>2925</v>
       </c>
       <c r="C191" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D191" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W191" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="192" spans="2:23" x14ac:dyDescent="0.25">
@@ -15939,10 +15936,10 @@
         <v>2926</v>
       </c>
       <c r="C192" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D192" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -15954,7 +15951,7 @@
         <v>0.02</v>
       </c>
       <c r="W192" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="193" spans="2:23" x14ac:dyDescent="0.25">
@@ -15962,10 +15959,10 @@
         <v>2927</v>
       </c>
       <c r="C193" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D193" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E193">
         <v>3</v>
@@ -15977,7 +15974,7 @@
         <v>0.02</v>
       </c>
       <c r="W193" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="194" spans="2:23" x14ac:dyDescent="0.25">
@@ -15985,10 +15982,10 @@
         <v>2931</v>
       </c>
       <c r="C194" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D194" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L194" s="4">
         <v>2</v>
@@ -15997,7 +15994,7 @@
         <v>2.5</v>
       </c>
       <c r="W194" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="195" spans="2:23" x14ac:dyDescent="0.25">
@@ -16005,10 +16002,10 @@
         <v>2932</v>
       </c>
       <c r="C195" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D195" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L195" s="4">
         <v>1</v>
@@ -16025,10 +16022,10 @@
         <v>2933</v>
       </c>
       <c r="C196" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D196" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L196" s="4">
         <v>1</v>
@@ -16037,7 +16034,7 @@
         <v>2</v>
       </c>
       <c r="W196" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="197" spans="2:23" x14ac:dyDescent="0.25">
@@ -16045,10 +16042,10 @@
         <v>2941</v>
       </c>
       <c r="C197" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D197" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="198" spans="2:23" x14ac:dyDescent="0.25">
@@ -16056,10 +16053,10 @@
         <v>2942</v>
       </c>
       <c r="C198" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D198" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E198">
         <v>2</v>
@@ -16070,10 +16067,10 @@
         <v>2943</v>
       </c>
       <c r="C199" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D199" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E199">
         <v>2</v>
@@ -16084,10 +16081,10 @@
         <v>2944</v>
       </c>
       <c r="C200" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D200" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E200">
         <v>2</v>
@@ -16104,10 +16101,10 @@
         <v>2945</v>
       </c>
       <c r="C201" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D201" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E201">
         <v>2</v>
@@ -16118,10 +16115,10 @@
         <v>2946</v>
       </c>
       <c r="C202" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D202" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E202">
         <v>2</v>
@@ -16132,10 +16129,10 @@
         <v>2947</v>
       </c>
       <c r="C203" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D203" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -16146,10 +16143,10 @@
         <v>2948</v>
       </c>
       <c r="C204" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D204" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E204">
         <v>2</v>
@@ -16160,10 +16157,10 @@
         <v>2961</v>
       </c>
       <c r="C205" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D205" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="206" spans="2:23" x14ac:dyDescent="0.25">
@@ -16171,10 +16168,10 @@
         <v>2962</v>
       </c>
       <c r="C206" t="s">
+        <v>289</v>
+      </c>
+      <c r="D206" t="s">
         <v>290</v>
-      </c>
-      <c r="D206" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="207" spans="2:23" x14ac:dyDescent="0.25">
@@ -16182,10 +16179,10 @@
         <v>2963</v>
       </c>
       <c r="C207" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D207" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L207" s="4">
         <v>1</v>
@@ -16199,10 +16196,10 @@
         <v>2964</v>
       </c>
       <c r="C208" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D208" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N208">
         <v>0.04</v>
@@ -16213,10 +16210,10 @@
         <v>2965</v>
       </c>
       <c r="C209" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D209" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L209" s="4">
         <v>1</v>
@@ -16230,10 +16227,10 @@
         <v>2966</v>
       </c>
       <c r="C210" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D210" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L210" s="4">
         <v>1</v>
@@ -16247,10 +16244,10 @@
         <v>2967</v>
       </c>
       <c r="C211" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D211" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L211" s="4">
         <v>1</v>
@@ -16264,10 +16261,10 @@
         <v>2971</v>
       </c>
       <c r="C212" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D212" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="213" spans="2:17" x14ac:dyDescent="0.25">
@@ -16275,10 +16272,10 @@
         <v>2972</v>
       </c>
       <c r="C213" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D213" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L213" s="4">
         <v>1</v>
@@ -16292,10 +16289,10 @@
         <v>2973</v>
       </c>
       <c r="C214" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D214" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L214" s="4">
         <v>1</v>
@@ -16309,10 +16306,10 @@
         <v>2974</v>
       </c>
       <c r="C215" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D215" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E215">
         <v>2</v>
@@ -16326,10 +16323,10 @@
         <v>2975</v>
       </c>
       <c r="C216" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D216" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -16346,10 +16343,10 @@
         <v>2976</v>
       </c>
       <c r="C217" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D217" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E217">
         <v>2</v>
@@ -16363,10 +16360,10 @@
         <v>2977</v>
       </c>
       <c r="C218" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D218" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E218">
         <v>3</v>
@@ -16386,10 +16383,10 @@
         <v>2978</v>
       </c>
       <c r="C219" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D219" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E219">
         <v>3</v>
@@ -16406,10 +16403,10 @@
         <v>2979</v>
       </c>
       <c r="C220" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D220" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E220">
         <v>3</v>
@@ -16429,10 +16426,10 @@
         <v>2980</v>
       </c>
       <c r="C221" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D221" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E221">
         <v>4</v>
@@ -16446,10 +16443,10 @@
         <v>2981</v>
       </c>
       <c r="C222" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D222" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E222">
         <v>4</v>
@@ -16463,10 +16460,10 @@
         <v>2982</v>
       </c>
       <c r="C223" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D223" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E223">
         <v>4</v>
@@ -16480,10 +16477,10 @@
         <v>2983</v>
       </c>
       <c r="C224" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D224" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E224">
         <v>5</v>
@@ -16538,7 +16535,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16549,16 +16546,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -16569,10 +16566,10 @@
         <v>3101</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F3">
         <v>2931</v>
@@ -16584,7 +16581,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -16592,10 +16589,10 @@
         <v>3102</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F4">
         <v>2931</v>
@@ -16612,10 +16609,10 @@
         <v>3103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F5">
         <v>2933</v>
@@ -16632,10 +16629,10 @@
         <v>3106</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F6">
         <v>2932</v>
@@ -16652,10 +16649,10 @@
         <v>3107</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F7">
         <v>2932</v>
@@ -16672,10 +16669,10 @@
         <v>3108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -16689,10 +16686,10 @@
         <v>3312</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9">
@@ -16707,10 +16704,10 @@
         <v>3112</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10">
@@ -16728,7 +16725,7 @@
         <v>7.62</v>
       </c>
       <c r="D11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11">
@@ -16746,7 +16743,7 @@
         <v>7.62</v>
       </c>
       <c r="D12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12">
@@ -16764,7 +16761,7 @@
         <v>7.62</v>
       </c>
       <c r="D13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13">
@@ -16779,7 +16776,7 @@
         <v>7.62</v>
       </c>
       <c r="D14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14">
@@ -16791,10 +16788,10 @@
         <v>3117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15">
@@ -16806,10 +16803,10 @@
         <v>3118</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16">
@@ -16821,10 +16818,10 @@
         <v>3119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17">
@@ -16839,10 +16836,10 @@
         <v>3120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18">
@@ -16860,7 +16857,7 @@
         <v>5.56</v>
       </c>
       <c r="D19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19">
@@ -16875,7 +16872,7 @@
         <v>7.62</v>
       </c>
       <c r="D20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20">
@@ -16887,10 +16884,10 @@
         <v>3123</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21">
@@ -16905,10 +16902,10 @@
         <v>3124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22">
@@ -16926,7 +16923,7 @@
         <v>7.62</v>
       </c>
       <c r="D23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23">
@@ -16944,7 +16941,7 @@
         <v>7.62</v>
       </c>
       <c r="D24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24">
@@ -16959,10 +16956,10 @@
         <v>3127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25">
@@ -16977,10 +16974,10 @@
         <v>3128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26">
@@ -16992,10 +16989,10 @@
         <v>3129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27">
@@ -17010,10 +17007,10 @@
         <v>3130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28">
@@ -17028,10 +17025,10 @@
         <v>3131</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29">
@@ -17043,10 +17040,10 @@
         <v>3132</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30">
@@ -17058,13 +17055,13 @@
         <v>3133</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G31">
         <v>40</v>
@@ -17078,13 +17075,13 @@
         <v>3134</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G32">
         <v>60</v>
@@ -17101,7 +17098,7 @@
         <v>5.56</v>
       </c>
       <c r="D33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33">
@@ -17119,7 +17116,7 @@
         <v>5.56</v>
       </c>
       <c r="D34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34">
@@ -17134,10 +17131,10 @@
         <v>3137</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35">
@@ -17152,10 +17149,10 @@
         <v>3138</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36">
@@ -17173,7 +17170,7 @@
         <v>5.56</v>
       </c>
       <c r="D37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37">
@@ -17188,7 +17185,7 @@
         <v>5.56</v>
       </c>
       <c r="D38" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -17202,13 +17199,13 @@
         <v>3201</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D40" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F40" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -17222,13 +17219,13 @@
         <v>3202</v>
       </c>
       <c r="C41" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D41" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F41" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -17261,7 +17258,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17272,13 +17269,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17286,10 +17283,10 @@
         <v>4001</v>
       </c>
       <c r="C3" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E3" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="F3">
         <v>35</v>
@@ -17340,7 +17337,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17351,13 +17348,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -17371,19 +17368,19 @@
         <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="I4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -17392,19 +17389,19 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E5" t="s">
         <v>523</v>
       </c>
-      <c r="E5" t="s">
-        <v>528</v>
-      </c>
       <c r="F5" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G5">
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -17413,19 +17410,19 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E6" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G6" s="3">
         <v>-8</v>
       </c>
       <c r="I6" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -17434,19 +17431,19 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G7" s="3">
         <v>-8</v>
       </c>
       <c r="I7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -17455,19 +17452,19 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E8" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F8" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G8" s="9">
         <v>-40</v>
       </c>
       <c r="I8" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -17476,19 +17473,19 @@
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="I9" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -17497,19 +17494,19 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E10" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F10" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G10">
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -17518,19 +17515,19 @@
         <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E11" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F11" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G11">
         <v>-15</v>
       </c>
       <c r="I11" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -17539,19 +17536,19 @@
         <v>109</v>
       </c>
       <c r="D12" t="s">
+        <v>548</v>
+      </c>
+      <c r="E12" t="s">
         <v>553</v>
       </c>
-      <c r="E12" t="s">
-        <v>558</v>
-      </c>
       <c r="F12" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G12">
         <v>-15</v>
       </c>
       <c r="I12" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -17560,42 +17557,42 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E13" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="F13" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G13">
         <v>-60</v>
       </c>
       <c r="I13" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C15">
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="I15" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -17604,19 +17601,19 @@
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E16" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F16" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -17625,19 +17622,19 @@
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E17" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F17" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -17646,19 +17643,19 @@
         <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E18" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F18" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -17667,19 +17664,19 @@
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E19" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F19" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -17688,19 +17685,19 @@
         <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="I20" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -17709,19 +17706,19 @@
         <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E21" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F21" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -17730,19 +17727,19 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E22" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F22" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G22">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -17751,19 +17748,19 @@
         <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E23" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F23" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -17772,24 +17769,24 @@
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E24" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F24" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C26">
         <v>121</v>
@@ -17821,7 +17818,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C32">
         <v>131</v>
@@ -17833,10 +17830,10 @@
         <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="I33" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -17845,7 +17842,7 @@
         <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -17854,10 +17851,10 @@
         <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="I35" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F82D6B7-2DA1-482D-8120-1CFFAD31E784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0985A86-FC05-4CDF-BF63-5F86AA271A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="3" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -1406,9 +1406,6 @@
   </si>
   <si>
     <t>timer=1600, number=0.02, damageLimit = 0.1</t>
-  </si>
-  <si>
-    <t>timer=1000, number=0.02</t>
   </si>
   <si>
     <t>maxHealth DoT, lethal vs blue, gives decay</t>
@@ -3166,6 +3163,9 @@
   </si>
   <si>
     <t>timer=10s</t>
+  </si>
+  <si>
+    <t>timer=1000, number=0.025</t>
   </si>
 </sst>
 </file>
@@ -3609,7 +3609,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -3621,10 +3621,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3635,7 +3635,7 @@
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3646,7 +3646,7 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D6" t="s">
         <v>205</v>
@@ -3660,7 +3660,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3668,7 +3668,7 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3676,7 +3676,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3684,7 +3684,7 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3692,7 +3692,7 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3700,7 +3700,7 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3708,7 +3708,7 @@
         <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3716,7 +3716,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3724,7 +3724,7 @@
         <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3740,7 +3740,7 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3748,7 +3748,7 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3756,7 +3756,7 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3764,7 +3764,7 @@
         <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3772,7 +3772,7 @@
         <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
         <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3788,7 +3788,7 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -3796,7 +3796,7 @@
         <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3804,7 +3804,7 @@
         <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3812,7 +3812,7 @@
         <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3820,7 +3820,7 @@
         <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3828,7 +3828,7 @@
         <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3836,7 +3836,7 @@
         <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3844,7 +3844,7 @@
         <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3852,7 +3852,7 @@
         <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3860,7 +3860,7 @@
         <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -3868,7 +3868,7 @@
         <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3876,7 +3876,7 @@
         <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3884,7 +3884,7 @@
         <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3900,7 +3900,7 @@
         <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -3908,7 +3908,7 @@
         <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -3916,7 +3916,7 @@
         <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -3924,7 +3924,7 @@
         <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -3932,7 +3932,7 @@
         <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -3940,7 +3940,7 @@
         <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -3948,7 +3948,7 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -3956,7 +3956,7 @@
         <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -3964,7 +3964,7 @@
         <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -3972,7 +3972,7 @@
         <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -3980,7 +3980,7 @@
         <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -3988,7 +3988,7 @@
         <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D49" t="s">
         <v>208</v>
@@ -4002,7 +4002,7 @@
         <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -4010,7 +4010,7 @@
         <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -4018,7 +4018,7 @@
         <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -4026,7 +4026,7 @@
         <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -4034,7 +4034,7 @@
         <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -4042,7 +4042,7 @@
         <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -4050,7 +4050,7 @@
         <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -4058,7 +4058,7 @@
         <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -4066,7 +4066,7 @@
         <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -4077,13 +4077,13 @@
         <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D60" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E60" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -4091,7 +4091,7 @@
         <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -4099,7 +4099,7 @@
         <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -4107,7 +4107,7 @@
         <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -4115,7 +4115,7 @@
         <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -4123,7 +4123,7 @@
         <v>306</v>
       </c>
       <c r="C65" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -4131,7 +4131,7 @@
         <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -4139,7 +4139,7 @@
         <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -4147,7 +4147,7 @@
         <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -4155,7 +4155,7 @@
         <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -4163,7 +4163,7 @@
         <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -4171,7 +4171,7 @@
         <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -4179,7 +4179,7 @@
         <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -4187,7 +4187,7 @@
         <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -4195,7 +4195,7 @@
         <v>315</v>
       </c>
       <c r="C74" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -4203,7 +4203,7 @@
         <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -4211,7 +4211,7 @@
         <v>317</v>
       </c>
       <c r="C76" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -4219,7 +4219,7 @@
         <v>318</v>
       </c>
       <c r="C77" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -4227,7 +4227,7 @@
         <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -4235,7 +4235,7 @@
         <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -4243,7 +4243,7 @@
         <v>321</v>
       </c>
       <c r="C80" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -4251,7 +4251,7 @@
         <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -4259,7 +4259,7 @@
         <v>323</v>
       </c>
       <c r="C82" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -4267,7 +4267,7 @@
         <v>324</v>
       </c>
       <c r="C83" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -4353,7 +4353,7 @@
         <v>65</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I4" s="1">
         <v>1.4</v>
@@ -4420,7 +4420,7 @@
         <v>2.5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -10153,7 +10153,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10164,393 +10164,393 @@
         <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
       <c r="C10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D17" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" t="s">
+        <v>629</v>
+      </c>
+      <c r="D19" t="s">
         <v>630</v>
-      </c>
-      <c r="D19" t="s">
-        <v>631</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" t="s">
+        <v>621</v>
+      </c>
+      <c r="D21" t="s">
         <v>622</v>
-      </c>
-      <c r="D21" t="s">
-        <v>623</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
+        <v>802</v>
+      </c>
+      <c r="G32" t="s">
         <v>803</v>
-      </c>
-      <c r="G32" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -10688,10 +10688,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>210</v>
@@ -10702,13 +10702,13 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -10716,13 +10716,13 @@
         <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -10730,13 +10730,13 @@
         <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -10744,7 +10744,7 @@
         <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
@@ -10752,7 +10752,7 @@
         <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E7" s="16"/>
     </row>
@@ -10761,7 +10761,7 @@
         <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -10769,10 +10769,10 @@
         <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
@@ -10780,10 +10780,10 @@
         <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -10791,10 +10791,10 @@
         <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -10802,7 +10802,7 @@
         <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -10831,7 +10831,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -10846,7 +10846,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>209</v>
@@ -10869,10 +10869,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -10883,13 +10883,13 @@
         <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -10903,7 +10903,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -10920,7 +10920,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10942,7 +10942,7 @@
         <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>219</v>
@@ -10951,10 +10951,10 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -10972,7 +10972,7 @@
         <v>228</v>
       </c>
       <c r="H12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -10983,7 +10983,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="H13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -10991,16 +10991,16 @@
         <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11008,7 +11008,7 @@
         <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11016,7 +11016,7 @@
         <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -11024,7 +11024,7 @@
         <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -11032,7 +11032,7 @@
         <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G18" t="s">
         <v>329</v>
@@ -11052,7 +11052,7 @@
         <v>329</v>
       </c>
       <c r="H19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -11060,7 +11060,7 @@
         <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -11068,7 +11068,7 @@
         <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -11076,7 +11076,7 @@
         <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -11084,16 +11084,16 @@
         <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H23" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -11101,7 +11101,7 @@
         <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -11112,7 +11112,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -11123,7 +11123,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -11140,7 +11140,7 @@
         <v>329</v>
       </c>
       <c r="H27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -11148,7 +11148,7 @@
         <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -11156,7 +11156,7 @@
         <v>133</v>
       </c>
       <c r="H29" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -11164,7 +11164,7 @@
         <v>134</v>
       </c>
       <c r="H30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -11181,7 +11181,7 @@
         <v>329</v>
       </c>
       <c r="H31" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -11189,7 +11189,7 @@
         <v>142</v>
       </c>
       <c r="H32" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -11197,7 +11197,7 @@
         <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D33" t="s">
         <v>221</v>
@@ -11206,10 +11206,10 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H33" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -11217,7 +11217,7 @@
         <v>152</v>
       </c>
       <c r="H34" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -11225,7 +11225,7 @@
         <v>153</v>
       </c>
       <c r="H35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -11233,7 +11233,7 @@
         <v>154</v>
       </c>
       <c r="H36" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -11241,10 +11241,10 @@
         <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H37" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -11252,7 +11252,7 @@
         <v>156</v>
       </c>
       <c r="H38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -11260,7 +11260,7 @@
         <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -11268,7 +11268,7 @@
         <v>158</v>
       </c>
       <c r="H40" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -11349,7 +11349,7 @@
         <v>227</v>
       </c>
       <c r="D46" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -11372,7 +11372,7 @@
         <v>332</v>
       </c>
       <c r="H47" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -11386,7 +11386,7 @@
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -11408,7 +11408,7 @@
         <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -11515,7 +11515,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -11523,16 +11523,16 @@
         <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E58">
         <v>5</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H58" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -11540,7 +11540,7 @@
         <v>192</v>
       </c>
       <c r="H59" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -11548,10 +11548,10 @@
         <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H60" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -11559,7 +11559,7 @@
         <v>194</v>
       </c>
       <c r="H61" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -11570,13 +11570,13 @@
         <v>213</v>
       </c>
       <c r="D62" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -11593,27 +11593,27 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C64" t="s">
         <v>239</v>
       </c>
       <c r="D64" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E64">
         <v>7</v>
       </c>
       <c r="G64" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="H64" t="s">
         <v>781</v>
-      </c>
-      <c r="H64" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C65" t="s">
         <v>238</v>
@@ -11622,10 +11622,10 @@
         <v>9</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H65" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -11636,16 +11636,16 @@
         <v>243</v>
       </c>
       <c r="D66" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H66" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -11654,12 +11654,12 @@
       </c>
       <c r="G67" s="9"/>
       <c r="H67" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C69" t="s">
         <v>207</v>
@@ -11671,10 +11671,10 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
+        <v>741</v>
+      </c>
+      <c r="H69" t="s">
         <v>742</v>
-      </c>
-      <c r="H69" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -11685,10 +11685,10 @@
         <v>212</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H70" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -11696,7 +11696,7 @@
         <v>312</v>
       </c>
       <c r="H71" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -11704,19 +11704,19 @@
         <v>321</v>
       </c>
       <c r="C72" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D72" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H72" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -11727,10 +11727,10 @@
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H73" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -11738,10 +11738,10 @@
         <v>323</v>
       </c>
       <c r="G74" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H74" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -11753,16 +11753,16 @@
         <v>211</v>
       </c>
       <c r="D75" t="s">
+        <v>761</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>748</v>
+      </c>
+      <c r="H75" t="s">
         <v>762</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>749</v>
-      </c>
-      <c r="H75" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -11771,7 +11771,7 @@
         <v>332</v>
       </c>
       <c r="H76" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -11780,7 +11780,7 @@
         <v>333</v>
       </c>
       <c r="H77" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -11789,7 +11789,7 @@
         <v>334</v>
       </c>
       <c r="H78" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -11798,7 +11798,7 @@
         <v>335</v>
       </c>
       <c r="H79" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -11807,7 +11807,7 @@
         <v>336</v>
       </c>
       <c r="H80" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -11816,7 +11816,7 @@
         <v>337</v>
       </c>
       <c r="H81" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -11825,7 +11825,7 @@
         <v>338</v>
       </c>
       <c r="H82" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -11834,16 +11834,16 @@
         <v>339</v>
       </c>
       <c r="C83" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E83">
         <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H83" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -11852,7 +11852,7 @@
         <v>340</v>
       </c>
       <c r="H84" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -11861,7 +11861,7 @@
         <v>341</v>
       </c>
       <c r="H85" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -11870,7 +11870,7 @@
         <v>342</v>
       </c>
       <c r="H86" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -11879,13 +11879,13 @@
         <v>343</v>
       </c>
       <c r="C87" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G87" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H87" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -11894,7 +11894,7 @@
         <v>344</v>
       </c>
       <c r="H88" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -11903,7 +11903,7 @@
         <v>345</v>
       </c>
       <c r="H89" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -11912,7 +11912,7 @@
         <v>346</v>
       </c>
       <c r="H90" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -11937,7 +11937,7 @@
         <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -11946,7 +11946,7 @@
         <v>292</v>
       </c>
       <c r="H93" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -11957,7 +11957,7 @@
         <v>293</v>
       </c>
       <c r="H94" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -11965,7 +11965,7 @@
         <v>421</v>
       </c>
       <c r="C95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -11979,7 +11979,7 @@
         <v>422</v>
       </c>
       <c r="C96" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -11987,7 +11987,7 @@
         <v>423</v>
       </c>
       <c r="C97" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -11995,7 +11995,7 @@
         <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -12003,7 +12003,7 @@
         <v>425</v>
       </c>
       <c r="C99" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E99">
         <v>35</v>
@@ -12014,7 +12014,7 @@
         <v>426</v>
       </c>
       <c r="C100" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E100">
         <v>20</v>
@@ -12045,7 +12045,7 @@
         <v>331</v>
       </c>
       <c r="H102" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -12053,7 +12053,7 @@
         <v>442</v>
       </c>
       <c r="H103" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -12061,7 +12061,7 @@
         <v>443</v>
       </c>
       <c r="H104" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
@@ -12230,10 +12230,10 @@
         <v>1002</v>
       </c>
       <c r="C4" t="s">
+        <v>796</v>
+      </c>
+      <c r="D4" t="s">
         <v>797</v>
-      </c>
-      <c r="D4" t="s">
-        <v>798</v>
       </c>
       <c r="E4" t="s">
         <v>402</v>
@@ -12250,7 +12250,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -12279,10 +12279,10 @@
         <v>1102</v>
       </c>
       <c r="C7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E7" t="s">
         <v>461</v>
-      </c>
-      <c r="E7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -12290,10 +12290,10 @@
         <v>1103</v>
       </c>
       <c r="C8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -12301,10 +12301,10 @@
         <v>1104</v>
       </c>
       <c r="C9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -12312,10 +12312,10 @@
         <v>1105</v>
       </c>
       <c r="C10" t="s">
+        <v>798</v>
+      </c>
+      <c r="E10" t="s">
         <v>799</v>
-      </c>
-      <c r="E10" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -12323,10 +12323,10 @@
         <v>1106</v>
       </c>
       <c r="C11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -12334,10 +12334,10 @@
         <v>1116</v>
       </c>
       <c r="C12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -12345,10 +12345,10 @@
         <v>1117</v>
       </c>
       <c r="C13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -12356,10 +12356,10 @@
         <v>1118</v>
       </c>
       <c r="C14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -12367,10 +12367,10 @@
         <v>1119</v>
       </c>
       <c r="C15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -12378,10 +12378,10 @@
         <v>1120</v>
       </c>
       <c r="C16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -12679,7 +12679,7 @@
   <dimension ref="B2:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12713,7 +12713,7 @@
         <v>429</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>433</v>
@@ -12724,7 +12724,7 @@
         <v>430</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>431</v>
@@ -12748,7 +12748,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E6" t="s">
         <v>404</v>
@@ -12759,7 +12759,7 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
@@ -12776,7 +12776,7 @@
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E8" t="s">
         <v>405</v>
@@ -12787,10 +12787,10 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E9" t="s">
         <v>411</v>
@@ -12801,10 +12801,10 @@
         <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E10" t="s">
         <v>412</v>
@@ -12815,10 +12815,10 @@
         <v>418</v>
       </c>
       <c r="C12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E12" t="s">
         <v>407</v>
@@ -12829,7 +12829,7 @@
         <v>417</v>
       </c>
       <c r="C13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D13" t="s">
         <v>410</v>
@@ -12843,7 +12843,7 @@
         <v>419</v>
       </c>
       <c r="C14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D14" t="s">
         <v>441</v>
@@ -12857,7 +12857,7 @@
         <v>420</v>
       </c>
       <c r="C15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D15" t="s">
         <v>442</v>
@@ -12871,7 +12871,7 @@
         <v>413</v>
       </c>
       <c r="C16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D16" t="s">
         <v>445</v>
@@ -12880,7 +12880,7 @@
         <v>443</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -12888,7 +12888,7 @@
         <v>414</v>
       </c>
       <c r="C17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D17" t="s">
         <v>409</v>
@@ -12903,13 +12903,13 @@
         <v>421</v>
       </c>
       <c r="C18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D18" t="s">
         <v>445</v>
       </c>
       <c r="E18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F18" s="12"/>
     </row>
@@ -12918,13 +12918,13 @@
         <v>422</v>
       </c>
       <c r="C19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D19" t="s">
         <v>446</v>
       </c>
       <c r="E19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F19" s="12"/>
     </row>
@@ -12933,13 +12933,13 @@
         <v>423</v>
       </c>
       <c r="C20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D20" t="s">
         <v>447</v>
       </c>
       <c r="E20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -12947,7 +12947,7 @@
         <v>424</v>
       </c>
       <c r="C21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D21" t="s">
         <v>452</v>
@@ -12961,7 +12961,7 @@
         <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D22" t="s">
         <v>196</v>
@@ -12975,7 +12975,7 @@
         <v>425</v>
       </c>
       <c r="C23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D23" t="s">
         <v>448</v>
@@ -12989,13 +12989,13 @@
         <v>426</v>
       </c>
       <c r="C24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -13003,13 +13003,13 @@
         <v>427</v>
       </c>
       <c r="C25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D25" t="s">
-        <v>453</v>
+        <v>888</v>
       </c>
       <c r="E25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -13017,7 +13017,7 @@
         <v>428</v>
       </c>
       <c r="C26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -13025,7 +13025,7 @@
         <v>434</v>
       </c>
       <c r="C27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -13033,7 +13033,7 @@
         <v>435</v>
       </c>
       <c r="C28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -13041,7 +13041,7 @@
         <v>436</v>
       </c>
       <c r="C29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -13049,7 +13049,7 @@
         <v>437</v>
       </c>
       <c r="C30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -13057,29 +13057,29 @@
         <v>438</v>
       </c>
       <c r="C31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E33" t="s">
+        <v>513</v>
+      </c>
+      <c r="F33" t="s">
         <v>514</v>
-      </c>
-      <c r="F33" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>538</v>
+      </c>
+      <c r="C34" t="s">
         <v>539</v>
-      </c>
-      <c r="C34" t="s">
-        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -13742,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="W42" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
@@ -13750,7 +13750,7 @@
         <v>2311</v>
       </c>
       <c r="C43" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -13768,7 +13768,7 @@
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
@@ -14753,7 +14753,7 @@
         <v>2501</v>
       </c>
       <c r="C89" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -14803,7 +14803,7 @@
         <v>2511</v>
       </c>
       <c r="C93" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -14848,7 +14848,7 @@
         <v>2521</v>
       </c>
       <c r="C96" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -14862,7 +14862,7 @@
         <v>2531</v>
       </c>
       <c r="C97" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -14876,7 +14876,7 @@
         <v>2541</v>
       </c>
       <c r="C98" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E98">
         <v>5</v>
@@ -14890,7 +14890,7 @@
         <v>2551</v>
       </c>
       <c r="C99" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E99">
         <v>6</v>
@@ -14904,7 +14904,7 @@
         <v>2561</v>
       </c>
       <c r="C100" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E100">
         <v>7</v>
@@ -14918,7 +14918,7 @@
         <v>2571</v>
       </c>
       <c r="C101" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E101">
         <v>8</v>
@@ -14932,7 +14932,7 @@
         <v>2581</v>
       </c>
       <c r="C102" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E102">
         <v>9</v>
@@ -14946,7 +14946,7 @@
         <v>2591</v>
       </c>
       <c r="C103" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E103">
         <v>10</v>
@@ -15052,7 +15052,7 @@
         <v>2641</v>
       </c>
       <c r="C112" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -15377,7 +15377,7 @@
         <v>2801</v>
       </c>
       <c r="C137" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D137" t="s">
         <v>27</v>
@@ -15388,7 +15388,7 @@
         <v>2802</v>
       </c>
       <c r="C138" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.25">
@@ -15396,7 +15396,7 @@
         <v>2803</v>
       </c>
       <c r="C139" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.25">
@@ -15404,7 +15404,7 @@
         <v>2804</v>
       </c>
       <c r="C140" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.25">
@@ -15412,7 +15412,7 @@
         <v>2805</v>
       </c>
       <c r="C141" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.25">
@@ -15448,7 +15448,7 @@
         <v>2811</v>
       </c>
       <c r="C147" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E147">
         <v>2</v>
@@ -15459,7 +15459,7 @@
         <v>2812</v>
       </c>
       <c r="C148" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="149" spans="2:25" x14ac:dyDescent="0.25">
@@ -15467,7 +15467,7 @@
         <v>2813</v>
       </c>
       <c r="C149" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="150" spans="2:25" x14ac:dyDescent="0.25">
@@ -15475,7 +15475,7 @@
         <v>2814</v>
       </c>
       <c r="C150" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="151" spans="2:25" x14ac:dyDescent="0.25">
@@ -15491,7 +15491,7 @@
         <v>2821</v>
       </c>
       <c r="C152" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -15502,7 +15502,7 @@
         <v>2822</v>
       </c>
       <c r="C153" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="154" spans="2:25" x14ac:dyDescent="0.25">
@@ -15510,7 +15510,7 @@
         <v>2823</v>
       </c>
       <c r="C154" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="155" spans="2:25" x14ac:dyDescent="0.25">
@@ -15518,7 +15518,7 @@
         <v>2834</v>
       </c>
       <c r="C155" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="156" spans="2:25" x14ac:dyDescent="0.25">
@@ -15526,7 +15526,7 @@
         <v>2825</v>
       </c>
       <c r="C156" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Y156" t="s">
         <v>202</v>
@@ -15537,7 +15537,7 @@
         <v>2831</v>
       </c>
       <c r="C157" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E157">
         <v>4</v>
@@ -15548,7 +15548,7 @@
         <v>2832</v>
       </c>
       <c r="C158" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="159" spans="2:25" x14ac:dyDescent="0.25">
@@ -15556,7 +15556,7 @@
         <v>2841</v>
       </c>
       <c r="C159" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E159">
         <v>5</v>
@@ -15567,7 +15567,7 @@
         <v>2842</v>
       </c>
       <c r="C160" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
@@ -15575,7 +15575,7 @@
         <v>2851</v>
       </c>
       <c r="C161" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E161">
         <v>6</v>
@@ -15586,7 +15586,7 @@
         <v>2852</v>
       </c>
       <c r="C162" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
@@ -15594,7 +15594,7 @@
         <v>2853</v>
       </c>
       <c r="C163" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
@@ -15602,7 +15602,7 @@
         <v>2861</v>
       </c>
       <c r="C164" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E164">
         <v>7</v>
@@ -15613,7 +15613,7 @@
         <v>2862</v>
       </c>
       <c r="C165" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.25">
@@ -15621,7 +15621,7 @@
         <v>2863</v>
       </c>
       <c r="C166" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.25">
@@ -15637,7 +15637,7 @@
         <v>2871</v>
       </c>
       <c r="C168" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E168">
         <v>8</v>
@@ -15648,7 +15648,7 @@
         <v>2872</v>
       </c>
       <c r="C169" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.25">
@@ -15656,7 +15656,7 @@
         <v>2873</v>
       </c>
       <c r="C170" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.25">
@@ -15664,7 +15664,7 @@
         <v>2881</v>
       </c>
       <c r="C171" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E171">
         <v>9</v>
@@ -15675,7 +15675,7 @@
         <v>2882</v>
       </c>
       <c r="C172" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
@@ -15683,7 +15683,7 @@
         <v>2883</v>
       </c>
       <c r="C173" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">
@@ -15691,7 +15691,7 @@
         <v>2891</v>
       </c>
       <c r="C174" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E174">
         <v>10</v>
@@ -15834,7 +15834,7 @@
         <v>2917</v>
       </c>
       <c r="C186" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D186" t="s">
         <v>259</v>
@@ -15994,7 +15994,7 @@
         <v>2.5</v>
       </c>
       <c r="W194" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="195" spans="2:23" x14ac:dyDescent="0.25">
@@ -16034,7 +16034,7 @@
         <v>2</v>
       </c>
       <c r="W196" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="197" spans="2:23" x14ac:dyDescent="0.25">
@@ -16609,7 +16609,7 @@
         <v>3103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D5" t="s">
         <v>281</v>
@@ -17061,7 +17061,7 @@
         <v>382</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G31">
         <v>40</v>
@@ -17081,7 +17081,7 @@
         <v>382</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G32">
         <v>60</v>
@@ -17199,13 +17199,13 @@
         <v>3201</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D40" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F40" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -17219,13 +17219,13 @@
         <v>3202</v>
       </c>
       <c r="C41" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D41" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -17258,7 +17258,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17269,13 +17269,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17283,10 +17283,10 @@
         <v>4001</v>
       </c>
       <c r="C3" t="s">
+        <v>815</v>
+      </c>
+      <c r="E3" t="s">
         <v>816</v>
-      </c>
-      <c r="E3" t="s">
-        <v>817</v>
       </c>
       <c r="F3">
         <v>35</v>
@@ -17337,7 +17337,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17348,13 +17348,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -17368,19 +17368,19 @@
         <v>101</v>
       </c>
       <c r="D4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="I4" t="s">
         <v>516</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="I4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -17389,19 +17389,19 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G5">
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -17410,19 +17410,19 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G6" s="3">
         <v>-8</v>
       </c>
       <c r="I6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -17431,19 +17431,19 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G7" s="3">
         <v>-8</v>
       </c>
       <c r="I7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -17452,19 +17452,19 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G8" s="9">
         <v>-40</v>
       </c>
       <c r="I8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -17473,19 +17473,19 @@
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -17494,19 +17494,19 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G10">
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -17515,19 +17515,19 @@
         <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G11">
         <v>-15</v>
       </c>
       <c r="I11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -17536,19 +17536,19 @@
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G12">
         <v>-15</v>
       </c>
       <c r="I12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -17557,42 +17557,42 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E13" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G13">
         <v>-60</v>
       </c>
       <c r="I13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C15">
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -17601,19 +17601,19 @@
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -17622,19 +17622,19 @@
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -17643,19 +17643,19 @@
         <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -17664,19 +17664,19 @@
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -17685,19 +17685,19 @@
         <v>116</v>
       </c>
       <c r="D20" t="s">
+        <v>570</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="I20" t="s">
         <v>571</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="I20" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -17706,19 +17706,19 @@
         <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -17727,19 +17727,19 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G22">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -17748,19 +17748,19 @@
         <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -17769,24 +17769,24 @@
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C26">
         <v>121</v>
@@ -17818,7 +17818,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C32">
         <v>131</v>
@@ -17830,10 +17830,10 @@
         <v>132</v>
       </c>
       <c r="D33" t="s">
+        <v>532</v>
+      </c>
+      <c r="I33" t="s">
         <v>533</v>
-      </c>
-      <c r="I33" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -17842,7 +17842,7 @@
         <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -17851,10 +17851,10 @@
         <v>134</v>
       </c>
       <c r="D35" t="s">
+        <v>535</v>
+      </c>
+      <c r="I35" t="s">
         <v>536</v>
-      </c>
-      <c r="I35" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0985A86-FC05-4CDF-BF63-5F86AA271A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3DC1E0-980C-40B2-BCD4-7AC764DB9911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="3" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="911">
   <si>
     <t>ID</t>
   </si>
@@ -3166,6 +3166,72 @@
   </si>
   <si>
     <t>timer=1000, number=0.025</t>
+  </si>
+  <si>
+    <t>Visual effect</t>
+  </si>
+  <si>
+    <t>cyan tint</t>
+  </si>
+  <si>
+    <t>blue tint</t>
+  </si>
+  <si>
+    <t>burn gif</t>
+  </si>
+  <si>
+    <t>smoke gif, black tint</t>
+  </si>
+  <si>
+    <t>water gif</t>
+  </si>
+  <si>
+    <t>thick water gif</t>
+  </si>
+  <si>
+    <t>bleed icon</t>
+  </si>
+  <si>
+    <t>hemorrhage icon</t>
+  </si>
+  <si>
+    <t>wilt icon</t>
+  </si>
+  <si>
+    <t>wither icon</t>
+  </si>
+  <si>
+    <t>sick icon</t>
+  </si>
+  <si>
+    <t>diseased icon</t>
+  </si>
+  <si>
+    <t>rot icon</t>
+  </si>
+  <si>
+    <t>decayed icon</t>
+  </si>
+  <si>
+    <t>hungry icon</t>
+  </si>
+  <si>
+    <t>weak icon</t>
+  </si>
+  <si>
+    <t>thirsty icon</t>
+  </si>
+  <si>
+    <t>woozy icon</t>
+  </si>
+  <si>
+    <t>confused icon</t>
+  </si>
+  <si>
+    <t>invulnerable icon</t>
+  </si>
+  <si>
+    <t>unkillable icon</t>
   </si>
 </sst>
 </file>
@@ -4286,7 +4352,7 @@
   <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H20" sqref="H20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12676,10 +12742,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981A228F-2BB3-44AC-82E9-D9BE084DFD89}">
-  <dimension ref="B2:F34"/>
+  <dimension ref="B2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B20" sqref="B20:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12689,9 +12755,10 @@
     <col min="4" max="4" width="57.140625" customWidth="1"/>
     <col min="5" max="5" width="70.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="7" max="7" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
@@ -12707,8 +12774,11 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>429</v>
       </c>
@@ -12718,8 +12788,11 @@
       <c r="E3" s="10" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>430</v>
       </c>
@@ -12732,15 +12805,18 @@
       <c r="E4" s="10" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>415</v>
       </c>
@@ -12753,8 +12829,11 @@
       <c r="E6" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>67</v>
       </c>
@@ -12767,8 +12846,11 @@
       <c r="E7" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>416</v>
       </c>
@@ -12781,8 +12863,11 @@
       <c r="E8" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -12795,8 +12880,11 @@
       <c r="E9" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>195</v>
       </c>
@@ -12809,8 +12897,11 @@
       <c r="E10" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>418</v>
       </c>
@@ -12823,8 +12914,11 @@
       <c r="E12" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>417</v>
       </c>
@@ -12837,8 +12931,11 @@
       <c r="E13" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>419</v>
       </c>
@@ -12851,8 +12948,11 @@
       <c r="E14" s="11" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>420</v>
       </c>
@@ -12865,8 +12965,11 @@
       <c r="E15" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>413</v>
       </c>
@@ -12882,8 +12985,11 @@
       <c r="F16" s="12" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>414</v>
       </c>
@@ -12897,8 +13003,11 @@
         <v>444</v>
       </c>
       <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>421</v>
       </c>
@@ -12912,8 +13021,11 @@
         <v>454</v>
       </c>
       <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>422</v>
       </c>
@@ -12927,8 +13039,11 @@
         <v>455</v>
       </c>
       <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>423</v>
       </c>
@@ -12941,8 +13056,11 @@
       <c r="E20" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>424</v>
       </c>
@@ -12955,8 +13073,11 @@
       <c r="E21" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>194</v>
       </c>
@@ -12969,8 +13090,11 @@
       <c r="E22" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>425</v>
       </c>
@@ -12983,8 +13107,11 @@
       <c r="E23" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>426</v>
       </c>
@@ -12997,8 +13124,11 @@
       <c r="E24" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>427</v>
       </c>
@@ -13011,8 +13141,11 @@
       <c r="E25" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>428</v>
       </c>
@@ -13020,7 +13153,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>434</v>
       </c>
@@ -13028,7 +13161,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>435</v>
       </c>
@@ -13036,7 +13169,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>436</v>
       </c>
@@ -13044,7 +13177,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>437</v>
       </c>
@@ -13052,7 +13185,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>438</v>
       </c>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3DC1E0-980C-40B2-BCD4-7AC764DB9911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C909A43-F695-4E21-8D02-A06597574854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="3" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="1" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrains" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="911">
   <si>
     <t>ID</t>
   </si>
@@ -3279,12 +3279,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3300,7 +3312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3342,6 +3354,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10881,14 +10898,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.85546875" style="4"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="22" customWidth="1"/>
     <col min="4" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.140625" bestFit="1" customWidth="1"/>
@@ -10900,12 +10917,13 @@
         <v>640</v>
       </c>
       <c r="B1" s="2"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -10925,7 +10943,7 @@
       <c r="B4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D4" t="s">
@@ -10945,7 +10963,7 @@
       <c r="B6" s="4">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D6" t="s">
@@ -10962,7 +10980,7 @@
       <c r="B7" s="4">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="19" t="s">
         <v>202</v>
       </c>
       <c r="E7">
@@ -10976,7 +10994,7 @@
       <c r="B8" s="4">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="19" t="s">
         <v>203</v>
       </c>
       <c r="D8" t="s">
@@ -10993,7 +11011,7 @@
       <c r="B9" s="4">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="19" t="s">
         <v>204</v>
       </c>
       <c r="E9">
@@ -11007,7 +11025,7 @@
       <c r="B11" s="4">
         <v>101</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="20" t="s">
         <v>712</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -11027,7 +11045,7 @@
       <c r="B12" s="4">
         <v>102</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="20" t="s">
         <v>234</v>
       </c>
       <c r="D12" s="4"/>
@@ -11045,7 +11063,7 @@
       <c r="B13" s="4">
         <v>103</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="H13" t="s">
@@ -11056,7 +11074,7 @@
       <c r="B14" s="4">
         <v>111</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="19" t="s">
         <v>729</v>
       </c>
       <c r="E14">
@@ -11073,6 +11091,7 @@
       <c r="B15" s="4">
         <v>112</v>
       </c>
+      <c r="C15" s="19"/>
       <c r="H15" t="s">
         <v>726</v>
       </c>
@@ -11081,6 +11100,7 @@
       <c r="B16" s="4">
         <v>113</v>
       </c>
+      <c r="C16" s="19"/>
       <c r="H16" t="s">
         <v>727</v>
       </c>
@@ -11089,6 +11109,7 @@
       <c r="B17" s="4">
         <v>114</v>
       </c>
+      <c r="C17" s="19"/>
       <c r="H17" t="s">
         <v>728</v>
       </c>
@@ -11097,7 +11118,7 @@
       <c r="B18" s="4">
         <v>115</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="19" t="s">
         <v>730</v>
       </c>
       <c r="G18" t="s">
@@ -11108,7 +11129,7 @@
       <c r="B19" s="4">
         <v>121</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="19" t="s">
         <v>217</v>
       </c>
       <c r="E19">
@@ -11125,6 +11146,7 @@
       <c r="B20" s="4">
         <v>122</v>
       </c>
+      <c r="C20" s="19"/>
       <c r="H20" t="s">
         <v>726</v>
       </c>
@@ -11133,6 +11155,7 @@
       <c r="B21" s="4">
         <v>123</v>
       </c>
+      <c r="C21" s="19"/>
       <c r="H21" t="s">
         <v>727</v>
       </c>
@@ -11141,6 +11164,7 @@
       <c r="B22" s="4">
         <v>124</v>
       </c>
+      <c r="C22" s="19"/>
       <c r="H22" t="s">
         <v>728</v>
       </c>
@@ -11149,7 +11173,7 @@
       <c r="B23" s="4">
         <v>125</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="19" t="s">
         <v>753</v>
       </c>
       <c r="E23">
@@ -11166,6 +11190,7 @@
       <c r="B24" s="4">
         <v>126</v>
       </c>
+      <c r="C24" s="19"/>
       <c r="H24" t="s">
         <v>758</v>
       </c>
@@ -11174,6 +11199,7 @@
       <c r="B25" s="4">
         <v>127</v>
       </c>
+      <c r="C25" s="19"/>
       <c r="E25">
         <v>3</v>
       </c>
@@ -11185,6 +11211,7 @@
       <c r="B26" s="4">
         <v>128</v>
       </c>
+      <c r="C26" s="19"/>
       <c r="E26">
         <v>3</v>
       </c>
@@ -11196,7 +11223,7 @@
       <c r="B27" s="4">
         <v>131</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="19" t="s">
         <v>218</v>
       </c>
       <c r="E27">
@@ -11213,6 +11240,7 @@
       <c r="B28" s="4">
         <v>132</v>
       </c>
+      <c r="C28" s="19"/>
       <c r="H28" t="s">
         <v>726</v>
       </c>
@@ -11221,6 +11249,7 @@
       <c r="B29" s="4">
         <v>133</v>
       </c>
+      <c r="C29" s="19"/>
       <c r="H29" t="s">
         <v>727</v>
       </c>
@@ -11229,6 +11258,7 @@
       <c r="B30" s="4">
         <v>134</v>
       </c>
+      <c r="C30" s="19"/>
       <c r="H30" t="s">
         <v>728</v>
       </c>
@@ -11237,7 +11267,7 @@
       <c r="B31" s="4">
         <v>141</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="19" t="s">
         <v>220</v>
       </c>
       <c r="E31">
@@ -11254,6 +11284,7 @@
       <c r="B32" s="4">
         <v>142</v>
       </c>
+      <c r="C32" s="19"/>
       <c r="H32" t="s">
         <v>727</v>
       </c>
@@ -11262,7 +11293,7 @@
       <c r="B33" s="4">
         <v>151</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="19" t="s">
         <v>736</v>
       </c>
       <c r="D33" t="s">
@@ -11282,6 +11313,7 @@
       <c r="B34" s="4">
         <v>152</v>
       </c>
+      <c r="C34" s="19"/>
       <c r="H34" t="s">
         <v>726</v>
       </c>
@@ -11290,6 +11322,7 @@
       <c r="B35" s="4">
         <v>153</v>
       </c>
+      <c r="C35" s="19"/>
       <c r="H35" t="s">
         <v>727</v>
       </c>
@@ -11298,6 +11331,7 @@
       <c r="B36" s="4">
         <v>154</v>
       </c>
+      <c r="C36" s="19"/>
       <c r="H36" t="s">
         <v>728</v>
       </c>
@@ -11306,7 +11340,7 @@
       <c r="B37" s="4">
         <v>155</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="19" t="s">
         <v>737</v>
       </c>
       <c r="H37" t="s">
@@ -11317,6 +11351,7 @@
       <c r="B38" s="4">
         <v>156</v>
       </c>
+      <c r="C38" s="19"/>
       <c r="H38" t="s">
         <v>726</v>
       </c>
@@ -11325,6 +11360,7 @@
       <c r="B39" s="4">
         <v>157</v>
       </c>
+      <c r="C39" s="19"/>
       <c r="H39" t="s">
         <v>727</v>
       </c>
@@ -11333,6 +11369,7 @@
       <c r="B40" s="4">
         <v>158</v>
       </c>
+      <c r="C40" s="19"/>
       <c r="H40" t="s">
         <v>728</v>
       </c>
@@ -11341,7 +11378,7 @@
       <c r="B41" s="4">
         <v>161</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="23" t="s">
         <v>216</v>
       </c>
       <c r="E41">
@@ -11355,7 +11392,7 @@
       <c r="B42" s="4">
         <v>162</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="23" t="s">
         <v>222</v>
       </c>
       <c r="E42">
@@ -11369,7 +11406,7 @@
       <c r="B43" s="4">
         <v>163</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="23" t="s">
         <v>223</v>
       </c>
       <c r="E43">
@@ -11383,7 +11420,7 @@
       <c r="B44" s="4">
         <v>164</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="23" t="s">
         <v>224</v>
       </c>
       <c r="E44">
@@ -11397,7 +11434,7 @@
       <c r="B45" s="4">
         <v>165</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="23" t="s">
         <v>226</v>
       </c>
       <c r="E45">
@@ -11411,7 +11448,7 @@
       <c r="B46" s="4">
         <v>171</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="19" t="s">
         <v>227</v>
       </c>
       <c r="D46" t="s">
@@ -11428,7 +11465,7 @@
       <c r="B47" s="4">
         <v>172</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="19" t="s">
         <v>229</v>
       </c>
       <c r="E47">
@@ -11445,7 +11482,7 @@
       <c r="B48" s="4">
         <v>173</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="19" t="s">
         <v>229</v>
       </c>
       <c r="E48">
@@ -11459,7 +11496,7 @@
       <c r="B49" s="4">
         <v>174</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="19" t="s">
         <v>235</v>
       </c>
       <c r="E49">
@@ -11473,7 +11510,7 @@
       <c r="B50" s="4">
         <v>175</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="19" t="s">
         <v>794</v>
       </c>
       <c r="E50">
@@ -11487,7 +11524,7 @@
       <c r="B51" s="4">
         <v>176</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="19" t="s">
         <v>236</v>
       </c>
       <c r="E51">
@@ -11501,7 +11538,7 @@
       <c r="B52" s="4">
         <v>177</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="19" t="s">
         <v>237</v>
       </c>
       <c r="E52">
@@ -11515,7 +11552,7 @@
       <c r="B53" s="4">
         <v>181</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="19" t="s">
         <v>230</v>
       </c>
       <c r="D53" t="s">
@@ -11532,7 +11569,7 @@
       <c r="B54" s="4">
         <v>182</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="19" t="s">
         <v>231</v>
       </c>
       <c r="E54">
@@ -11546,7 +11583,7 @@
       <c r="B55" s="4">
         <v>183</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="19" t="s">
         <v>232</v>
       </c>
       <c r="E55">
@@ -11560,7 +11597,7 @@
       <c r="B56" s="4">
         <v>184</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="19" t="s">
         <v>233</v>
       </c>
       <c r="E56">
@@ -11574,7 +11611,7 @@
       <c r="B57" s="4">
         <v>185</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="23" t="s">
         <v>215</v>
       </c>
       <c r="E57">
@@ -11588,7 +11625,7 @@
       <c r="B58" s="4">
         <v>191</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="19" t="s">
         <v>774</v>
       </c>
       <c r="E58">
@@ -11605,6 +11642,7 @@
       <c r="B59" s="4">
         <v>192</v>
       </c>
+      <c r="C59" s="19"/>
       <c r="H59" t="s">
         <v>727</v>
       </c>
@@ -11613,7 +11651,7 @@
       <c r="B60" s="4">
         <v>193</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="19" t="s">
         <v>775</v>
       </c>
       <c r="H60" t="s">
@@ -11624,6 +11662,7 @@
       <c r="B61" s="4">
         <v>194</v>
       </c>
+      <c r="C61" s="19"/>
       <c r="H61" t="s">
         <v>727</v>
       </c>
@@ -11632,7 +11671,7 @@
       <c r="B62" s="4">
         <v>201</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="19" t="s">
         <v>213</v>
       </c>
       <c r="D62" t="s">
@@ -11649,7 +11688,7 @@
       <c r="B63" s="4">
         <v>202</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="19" t="s">
         <v>242</v>
       </c>
       <c r="E63">
@@ -11661,7 +11700,7 @@
       <c r="B64" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="19" t="s">
         <v>239</v>
       </c>
       <c r="D64" t="s">
@@ -11681,7 +11720,7 @@
       <c r="B65" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="19" t="s">
         <v>238</v>
       </c>
       <c r="E65">
@@ -11698,7 +11737,7 @@
       <c r="B66" s="4">
         <v>251</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="19" t="s">
         <v>243</v>
       </c>
       <c r="D66" t="s">
@@ -11718,6 +11757,7 @@
       <c r="B67" s="4">
         <v>252</v>
       </c>
+      <c r="C67" s="19"/>
       <c r="G67" s="9"/>
       <c r="H67" t="s">
         <v>727</v>
@@ -11727,7 +11767,7 @@
       <c r="B69" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="19" t="s">
         <v>207</v>
       </c>
       <c r="D69" t="s">
@@ -11747,7 +11787,7 @@
       <c r="B70" s="4">
         <v>311</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="19" t="s">
         <v>212</v>
       </c>
       <c r="G70" s="9" t="s">
@@ -11761,6 +11801,7 @@
       <c r="B71" s="4">
         <v>312</v>
       </c>
+      <c r="C71" s="19"/>
       <c r="H71" t="s">
         <v>752</v>
       </c>
@@ -11769,7 +11810,7 @@
       <c r="B72" s="4">
         <v>321</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="19" t="s">
         <v>743</v>
       </c>
       <c r="D72" t="s">
@@ -11789,6 +11830,7 @@
       <c r="B73" s="4">
         <v>322</v>
       </c>
+      <c r="C73" s="19"/>
       <c r="E73">
         <v>100</v>
       </c>
@@ -11803,6 +11845,7 @@
       <c r="B74" s="4">
         <v>323</v>
       </c>
+      <c r="C74" s="19"/>
       <c r="G74" t="s">
         <v>750</v>
       </c>
@@ -11815,7 +11858,7 @@
       <c r="B75" s="4">
         <v>331</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="19" t="s">
         <v>211</v>
       </c>
       <c r="D75" t="s">
@@ -11836,6 +11879,7 @@
       <c r="B76" s="4">
         <v>332</v>
       </c>
+      <c r="C76" s="19"/>
       <c r="H76" t="s">
         <v>763</v>
       </c>
@@ -11845,6 +11889,7 @@
       <c r="B77" s="4">
         <v>333</v>
       </c>
+      <c r="C77" s="19"/>
       <c r="H77" t="s">
         <v>764</v>
       </c>
@@ -11854,6 +11899,7 @@
       <c r="B78" s="4">
         <v>334</v>
       </c>
+      <c r="C78" s="19"/>
       <c r="H78" t="s">
         <v>765</v>
       </c>
@@ -11863,6 +11909,7 @@
       <c r="B79" s="4">
         <v>335</v>
       </c>
+      <c r="C79" s="19"/>
       <c r="H79" t="s">
         <v>766</v>
       </c>
@@ -11872,6 +11919,7 @@
       <c r="B80" s="4">
         <v>336</v>
       </c>
+      <c r="C80" s="19"/>
       <c r="H80" t="s">
         <v>767</v>
       </c>
@@ -11881,6 +11929,7 @@
       <c r="B81" s="4">
         <v>337</v>
       </c>
+      <c r="C81" s="19"/>
       <c r="H81" t="s">
         <v>768</v>
       </c>
@@ -11890,6 +11939,7 @@
       <c r="B82" s="4">
         <v>338</v>
       </c>
+      <c r="C82" s="19"/>
       <c r="H82" t="s">
         <v>769</v>
       </c>
@@ -11899,7 +11949,7 @@
       <c r="B83" s="4">
         <v>339</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E83">
@@ -11917,6 +11967,7 @@
       <c r="B84" s="4">
         <v>340</v>
       </c>
+      <c r="C84" s="19"/>
       <c r="H84" t="s">
         <v>727</v>
       </c>
@@ -11926,6 +11977,7 @@
       <c r="B85" s="4">
         <v>341</v>
       </c>
+      <c r="C85" s="19"/>
       <c r="H85" t="s">
         <v>772</v>
       </c>
@@ -11935,6 +11987,7 @@
       <c r="B86" s="4">
         <v>342</v>
       </c>
+      <c r="C86" s="19"/>
       <c r="H86" t="s">
         <v>773</v>
       </c>
@@ -11944,7 +11997,7 @@
       <c r="B87" s="4">
         <v>343</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="19" t="s">
         <v>771</v>
       </c>
       <c r="G87" t="s">
@@ -11959,6 +12012,7 @@
       <c r="B88" s="4">
         <v>344</v>
       </c>
+      <c r="C88" s="19"/>
       <c r="H88" t="s">
         <v>727</v>
       </c>
@@ -11968,6 +12022,7 @@
       <c r="B89" s="4">
         <v>345</v>
       </c>
+      <c r="C89" s="19"/>
       <c r="H89" t="s">
         <v>772</v>
       </c>
@@ -11977,6 +12032,7 @@
       <c r="B90" s="4">
         <v>346</v>
       </c>
+      <c r="C90" s="19"/>
       <c r="H90" t="s">
         <v>773</v>
       </c>
@@ -11985,7 +12041,7 @@
       <c r="B92" s="4">
         <v>401</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="19" t="s">
         <v>288</v>
       </c>
       <c r="D92" t="s">
@@ -12002,7 +12058,7 @@
       <c r="B93" s="4">
         <v>411</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="19" t="s">
         <v>709</v>
       </c>
       <c r="E93">
@@ -12019,6 +12075,7 @@
       <c r="B94" s="4">
         <v>412</v>
       </c>
+      <c r="C94" s="19"/>
       <c r="G94" t="s">
         <v>293</v>
       </c>
@@ -12030,7 +12087,7 @@
       <c r="B95" s="4">
         <v>421</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="19" t="s">
         <v>784</v>
       </c>
       <c r="E95">
@@ -12044,7 +12101,7 @@
       <c r="B96" s="4">
         <v>422</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="19" t="s">
         <v>785</v>
       </c>
     </row>
@@ -12052,7 +12109,7 @@
       <c r="B97" s="4">
         <v>423</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="19" t="s">
         <v>786</v>
       </c>
     </row>
@@ -12060,7 +12117,7 @@
       <c r="B98" s="4">
         <v>424</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="19" t="s">
         <v>787</v>
       </c>
     </row>
@@ -12068,7 +12125,7 @@
       <c r="B99" s="4">
         <v>425</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="19" t="s">
         <v>788</v>
       </c>
       <c r="E99">
@@ -12079,7 +12136,7 @@
       <c r="B100" s="4">
         <v>426</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="19" t="s">
         <v>818</v>
       </c>
       <c r="E100">
@@ -12090,7 +12147,7 @@
       <c r="B101" s="4">
         <v>431</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="19" t="s">
         <v>240</v>
       </c>
       <c r="E101">
@@ -12101,7 +12158,7 @@
       <c r="B102" s="3">
         <v>441</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E102">
@@ -12118,6 +12175,7 @@
       <c r="B103" s="4">
         <v>442</v>
       </c>
+      <c r="C103" s="19"/>
       <c r="H103" t="s">
         <v>790</v>
       </c>
@@ -12126,6 +12184,7 @@
       <c r="B104" s="4">
         <v>443</v>
       </c>
+      <c r="C104" s="19"/>
       <c r="H104" t="s">
         <v>791</v>
       </c>
@@ -12134,7 +12193,7 @@
       <c r="B106" s="4">
         <v>501</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="19" t="s">
         <v>245</v>
       </c>
       <c r="D106" t="s">
@@ -12148,7 +12207,7 @@
       <c r="B107" s="4">
         <v>502</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="19" t="s">
         <v>246</v>
       </c>
     </row>
@@ -12156,7 +12215,7 @@
       <c r="B108" s="4">
         <v>503</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="19" t="s">
         <v>247</v>
       </c>
     </row>
@@ -12164,7 +12223,7 @@
       <c r="B109" s="4">
         <v>504</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="19" t="s">
         <v>248</v>
       </c>
     </row>
@@ -12172,7 +12231,7 @@
       <c r="B110" s="4">
         <v>505</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="19" t="s">
         <v>249</v>
       </c>
     </row>
@@ -12180,7 +12239,7 @@
       <c r="B111" s="4">
         <v>511</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="19" t="s">
         <v>250</v>
       </c>
       <c r="E111">
@@ -12191,7 +12250,7 @@
       <c r="B112" s="4">
         <v>512</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="19" t="s">
         <v>251</v>
       </c>
     </row>
@@ -12199,7 +12258,7 @@
       <c r="B113" s="4">
         <v>513</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="19" t="s">
         <v>252</v>
       </c>
     </row>
@@ -12744,8 +12803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981A228F-2BB3-44AC-82E9-D9BE084DFD89}">
   <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B25"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13229,7 +13288,7 @@
   <dimension ref="A1:Y227"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="S42" sqref="S42"/>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C909A43-F695-4E21-8D02-A06597574854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3146491-6F4A-43F7-BB00-4B38421A0F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="1" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="911">
   <si>
     <t>ID</t>
   </si>
@@ -680,9 +680,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Door (open)</t>
   </si>
   <si>
     <t>Pillar</t>
@@ -3233,6 +3230,9 @@
   <si>
     <t>unkillable icon</t>
   </si>
+  <si>
+    <t>Wooden Door (open)</t>
+  </si>
 </sst>
 </file>
 
@@ -3312,7 +3312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3337,6 +3337,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3349,16 +3359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3676,8 +3677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF2113E-D79E-4CB9-ADC9-BF3629B5384A}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C24"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3692,7 +3693,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -3704,10 +3705,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3718,7 +3719,7 @@
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3729,7 +3730,7 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D6" t="s">
         <v>205</v>
@@ -3743,7 +3744,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3751,7 +3752,7 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3759,7 +3760,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3767,7 +3768,7 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3775,7 +3776,7 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3783,7 +3784,7 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3791,7 +3792,7 @@
         <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3799,7 +3800,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3807,7 +3808,7 @@
         <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3823,7 +3824,7 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3831,7 +3832,7 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3839,7 +3840,7 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3847,7 +3848,7 @@
         <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3855,7 +3856,7 @@
         <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3863,7 +3864,7 @@
         <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3871,7 +3872,7 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -3879,7 +3880,7 @@
         <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3887,7 +3888,7 @@
         <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3895,7 +3896,7 @@
         <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3903,7 +3904,7 @@
         <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3911,7 +3912,7 @@
         <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3919,7 +3920,7 @@
         <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3927,7 +3928,7 @@
         <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3935,7 +3936,7 @@
         <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3943,7 +3944,7 @@
         <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -3951,7 +3952,7 @@
         <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3959,7 +3960,7 @@
         <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3967,7 +3968,7 @@
         <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3975,7 +3976,7 @@
         <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3983,7 +3984,7 @@
         <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -3991,7 +3992,7 @@
         <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -3999,7 +4000,7 @@
         <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -4007,7 +4008,7 @@
         <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -4015,7 +4016,7 @@
         <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -4023,7 +4024,7 @@
         <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -4031,7 +4032,7 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -4039,7 +4040,7 @@
         <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -4047,7 +4048,7 @@
         <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -4055,7 +4056,7 @@
         <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -4063,7 +4064,7 @@
         <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -4071,7 +4072,7 @@
         <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D49" t="s">
         <v>208</v>
@@ -4085,7 +4086,7 @@
         <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -4093,7 +4094,7 @@
         <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -4101,7 +4102,7 @@
         <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -4109,7 +4110,7 @@
         <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -4117,7 +4118,7 @@
         <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -4125,7 +4126,7 @@
         <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -4133,7 +4134,7 @@
         <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -4141,7 +4142,7 @@
         <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -4149,7 +4150,7 @@
         <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -4160,13 +4161,13 @@
         <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D60" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E60" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -4174,7 +4175,7 @@
         <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -4182,7 +4183,7 @@
         <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -4190,7 +4191,7 @@
         <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -4198,7 +4199,7 @@
         <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -4206,7 +4207,7 @@
         <v>306</v>
       </c>
       <c r="C65" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -4214,7 +4215,7 @@
         <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -4222,7 +4223,7 @@
         <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -4230,7 +4231,7 @@
         <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -4238,7 +4239,7 @@
         <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -4246,7 +4247,7 @@
         <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -4254,7 +4255,7 @@
         <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -4262,7 +4263,7 @@
         <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -4270,7 +4271,7 @@
         <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -4278,7 +4279,7 @@
         <v>315</v>
       </c>
       <c r="C74" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -4286,7 +4287,7 @@
         <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -4294,7 +4295,7 @@
         <v>317</v>
       </c>
       <c r="C76" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -4302,7 +4303,7 @@
         <v>318</v>
       </c>
       <c r="C77" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -4310,7 +4311,7 @@
         <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -4318,7 +4319,7 @@
         <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -4326,7 +4327,7 @@
         <v>321</v>
       </c>
       <c r="C80" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -4334,7 +4335,7 @@
         <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -4342,7 +4343,7 @@
         <v>323</v>
       </c>
       <c r="C82" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -4350,7 +4351,7 @@
         <v>324</v>
       </c>
       <c r="C83" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -4375,7 +4376,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -4386,26 +4387,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
@@ -4414,13 +4415,13 @@
       <c r="H3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4429,14 +4430,14 @@
       <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I4" s="1">
         <v>1.4</v>
@@ -4453,7 +4454,7 @@
         <f>_xlfn.CEILING.MATH(1 + A5^$B$3)</f>
         <v>1</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="13">
         <f>I10/B5</f>
         <v>1</v>
       </c>
@@ -4494,7 +4495,7 @@
         <f t="shared" ref="B6:B69" si="0">_xlfn.CEILING.MATH(1 + A6^$B$3)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="13">
         <f>I11/B6</f>
         <v>1.5</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>2.5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -4517,7 +4518,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="13">
         <f t="shared" ref="C7:C69" si="1">I12/B7</f>
         <v>2.25</v>
       </c>
@@ -4565,7 +4566,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="13">
         <f t="shared" si="1"/>
         <v>2.7142857142857144</v>
       </c>
@@ -4582,7 +4583,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="13">
         <f t="shared" si="1"/>
         <v>3.6666666666666665</v>
       </c>
@@ -4635,7 +4636,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
         <f t="shared" si="1"/>
         <v>3.8461538461538463</v>
       </c>
@@ -4699,7 +4700,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="13">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -4761,7 +4762,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
         <f t="shared" si="1"/>
         <v>4.9000000000000004</v>
       </c>
@@ -4817,7 +4818,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="13">
         <f t="shared" si="1"/>
         <v>5.291666666666667</v>
       </c>
@@ -4873,7 +4874,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
         <f t="shared" si="1"/>
         <v>5.7142857142857144</v>
       </c>
@@ -4929,7 +4930,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="13">
         <f t="shared" si="1"/>
         <v>95.060606060606062</v>
       </c>
@@ -4985,7 +4986,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <f t="shared" si="1"/>
         <v>99.89473684210526</v>
       </c>
@@ -5041,7 +5042,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="13">
         <f t="shared" si="1"/>
         <v>105.04651162790698</v>
       </c>
@@ -5097,7 +5098,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="13">
         <f t="shared" si="1"/>
         <v>110.4375</v>
       </c>
@@ -5153,7 +5154,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="13">
         <f t="shared" si="1"/>
         <v>113.85185185185185</v>
       </c>
@@ -5209,7 +5210,7 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="13">
         <f t="shared" si="1"/>
         <v>117.61666666666666</v>
       </c>
@@ -5265,7 +5266,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="13">
         <f t="shared" si="1"/>
         <v>123.53846153846153</v>
       </c>
@@ -5321,7 +5322,7 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="13">
         <f t="shared" si="1"/>
         <v>125.90277777777777</v>
       </c>
@@ -5377,7 +5378,7 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="13">
         <f t="shared" si="1"/>
         <v>130.28205128205127</v>
       </c>
@@ -5433,7 +5434,7 @@
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="13">
         <f t="shared" si="1"/>
         <v>134.78571428571428</v>
       </c>
@@ -5489,7 +5490,7 @@
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="13">
         <f t="shared" si="1"/>
         <v>422.16483516483515</v>
       </c>
@@ -5545,7 +5546,7 @@
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="13">
         <f t="shared" si="1"/>
         <v>432.19387755102042</v>
       </c>
@@ -5601,7 +5602,7 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="13">
         <f t="shared" si="1"/>
         <v>442.71428571428572</v>
       </c>
@@ -5657,7 +5658,7 @@
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="13">
         <f t="shared" si="1"/>
         <v>453.63392857142856</v>
       </c>
@@ -5713,7 +5714,7 @@
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="13">
         <f t="shared" si="1"/>
         <v>464.88235294117646</v>
       </c>
@@ -5769,7 +5770,7 @@
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="13">
         <f t="shared" si="1"/>
         <v>476.39682539682542</v>
       </c>
@@ -5825,7 +5826,7 @@
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="13">
         <f t="shared" si="1"/>
         <v>484.5149253731343</v>
       </c>
@@ -5881,7 +5882,7 @@
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="13">
         <f t="shared" si="1"/>
         <v>493.06338028169012</v>
       </c>
@@ -5937,7 +5938,7 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="13">
         <f t="shared" si="1"/>
         <v>501.98</v>
       </c>
@@ -5993,7 +5994,7 @@
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="13">
         <f t="shared" si="1"/>
         <v>511.20886075949369</v>
       </c>
@@ -6049,7 +6050,7 @@
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="13">
         <f t="shared" si="1"/>
         <v>1062.6566265060242</v>
       </c>
@@ -6105,7 +6106,7 @@
         <f t="shared" si="0"/>
         <v>174</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="13">
         <f t="shared" si="1"/>
         <v>1082.5114942528735</v>
       </c>
@@ -6161,7 +6162,7 @@
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="13">
         <f t="shared" si="1"/>
         <v>1096.7486338797814</v>
       </c>
@@ -6217,7 +6218,7 @@
         <f t="shared" si="0"/>
         <v>191</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="13">
         <f t="shared" si="1"/>
         <v>1117.5130890052355</v>
       </c>
@@ -6273,7 +6274,7 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="13">
         <f t="shared" si="1"/>
         <v>1132.885</v>
       </c>
@@ -6329,7 +6330,7 @@
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="13">
         <f t="shared" si="1"/>
         <v>1148.8086124401914</v>
       </c>
@@ -6385,7 +6386,7 @@
         <f t="shared" si="0"/>
         <v>217</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="13">
         <f t="shared" si="1"/>
         <v>1170.5852534562212</v>
       </c>
@@ -6441,7 +6442,7 @@
         <f t="shared" si="0"/>
         <v>227</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="13">
         <f t="shared" si="1"/>
         <v>1182.0484581497797</v>
       </c>
@@ -6497,7 +6498,7 @@
         <f t="shared" si="0"/>
         <v>236</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="13">
         <f t="shared" si="1"/>
         <v>1199.2584745762713</v>
       </c>
@@ -6553,7 +6554,7 @@
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="13">
         <f t="shared" si="1"/>
         <v>1216.8040816326532</v>
       </c>
@@ -6609,7 +6610,7 @@
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="13">
         <f t="shared" si="1"/>
         <v>2086.5551181102364</v>
       </c>
@@ -6665,7 +6666,7 @@
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="13">
         <f t="shared" si="1"/>
         <v>2109.151515151515</v>
       </c>
@@ -6721,7 +6722,7 @@
         <f t="shared" si="0"/>
         <v>274</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="13">
         <f t="shared" si="1"/>
         <v>2132.5145985401459</v>
       </c>
@@ -6777,7 +6778,7 @@
         <f t="shared" si="0"/>
         <v>283</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="13">
         <f t="shared" si="1"/>
         <v>2164.1837455830387</v>
       </c>
@@ -6833,7 +6834,7 @@
         <f t="shared" si="0"/>
         <v>293</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="13">
         <f t="shared" si="1"/>
         <v>2188.6757679180887</v>
       </c>
@@ -6889,7 +6890,7 @@
         <f t="shared" si="0"/>
         <v>303</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="13">
         <f t="shared" si="1"/>
         <v>2213.7359735973596</v>
       </c>
@@ -6945,7 +6946,7 @@
         <f t="shared" si="0"/>
         <v>313</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="13">
         <f t="shared" si="1"/>
         <v>2239.3130990415334</v>
       </c>
@@ -7001,7 +7002,7 @@
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="13">
         <f t="shared" si="1"/>
         <v>2258.3672839506171</v>
       </c>
@@ -7057,7 +7058,7 @@
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="13">
         <f t="shared" si="1"/>
         <v>2284.9640718562873</v>
       </c>
@@ -7113,7 +7114,7 @@
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="13">
         <f t="shared" si="1"/>
         <v>2311.9447674418607</v>
       </c>
@@ -7169,7 +7170,7 @@
         <f t="shared" si="0"/>
         <v>355</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="13">
         <f t="shared" si="1"/>
         <v>3533.5239436619718</v>
       </c>
@@ -7225,7 +7226,7 @@
         <f t="shared" si="0"/>
         <v>366</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="13">
         <f t="shared" si="1"/>
         <v>3565.789617486339</v>
       </c>
@@ -7281,7 +7282,7 @@
         <f t="shared" si="0"/>
         <v>376</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="13">
         <f t="shared" si="1"/>
         <v>3608.4069148936169</v>
       </c>
@@ -7337,7 +7338,7 @@
         <f t="shared" si="0"/>
         <v>387</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="13">
         <f t="shared" si="1"/>
         <v>3641.9767441860463</v>
       </c>
@@ -7393,7 +7394,7 @@
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="13">
         <f t="shared" si="1"/>
         <v>3676.21608040201</v>
       </c>
@@ -7449,7 +7450,7 @@
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="13">
         <f t="shared" si="1"/>
         <v>3711.0635696821514</v>
       </c>
@@ -7505,7 +7506,7 @@
         <f t="shared" si="0"/>
         <v>421</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="13">
         <f t="shared" si="1"/>
         <v>3737.5795724465556</v>
       </c>
@@ -7561,7 +7562,7 @@
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="13">
         <f t="shared" si="1"/>
         <v>3773.6574074074074</v>
       </c>
@@ -7617,7 +7618,7 @@
         <f t="shared" si="0"/>
         <v>443</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="13">
         <f t="shared" si="1"/>
         <v>3810.2076749435664</v>
       </c>
@@ -7673,7 +7674,7 @@
         <f t="shared" si="0"/>
         <v>455</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="13">
         <f t="shared" si="1"/>
         <v>3838.7428571428572</v>
       </c>
@@ -7729,7 +7730,7 @@
         <f t="shared" si="0"/>
         <v>466</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="13">
         <f t="shared" si="1"/>
         <v>5466.1309012875536</v>
       </c>
@@ -7785,7 +7786,7 @@
         <f t="shared" si="0"/>
         <v>478</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="13">
         <f t="shared" si="1"/>
         <v>5508.0167364016734</v>
       </c>
@@ -7841,7 +7842,7 @@
         <f t="shared" si="0"/>
         <v>490</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="13">
         <f t="shared" si="1"/>
         <v>5550.7387755102045</v>
       </c>
@@ -7897,7 +7898,7 @@
         <f t="shared" si="0"/>
         <v>502</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="13">
         <f t="shared" si="1"/>
         <v>5594.2370517928284</v>
       </c>
@@ -7953,7 +7954,7 @@
         <f t="shared" si="0"/>
         <v>513</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="13">
         <f t="shared" si="1"/>
         <v>5649.4483430799219</v>
       </c>
@@ -8009,7 +8010,7 @@
         <f t="shared" ref="B70:B105" si="10">_xlfn.CEILING.MATH(1 + A70^$B$3)</f>
         <v>526</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="13">
         <f t="shared" ref="C70:C104" si="11">I75/B70</f>
         <v>5683.3498098859318</v>
       </c>
@@ -8065,7 +8066,7 @@
         <f t="shared" si="10"/>
         <v>538</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="13">
         <f t="shared" si="11"/>
         <v>5728.871747211896</v>
       </c>
@@ -8121,7 +8122,7 @@
         <f t="shared" si="10"/>
         <v>550</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="13">
         <f t="shared" si="11"/>
         <v>5774.9781818181818</v>
       </c>
@@ -8177,7 +8178,7 @@
         <f t="shared" si="10"/>
         <v>562</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C73" s="13">
         <f t="shared" si="11"/>
         <v>5821.6352313167263</v>
       </c>
@@ -8233,7 +8234,7 @@
         <f t="shared" si="10"/>
         <v>575</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="13">
         <f t="shared" si="11"/>
         <v>5858.6</v>
       </c>
@@ -8289,7 +8290,7 @@
         <f t="shared" si="10"/>
         <v>587</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="13">
         <f t="shared" si="11"/>
         <v>7918.8023850085183</v>
       </c>
@@ -8345,7 +8346,7 @@
         <f t="shared" si="10"/>
         <v>600</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="13">
         <f t="shared" si="11"/>
         <v>7970.16</v>
       </c>
@@ -8401,7 +8402,7 @@
         <f t="shared" si="10"/>
         <v>612</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="13">
         <f t="shared" si="11"/>
         <v>8035.5408496732025</v>
       </c>
@@ -8457,7 +8458,7 @@
         <f t="shared" si="10"/>
         <v>625</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="13">
         <f t="shared" si="11"/>
         <v>8088.4863999999998</v>
       </c>
@@ -8513,7 +8514,7 @@
         <f t="shared" si="10"/>
         <v>638</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C79" s="13">
         <f t="shared" si="11"/>
         <v>8142.2476489028213</v>
       </c>
@@ -8569,7 +8570,7 @@
         <f t="shared" si="10"/>
         <v>651</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C80" s="13">
         <f t="shared" si="11"/>
         <v>8196.7757296466971</v>
       </c>
@@ -8625,7 +8626,7 @@
         <f t="shared" si="10"/>
         <v>664</v>
       </c>
-      <c r="C81" s="17">
+      <c r="C81" s="13">
         <f t="shared" si="11"/>
         <v>8252.0271084337346</v>
       </c>
@@ -8681,7 +8682,7 @@
         <f t="shared" si="10"/>
         <v>677</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="13">
         <f t="shared" si="11"/>
         <v>8307.9586410635147</v>
       </c>
@@ -8737,7 +8738,7 @@
         <f t="shared" si="10"/>
         <v>690</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C83" s="13">
         <f t="shared" si="11"/>
         <v>8364.5318840579712</v>
       </c>
@@ -8793,7 +8794,7 @@
         <f t="shared" si="10"/>
         <v>704</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C84" s="13">
         <f t="shared" si="11"/>
         <v>8409.75</v>
       </c>
@@ -8849,7 +8850,7 @@
         <f t="shared" si="10"/>
         <v>717</v>
       </c>
-      <c r="C85" s="17">
+      <c r="C85" s="13">
         <f t="shared" si="11"/>
         <v>10934.450488145048</v>
       </c>
@@ -8905,7 +8906,7 @@
         <f t="shared" si="10"/>
         <v>730</v>
       </c>
-      <c r="C86" s="17">
+      <c r="C86" s="13">
         <f t="shared" si="11"/>
         <v>11009.898630136986</v>
       </c>
@@ -8961,7 +8962,7 @@
         <f t="shared" si="10"/>
         <v>744</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C87" s="13">
         <f t="shared" si="11"/>
         <v>11071.103494623656</v>
       </c>
@@ -9017,7 +9018,7 @@
         <f t="shared" si="10"/>
         <v>758</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C88" s="13">
         <f t="shared" si="11"/>
         <v>11133.279683377308</v>
       </c>
@@ -9073,7 +9074,7 @@
         <f t="shared" si="10"/>
         <v>771</v>
       </c>
-      <c r="C89" s="17">
+      <c r="C89" s="13">
         <f t="shared" si="11"/>
         <v>11210.896238651103</v>
       </c>
@@ -9129,7 +9130,7 @@
         <f t="shared" si="10"/>
         <v>785</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="13">
         <f t="shared" si="11"/>
         <v>11274.68280254777</v>
       </c>
@@ -9185,7 +9186,7 @@
         <f t="shared" si="10"/>
         <v>799</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C91" s="13">
         <f t="shared" si="11"/>
         <v>11339.300375469336</v>
       </c>
@@ -9241,7 +9242,7 @@
         <f t="shared" si="10"/>
         <v>813</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="13">
         <f t="shared" si="11"/>
         <v>11404.706027060271</v>
       </c>
@@ -9297,7 +9298,7 @@
         <f t="shared" si="10"/>
         <v>827</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C93" s="13">
         <f t="shared" si="11"/>
         <v>11470.859733978235</v>
       </c>
@@ -9353,7 +9354,7 @@
         <f t="shared" si="10"/>
         <v>841</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="13">
         <f t="shared" si="11"/>
         <v>11537.724137931034</v>
       </c>
@@ -9409,7 +9410,7 @@
         <f t="shared" si="10"/>
         <v>855</v>
       </c>
-      <c r="C95" s="17">
+      <c r="C95" s="13">
         <f t="shared" si="11"/>
         <v>14557.643274853801</v>
       </c>
@@ -9465,7 +9466,7 @@
         <f t="shared" si="10"/>
         <v>870</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C96" s="13">
         <f t="shared" si="11"/>
         <v>14626.341379310345</v>
       </c>
@@ -9521,7 +9522,7 @@
         <f t="shared" si="10"/>
         <v>884</v>
       </c>
-      <c r="C97" s="17">
+      <c r="C97" s="13">
         <f t="shared" si="11"/>
         <v>14712.807692307691</v>
       </c>
@@ -9577,7 +9578,7 @@
         <f t="shared" si="10"/>
         <v>898</v>
       </c>
-      <c r="C98" s="17">
+      <c r="C98" s="13">
         <f t="shared" si="11"/>
         <v>14800.001113585746</v>
       </c>
@@ -9633,7 +9634,7 @@
         <f t="shared" si="10"/>
         <v>913</v>
       </c>
-      <c r="C99" s="17">
+      <c r="C99" s="13">
         <f t="shared" si="11"/>
         <v>14871.580503833517</v>
       </c>
@@ -9689,7 +9690,7 @@
         <f t="shared" si="10"/>
         <v>927</v>
       </c>
-      <c r="C100" s="17">
+      <c r="C100" s="13">
         <f t="shared" si="11"/>
         <v>14960.277238403452</v>
       </c>
@@ -9745,7 +9746,7 @@
         <f t="shared" si="10"/>
         <v>942</v>
       </c>
-      <c r="C101" s="17">
+      <c r="C101" s="13">
         <f t="shared" si="11"/>
         <v>15033.626326963906</v>
       </c>
@@ -9801,7 +9802,7 @@
         <f t="shared" si="10"/>
         <v>957</v>
       </c>
-      <c r="C102" s="17">
+      <c r="C102" s="13">
         <f t="shared" si="11"/>
         <v>15107.886102403343</v>
       </c>
@@ -9857,7 +9858,7 @@
         <f t="shared" si="10"/>
         <v>972</v>
       </c>
-      <c r="C103" s="17">
+      <c r="C103" s="13">
         <f t="shared" si="11"/>
         <v>15183.01646090535</v>
       </c>
@@ -9913,7 +9914,7 @@
         <f t="shared" si="10"/>
         <v>987</v>
       </c>
-      <c r="C104" s="17">
+      <c r="C104" s="13">
         <f t="shared" si="11"/>
         <v>15258.976697061804</v>
       </c>
@@ -10236,7 +10237,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10247,393 +10248,393 @@
         <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>610</v>
+      <c r="B4" s="22" t="s">
+        <v>609</v>
       </c>
       <c r="C4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
+      <c r="B5" s="22"/>
       <c r="C5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
+      <c r="B6" s="22"/>
       <c r="C6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
+      <c r="B7" s="22"/>
       <c r="C7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
+      <c r="B8" s="22"/>
       <c r="C8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
+      <c r="B9" s="22"/>
       <c r="C9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
+      <c r="B10" s="22"/>
       <c r="C10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
+      <c r="B11" s="22"/>
       <c r="C11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
+      <c r="B12" s="22"/>
       <c r="C12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
+      <c r="B13" s="22"/>
       <c r="C13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
+        <v>612</v>
+      </c>
+      <c r="G13" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="C15" t="s">
+        <v>619</v>
+      </c>
+      <c r="D15" t="s">
         <v>613</v>
-      </c>
-      <c r="G13" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="C15" t="s">
-        <v>620</v>
-      </c>
-      <c r="D15" t="s">
-        <v>614</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
+      <c r="C16" t="s">
+        <v>618</v>
+      </c>
+      <c r="D16" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" t="s">
-        <v>619</v>
-      </c>
-      <c r="D16" t="s">
-        <v>617</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
+      <c r="B17" s="22"/>
       <c r="C17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
+      <c r="B18" s="22"/>
       <c r="C18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
+      <c r="B19" s="22"/>
       <c r="C19" t="s">
+        <v>628</v>
+      </c>
+      <c r="D19" t="s">
         <v>629</v>
-      </c>
-      <c r="D19" t="s">
-        <v>630</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
+      <c r="B20" s="22"/>
       <c r="C20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
+        <v>619</v>
+      </c>
+      <c r="G20" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+      <c r="C21" t="s">
         <v>620</v>
       </c>
-      <c r="G20" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>621</v>
-      </c>
-      <c r="D21" t="s">
-        <v>622</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
+      <c r="B22" s="22"/>
       <c r="C22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
+      <c r="B23" s="22"/>
       <c r="C23" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
+      <c r="B24" s="22"/>
       <c r="C24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
+        <v>801</v>
+      </c>
+      <c r="G32" t="s">
         <v>802</v>
-      </c>
-      <c r="G32" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -10771,10 +10772,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>210</v>
@@ -10785,13 +10786,13 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -10799,13 +10800,13 @@
         <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -10813,13 +10814,13 @@
         <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -10827,7 +10828,7 @@
         <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
@@ -10835,16 +10836,16 @@
         <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>825</v>
-      </c>
-      <c r="E7" s="16"/>
+        <v>824</v>
+      </c>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -10852,10 +10853,10 @@
         <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
@@ -10863,10 +10864,10 @@
         <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -10874,10 +10875,10 @@
         <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -10885,7 +10886,7 @@
         <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -10898,14 +10899,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE173168-AF21-4474-9878-DBD01A8D9EC7}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.85546875" style="4"/>
-    <col min="3" max="3" width="30.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="18" customWidth="1"/>
     <col min="4" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.140625" bestFit="1" customWidth="1"/>
@@ -10914,23 +10915,23 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="21"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>209</v>
@@ -10943,7 +10944,7 @@
       <c r="B4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>199</v>
       </c>
       <c r="D4" t="s">
@@ -10953,340 +10954,340 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>12</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="15" t="s">
         <v>202</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>21</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="15" t="s">
         <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>22</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="15" t="s">
         <v>204</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>101</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>712</v>
+      <c r="C11" s="16" t="s">
+        <v>711</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>102</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>234</v>
+      <c r="C12" s="24" t="s">
+        <v>233</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>103</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="H13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>111</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>729</v>
+      <c r="C14" s="15" t="s">
+        <v>728</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>112</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="15"/>
       <c r="H15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>113</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="15"/>
       <c r="H16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>114</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="15"/>
       <c r="H17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>115</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>730</v>
+      <c r="C18" s="15" t="s">
+        <v>729</v>
       </c>
       <c r="G18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>121</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>217</v>
+      <c r="C19" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>122</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="15"/>
       <c r="H20" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>123</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="15"/>
       <c r="H21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>124</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="15"/>
       <c r="H22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>125</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>753</v>
+      <c r="C23" s="15" t="s">
+        <v>752</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H23" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>126</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="15"/>
       <c r="H24" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>127</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="15"/>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>128</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="15"/>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>131</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>218</v>
+      <c r="C27" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H27" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>132</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="15"/>
       <c r="H28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>133</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="15"/>
       <c r="H29" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>134</v>
       </c>
-      <c r="C30" s="19"/>
+      <c r="C30" s="15"/>
       <c r="H30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>141</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>220</v>
+      <c r="C31" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="E31">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H31" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>142</v>
       </c>
-      <c r="C32" s="19"/>
+      <c r="C32" s="15"/>
       <c r="H32" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -11294,19 +11295,19 @@
         <v>151</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H33" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -11315,7 +11316,7 @@
       </c>
       <c r="C34" s="19"/>
       <c r="H34" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -11324,7 +11325,7 @@
       </c>
       <c r="C35" s="19"/>
       <c r="H35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -11333,7 +11334,7 @@
       </c>
       <c r="C36" s="19"/>
       <c r="H36" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -11341,10 +11342,10 @@
         <v>155</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -11353,7 +11354,7 @@
       </c>
       <c r="C38" s="19"/>
       <c r="H38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -11362,7 +11363,7 @@
       </c>
       <c r="C39" s="19"/>
       <c r="H39" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -11371,77 +11372,77 @@
       </c>
       <c r="C40" s="19"/>
       <c r="H40" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>161</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>216</v>
+      <c r="C41" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>162</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>222</v>
+      <c r="C42" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="E42">
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>163</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>223</v>
+      <c r="C43" s="19" t="s">
+        <v>222</v>
       </c>
       <c r="E43">
         <v>-1</v>
       </c>
       <c r="G43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>164</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>224</v>
+      <c r="C44" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="E44">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>165</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>226</v>
+      <c r="C45" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -11449,47 +11450,47 @@
         <v>171</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D46" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>172</v>
       </c>
-      <c r="C47" s="19" t="s">
-        <v>229</v>
+      <c r="C47" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="E47">
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H47" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <v>173</v>
       </c>
-      <c r="C48" s="19" t="s">
-        <v>229</v>
+      <c r="C48" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="E48">
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -11497,13 +11498,13 @@
         <v>174</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -11511,13 +11512,13 @@
         <v>175</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E50">
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -11525,13 +11526,13 @@
         <v>176</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -11539,13 +11540,13 @@
         <v>177</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -11553,16 +11554,16 @@
         <v>181</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -11570,13 +11571,13 @@
         <v>182</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E54">
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -11584,13 +11585,13 @@
         <v>183</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -11598,98 +11599,98 @@
         <v>184</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>185</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>215</v>
+      <c r="C57" s="19" t="s">
+        <v>214</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
         <v>191</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>774</v>
+      <c r="C58" s="15" t="s">
+        <v>773</v>
       </c>
       <c r="E58">
         <v>5</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H58" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>192</v>
       </c>
-      <c r="C59" s="19"/>
+      <c r="C59" s="15"/>
       <c r="H59" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
         <v>193</v>
       </c>
-      <c r="C60" s="19" t="s">
-        <v>775</v>
+      <c r="C60" s="15" t="s">
+        <v>774</v>
       </c>
       <c r="H60" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
         <v>194</v>
       </c>
-      <c r="C61" s="19"/>
+      <c r="C61" s="15"/>
       <c r="H61" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>201</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>213</v>
+      <c r="C62" s="15" t="s">
+        <v>212</v>
       </c>
       <c r="D62" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
         <v>202</v>
       </c>
-      <c r="C63" s="19" t="s">
-        <v>242</v>
+      <c r="C63" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -11698,74 +11699,74 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>239</v>
+        <v>776</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E64">
         <v>7</v>
       </c>
       <c r="G64" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="H64" t="s">
         <v>780</v>
-      </c>
-      <c r="H64" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>238</v>
+        <v>777</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>237</v>
       </c>
       <c r="E65">
         <v>9</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H65" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
         <v>251</v>
       </c>
-      <c r="C66" s="19" t="s">
-        <v>243</v>
+      <c r="C66" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="D66" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H66" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
         <v>252</v>
       </c>
-      <c r="C67" s="19"/>
+      <c r="C67" s="15"/>
       <c r="G67" s="9"/>
       <c r="H67" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>207</v>
@@ -11777,33 +11778,33 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
+        <v>740</v>
+      </c>
+      <c r="H69" t="s">
         <v>741</v>
-      </c>
-      <c r="H69" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>311</v>
       </c>
-      <c r="C70" s="19" t="s">
-        <v>212</v>
+      <c r="C70" s="15" t="s">
+        <v>211</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H70" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
         <v>312</v>
       </c>
-      <c r="C71" s="19"/>
+      <c r="C71" s="15"/>
       <c r="H71" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -11811,19 +11812,19 @@
         <v>321</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D72" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H72" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -11835,10 +11836,10 @@
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H73" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -11847,10 +11848,10 @@
       </c>
       <c r="C74" s="19"/>
       <c r="G74" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H74" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -11859,19 +11860,19 @@
         <v>331</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>211</v>
+        <v>910</v>
       </c>
       <c r="D75" t="s">
+        <v>760</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>747</v>
+      </c>
+      <c r="H75" t="s">
         <v>761</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>748</v>
-      </c>
-      <c r="H75" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -11881,7 +11882,7 @@
       </c>
       <c r="C76" s="19"/>
       <c r="H76" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -11891,7 +11892,7 @@
       </c>
       <c r="C77" s="19"/>
       <c r="H77" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -11901,7 +11902,7 @@
       </c>
       <c r="C78" s="19"/>
       <c r="H78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -11911,7 +11912,7 @@
       </c>
       <c r="C79" s="19"/>
       <c r="H79" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -11921,7 +11922,7 @@
       </c>
       <c r="C80" s="19"/>
       <c r="H80" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -11931,7 +11932,7 @@
       </c>
       <c r="C81" s="19"/>
       <c r="H81" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -11941,7 +11942,7 @@
       </c>
       <c r="C82" s="19"/>
       <c r="H82" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -11950,16 +11951,16 @@
         <v>339</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E83">
         <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H83" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -11969,7 +11970,7 @@
       </c>
       <c r="C84" s="19"/>
       <c r="H84" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -11979,7 +11980,7 @@
       </c>
       <c r="C85" s="19"/>
       <c r="H85" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -11989,7 +11990,7 @@
       </c>
       <c r="C86" s="19"/>
       <c r="H86" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -11998,13 +11999,13 @@
         <v>343</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G87" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H87" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -12014,7 +12015,7 @@
       </c>
       <c r="C88" s="19"/>
       <c r="H88" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -12024,7 +12025,7 @@
       </c>
       <c r="C89" s="19"/>
       <c r="H89" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -12034,7 +12035,7 @@
       </c>
       <c r="C90" s="19"/>
       <c r="H90" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -12042,16 +12043,16 @@
         <v>401</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D92" t="s">
+        <v>289</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
         <v>290</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="G92" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -12059,16 +12060,16 @@
         <v>411</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H93" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -12077,56 +12078,56 @@
       </c>
       <c r="C94" s="19"/>
       <c r="G94" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H94" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B95" s="4">
         <v>421</v>
       </c>
-      <c r="C95" s="19" t="s">
-        <v>784</v>
+      <c r="C95" s="15" t="s">
+        <v>783</v>
       </c>
       <c r="E95">
         <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" s="4">
         <v>422</v>
       </c>
-      <c r="C96" s="19" t="s">
-        <v>785</v>
+      <c r="C96" s="15" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="4">
         <v>423</v>
       </c>
-      <c r="C97" s="19" t="s">
-        <v>786</v>
+      <c r="C97" s="15" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="4">
         <v>424</v>
       </c>
-      <c r="C98" s="19" t="s">
-        <v>787</v>
+      <c r="C98" s="15" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="4">
         <v>425</v>
       </c>
-      <c r="C99" s="19" t="s">
-        <v>788</v>
+      <c r="C99" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="E99">
         <v>35</v>
@@ -12136,8 +12137,8 @@
       <c r="B100" s="4">
         <v>426</v>
       </c>
-      <c r="C100" s="19" t="s">
-        <v>818</v>
+      <c r="C100" s="15" t="s">
+        <v>817</v>
       </c>
       <c r="E100">
         <v>20</v>
@@ -12147,8 +12148,8 @@
       <c r="B101" s="4">
         <v>431</v>
       </c>
-      <c r="C101" s="19" t="s">
-        <v>240</v>
+      <c r="C101" s="15" t="s">
+        <v>239</v>
       </c>
       <c r="E101">
         <v>7</v>
@@ -12158,46 +12159,46 @@
       <c r="B102" s="3">
         <v>441</v>
       </c>
-      <c r="C102" s="19" t="s">
-        <v>241</v>
+      <c r="C102" s="15" t="s">
+        <v>240</v>
       </c>
       <c r="E102">
         <v>5</v>
       </c>
       <c r="G102" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H102" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="4">
         <v>442</v>
       </c>
-      <c r="C103" s="19"/>
+      <c r="C103" s="15"/>
       <c r="H103" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="4">
         <v>443</v>
       </c>
-      <c r="C104" s="19"/>
+      <c r="C104" s="15"/>
       <c r="H104" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="4">
         <v>501</v>
       </c>
-      <c r="C106" s="19" t="s">
-        <v>245</v>
+      <c r="C106" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="D106" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E106">
         <v>5</v>
@@ -12207,40 +12208,40 @@
       <c r="B107" s="4">
         <v>502</v>
       </c>
-      <c r="C107" s="19" t="s">
-        <v>246</v>
+      <c r="C107" s="15" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="4">
         <v>503</v>
       </c>
-      <c r="C108" s="19" t="s">
-        <v>247</v>
+      <c r="C108" s="15" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="4">
         <v>504</v>
       </c>
-      <c r="C109" s="19" t="s">
-        <v>248</v>
+      <c r="C109" s="15" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="4">
         <v>505</v>
       </c>
-      <c r="C110" s="19" t="s">
-        <v>249</v>
+      <c r="C110" s="15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="4">
         <v>511</v>
       </c>
-      <c r="C111" s="19" t="s">
-        <v>250</v>
+      <c r="C111" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="E111">
         <v>9</v>
@@ -12250,16 +12251,16 @@
       <c r="B112" s="4">
         <v>512</v>
       </c>
-      <c r="C112" s="19" t="s">
-        <v>251</v>
+      <c r="C112" s="15" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="4">
         <v>513</v>
       </c>
-      <c r="C113" s="19" t="s">
-        <v>252</v>
+      <c r="C113" s="15" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -12332,13 +12333,13 @@
         <v>1001</v>
       </c>
       <c r="C3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" t="s">
         <v>401</v>
       </c>
-      <c r="D3" t="s">
-        <v>402</v>
-      </c>
       <c r="E3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -12347,7 +12348,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -12355,13 +12356,13 @@
         <v>1002</v>
       </c>
       <c r="C4" t="s">
+        <v>795</v>
+      </c>
+      <c r="D4" t="s">
         <v>796</v>
       </c>
-      <c r="D4" t="s">
-        <v>797</v>
-      </c>
       <c r="E4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -12375,7 +12376,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -12404,10 +12405,10 @@
         <v>1102</v>
       </c>
       <c r="C7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E7" t="s">
         <v>460</v>
-      </c>
-      <c r="E7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -12415,10 +12416,10 @@
         <v>1103</v>
       </c>
       <c r="C8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -12426,10 +12427,10 @@
         <v>1104</v>
       </c>
       <c r="C9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -12437,10 +12438,10 @@
         <v>1105</v>
       </c>
       <c r="C10" t="s">
+        <v>797</v>
+      </c>
+      <c r="E10" t="s">
         <v>798</v>
-      </c>
-      <c r="E10" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -12448,10 +12449,10 @@
         <v>1106</v>
       </c>
       <c r="C11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -12459,10 +12460,10 @@
         <v>1116</v>
       </c>
       <c r="C12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -12470,10 +12471,10 @@
         <v>1117</v>
       </c>
       <c r="C13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -12481,10 +12482,10 @@
         <v>1118</v>
       </c>
       <c r="C14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -12492,10 +12493,10 @@
         <v>1119</v>
       </c>
       <c r="C15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -12503,10 +12504,10 @@
         <v>1120</v>
       </c>
       <c r="C16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -12834,38 +12835,38 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="4" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>432</v>
-      </c>
       <c r="G4" s="10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -12877,19 +12878,19 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -12897,33 +12898,33 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -12931,16 +12932,16 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -12948,192 +12949,192 @@
         <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G12" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G14" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E16" t="s">
-        <v>443</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>458</v>
+        <v>442</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>457</v>
       </c>
       <c r="G16" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E17" t="s">
-        <v>444</v>
-      </c>
-      <c r="F17" s="12"/>
+        <v>443</v>
+      </c>
+      <c r="F17" s="20"/>
       <c r="G17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E18" t="s">
-        <v>454</v>
-      </c>
-      <c r="F18" s="12"/>
+        <v>453</v>
+      </c>
+      <c r="F18" s="20"/>
       <c r="G18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E19" t="s">
-        <v>455</v>
-      </c>
-      <c r="F19" s="12"/>
+        <v>454</v>
+      </c>
+      <c r="F19" s="20"/>
       <c r="G19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G20" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G21" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -13141,137 +13142,137 @@
         <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D22" t="s">
         <v>196</v>
       </c>
       <c r="E22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G22" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D25" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G25" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E33" t="s">
+        <v>512</v>
+      </c>
+      <c r="F33" t="s">
         <v>513</v>
-      </c>
-      <c r="F33" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>537</v>
+      </c>
+      <c r="C34" t="s">
         <v>538</v>
-      </c>
-      <c r="C34" t="s">
-        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -13288,10 +13289,10 @@
   <dimension ref="A1:Y227"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S42" sqref="S42"/>
+      <selection pane="bottomRight" activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13313,23 +13314,23 @@
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="K1" s="13" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
     </row>
@@ -13386,10 +13387,10 @@
         <v>7</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>9</v>
@@ -13459,7 +13460,7 @@
         <v>2105</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -13797,7 +13798,7 @@
         <v>2201</v>
       </c>
       <c r="C34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -13828,7 +13829,7 @@
         <v>2203</v>
       </c>
       <c r="C36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L36" s="4">
         <v>2</v>
@@ -13842,7 +13843,7 @@
         <v>2204</v>
       </c>
       <c r="C37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L37" s="4">
         <v>3</v>
@@ -13876,7 +13877,7 @@
         <v>2212</v>
       </c>
       <c r="C39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -13896,7 +13897,7 @@
         <v>2213</v>
       </c>
       <c r="C40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -13924,7 +13925,7 @@
       <c r="D42" t="s">
         <v>30</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L42" s="14">
         <v>5</v>
       </c>
       <c r="N42">
@@ -13934,7 +13935,7 @@
         <v>1</v>
       </c>
       <c r="W42" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
@@ -13942,12 +13943,12 @@
         <v>2311</v>
       </c>
       <c r="C43" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L43" s="14">
         <v>8</v>
       </c>
       <c r="N43">
@@ -13960,7 +13961,7 @@
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
@@ -13986,7 +13987,7 @@
         <v>8</v>
       </c>
       <c r="W44" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -14012,7 +14013,7 @@
         <v>6</v>
       </c>
       <c r="W45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
@@ -14026,7 +14027,7 @@
         <v>3</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N46">
         <v>7</v>
@@ -14038,7 +14039,7 @@
         <v>20</v>
       </c>
       <c r="W46" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
@@ -14052,7 +14053,7 @@
         <v>3</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N47">
         <v>9</v>
@@ -14064,7 +14065,7 @@
         <v>30</v>
       </c>
       <c r="W47" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
@@ -14090,7 +14091,7 @@
         <v>6</v>
       </c>
       <c r="W48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
@@ -14104,7 +14105,7 @@
         <v>4</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N49">
         <v>10</v>
@@ -14116,7 +14117,7 @@
         <v>20</v>
       </c>
       <c r="W49" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
@@ -14130,7 +14131,7 @@
         <v>4</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N50">
         <v>7</v>
@@ -14142,7 +14143,7 @@
         <v>6</v>
       </c>
       <c r="W50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
@@ -14171,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="W51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -14197,7 +14198,7 @@
         <v>6</v>
       </c>
       <c r="W52" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -14211,7 +14212,7 @@
         <v>5</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N53">
         <v>8</v>
@@ -14223,7 +14224,7 @@
         <v>20</v>
       </c>
       <c r="W53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -14237,7 +14238,7 @@
         <v>5</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N54">
         <v>10</v>
@@ -14249,7 +14250,7 @@
         <v>30</v>
       </c>
       <c r="W54" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
@@ -14263,7 +14264,7 @@
         <v>5</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N55">
         <v>4</v>
@@ -14275,7 +14276,7 @@
         <v>5</v>
       </c>
       <c r="W55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
@@ -14289,7 +14290,7 @@
         <v>6</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N56">
         <v>10</v>
@@ -14301,7 +14302,7 @@
         <v>35</v>
       </c>
       <c r="W56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
@@ -14315,7 +14316,7 @@
         <v>6</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N57">
         <v>11</v>
@@ -14327,7 +14328,7 @@
         <v>30</v>
       </c>
       <c r="W57" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -14359,7 +14360,7 @@
         <v>1</v>
       </c>
       <c r="W58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -14373,7 +14374,7 @@
         <v>6</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N59">
         <v>7</v>
@@ -14385,7 +14386,7 @@
         <v>12</v>
       </c>
       <c r="W59" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
@@ -14399,7 +14400,7 @@
         <v>6</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N60">
         <v>11</v>
@@ -14411,7 +14412,7 @@
         <v>30</v>
       </c>
       <c r="W60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
@@ -14425,7 +14426,7 @@
         <v>7</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N61">
         <v>11</v>
@@ -14437,7 +14438,7 @@
         <v>100</v>
       </c>
       <c r="W61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
@@ -14463,7 +14464,7 @@
         <v>8</v>
       </c>
       <c r="W62" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
@@ -14477,7 +14478,7 @@
         <v>7</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N63">
         <v>16</v>
@@ -14492,7 +14493,7 @@
         <v>4</v>
       </c>
       <c r="W63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
@@ -14506,7 +14507,7 @@
         <v>7</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N64">
         <v>5</v>
@@ -14518,7 +14519,7 @@
         <v>5</v>
       </c>
       <c r="W64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
@@ -14532,7 +14533,7 @@
         <v>8</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N65">
         <v>10</v>
@@ -14544,7 +14545,7 @@
         <v>125</v>
       </c>
       <c r="W65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
@@ -14573,7 +14574,7 @@
         <v>20</v>
       </c>
       <c r="W66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
@@ -14587,7 +14588,7 @@
         <v>8</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N67">
         <v>11</v>
@@ -14599,7 +14600,7 @@
         <v>35</v>
       </c>
       <c r="W67" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
@@ -14631,7 +14632,7 @@
         <v>1</v>
       </c>
       <c r="W68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
@@ -14645,7 +14646,7 @@
         <v>8</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N69">
         <v>12</v>
@@ -14657,7 +14658,7 @@
         <v>30</v>
       </c>
       <c r="W69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
@@ -14671,7 +14672,7 @@
         <v>9</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N70">
         <v>12</v>
@@ -14683,7 +14684,7 @@
         <v>125</v>
       </c>
       <c r="W70" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
@@ -14709,7 +14710,7 @@
         <v>8</v>
       </c>
       <c r="W71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
@@ -14723,7 +14724,7 @@
         <v>10</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N72">
         <v>11</v>
@@ -14735,7 +14736,7 @@
         <v>125</v>
       </c>
       <c r="W72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
@@ -14764,7 +14765,7 @@
         <v>40</v>
       </c>
       <c r="W73" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.25">
@@ -14945,7 +14946,7 @@
         <v>2501</v>
       </c>
       <c r="C89" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -14995,7 +14996,7 @@
         <v>2511</v>
       </c>
       <c r="C93" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -15029,7 +15030,7 @@
         <v>2513</v>
       </c>
       <c r="C95" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N95">
         <v>0.04</v>
@@ -15040,7 +15041,7 @@
         <v>2521</v>
       </c>
       <c r="C96" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -15054,7 +15055,7 @@
         <v>2531</v>
       </c>
       <c r="C97" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -15068,7 +15069,7 @@
         <v>2541</v>
       </c>
       <c r="C98" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E98">
         <v>5</v>
@@ -15082,7 +15083,7 @@
         <v>2551</v>
       </c>
       <c r="C99" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E99">
         <v>6</v>
@@ -15096,7 +15097,7 @@
         <v>2561</v>
       </c>
       <c r="C100" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E100">
         <v>7</v>
@@ -15110,7 +15111,7 @@
         <v>2571</v>
       </c>
       <c r="C101" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E101">
         <v>8</v>
@@ -15124,7 +15125,7 @@
         <v>2581</v>
       </c>
       <c r="C102" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E102">
         <v>9</v>
@@ -15138,7 +15139,7 @@
         <v>2591</v>
       </c>
       <c r="C103" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E103">
         <v>10</v>
@@ -15244,7 +15245,7 @@
         <v>2641</v>
       </c>
       <c r="C112" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -15375,7 +15376,7 @@
         <v>2705</v>
       </c>
       <c r="C123" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O123">
         <v>2</v>
@@ -15420,7 +15421,7 @@
         <v>2713</v>
       </c>
       <c r="C126" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -15440,7 +15441,7 @@
         <v>2714</v>
       </c>
       <c r="C127" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -15569,7 +15570,7 @@
         <v>2801</v>
       </c>
       <c r="C137" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D137" t="s">
         <v>27</v>
@@ -15580,7 +15581,7 @@
         <v>2802</v>
       </c>
       <c r="C138" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.25">
@@ -15588,7 +15589,7 @@
         <v>2803</v>
       </c>
       <c r="C139" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.25">
@@ -15596,7 +15597,7 @@
         <v>2804</v>
       </c>
       <c r="C140" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.25">
@@ -15604,7 +15605,7 @@
         <v>2805</v>
       </c>
       <c r="C141" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.25">
@@ -15612,7 +15613,7 @@
         <v>2806</v>
       </c>
       <c r="C142" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.25">
@@ -15640,7 +15641,7 @@
         <v>2811</v>
       </c>
       <c r="C147" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E147">
         <v>2</v>
@@ -15651,7 +15652,7 @@
         <v>2812</v>
       </c>
       <c r="C148" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="149" spans="2:25" x14ac:dyDescent="0.25">
@@ -15659,7 +15660,7 @@
         <v>2813</v>
       </c>
       <c r="C149" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="150" spans="2:25" x14ac:dyDescent="0.25">
@@ -15667,7 +15668,7 @@
         <v>2814</v>
       </c>
       <c r="C150" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="151" spans="2:25" x14ac:dyDescent="0.25">
@@ -15675,7 +15676,7 @@
         <v>2815</v>
       </c>
       <c r="C151" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="152" spans="2:25" x14ac:dyDescent="0.25">
@@ -15683,7 +15684,7 @@
         <v>2821</v>
       </c>
       <c r="C152" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -15694,7 +15695,7 @@
         <v>2822</v>
       </c>
       <c r="C153" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="154" spans="2:25" x14ac:dyDescent="0.25">
@@ -15702,7 +15703,7 @@
         <v>2823</v>
       </c>
       <c r="C154" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="155" spans="2:25" x14ac:dyDescent="0.25">
@@ -15710,7 +15711,7 @@
         <v>2834</v>
       </c>
       <c r="C155" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="156" spans="2:25" x14ac:dyDescent="0.25">
@@ -15718,7 +15719,7 @@
         <v>2825</v>
       </c>
       <c r="C156" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Y156" t="s">
         <v>202</v>
@@ -15729,7 +15730,7 @@
         <v>2831</v>
       </c>
       <c r="C157" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E157">
         <v>4</v>
@@ -15740,7 +15741,7 @@
         <v>2832</v>
       </c>
       <c r="C158" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="159" spans="2:25" x14ac:dyDescent="0.25">
@@ -15748,7 +15749,7 @@
         <v>2841</v>
       </c>
       <c r="C159" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E159">
         <v>5</v>
@@ -15759,7 +15760,7 @@
         <v>2842</v>
       </c>
       <c r="C160" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
@@ -15767,7 +15768,7 @@
         <v>2851</v>
       </c>
       <c r="C161" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E161">
         <v>6</v>
@@ -15778,7 +15779,7 @@
         <v>2852</v>
       </c>
       <c r="C162" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
@@ -15786,7 +15787,7 @@
         <v>2853</v>
       </c>
       <c r="C163" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
@@ -15794,7 +15795,7 @@
         <v>2861</v>
       </c>
       <c r="C164" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E164">
         <v>7</v>
@@ -15805,7 +15806,7 @@
         <v>2862</v>
       </c>
       <c r="C165" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.25">
@@ -15813,7 +15814,7 @@
         <v>2863</v>
       </c>
       <c r="C166" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.25">
@@ -15821,7 +15822,7 @@
         <v>2864</v>
       </c>
       <c r="C167" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.25">
@@ -15829,7 +15830,7 @@
         <v>2871</v>
       </c>
       <c r="C168" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E168">
         <v>8</v>
@@ -15840,7 +15841,7 @@
         <v>2872</v>
       </c>
       <c r="C169" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.25">
@@ -15848,7 +15849,7 @@
         <v>2873</v>
       </c>
       <c r="C170" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.25">
@@ -15856,7 +15857,7 @@
         <v>2881</v>
       </c>
       <c r="C171" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E171">
         <v>9</v>
@@ -15867,7 +15868,7 @@
         <v>2882</v>
       </c>
       <c r="C172" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
@@ -15875,7 +15876,7 @@
         <v>2883</v>
       </c>
       <c r="C173" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">
@@ -15883,7 +15884,7 @@
         <v>2891</v>
       </c>
       <c r="C174" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E174">
         <v>10</v>
@@ -15902,13 +15903,13 @@
         <v>2901</v>
       </c>
       <c r="C177" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D177" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W177" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="178" spans="2:23" x14ac:dyDescent="0.25">
@@ -15916,16 +15917,16 @@
         <v>2902</v>
       </c>
       <c r="C178" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D178" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E178">
         <v>2</v>
       </c>
       <c r="W178" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="179" spans="2:23" x14ac:dyDescent="0.25">
@@ -15933,16 +15934,16 @@
         <v>2903</v>
       </c>
       <c r="C179" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D179" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E179">
         <v>3</v>
       </c>
       <c r="W179" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180" spans="2:23" x14ac:dyDescent="0.25">
@@ -15950,10 +15951,10 @@
         <v>2911</v>
       </c>
       <c r="C180" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D180" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H180" s="7"/>
       <c r="L180" s="4">
@@ -15965,10 +15966,10 @@
         <v>2912</v>
       </c>
       <c r="C181" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D181" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L181" s="4">
         <v>1</v>
@@ -15979,10 +15980,10 @@
         <v>2913</v>
       </c>
       <c r="C182" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D182" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="183" spans="2:23" x14ac:dyDescent="0.25">
@@ -15990,10 +15991,10 @@
         <v>2914</v>
       </c>
       <c r="C183" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D183" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="184" spans="2:23" x14ac:dyDescent="0.25">
@@ -16001,10 +16002,10 @@
         <v>2915</v>
       </c>
       <c r="C184" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D184" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L184" s="4">
         <v>1</v>
@@ -16015,10 +16016,10 @@
         <v>2916</v>
       </c>
       <c r="C185" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D185" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="186" spans="2:23" x14ac:dyDescent="0.25">
@@ -16026,10 +16027,10 @@
         <v>2917</v>
       </c>
       <c r="C186" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D186" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="187" spans="2:23" x14ac:dyDescent="0.25">
@@ -16037,16 +16038,16 @@
         <v>2921</v>
       </c>
       <c r="C187" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D187" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N187">
         <v>0.04</v>
       </c>
       <c r="W187" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="188" spans="2:23" x14ac:dyDescent="0.25">
@@ -16054,10 +16055,10 @@
         <v>2922</v>
       </c>
       <c r="C188" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D188" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E188">
         <v>2</v>
@@ -16066,7 +16067,7 @@
         <v>0.04</v>
       </c>
       <c r="W188" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="189" spans="2:23" x14ac:dyDescent="0.25">
@@ -16074,16 +16075,16 @@
         <v>2923</v>
       </c>
       <c r="C189" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D189" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N189">
         <v>0.04</v>
       </c>
       <c r="W189" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="190" spans="2:23" x14ac:dyDescent="0.25">
@@ -16091,10 +16092,10 @@
         <v>2924</v>
       </c>
       <c r="C190" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D190" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L190" s="4">
         <v>1</v>
@@ -16106,7 +16107,7 @@
         <v>6</v>
       </c>
       <c r="W190" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="191" spans="2:23" x14ac:dyDescent="0.25">
@@ -16114,13 +16115,13 @@
         <v>2925</v>
       </c>
       <c r="C191" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D191" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W191" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="192" spans="2:23" x14ac:dyDescent="0.25">
@@ -16128,10 +16129,10 @@
         <v>2926</v>
       </c>
       <c r="C192" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D192" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -16143,7 +16144,7 @@
         <v>0.02</v>
       </c>
       <c r="W192" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="193" spans="2:23" x14ac:dyDescent="0.25">
@@ -16151,10 +16152,10 @@
         <v>2927</v>
       </c>
       <c r="C193" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D193" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E193">
         <v>3</v>
@@ -16166,7 +16167,7 @@
         <v>0.02</v>
       </c>
       <c r="W193" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="194" spans="2:23" x14ac:dyDescent="0.25">
@@ -16174,10 +16175,10 @@
         <v>2931</v>
       </c>
       <c r="C194" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D194" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L194" s="4">
         <v>2</v>
@@ -16186,7 +16187,7 @@
         <v>2.5</v>
       </c>
       <c r="W194" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="195" spans="2:23" x14ac:dyDescent="0.25">
@@ -16194,10 +16195,10 @@
         <v>2932</v>
       </c>
       <c r="C195" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D195" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L195" s="4">
         <v>1</v>
@@ -16214,10 +16215,10 @@
         <v>2933</v>
       </c>
       <c r="C196" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D196" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L196" s="4">
         <v>1</v>
@@ -16226,7 +16227,7 @@
         <v>2</v>
       </c>
       <c r="W196" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="197" spans="2:23" x14ac:dyDescent="0.25">
@@ -16234,10 +16235,10 @@
         <v>2941</v>
       </c>
       <c r="C197" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D197" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="198" spans="2:23" x14ac:dyDescent="0.25">
@@ -16245,10 +16246,10 @@
         <v>2942</v>
       </c>
       <c r="C198" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D198" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E198">
         <v>2</v>
@@ -16259,10 +16260,10 @@
         <v>2943</v>
       </c>
       <c r="C199" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D199" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E199">
         <v>2</v>
@@ -16273,10 +16274,10 @@
         <v>2944</v>
       </c>
       <c r="C200" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D200" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E200">
         <v>2</v>
@@ -16293,10 +16294,10 @@
         <v>2945</v>
       </c>
       <c r="C201" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D201" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E201">
         <v>2</v>
@@ -16307,10 +16308,10 @@
         <v>2946</v>
       </c>
       <c r="C202" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D202" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E202">
         <v>2</v>
@@ -16321,10 +16322,10 @@
         <v>2947</v>
       </c>
       <c r="C203" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D203" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -16335,10 +16336,10 @@
         <v>2948</v>
       </c>
       <c r="C204" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D204" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E204">
         <v>2</v>
@@ -16349,10 +16350,10 @@
         <v>2961</v>
       </c>
       <c r="C205" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D205" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="206" spans="2:23" x14ac:dyDescent="0.25">
@@ -16360,10 +16361,10 @@
         <v>2962</v>
       </c>
       <c r="C206" t="s">
+        <v>288</v>
+      </c>
+      <c r="D206" t="s">
         <v>289</v>
-      </c>
-      <c r="D206" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="207" spans="2:23" x14ac:dyDescent="0.25">
@@ -16371,10 +16372,10 @@
         <v>2963</v>
       </c>
       <c r="C207" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D207" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L207" s="4">
         <v>1</v>
@@ -16388,10 +16389,10 @@
         <v>2964</v>
       </c>
       <c r="C208" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D208" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N208">
         <v>0.04</v>
@@ -16402,10 +16403,10 @@
         <v>2965</v>
       </c>
       <c r="C209" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D209" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L209" s="4">
         <v>1</v>
@@ -16419,10 +16420,10 @@
         <v>2966</v>
       </c>
       <c r="C210" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D210" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L210" s="4">
         <v>1</v>
@@ -16436,10 +16437,10 @@
         <v>2967</v>
       </c>
       <c r="C211" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D211" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L211" s="4">
         <v>1</v>
@@ -16453,10 +16454,10 @@
         <v>2971</v>
       </c>
       <c r="C212" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D212" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="213" spans="2:17" x14ac:dyDescent="0.25">
@@ -16464,10 +16465,10 @@
         <v>2972</v>
       </c>
       <c r="C213" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D213" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L213" s="4">
         <v>1</v>
@@ -16481,10 +16482,10 @@
         <v>2973</v>
       </c>
       <c r="C214" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D214" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L214" s="4">
         <v>1</v>
@@ -16498,10 +16499,10 @@
         <v>2974</v>
       </c>
       <c r="C215" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D215" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E215">
         <v>2</v>
@@ -16515,10 +16516,10 @@
         <v>2975</v>
       </c>
       <c r="C216" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D216" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -16535,10 +16536,10 @@
         <v>2976</v>
       </c>
       <c r="C217" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D217" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E217">
         <v>2</v>
@@ -16552,10 +16553,10 @@
         <v>2977</v>
       </c>
       <c r="C218" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D218" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E218">
         <v>3</v>
@@ -16575,10 +16576,10 @@
         <v>2978</v>
       </c>
       <c r="C219" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D219" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E219">
         <v>3</v>
@@ -16595,10 +16596,10 @@
         <v>2979</v>
       </c>
       <c r="C220" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D220" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E220">
         <v>3</v>
@@ -16618,10 +16619,10 @@
         <v>2980</v>
       </c>
       <c r="C221" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D221" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E221">
         <v>4</v>
@@ -16635,10 +16636,10 @@
         <v>2981</v>
       </c>
       <c r="C222" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D222" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E222">
         <v>4</v>
@@ -16652,10 +16653,10 @@
         <v>2982</v>
       </c>
       <c r="C223" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D223" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E223">
         <v>4</v>
@@ -16669,10 +16670,10 @@
         <v>2983</v>
       </c>
       <c r="C224" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D224" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E224">
         <v>5</v>
@@ -16727,7 +16728,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16738,16 +16739,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -16758,10 +16759,10 @@
         <v>3101</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F3">
         <v>2931</v>
@@ -16773,7 +16774,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -16781,10 +16782,10 @@
         <v>3102</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F4">
         <v>2931</v>
@@ -16801,10 +16802,10 @@
         <v>3103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F5">
         <v>2933</v>
@@ -16821,10 +16822,10 @@
         <v>3106</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F6">
         <v>2932</v>
@@ -16841,10 +16842,10 @@
         <v>3107</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F7">
         <v>2932</v>
@@ -16861,10 +16862,10 @@
         <v>3108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -16878,10 +16879,10 @@
         <v>3312</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9">
@@ -16896,10 +16897,10 @@
         <v>3112</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10">
@@ -16917,7 +16918,7 @@
         <v>7.62</v>
       </c>
       <c r="D11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11">
@@ -16935,7 +16936,7 @@
         <v>7.62</v>
       </c>
       <c r="D12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12">
@@ -16953,7 +16954,7 @@
         <v>7.62</v>
       </c>
       <c r="D13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13">
@@ -16968,7 +16969,7 @@
         <v>7.62</v>
       </c>
       <c r="D14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14">
@@ -16980,10 +16981,10 @@
         <v>3117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15">
@@ -16995,10 +16996,10 @@
         <v>3118</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16">
@@ -17010,10 +17011,10 @@
         <v>3119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17">
@@ -17028,10 +17029,10 @@
         <v>3120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18">
@@ -17049,7 +17050,7 @@
         <v>5.56</v>
       </c>
       <c r="D19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19">
@@ -17064,7 +17065,7 @@
         <v>7.62</v>
       </c>
       <c r="D20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20">
@@ -17076,10 +17077,10 @@
         <v>3123</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21">
@@ -17094,10 +17095,10 @@
         <v>3124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22">
@@ -17115,7 +17116,7 @@
         <v>7.62</v>
       </c>
       <c r="D23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23">
@@ -17133,7 +17134,7 @@
         <v>7.62</v>
       </c>
       <c r="D24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24">
@@ -17148,10 +17149,10 @@
         <v>3127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25">
@@ -17166,10 +17167,10 @@
         <v>3128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26">
@@ -17181,10 +17182,10 @@
         <v>3129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27">
@@ -17199,10 +17200,10 @@
         <v>3130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28">
@@ -17217,10 +17218,10 @@
         <v>3131</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29">
@@ -17232,10 +17233,10 @@
         <v>3132</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30">
@@ -17247,13 +17248,13 @@
         <v>3133</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G31">
         <v>40</v>
@@ -17267,13 +17268,13 @@
         <v>3134</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G32">
         <v>60</v>
@@ -17290,7 +17291,7 @@
         <v>5.56</v>
       </c>
       <c r="D33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33">
@@ -17308,7 +17309,7 @@
         <v>5.56</v>
       </c>
       <c r="D34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34">
@@ -17323,10 +17324,10 @@
         <v>3137</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35">
@@ -17341,10 +17342,10 @@
         <v>3138</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36">
@@ -17362,7 +17363,7 @@
         <v>5.56</v>
       </c>
       <c r="D37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37">
@@ -17377,7 +17378,7 @@
         <v>5.56</v>
       </c>
       <c r="D38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -17391,13 +17392,13 @@
         <v>3201</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -17411,13 +17412,13 @@
         <v>3202</v>
       </c>
       <c r="C41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F41" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -17450,7 +17451,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17461,13 +17462,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17475,10 +17476,10 @@
         <v>4001</v>
       </c>
       <c r="C3" t="s">
+        <v>814</v>
+      </c>
+      <c r="E3" t="s">
         <v>815</v>
-      </c>
-      <c r="E3" t="s">
-        <v>816</v>
       </c>
       <c r="F3">
         <v>35</v>
@@ -17529,7 +17530,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17540,517 +17541,517 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C4">
         <v>101</v>
       </c>
       <c r="D4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="I4" t="s">
         <v>515</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="I4" t="s">
-        <v>516</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
+      <c r="B5" s="22"/>
       <c r="C5">
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G5">
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
+      <c r="B6" s="22"/>
       <c r="C6">
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G6" s="3">
         <v>-8</v>
       </c>
       <c r="I6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
+      <c r="B7" s="22"/>
       <c r="C7">
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G7" s="3">
         <v>-8</v>
       </c>
       <c r="I7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
+      <c r="B8" s="22"/>
       <c r="C8">
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G8" s="9">
         <v>-40</v>
       </c>
       <c r="I8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
+      <c r="B9" s="22"/>
       <c r="C9">
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
+      <c r="B10" s="22"/>
       <c r="C10">
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G10">
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
+      <c r="B11" s="22"/>
       <c r="C11">
         <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G11">
         <v>-15</v>
       </c>
       <c r="I11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
+      <c r="B12" s="22"/>
       <c r="C12">
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G12">
         <v>-15</v>
       </c>
       <c r="I12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
+      <c r="B13" s="22"/>
       <c r="C13">
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G13">
         <v>-60</v>
       </c>
       <c r="I13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
-        <v>460</v>
+      <c r="B15" s="22" t="s">
+        <v>459</v>
       </c>
       <c r="C15">
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
+      <c r="B16" s="22"/>
       <c r="C16">
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
+      <c r="B17" s="22"/>
       <c r="C17">
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
+      <c r="B18" s="22"/>
       <c r="C18">
         <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
+      <c r="B19" s="22"/>
       <c r="C19">
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
+      <c r="B20" s="22"/>
       <c r="C20">
         <v>116</v>
       </c>
       <c r="D20" t="s">
+        <v>569</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="I20" t="s">
         <v>570</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="I20" t="s">
-        <v>571</v>
-      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
+      <c r="B21" s="22"/>
       <c r="C21">
         <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
+      <c r="B22" s="22"/>
       <c r="C22">
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G22">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
+      <c r="B23" s="22"/>
       <c r="C23">
         <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
+      <c r="B24" s="22"/>
       <c r="C24">
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E24" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
-        <v>525</v>
+      <c r="B26" s="22" t="s">
+        <v>524</v>
       </c>
       <c r="C26">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
+      <c r="B27" s="22"/>
       <c r="C27">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
+      <c r="B28" s="22"/>
       <c r="C28">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
+      <c r="B29" s="22"/>
       <c r="C29">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
+      <c r="B30" s="22"/>
       <c r="C30">
         <v>125</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
-        <v>526</v>
+      <c r="B32" s="22" t="s">
+        <v>525</v>
       </c>
       <c r="C32">
         <v>131</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
+      <c r="B33" s="22"/>
       <c r="C33">
         <v>132</v>
       </c>
       <c r="D33" t="s">
+        <v>531</v>
+      </c>
+      <c r="I33" t="s">
         <v>532</v>
       </c>
-      <c r="I33" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
+      <c r="B34" s="22"/>
       <c r="C34">
         <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
+      <c r="B35" s="22"/>
       <c r="C35">
         <v>134</v>
       </c>
       <c r="D35" t="s">
+        <v>534</v>
+      </c>
+      <c r="I35" t="s">
         <v>535</v>
       </c>
-      <c r="I35" t="s">
-        <v>536</v>
-      </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
+      <c r="B36" s="22"/>
       <c r="C36">
         <v>135</v>
       </c>

--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processing4\Programs\Games\LNZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3146491-6F4A-43F7-BB00-4B38421A0F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AB400B-0037-4146-971D-B8B99F21C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="1" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="4" xr2:uid="{C87F634A-6B2D-4506-B485-5153AAAF3A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrains" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="912">
   <si>
     <t>ID</t>
   </si>
@@ -1010,15 +1010,6 @@
   </si>
   <si>
     <t>Stick</t>
-  </si>
-  <si>
-    <t>Branch1</t>
-  </si>
-  <si>
-    <t>Branch2</t>
-  </si>
-  <si>
-    <t>Branch3</t>
   </si>
   <si>
     <t>Hammer</t>
@@ -3233,6 +3224,18 @@
   <si>
     <t>Wooden Door (open)</t>
   </si>
+  <si>
+    <t>Branch (maple)</t>
+  </si>
+  <si>
+    <t>Branch (unknown)</t>
+  </si>
+  <si>
+    <t>Branch (cedar)</t>
+  </si>
+  <si>
+    <t>Branch (pine)</t>
+  </si>
 </sst>
 </file>
 
@@ -3347,6 +3350,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3359,7 +3363,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3693,7 +3696,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -3705,10 +3708,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3719,7 +3722,7 @@
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3730,7 +3733,7 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D6" t="s">
         <v>205</v>
@@ -3744,7 +3747,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3752,7 +3755,7 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3760,7 +3763,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3768,7 +3771,7 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3776,7 +3779,7 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3784,7 +3787,7 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3792,7 +3795,7 @@
         <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3800,7 +3803,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3808,7 +3811,7 @@
         <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3824,7 +3827,7 @@
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3832,7 +3835,7 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3840,7 +3843,7 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3848,7 +3851,7 @@
         <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3856,7 +3859,7 @@
         <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3864,7 +3867,7 @@
         <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3872,7 +3875,7 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -3880,7 +3883,7 @@
         <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3888,7 +3891,7 @@
         <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3896,7 +3899,7 @@
         <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3904,7 +3907,7 @@
         <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3912,7 +3915,7 @@
         <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3920,7 +3923,7 @@
         <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3928,7 +3931,7 @@
         <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3936,7 +3939,7 @@
         <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3944,7 +3947,7 @@
         <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -3952,7 +3955,7 @@
         <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3960,7 +3963,7 @@
         <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3968,7 +3971,7 @@
         <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3976,7 +3979,7 @@
         <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3984,7 +3987,7 @@
         <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -3992,7 +3995,7 @@
         <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -4000,7 +4003,7 @@
         <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -4008,7 +4011,7 @@
         <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -4016,7 +4019,7 @@
         <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -4024,7 +4027,7 @@
         <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -4032,7 +4035,7 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -4040,7 +4043,7 @@
         <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -4048,7 +4051,7 @@
         <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -4056,7 +4059,7 @@
         <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -4064,7 +4067,7 @@
         <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -4072,7 +4075,7 @@
         <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D49" t="s">
         <v>208</v>
@@ -4086,7 +4089,7 @@
         <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -4094,7 +4097,7 @@
         <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -4102,7 +4105,7 @@
         <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -4110,7 +4113,7 @@
         <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -4118,7 +4121,7 @@
         <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -4126,7 +4129,7 @@
         <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -4134,7 +4137,7 @@
         <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -4142,7 +4145,7 @@
         <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -4150,7 +4153,7 @@
         <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -4161,13 +4164,13 @@
         <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D60" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E60" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -4175,7 +4178,7 @@
         <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -4183,7 +4186,7 @@
         <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -4191,7 +4194,7 @@
         <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -4199,7 +4202,7 @@
         <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -4207,7 +4210,7 @@
         <v>306</v>
       </c>
       <c r="C65" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -4215,7 +4218,7 @@
         <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -4223,7 +4226,7 @@
         <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -4231,7 +4234,7 @@
         <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -4239,7 +4242,7 @@
         <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -4247,7 +4250,7 @@
         <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -4255,7 +4258,7 @@
         <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -4263,7 +4266,7 @@
         <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -4271,7 +4274,7 @@
         <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -4279,7 +4282,7 @@
         <v>315</v>
       </c>
       <c r="C74" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -4287,7 +4290,7 @@
         <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -4295,7 +4298,7 @@
         <v>317</v>
       </c>
       <c r="C76" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -4303,7 +4306,7 @@
         <v>318</v>
       </c>
       <c r="C77" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -4311,7 +4314,7 @@
         <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -4319,7 +4322,7 @@
         <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -4327,7 +4330,7 @@
         <v>321</v>
       </c>
       <c r="C80" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -4335,7 +4338,7 @@
         <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -4343,7 +4346,7 @@
         <v>323</v>
       </c>
       <c r="C82" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -4351,7 +4354,7 @@
         <v>324</v>
       </c>
       <c r="C83" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -4387,26 +4390,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="H1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
@@ -4415,13 +4418,13 @@
       <c r="H3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4437,7 +4440,7 @@
         <v>65</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="I4" s="1">
         <v>1.4</v>
@@ -4504,7 +4507,7 @@
         <v>2.5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -10237,7 +10240,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10248,393 +10251,393 @@
         <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>609</v>
+      <c r="B4" s="23" t="s">
+        <v>606</v>
       </c>
       <c r="C4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
+      <c r="B5" s="23"/>
       <c r="C5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="C6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D8" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G8" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D9" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G9" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r=